--- a/DATA_ANALYSIS/wake_pressures.xlsx
+++ b/DATA_ANALYSIS/wake_pressures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexv\OneDrive - Delft University of Technology\GitHub\2D-Wind-Tunnel\DATA_ANALYSIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9423BDA1-5697-49A1-BE9A-FD0F35A55F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B037A8-B340-4D52-B46E-B95FD075C02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14317" yWindow="0" windowWidth="14565" windowHeight="15563" xr2:uid="{B485861A-4B67-4951-B48D-34AC954A0B78}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{B485861A-4B67-4951-B48D-34AC954A0B78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -869,145 +869,145 @@
         <v>-6</v>
       </c>
       <c r="B5">
-        <v>100225.71769230772</v>
+        <v>99511.036348036316</v>
       </c>
       <c r="C5">
-        <v>100226.21769230772</v>
+        <v>99511.036348036316</v>
       </c>
       <c r="D5">
-        <v>100227.06769230771</v>
+        <v>99511.036348036316</v>
       </c>
       <c r="E5">
-        <v>100196.23769230771</v>
+        <v>99511.036348036316</v>
       </c>
       <c r="F5">
-        <v>100193.77769230772</v>
+        <v>99511.036348036316</v>
       </c>
       <c r="G5">
-        <v>100226.19769230772</v>
+        <v>99511.036348036316</v>
       </c>
       <c r="H5">
-        <v>100231.36769230771</v>
+        <v>99511.012598036308</v>
       </c>
       <c r="I5">
-        <v>100235.27769230772</v>
+        <v>99510.917598036307</v>
       </c>
       <c r="J5">
-        <v>100194.86769230771</v>
+        <v>99510.417598036322</v>
       </c>
       <c r="K5">
-        <v>100224.63769230772</v>
+        <v>99510.662598036317</v>
       </c>
       <c r="L5">
-        <v>100224.14769230771</v>
+        <v>99511.248848036295</v>
       </c>
       <c r="M5">
-        <v>100194.05769230772</v>
+        <v>99511.073848036292</v>
       </c>
       <c r="N5">
-        <v>100192.28769230771</v>
+        <v>99510.89884803629</v>
       </c>
       <c r="O5">
-        <v>100226.73769230771</v>
+        <v>99510.723848036287</v>
       </c>
       <c r="P5">
-        <v>100219.85769230772</v>
+        <v>99510.732598036295</v>
       </c>
       <c r="Q5">
-        <v>100231.30769230772</v>
+        <v>99510.925098036299</v>
       </c>
       <c r="R5">
-        <v>100200.65769230772</v>
+        <v>99511.117598036304</v>
       </c>
       <c r="S5">
-        <v>100198.89769230771</v>
+        <v>99511.310098036309</v>
       </c>
       <c r="T5">
-        <v>100197.51769230772</v>
+        <v>99511.693848036302</v>
       </c>
       <c r="U5">
-        <v>100194.73769230771</v>
+        <v>99512.268848036299</v>
       </c>
       <c r="V5">
-        <v>100179.06769230771</v>
+        <v>99512.843848036297</v>
       </c>
       <c r="W5">
-        <v>100153.38769230772</v>
+        <v>99513.418848036294</v>
       </c>
       <c r="X5">
-        <v>100124.28769230771</v>
+        <v>99513.772598036303</v>
       </c>
       <c r="Y5">
-        <v>100105.72769230772</v>
+        <v>99513.90509803631</v>
       </c>
       <c r="Z5">
-        <v>100109.42769230771</v>
+        <v>99514.037598036317</v>
       </c>
       <c r="AA5">
-        <v>100142.21769230772</v>
+        <v>99514.170098036309</v>
       </c>
       <c r="AB5">
-        <v>100175.62769230772</v>
+        <v>99514.115098036302</v>
       </c>
       <c r="AC5">
-        <v>100196.11769230771</v>
+        <v>99513.872598036309</v>
       </c>
       <c r="AD5">
-        <v>100198.23769230771</v>
+        <v>99513.630098036316</v>
       </c>
       <c r="AE5">
-        <v>100201.97769230772</v>
+        <v>99513.387598036308</v>
       </c>
       <c r="AF5">
-        <v>100204.75769230771</v>
+        <v>99513.137598036323</v>
       </c>
       <c r="AG5">
-        <v>100194.02769230772</v>
+        <v>99512.880098036316</v>
       </c>
       <c r="AH5">
-        <v>100197.83769230772</v>
+        <v>99512.622598036309</v>
       </c>
       <c r="AI5">
-        <v>100201.43769230772</v>
+        <v>99512.365098036316</v>
       </c>
       <c r="AJ5">
-        <v>100200.02769230772</v>
+        <v>99512.312598036326</v>
       </c>
       <c r="AK5">
-        <v>100200.57769230772</v>
+        <v>99512.465098036322</v>
       </c>
       <c r="AL5">
-        <v>100202.53769230771</v>
+        <v>99512.617598036319</v>
       </c>
       <c r="AM5">
-        <v>100199.71769230772</v>
+        <v>99512.77009803633</v>
       </c>
       <c r="AN5">
-        <v>100198.16769230772</v>
+        <v>99512.715098036308</v>
       </c>
       <c r="AO5">
-        <v>100197.84769230771</v>
+        <v>99512.540098036305</v>
       </c>
       <c r="AP5">
-        <v>100198.07769230772</v>
+        <v>99511.675098036299</v>
       </c>
       <c r="AQ5">
-        <v>100199.10769230772</v>
+        <v>99510.580098036298</v>
       </c>
       <c r="AR5">
-        <v>100200.42769230771</v>
+        <v>99510.306348036305</v>
       </c>
       <c r="AS5">
-        <v>100203.13769230772</v>
+        <v>99510.306348036305</v>
       </c>
       <c r="AT5">
-        <v>100201.39769230771</v>
+        <v>99510.306348036305</v>
       </c>
       <c r="AU5">
-        <v>100201.49769230772</v>
+        <v>99510.306348036305</v>
       </c>
       <c r="AV5">
-        <v>100201.61769230771</v>
+        <v>99510.306348036305</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.45">
@@ -1015,145 +1015,145 @@
         <v>-5</v>
       </c>
       <c r="B6">
-        <v>100226.25769230771</v>
+        <v>99510.526348036306</v>
       </c>
       <c r="C6">
-        <v>100226.09769230771</v>
+        <v>99510.526348036306</v>
       </c>
       <c r="D6">
-        <v>100226.96769230772</v>
+        <v>99510.526348036306</v>
       </c>
       <c r="E6">
-        <v>100196.20769230771</v>
+        <v>99510.526348036306</v>
       </c>
       <c r="F6">
-        <v>100193.90769230772</v>
+        <v>99510.526348036306</v>
       </c>
       <c r="G6">
-        <v>100226.24769230772</v>
+        <v>99510.526348036306</v>
       </c>
       <c r="H6">
-        <v>100231.26769230772</v>
+        <v>99510.672598036297</v>
       </c>
       <c r="I6">
-        <v>100235.27769230772</v>
+        <v>99511.257598036289</v>
       </c>
       <c r="J6">
-        <v>100194.88769230772</v>
+        <v>99511.355098036292</v>
       </c>
       <c r="K6">
-        <v>100224.68769230772</v>
+        <v>99511.550098036299</v>
       </c>
       <c r="L6">
-        <v>100224.13769230772</v>
+        <v>99511.968848036297</v>
       </c>
       <c r="M6">
-        <v>100194.13769230772</v>
+        <v>99511.733848036296</v>
       </c>
       <c r="N6">
-        <v>100192.15769230772</v>
+        <v>99511.498848036295</v>
       </c>
       <c r="O6">
-        <v>100226.59769230771</v>
+        <v>99511.263848036295</v>
       </c>
       <c r="P6">
-        <v>100219.80769230772</v>
+        <v>99511.205098036327</v>
       </c>
       <c r="Q6">
-        <v>100231.23769230771</v>
+        <v>99511.32259803632</v>
       </c>
       <c r="R6">
-        <v>100200.68769230772</v>
+        <v>99511.440098036313</v>
       </c>
       <c r="S6">
-        <v>100198.81769230771</v>
+        <v>99511.557598036321</v>
       </c>
       <c r="T6">
-        <v>100197.12769230772</v>
+        <v>99511.995098036306</v>
       </c>
       <c r="U6">
-        <v>100190.93769230772</v>
+        <v>99512.752598036313</v>
       </c>
       <c r="V6">
-        <v>100168.15769230772</v>
+        <v>99513.51009803632</v>
       </c>
       <c r="W6">
-        <v>100140.28769230771</v>
+        <v>99514.267598036313</v>
       </c>
       <c r="X6">
-        <v>100123.57769230772</v>
+        <v>99514.535098036329</v>
       </c>
       <c r="Y6">
-        <v>100132.08769230772</v>
+        <v>99514.312598036326</v>
       </c>
       <c r="Z6">
-        <v>100156.01769230772</v>
+        <v>99514.090098036322</v>
       </c>
       <c r="AA6">
-        <v>100185.94769230772</v>
+        <v>99513.867598036333</v>
       </c>
       <c r="AB6">
-        <v>100199.06769230771</v>
+        <v>99513.673848036327</v>
       </c>
       <c r="AC6">
-        <v>100202.99769230772</v>
+        <v>99513.508848036319</v>
       </c>
       <c r="AD6">
-        <v>100199.10769230772</v>
+        <v>99513.343848036311</v>
       </c>
       <c r="AE6">
-        <v>100202.16769230772</v>
+        <v>99513.178848036318</v>
       </c>
       <c r="AF6">
-        <v>100204.56769230771</v>
+        <v>99512.96759803631</v>
       </c>
       <c r="AG6">
-        <v>100193.99769230772</v>
+        <v>99512.710098036318</v>
       </c>
       <c r="AH6">
-        <v>100197.90769230772</v>
+        <v>99512.452598036325</v>
       </c>
       <c r="AI6">
-        <v>100202.11769230771</v>
+        <v>99512.195098036318</v>
       </c>
       <c r="AJ6">
-        <v>100199.92769230771</v>
+        <v>99512.117598036304</v>
       </c>
       <c r="AK6">
-        <v>100200.83769230772</v>
+        <v>99512.220098036298</v>
       </c>
       <c r="AL6">
-        <v>100202.53769230771</v>
+        <v>99512.322598036291</v>
       </c>
       <c r="AM6">
-        <v>100199.62769230772</v>
+        <v>99512.425098036299</v>
       </c>
       <c r="AN6">
-        <v>100197.94769230772</v>
+        <v>99512.322598036306</v>
       </c>
       <c r="AO6">
-        <v>100197.83769230772</v>
+        <v>99512.117598036304</v>
       </c>
       <c r="AP6">
-        <v>100198.07769230772</v>
+        <v>99511.777598036308</v>
       </c>
       <c r="AQ6">
-        <v>100199.06769230771</v>
+        <v>99511.392598036298</v>
       </c>
       <c r="AR6">
-        <v>100200.22769230772</v>
+        <v>99511.296348036311</v>
       </c>
       <c r="AS6">
-        <v>100203.18769230772</v>
+        <v>99511.296348036311</v>
       </c>
       <c r="AT6">
-        <v>100201.47769230772</v>
+        <v>99511.296348036311</v>
       </c>
       <c r="AU6">
-        <v>100201.85769230772</v>
+        <v>99511.296348036311</v>
       </c>
       <c r="AV6">
-        <v>100201.69769230772</v>
+        <v>99511.296348036311</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.45">
@@ -1161,145 +1161,145 @@
         <v>-4</v>
       </c>
       <c r="B7">
-        <v>100226.75769230771</v>
+        <v>99510.166348036306</v>
       </c>
       <c r="C7">
-        <v>100226.54769230772</v>
+        <v>99510.166348036306</v>
       </c>
       <c r="D7">
-        <v>100227.29769230772</v>
+        <v>99510.166348036306</v>
       </c>
       <c r="E7">
-        <v>100196.40769230772</v>
+        <v>99510.166348036306</v>
       </c>
       <c r="F7">
-        <v>100194.24769230772</v>
+        <v>99510.166348036306</v>
       </c>
       <c r="G7">
-        <v>100226.70769230771</v>
+        <v>99510.166348036306</v>
       </c>
       <c r="H7">
-        <v>100231.80769230772</v>
+        <v>99510.422598036312</v>
       </c>
       <c r="I7">
-        <v>100235.69769230772</v>
+        <v>99511.447598036306</v>
       </c>
       <c r="J7">
-        <v>100195.22769230772</v>
+        <v>99511.892598036313</v>
       </c>
       <c r="K7">
-        <v>100225.13769230772</v>
+        <v>99512.077598036311</v>
       </c>
       <c r="L7">
-        <v>100224.58769230772</v>
+        <v>99512.451348036295</v>
       </c>
       <c r="M7">
-        <v>100194.81769230771</v>
+        <v>99512.181348036305</v>
       </c>
       <c r="N7">
-        <v>100192.71769230772</v>
+        <v>99511.911348036316</v>
       </c>
       <c r="O7">
-        <v>100227.10769230772</v>
+        <v>99511.641348036312</v>
       </c>
       <c r="P7">
-        <v>100220.19769230772</v>
+        <v>99511.552598036316</v>
       </c>
       <c r="Q7">
-        <v>100231.62769230772</v>
+        <v>99511.645098036315</v>
       </c>
       <c r="R7">
-        <v>100200.85769230772</v>
+        <v>99511.737598036314</v>
       </c>
       <c r="S7">
-        <v>100199.24769230772</v>
+        <v>99511.830098036313</v>
       </c>
       <c r="T7">
-        <v>100196.27769230772</v>
+        <v>99512.320098036304</v>
       </c>
       <c r="U7">
-        <v>100184.03769230771</v>
+        <v>99513.207598036301</v>
       </c>
       <c r="V7">
-        <v>100154.74769230772</v>
+        <v>99514.095098036298</v>
       </c>
       <c r="W7">
-        <v>100135.18769230772</v>
+        <v>99514.982598036295</v>
       </c>
       <c r="X7">
-        <v>100141.02769230772</v>
+        <v>99515.242598036304</v>
       </c>
       <c r="Y7">
-        <v>100166.18769230772</v>
+        <v>99514.875098036311</v>
       </c>
       <c r="Z7">
-        <v>100185.00769230771</v>
+        <v>99514.507598036318</v>
       </c>
       <c r="AA7">
-        <v>100199.51769230772</v>
+        <v>99514.140098036311</v>
       </c>
       <c r="AB7">
-        <v>100202.41769230772</v>
+        <v>99513.850098036317</v>
       </c>
       <c r="AC7">
-        <v>100203.68769230772</v>
+        <v>99513.637598036308</v>
       </c>
       <c r="AD7">
-        <v>100199.46769230772</v>
+        <v>99513.425098036299</v>
       </c>
       <c r="AE7">
-        <v>100202.84769230771</v>
+        <v>99513.212598036305</v>
       </c>
       <c r="AF7">
-        <v>100205.09769230771</v>
+        <v>99512.956348036314</v>
       </c>
       <c r="AG7">
-        <v>100194.54769230772</v>
+        <v>99512.656348036311</v>
       </c>
       <c r="AH7">
-        <v>100199.37769230772</v>
+        <v>99512.356348036308</v>
       </c>
       <c r="AI7">
-        <v>100202.95769230771</v>
+        <v>99512.056348036305</v>
       </c>
       <c r="AJ7">
-        <v>100201.44769230772</v>
+        <v>99511.946348036319</v>
       </c>
       <c r="AK7">
-        <v>100202.34769230771</v>
+        <v>99512.026348036321</v>
       </c>
       <c r="AL7">
-        <v>100204.05769230772</v>
+        <v>99512.106348036323</v>
       </c>
       <c r="AM7">
-        <v>100201.29769230772</v>
+        <v>99512.18634803631</v>
       </c>
       <c r="AN7">
-        <v>100199.61769230771</v>
+        <v>99512.050098036299</v>
       </c>
       <c r="AO7">
-        <v>100199.33769230772</v>
+        <v>99511.815098036313</v>
       </c>
       <c r="AP7">
-        <v>100199.49769230772</v>
+        <v>99511.85384803632</v>
       </c>
       <c r="AQ7">
-        <v>100200.58769230772</v>
+        <v>99511.983848036325</v>
       </c>
       <c r="AR7">
-        <v>100201.47769230772</v>
+        <v>99512.016348036312</v>
       </c>
       <c r="AS7">
-        <v>100204.75769230771</v>
+        <v>99512.016348036312</v>
       </c>
       <c r="AT7">
-        <v>100203.26769230772</v>
+        <v>99512.016348036312</v>
       </c>
       <c r="AU7">
-        <v>100203.31769230771</v>
+        <v>99512.016348036312</v>
       </c>
       <c r="AV7">
-        <v>100203.11769230771</v>
+        <v>99512.016348036312</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.45">
@@ -1307,145 +1307,145 @@
         <v>-3</v>
       </c>
       <c r="B8">
-        <v>100223.67769230771</v>
+        <v>99509.716348036309</v>
       </c>
       <c r="C8">
-        <v>100223.64769230771</v>
+        <v>99509.716348036309</v>
       </c>
       <c r="D8">
-        <v>100224.37769230772</v>
+        <v>99509.716348036309</v>
       </c>
       <c r="E8">
-        <v>100193.64769230771</v>
+        <v>99509.716348036309</v>
       </c>
       <c r="F8">
-        <v>100191.37769230772</v>
+        <v>99509.716348036309</v>
       </c>
       <c r="G8">
-        <v>100223.74769230772</v>
+        <v>99509.716348036309</v>
       </c>
       <c r="H8">
-        <v>100228.98769230771</v>
+        <v>99510.083848036316</v>
       </c>
       <c r="I8">
-        <v>100232.94769230772</v>
+        <v>99511.553848036318</v>
       </c>
       <c r="J8">
-        <v>100192.35769230772</v>
+        <v>99512.358848036325</v>
       </c>
       <c r="K8">
-        <v>100222.04769230772</v>
+        <v>99512.528848036309</v>
       </c>
       <c r="L8">
-        <v>100221.75769230771</v>
+        <v>99512.853848036306</v>
       </c>
       <c r="M8">
-        <v>100191.82769230772</v>
+        <v>99512.568848036302</v>
       </c>
       <c r="N8">
-        <v>100189.61769230771</v>
+        <v>99512.283848036299</v>
       </c>
       <c r="O8">
-        <v>100224.29769230772</v>
+        <v>99511.99884803631</v>
       </c>
       <c r="P8">
-        <v>100217.11769230771</v>
+        <v>99511.888848036309</v>
       </c>
       <c r="Q8">
-        <v>100228.66769230772</v>
+        <v>99511.953848036312</v>
       </c>
       <c r="R8">
-        <v>100198.06769230771</v>
+        <v>99512.018848036314</v>
       </c>
       <c r="S8">
-        <v>100196.00769230771</v>
+        <v>99512.083848036316</v>
       </c>
       <c r="T8">
-        <v>100189.66769230772</v>
+        <v>99512.588848036306</v>
       </c>
       <c r="U8">
-        <v>100169.74769230772</v>
+        <v>99513.533848036313</v>
       </c>
       <c r="V8">
-        <v>100143.56769230771</v>
+        <v>99514.47884803632</v>
       </c>
       <c r="W8">
-        <v>100142.81769230771</v>
+        <v>99515.423848036313</v>
       </c>
       <c r="X8">
-        <v>100162.67769230771</v>
+        <v>99515.812598036311</v>
       </c>
       <c r="Y8">
-        <v>100183.20769230771</v>
+        <v>99515.645098036315</v>
       </c>
       <c r="Z8">
-        <v>100192.84769230771</v>
+        <v>99515.477598036319</v>
       </c>
       <c r="AA8">
-        <v>100199.09769230771</v>
+        <v>99515.310098036309</v>
       </c>
       <c r="AB8">
-        <v>100199.89769230771</v>
+        <v>99514.980098036292</v>
       </c>
       <c r="AC8">
-        <v>100200.75769230771</v>
+        <v>99514.487598036299</v>
       </c>
       <c r="AD8">
-        <v>100196.71769230772</v>
+        <v>99513.995098036306</v>
       </c>
       <c r="AE8">
-        <v>100200.23769230771</v>
+        <v>99513.502598036313</v>
       </c>
       <c r="AF8">
-        <v>100202.11769230771</v>
+        <v>99513.053848036318</v>
       </c>
       <c r="AG8">
-        <v>100191.45769230771</v>
+        <v>99512.648848036319</v>
       </c>
       <c r="AH8">
-        <v>100197.08769230772</v>
+        <v>99512.24384803632</v>
       </c>
       <c r="AI8">
-        <v>100200.23769230771</v>
+        <v>99511.838848036306</v>
       </c>
       <c r="AJ8">
-        <v>100199.10769230772</v>
+        <v>99511.673848036313</v>
       </c>
       <c r="AK8">
-        <v>100199.91769230772</v>
+        <v>99511.74884803631</v>
       </c>
       <c r="AL8">
-        <v>100201.78769230771</v>
+        <v>99511.823848036307</v>
       </c>
       <c r="AM8">
-        <v>100198.96769230772</v>
+        <v>99511.898848036304</v>
       </c>
       <c r="AN8">
-        <v>100197.41769230772</v>
+        <v>99511.756348036317</v>
       </c>
       <c r="AO8">
-        <v>100197.08769230772</v>
+        <v>99511.516348036326</v>
       </c>
       <c r="AP8">
-        <v>100197.32769230772</v>
+        <v>99511.891348036312</v>
       </c>
       <c r="AQ8">
-        <v>100198.43769230772</v>
+        <v>99512.471348036313</v>
       </c>
       <c r="AR8">
-        <v>100199.40769230772</v>
+        <v>99512.616348036318</v>
       </c>
       <c r="AS8">
-        <v>100202.38769230772</v>
+        <v>99512.616348036318</v>
       </c>
       <c r="AT8">
-        <v>100201.51769230772</v>
+        <v>99512.616348036318</v>
       </c>
       <c r="AU8">
-        <v>100201.12769230772</v>
+        <v>99512.616348036318</v>
       </c>
       <c r="AV8">
-        <v>100200.84769230771</v>
+        <v>99512.616348036318</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.45">
@@ -1453,145 +1453,145 @@
         <v>-2</v>
       </c>
       <c r="B9">
-        <v>100225.78769230771</v>
+        <v>99509.126348036312</v>
       </c>
       <c r="C9">
-        <v>100225.37769230772</v>
+        <v>99509.126348036312</v>
       </c>
       <c r="D9">
-        <v>100226.32769230772</v>
+        <v>99509.126348036312</v>
       </c>
       <c r="E9">
-        <v>100195.50769230771</v>
+        <v>99509.126348036312</v>
       </c>
       <c r="F9">
-        <v>100193.20769230771</v>
+        <v>99509.126348036312</v>
       </c>
       <c r="G9">
-        <v>100225.65769230772</v>
+        <v>99509.126348036312</v>
       </c>
       <c r="H9">
-        <v>100230.63769230772</v>
+        <v>99509.553848036303</v>
       </c>
       <c r="I9">
-        <v>100234.83769230772</v>
+        <v>99511.263848036295</v>
       </c>
       <c r="J9">
-        <v>100194.25769230771</v>
+        <v>99512.292598036322</v>
       </c>
       <c r="K9">
-        <v>100223.89769230771</v>
+        <v>99512.437598036311</v>
       </c>
       <c r="L9">
-        <v>100223.59769230771</v>
+        <v>99512.671348036296</v>
       </c>
       <c r="M9">
-        <v>100193.89769230771</v>
+        <v>99512.341348036294</v>
       </c>
       <c r="N9">
-        <v>100191.57769230772</v>
+        <v>99512.011348036292</v>
       </c>
       <c r="O9">
-        <v>100226.21769230772</v>
+        <v>99511.681348036305</v>
       </c>
       <c r="P9">
-        <v>100219.12769230772</v>
+        <v>99511.450098036323</v>
       </c>
       <c r="Q9">
-        <v>100230.45769230771</v>
+        <v>99511.317598036316</v>
       </c>
       <c r="R9">
-        <v>100198.67769230771</v>
+        <v>99511.185098036309</v>
       </c>
       <c r="S9">
-        <v>100192.85769230772</v>
+        <v>99511.052598036316</v>
       </c>
       <c r="T9">
-        <v>100177.67769230771</v>
+        <v>99511.511348036307</v>
       </c>
       <c r="U9">
-        <v>100157.97769230772</v>
+        <v>99512.56134803631</v>
       </c>
       <c r="V9">
-        <v>100150.30769230772</v>
+        <v>99513.611348036313</v>
       </c>
       <c r="W9">
-        <v>100164.60769230772</v>
+        <v>99514.661348036316</v>
       </c>
       <c r="X9">
-        <v>100183.85769230772</v>
+        <v>99515.12384803631</v>
       </c>
       <c r="Y9">
-        <v>100195.23769230771</v>
+        <v>99514.99884803631</v>
       </c>
       <c r="Z9">
-        <v>100198.82769230772</v>
+        <v>99514.87384803631</v>
       </c>
       <c r="AA9">
-        <v>100201.62769230772</v>
+        <v>99514.74884803631</v>
       </c>
       <c r="AB9">
-        <v>100201.65769230772</v>
+        <v>99514.393848036299</v>
       </c>
       <c r="AC9">
-        <v>100202.68769230772</v>
+        <v>99513.808848036308</v>
       </c>
       <c r="AD9">
-        <v>100198.57769230772</v>
+        <v>99513.223848036316</v>
       </c>
       <c r="AE9">
-        <v>100202.21769230772</v>
+        <v>99512.638848036309</v>
       </c>
       <c r="AF9">
-        <v>100203.95769230771</v>
+        <v>99512.203848036312</v>
       </c>
       <c r="AG9">
-        <v>100193.28769230771</v>
+        <v>99511.918848036308</v>
       </c>
       <c r="AH9">
-        <v>100197.63769230772</v>
+        <v>99511.633848036305</v>
       </c>
       <c r="AI9">
-        <v>100201.11769230771</v>
+        <v>99511.348848036316</v>
       </c>
       <c r="AJ9">
-        <v>100199.57769230772</v>
+        <v>99511.216348036309</v>
       </c>
       <c r="AK9">
-        <v>100200.43769230772</v>
+        <v>99511.236348036313</v>
       </c>
       <c r="AL9">
-        <v>100202.26769230772</v>
+        <v>99511.256348036317</v>
       </c>
       <c r="AM9">
-        <v>100199.07769230772</v>
+        <v>99511.276348036306</v>
       </c>
       <c r="AN9">
-        <v>100197.70769230771</v>
+        <v>99511.091348036309</v>
       </c>
       <c r="AO9">
-        <v>100197.52769230772</v>
+        <v>99510.831348036299</v>
       </c>
       <c r="AP9">
-        <v>100197.80769230772</v>
+        <v>99511.452598036311</v>
       </c>
       <c r="AQ9">
-        <v>100198.81769230771</v>
+        <v>99512.367598036304</v>
       </c>
       <c r="AR9">
-        <v>100199.94769230772</v>
+        <v>99512.596348036313</v>
       </c>
       <c r="AS9">
-        <v>100202.81769230771</v>
+        <v>99512.596348036313</v>
       </c>
       <c r="AT9">
-        <v>100201.78769230771</v>
+        <v>99512.596348036313</v>
       </c>
       <c r="AU9">
-        <v>100201.72769230772</v>
+        <v>99512.596348036313</v>
       </c>
       <c r="AV9">
-        <v>100201.25769230771</v>
+        <v>99512.596348036313</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.45">
@@ -1599,145 +1599,145 @@
         <v>-1</v>
       </c>
       <c r="B10">
-        <v>100226.08769230772</v>
+        <v>99508.876348036312</v>
       </c>
       <c r="C10">
-        <v>100225.75769230771</v>
+        <v>99508.876348036312</v>
       </c>
       <c r="D10">
-        <v>100226.83769230772</v>
+        <v>99508.876348036312</v>
       </c>
       <c r="E10">
-        <v>100196.06769230771</v>
+        <v>99508.876348036312</v>
       </c>
       <c r="F10">
-        <v>100193.58769230772</v>
+        <v>99508.876348036312</v>
       </c>
       <c r="G10">
-        <v>100226.10769230772</v>
+        <v>99508.876348036312</v>
       </c>
       <c r="H10">
-        <v>100231.11769230771</v>
+        <v>99509.408848036313</v>
       </c>
       <c r="I10">
-        <v>100235.22769230772</v>
+        <v>99511.538848036318</v>
       </c>
       <c r="J10">
-        <v>100194.71769230772</v>
+        <v>99512.908848036299</v>
       </c>
       <c r="K10">
-        <v>100224.42769230771</v>
+        <v>99513.038848036304</v>
       </c>
       <c r="L10">
-        <v>100223.93769230772</v>
+        <v>99513.210098036303</v>
       </c>
       <c r="M10">
-        <v>100194.47769230772</v>
+        <v>99512.837598036305</v>
       </c>
       <c r="N10">
-        <v>100192.07769230772</v>
+        <v>99512.465098036308</v>
       </c>
       <c r="O10">
-        <v>100226.56769230771</v>
+        <v>99512.09259803631</v>
       </c>
       <c r="P10">
-        <v>100219.41769230772</v>
+        <v>99511.433848036308</v>
       </c>
       <c r="Q10">
-        <v>100229.89769230771</v>
+        <v>99510.488848036315</v>
       </c>
       <c r="R10">
-        <v>100195.46769230772</v>
+        <v>99509.543848036323</v>
       </c>
       <c r="S10">
-        <v>100181.62769230772</v>
+        <v>99508.598848036316</v>
       </c>
       <c r="T10">
-        <v>100160.10769230772</v>
+        <v>99509.032598036312</v>
       </c>
       <c r="U10">
-        <v>100155.07769230772</v>
+        <v>99510.845098036312</v>
       </c>
       <c r="V10">
-        <v>100166.49769230772</v>
+        <v>99512.657598036312</v>
       </c>
       <c r="W10">
-        <v>100183.19769230772</v>
+        <v>99514.470098036312</v>
       </c>
       <c r="X10">
-        <v>100196.92769230771</v>
+        <v>99515.346348036313</v>
       </c>
       <c r="Y10">
-        <v>100201.53769230771</v>
+        <v>99515.286348036316</v>
       </c>
       <c r="Z10">
-        <v>100200.45769230771</v>
+        <v>99515.226348036318</v>
       </c>
       <c r="AA10">
-        <v>100202.12769230772</v>
+        <v>99515.16634803632</v>
       </c>
       <c r="AB10">
-        <v>100202.21769230772</v>
+        <v>99514.798848036313</v>
       </c>
       <c r="AC10">
-        <v>100203.22769230772</v>
+        <v>99514.12384803631</v>
       </c>
       <c r="AD10">
-        <v>100198.85769230772</v>
+        <v>99513.448848036307</v>
       </c>
       <c r="AE10">
-        <v>100202.67769230771</v>
+        <v>99512.773848036304</v>
       </c>
       <c r="AF10">
-        <v>100204.57769230772</v>
+        <v>99512.272598036318</v>
       </c>
       <c r="AG10">
-        <v>100193.86769230771</v>
+        <v>99511.945098036318</v>
       </c>
       <c r="AH10">
-        <v>100198.50769230771</v>
+        <v>99511.617598036319</v>
       </c>
       <c r="AI10">
-        <v>100201.04769230772</v>
+        <v>99511.290098036319</v>
       </c>
       <c r="AJ10">
-        <v>100200.25769230771</v>
+        <v>99511.127598036313</v>
       </c>
       <c r="AK10">
-        <v>100201.27769230772</v>
+        <v>99511.130098036316</v>
       </c>
       <c r="AL10">
-        <v>100203.16769230772</v>
+        <v>99511.132598036318</v>
       </c>
       <c r="AM10">
-        <v>100199.81769230771</v>
+        <v>99511.13509803632</v>
       </c>
       <c r="AN10">
-        <v>100198.72769230772</v>
+        <v>99510.948848036307</v>
       </c>
       <c r="AO10">
-        <v>100198.38769230772</v>
+        <v>99510.698848036307</v>
       </c>
       <c r="AP10">
-        <v>100198.70769230771</v>
+        <v>99511.656348036311</v>
       </c>
       <c r="AQ10">
-        <v>100199.69769230772</v>
+        <v>99513.016348036312</v>
       </c>
       <c r="AR10">
-        <v>100200.70769230771</v>
+        <v>99513.356348036308</v>
       </c>
       <c r="AS10">
-        <v>100203.81769230771</v>
+        <v>99513.356348036308</v>
       </c>
       <c r="AT10">
-        <v>100202.71769230772</v>
+        <v>99513.356348036308</v>
       </c>
       <c r="AU10">
-        <v>100202.44769230772</v>
+        <v>99513.356348036308</v>
       </c>
       <c r="AV10">
-        <v>100202.17769230771</v>
+        <v>99513.356348036308</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.45">
@@ -1745,145 +1745,145 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>100220.32769230772</v>
+        <v>99508.396348036316</v>
       </c>
       <c r="C11">
-        <v>100220.15769230772</v>
+        <v>99508.396348036316</v>
       </c>
       <c r="D11">
-        <v>100220.90769230772</v>
+        <v>99508.396348036316</v>
       </c>
       <c r="E11">
-        <v>100189.88769230772</v>
+        <v>99508.396348036316</v>
       </c>
       <c r="F11">
-        <v>100188.07769230772</v>
+        <v>99508.396348036316</v>
       </c>
       <c r="G11">
-        <v>100220.15769230772</v>
+        <v>99508.396348036316</v>
       </c>
       <c r="H11">
-        <v>100225.42769230771</v>
+        <v>99509.033848036328</v>
       </c>
       <c r="I11">
-        <v>100229.62769230772</v>
+        <v>99511.583848036316</v>
       </c>
       <c r="J11">
-        <v>100188.96769230772</v>
+        <v>99513.295098036309</v>
       </c>
       <c r="K11">
-        <v>100218.78769230771</v>
+        <v>99513.4100980363</v>
       </c>
       <c r="L11">
-        <v>100218.42769230771</v>
+        <v>99513.382598036304</v>
       </c>
       <c r="M11">
-        <v>100188.54769230772</v>
+        <v>99512.695098036304</v>
       </c>
       <c r="N11">
-        <v>100185.89769230771</v>
+        <v>99512.007598036304</v>
       </c>
       <c r="O11">
-        <v>100220.75769230771</v>
+        <v>99511.320098036304</v>
       </c>
       <c r="P11">
-        <v>100209.47769230772</v>
+        <v>99510.716348036309</v>
       </c>
       <c r="Q11">
-        <v>100211.04769230772</v>
+        <v>99510.196348036305</v>
       </c>
       <c r="R11">
-        <v>100165.75769230771</v>
+        <v>99509.676348036301</v>
       </c>
       <c r="S11">
-        <v>100153.52769230772</v>
+        <v>99509.156348036311</v>
       </c>
       <c r="T11">
-        <v>100156.38769230772</v>
+        <v>99509.715098036322</v>
       </c>
       <c r="U11">
-        <v>100167.67769230771</v>
+        <v>99511.352598036319</v>
       </c>
       <c r="V11">
-        <v>100179.70769230771</v>
+        <v>99512.990098036316</v>
       </c>
       <c r="W11">
-        <v>100190.11769230771</v>
+        <v>99514.627598036313</v>
       </c>
       <c r="X11">
-        <v>100197.05769230772</v>
+        <v>99515.475098036317</v>
       </c>
       <c r="Y11">
-        <v>100196.43769230772</v>
+        <v>99515.532598036312</v>
       </c>
       <c r="Z11">
-        <v>100194.91769230772</v>
+        <v>99515.590098036308</v>
       </c>
       <c r="AA11">
-        <v>100196.47769230772</v>
+        <v>99515.647598036318</v>
       </c>
       <c r="AB11">
-        <v>100196.62769230772</v>
+        <v>99515.27509803632</v>
       </c>
       <c r="AC11">
-        <v>100197.39769230771</v>
+        <v>99514.472598036315</v>
       </c>
       <c r="AD11">
-        <v>100193.58769230772</v>
+        <v>99513.670098036309</v>
       </c>
       <c r="AE11">
-        <v>100197.10769230772</v>
+        <v>99512.867598036304</v>
       </c>
       <c r="AF11">
-        <v>100198.68769230772</v>
+        <v>99512.2538480363</v>
       </c>
       <c r="AG11">
-        <v>100188.13769230772</v>
+        <v>99511.828848036297</v>
       </c>
       <c r="AH11">
-        <v>100193.20769230771</v>
+        <v>99511.403848036294</v>
       </c>
       <c r="AI11">
-        <v>100196.89769230771</v>
+        <v>99510.978848036291</v>
       </c>
       <c r="AJ11">
-        <v>100194.85769230772</v>
+        <v>99510.757598036304</v>
       </c>
       <c r="AK11">
-        <v>100195.32769230772</v>
+        <v>99510.740098036302</v>
       </c>
       <c r="AL11">
-        <v>100197.76769230772</v>
+        <v>99510.7225980363</v>
       </c>
       <c r="AM11">
-        <v>100194.29769230772</v>
+        <v>99510.705098036298</v>
       </c>
       <c r="AN11">
-        <v>100193.51769230772</v>
+        <v>99510.512598036308</v>
       </c>
       <c r="AO11">
-        <v>100192.82769230772</v>
+        <v>99510.267598036313</v>
       </c>
       <c r="AP11">
-        <v>100193.59769230771</v>
+        <v>99511.590098036308</v>
       </c>
       <c r="AQ11">
-        <v>100194.55769230772</v>
+        <v>99513.435098036309</v>
       </c>
       <c r="AR11">
-        <v>100195.71769230772</v>
+        <v>99513.896348036316</v>
       </c>
       <c r="AS11">
-        <v>100198.40769230772</v>
+        <v>99513.896348036316</v>
       </c>
       <c r="AT11">
-        <v>100197.47769230772</v>
+        <v>99513.896348036316</v>
       </c>
       <c r="AU11">
-        <v>100197.19769230772</v>
+        <v>99513.896348036316</v>
       </c>
       <c r="AV11">
-        <v>100196.79769230772</v>
+        <v>99513.896348036316</v>
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.45">
@@ -1891,145 +1891,145 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>100225.97769230772</v>
+        <v>99506.43634803631</v>
       </c>
       <c r="C12">
-        <v>100225.27769230772</v>
+        <v>99506.43634803631</v>
       </c>
       <c r="D12">
-        <v>100226.56769230771</v>
+        <v>99506.43634803631</v>
       </c>
       <c r="E12">
-        <v>100195.27769230772</v>
+        <v>99506.43634803631</v>
       </c>
       <c r="F12">
-        <v>100193.40769230772</v>
+        <v>99506.43634803631</v>
       </c>
       <c r="G12">
-        <v>100225.85769230772</v>
+        <v>99506.43634803631</v>
       </c>
       <c r="H12">
-        <v>100230.83769230772</v>
+        <v>99507.271348036302</v>
       </c>
       <c r="I12">
-        <v>100235.06769230771</v>
+        <v>99510.611348036298</v>
       </c>
       <c r="J12">
-        <v>100194.41769230772</v>
+        <v>99512.941348036315</v>
       </c>
       <c r="K12">
-        <v>100224.83769230772</v>
+        <v>99513.04134803632</v>
       </c>
       <c r="L12">
-        <v>100223.82769230772</v>
+        <v>99513.026348036321</v>
       </c>
       <c r="M12">
-        <v>100194.18769230772</v>
+        <v>99512.446348036319</v>
       </c>
       <c r="N12">
-        <v>100191.38769230772</v>
+        <v>99511.866348036318</v>
       </c>
       <c r="O12">
-        <v>100225.60769230772</v>
+        <v>99511.286348036316</v>
       </c>
       <c r="P12">
-        <v>100208.26769230772</v>
+        <v>99510.875098036311</v>
       </c>
       <c r="Q12">
-        <v>100196.73769230771</v>
+        <v>99510.632598036304</v>
       </c>
       <c r="R12">
-        <v>100149.33769230772</v>
+        <v>99510.390098036296</v>
       </c>
       <c r="S12">
-        <v>100149.24769230772</v>
+        <v>99510.147598036303</v>
       </c>
       <c r="T12">
-        <v>100167.62769230772</v>
+        <v>99510.567598036316</v>
       </c>
       <c r="U12">
-        <v>100186.20769230771</v>
+        <v>99511.65009803632</v>
       </c>
       <c r="V12">
-        <v>100195.11769230771</v>
+        <v>99512.732598036324</v>
       </c>
       <c r="W12">
-        <v>100199.85769230772</v>
+        <v>99513.815098036313</v>
       </c>
       <c r="X12">
-        <v>100203.80769230772</v>
+        <v>99514.473848036301</v>
       </c>
       <c r="Y12">
-        <v>100202.02769230772</v>
+        <v>99514.708848036302</v>
       </c>
       <c r="Z12">
-        <v>100200.54769230772</v>
+        <v>99514.943848036302</v>
       </c>
       <c r="AA12">
-        <v>100201.96769230772</v>
+        <v>99515.178848036303</v>
       </c>
       <c r="AB12">
-        <v>100202.04769230772</v>
+        <v>99514.791348036306</v>
       </c>
       <c r="AC12">
-        <v>100202.67769230771</v>
+        <v>99513.781348036311</v>
       </c>
       <c r="AD12">
-        <v>100198.75769230771</v>
+        <v>99512.771348036316</v>
       </c>
       <c r="AE12">
-        <v>100202.41769230772</v>
+        <v>99511.761348036322</v>
       </c>
       <c r="AF12">
-        <v>100203.88769230772</v>
+        <v>99510.991348036318</v>
       </c>
       <c r="AG12">
-        <v>100193.57769230772</v>
+        <v>99510.461348036319</v>
       </c>
       <c r="AH12">
-        <v>100199.01769230772</v>
+        <v>99509.93134803632</v>
       </c>
       <c r="AI12">
-        <v>100201.25769230771</v>
+        <v>99509.401348036306</v>
       </c>
       <c r="AJ12">
-        <v>100200.56769230771</v>
+        <v>99509.108848036296</v>
       </c>
       <c r="AK12">
-        <v>100201.12769230772</v>
+        <v>99509.053848036303</v>
       </c>
       <c r="AL12">
-        <v>100203.70769230771</v>
+        <v>99508.99884803631</v>
       </c>
       <c r="AM12">
-        <v>100200.06769230771</v>
+        <v>99508.943848036302</v>
       </c>
       <c r="AN12">
-        <v>100199.11769230771</v>
+        <v>99508.740098036302</v>
       </c>
       <c r="AO12">
-        <v>100198.25769230771</v>
+        <v>99508.505098036301</v>
       </c>
       <c r="AP12">
-        <v>100199.33769230772</v>
+        <v>99510.467598036295</v>
       </c>
       <c r="AQ12">
-        <v>100200.22769230772</v>
+        <v>99513.162598036288</v>
       </c>
       <c r="AR12">
-        <v>100201.25769230771</v>
+        <v>99513.836348036304</v>
       </c>
       <c r="AS12">
-        <v>100204.41769230772</v>
+        <v>99513.836348036304</v>
       </c>
       <c r="AT12">
-        <v>100203.24769230772</v>
+        <v>99513.836348036304</v>
       </c>
       <c r="AU12">
-        <v>100203.03769230771</v>
+        <v>99513.836348036304</v>
       </c>
       <c r="AV12">
-        <v>100202.77769230772</v>
+        <v>99513.836348036304</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.45">
@@ -2037,145 +2037,145 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>100225.77769230772</v>
+        <v>99505.786348036316</v>
       </c>
       <c r="C13">
-        <v>100225.13769230772</v>
+        <v>99505.786348036316</v>
       </c>
       <c r="D13">
-        <v>100226.63769230772</v>
+        <v>99505.786348036316</v>
       </c>
       <c r="E13">
-        <v>100195.29769230772</v>
+        <v>99505.786348036316</v>
       </c>
       <c r="F13">
-        <v>100193.41769230772</v>
+        <v>99505.786348036316</v>
       </c>
       <c r="G13">
-        <v>100225.99769230772</v>
+        <v>99505.786348036316</v>
       </c>
       <c r="H13">
-        <v>100230.76769230772</v>
+        <v>99506.740098036316</v>
       </c>
       <c r="I13">
-        <v>100235.02769230772</v>
+        <v>99510.555098036319</v>
       </c>
       <c r="J13">
-        <v>100194.48769230771</v>
+        <v>99513.320098036318</v>
       </c>
       <c r="K13">
-        <v>100224.90769230772</v>
+        <v>99513.375098036311</v>
       </c>
       <c r="L13">
-        <v>100223.84769230771</v>
+        <v>99513.227598036305</v>
       </c>
       <c r="M13">
-        <v>100194.17769230771</v>
+        <v>99512.630098036301</v>
       </c>
       <c r="N13">
-        <v>100191.29769230772</v>
+        <v>99512.032598036298</v>
       </c>
       <c r="O13">
-        <v>100220.84769230771</v>
+        <v>99511.435098036309</v>
       </c>
       <c r="P13">
-        <v>100188.45769230771</v>
+        <v>99511.045098036295</v>
       </c>
       <c r="Q13">
-        <v>100175.39769230771</v>
+        <v>99510.862598036299</v>
       </c>
       <c r="R13">
-        <v>100148.80769230772</v>
+        <v>99510.680098036304</v>
       </c>
       <c r="S13">
-        <v>100166.57769230772</v>
+        <v>99510.497598036309</v>
       </c>
       <c r="T13">
-        <v>100186.82769230772</v>
+        <v>99510.841348036309</v>
       </c>
       <c r="U13">
-        <v>100195.75769230771</v>
+        <v>99511.711348036304</v>
       </c>
       <c r="V13">
-        <v>100196.92769230771</v>
+        <v>99512.581348036299</v>
       </c>
       <c r="W13">
-        <v>100200.08769230772</v>
+        <v>99513.451348036295</v>
       </c>
       <c r="X13">
-        <v>100203.89769230771</v>
+        <v>99514.0038480363</v>
       </c>
       <c r="Y13">
-        <v>100202.01769230772</v>
+        <v>99514.238848036301</v>
       </c>
       <c r="Z13">
-        <v>100200.53769230771</v>
+        <v>99514.473848036301</v>
       </c>
       <c r="AA13">
-        <v>100201.99769230772</v>
+        <v>99514.708848036302</v>
       </c>
       <c r="AB13">
-        <v>100201.85769230772</v>
+        <v>99514.295098036309</v>
       </c>
       <c r="AC13">
-        <v>100202.66769230772</v>
+        <v>99513.232598036309</v>
       </c>
       <c r="AD13">
-        <v>100198.55769230772</v>
+        <v>99512.170098036309</v>
       </c>
       <c r="AE13">
-        <v>100202.57769230772</v>
+        <v>99511.107598036309</v>
       </c>
       <c r="AF13">
-        <v>100203.69769230772</v>
+        <v>99510.335098036318</v>
       </c>
       <c r="AG13">
-        <v>100193.62769230772</v>
+        <v>99509.852598036319</v>
       </c>
       <c r="AH13">
-        <v>100197.74769230772</v>
+        <v>99509.370098036321</v>
       </c>
       <c r="AI13">
-        <v>100201.07769230772</v>
+        <v>99508.887598036323</v>
       </c>
       <c r="AJ13">
-        <v>100199.35769230772</v>
+        <v>99508.600098036302</v>
       </c>
       <c r="AK13">
-        <v>100199.87769230772</v>
+        <v>99508.507598036304</v>
       </c>
       <c r="AL13">
-        <v>100202.40769230772</v>
+        <v>99508.415098036305</v>
       </c>
       <c r="AM13">
-        <v>100198.97769230772</v>
+        <v>99508.322598036291</v>
       </c>
       <c r="AN13">
-        <v>100198.13769230772</v>
+        <v>99508.09259803631</v>
       </c>
       <c r="AO13">
-        <v>100197.10769230772</v>
+        <v>99507.847598036315</v>
       </c>
       <c r="AP13">
-        <v>100198.20769230771</v>
+        <v>99510.223848036316</v>
       </c>
       <c r="AQ13">
-        <v>100199.07769230772</v>
+        <v>99513.473848036316</v>
       </c>
       <c r="AR13">
-        <v>100200.07769230772</v>
+        <v>99514.286348036316</v>
       </c>
       <c r="AS13">
-        <v>100203.26769230772</v>
+        <v>99514.286348036316</v>
       </c>
       <c r="AT13">
-        <v>100202.30769230772</v>
+        <v>99514.286348036316</v>
       </c>
       <c r="AU13">
-        <v>100201.75769230771</v>
+        <v>99514.286348036316</v>
       </c>
       <c r="AV13">
-        <v>100201.53769230771</v>
+        <v>99514.286348036316</v>
       </c>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.45">
@@ -2183,145 +2183,145 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>100222.80769230772</v>
+        <v>99505.036348036316</v>
       </c>
       <c r="C14">
-        <v>100222.11769230771</v>
+        <v>99505.036348036316</v>
       </c>
       <c r="D14">
-        <v>100223.47769230772</v>
+        <v>99505.036348036316</v>
       </c>
       <c r="E14">
-        <v>100192.09769230771</v>
+        <v>99505.036348036316</v>
       </c>
       <c r="F14">
-        <v>100190.38769230772</v>
+        <v>99505.036348036316</v>
       </c>
       <c r="G14">
-        <v>100222.75769230771</v>
+        <v>99505.036348036316</v>
       </c>
       <c r="H14">
-        <v>100227.74769230772</v>
+        <v>99506.101348036318</v>
       </c>
       <c r="I14">
-        <v>100231.97769230772</v>
+        <v>99510.361348036298</v>
       </c>
       <c r="J14">
-        <v>100191.41769230772</v>
+        <v>99513.53009803631</v>
       </c>
       <c r="K14">
-        <v>100221.68769230772</v>
+        <v>99513.545098036295</v>
       </c>
       <c r="L14">
-        <v>100220.76769230772</v>
+        <v>99513.263848036295</v>
       </c>
       <c r="M14">
-        <v>100190.87769230772</v>
+        <v>99512.618848036305</v>
       </c>
       <c r="N14">
-        <v>100183.12769230772</v>
+        <v>99511.973848036316</v>
       </c>
       <c r="O14">
-        <v>100193.81769230771</v>
+        <v>99511.328848036312</v>
       </c>
       <c r="P14">
-        <v>100160.38769230772</v>
+        <v>99510.940098036313</v>
       </c>
       <c r="Q14">
-        <v>100175.38769230772</v>
+        <v>99510.807598036306</v>
       </c>
       <c r="R14">
-        <v>100167.51769230772</v>
+        <v>99510.675098036299</v>
       </c>
       <c r="S14">
-        <v>100184.50769230771</v>
+        <v>99510.542598036292</v>
       </c>
       <c r="T14">
-        <v>100193.42769230771</v>
+        <v>99510.868848036305</v>
       </c>
       <c r="U14">
-        <v>100194.23769230771</v>
+        <v>99511.653848036309</v>
       </c>
       <c r="V14">
-        <v>100194.07769230772</v>
+        <v>99512.438848036312</v>
       </c>
       <c r="W14">
-        <v>100196.87769230772</v>
+        <v>99513.223848036316</v>
       </c>
       <c r="X14">
-        <v>100200.88769230772</v>
+        <v>99513.756348036317</v>
       </c>
       <c r="Y14">
-        <v>100198.93769230772</v>
+        <v>99514.036348036316</v>
       </c>
       <c r="Z14">
-        <v>100197.37769230772</v>
+        <v>99514.316348036315</v>
       </c>
       <c r="AA14">
-        <v>100198.83769230772</v>
+        <v>99514.596348036313</v>
       </c>
       <c r="AB14">
-        <v>100198.72769230772</v>
+        <v>99514.176348036301</v>
       </c>
       <c r="AC14">
-        <v>100199.52769230772</v>
+        <v>99513.056348036305</v>
       </c>
       <c r="AD14">
-        <v>100195.70769230771</v>
+        <v>99511.93634803631</v>
       </c>
       <c r="AE14">
-        <v>100199.38769230772</v>
+        <v>99510.816348036315</v>
       </c>
       <c r="AF14">
-        <v>100200.54769230772</v>
+        <v>99509.983848036325</v>
       </c>
       <c r="AG14">
-        <v>100190.44769230772</v>
+        <v>99509.438848036327</v>
       </c>
       <c r="AH14">
-        <v>100195.16769230772</v>
+        <v>99508.893848036329</v>
       </c>
       <c r="AI14">
-        <v>100198.81769230771</v>
+        <v>99508.348848036316</v>
       </c>
       <c r="AJ14">
-        <v>100196.81769230771</v>
+        <v>99508.015098036296</v>
       </c>
       <c r="AK14">
-        <v>100197.41769230772</v>
+        <v>99507.892598036298</v>
       </c>
       <c r="AL14">
-        <v>100199.82769230772</v>
+        <v>99507.770098036301</v>
       </c>
       <c r="AM14">
-        <v>100196.39769230771</v>
+        <v>99507.647598036303</v>
       </c>
       <c r="AN14">
-        <v>100195.60769230772</v>
+        <v>99507.406348036311</v>
       </c>
       <c r="AO14">
-        <v>100194.62769230772</v>
+        <v>99507.16634803632</v>
       </c>
       <c r="AP14">
-        <v>100195.72769230772</v>
+        <v>99509.926348036301</v>
       </c>
       <c r="AQ14">
-        <v>100196.58769230772</v>
+        <v>99513.68634803631</v>
       </c>
       <c r="AR14">
-        <v>100197.70769230771</v>
+        <v>99514.626348036312</v>
       </c>
       <c r="AS14">
-        <v>100200.55769230772</v>
+        <v>99514.626348036312</v>
       </c>
       <c r="AT14">
-        <v>100199.70769230771</v>
+        <v>99514.626348036312</v>
       </c>
       <c r="AU14">
-        <v>100199.27769230772</v>
+        <v>99514.626348036312</v>
       </c>
       <c r="AV14">
-        <v>100198.98769230771</v>
+        <v>99514.626348036312</v>
       </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.45">
@@ -2329,145 +2329,145 @@
         <v>4</v>
       </c>
       <c r="B15">
-        <v>100228.64769230771</v>
+        <v>99504.316348036315</v>
       </c>
       <c r="C15">
-        <v>100227.75769230771</v>
+        <v>99504.316348036315</v>
       </c>
       <c r="D15">
-        <v>100229.44769230772</v>
+        <v>99504.316348036315</v>
       </c>
       <c r="E15">
-        <v>100198.12769230772</v>
+        <v>99504.316348036315</v>
       </c>
       <c r="F15">
-        <v>100195.96769230772</v>
+        <v>99504.316348036315</v>
       </c>
       <c r="G15">
-        <v>100228.66769230772</v>
+        <v>99504.316348036315</v>
       </c>
       <c r="H15">
-        <v>100233.58769230772</v>
+        <v>99505.522598036303</v>
       </c>
       <c r="I15">
-        <v>100237.77769230772</v>
+        <v>99510.347598036315</v>
       </c>
       <c r="J15">
-        <v>100196.99769230772</v>
+        <v>99513.975098036302</v>
       </c>
       <c r="K15">
-        <v>100227.50769230771</v>
+        <v>99513.970098036298</v>
       </c>
       <c r="L15">
-        <v>100226.38769230772</v>
+        <v>99513.616348036303</v>
       </c>
       <c r="M15">
-        <v>100190.43769230772</v>
+        <v>99512.93634803631</v>
       </c>
       <c r="N15">
-        <v>100162.30769230772</v>
+        <v>99512.256348036317</v>
       </c>
       <c r="O15">
-        <v>100171.22769230772</v>
+        <v>99511.576348036309</v>
       </c>
       <c r="P15">
-        <v>100168.94769230772</v>
+        <v>99511.166348036306</v>
       </c>
       <c r="Q15">
-        <v>100204.19769230772</v>
+        <v>99511.026348036306</v>
       </c>
       <c r="R15">
-        <v>100194.87769230772</v>
+        <v>99510.886348036307</v>
       </c>
       <c r="S15">
-        <v>100200.12769230772</v>
+        <v>99510.746348036308</v>
       </c>
       <c r="T15">
-        <v>100200.59769230771</v>
+        <v>99511.023848036304</v>
       </c>
       <c r="U15">
-        <v>100200.02769230772</v>
+        <v>99511.718848036311</v>
       </c>
       <c r="V15">
-        <v>100199.82769230772</v>
+        <v>99512.413848036318</v>
       </c>
       <c r="W15">
-        <v>100202.98769230771</v>
+        <v>99513.108848036311</v>
       </c>
       <c r="X15">
-        <v>100206.79769230772</v>
+        <v>99513.626348036327</v>
       </c>
       <c r="Y15">
-        <v>100204.77769230772</v>
+        <v>99513.966348036323</v>
       </c>
       <c r="Z15">
-        <v>100203.10769230772</v>
+        <v>99514.30634803632</v>
       </c>
       <c r="AA15">
-        <v>100204.59769230771</v>
+        <v>99514.646348036331</v>
       </c>
       <c r="AB15">
-        <v>100204.60769230772</v>
+        <v>99514.216348036323</v>
       </c>
       <c r="AC15">
-        <v>100205.10769230772</v>
+        <v>99513.016348036326</v>
       </c>
       <c r="AD15">
-        <v>100201.21769230772</v>
+        <v>99511.816348036329</v>
       </c>
       <c r="AE15">
-        <v>100205.30769230772</v>
+        <v>99510.616348036332</v>
       </c>
       <c r="AF15">
-        <v>100206.50769230771</v>
+        <v>99509.710098036318</v>
       </c>
       <c r="AG15">
-        <v>100196.39769230771</v>
+        <v>99509.097598036315</v>
       </c>
       <c r="AH15">
-        <v>100200.02769230772</v>
+        <v>99508.485098036312</v>
       </c>
       <c r="AI15">
-        <v>100204.50769230771</v>
+        <v>99507.872598036309</v>
       </c>
       <c r="AJ15">
-        <v>100202.10769230772</v>
+        <v>99507.497598036323</v>
       </c>
       <c r="AK15">
-        <v>100202.48769230771</v>
+        <v>99507.360098036326</v>
       </c>
       <c r="AL15">
-        <v>100205.21769230772</v>
+        <v>99507.222598036329</v>
       </c>
       <c r="AM15">
-        <v>100201.78769230771</v>
+        <v>99507.085098036332</v>
       </c>
       <c r="AN15">
-        <v>100200.55769230772</v>
+        <v>99506.855098036307</v>
       </c>
       <c r="AO15">
-        <v>100199.69769230772</v>
+        <v>99506.640098036296</v>
       </c>
       <c r="AP15">
-        <v>100200.75769230771</v>
+        <v>99509.807598036321</v>
       </c>
       <c r="AQ15">
-        <v>100201.70769230771</v>
+        <v>99514.102598036319</v>
       </c>
       <c r="AR15">
-        <v>100202.60769230772</v>
+        <v>99515.176348036315</v>
       </c>
       <c r="AS15">
-        <v>100205.89769230771</v>
+        <v>99515.176348036315</v>
       </c>
       <c r="AT15">
-        <v>100204.63769230772</v>
+        <v>99515.176348036315</v>
       </c>
       <c r="AU15">
-        <v>100204.49769230772</v>
+        <v>99515.176348036315</v>
       </c>
       <c r="AV15">
-        <v>100204.19769230772</v>
+        <v>99515.176348036315</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.45">
@@ -2475,145 +2475,145 @@
         <v>5</v>
       </c>
       <c r="B16">
-        <v>100223.33769230772</v>
+        <v>99503.556348036305</v>
       </c>
       <c r="C16">
-        <v>100222.71769230772</v>
+        <v>99503.556348036305</v>
       </c>
       <c r="D16">
-        <v>100224.12769230772</v>
+        <v>99503.556348036305</v>
       </c>
       <c r="E16">
-        <v>100192.87769230772</v>
+        <v>99503.556348036305</v>
       </c>
       <c r="F16">
-        <v>100190.84769230771</v>
+        <v>99503.556348036305</v>
       </c>
       <c r="G16">
-        <v>100223.30769230772</v>
+        <v>99503.556348036305</v>
       </c>
       <c r="H16">
-        <v>100228.39769230771</v>
+        <v>99504.863848036315</v>
       </c>
       <c r="I16">
-        <v>100232.55769230772</v>
+        <v>99510.093848036326</v>
       </c>
       <c r="J16">
-        <v>100191.94769230772</v>
+        <v>99514.182598036321</v>
       </c>
       <c r="K16">
-        <v>100222.18769230772</v>
+        <v>99514.08759803632</v>
       </c>
       <c r="L16">
-        <v>100215.09769230771</v>
+        <v>99513.47884803632</v>
       </c>
       <c r="M16">
-        <v>100156.76769230772</v>
+        <v>99512.783848036313</v>
       </c>
       <c r="N16">
-        <v>100129.28769230771</v>
+        <v>99512.088848036306</v>
       </c>
       <c r="O16">
-        <v>100169.68769230772</v>
+        <v>99511.393848036314</v>
       </c>
       <c r="P16">
-        <v>100188.51769230772</v>
+        <v>99510.980098036322</v>
       </c>
       <c r="Q16">
-        <v>100220.81769230771</v>
+        <v>99510.847598036315</v>
       </c>
       <c r="R16">
-        <v>100197.42769230771</v>
+        <v>99510.715098036308</v>
       </c>
       <c r="S16">
-        <v>100195.95769230771</v>
+        <v>99510.582598036315</v>
       </c>
       <c r="T16">
-        <v>100195.53769230771</v>
+        <v>99510.848848036316</v>
       </c>
       <c r="U16">
-        <v>100194.87769230772</v>
+        <v>99511.513848036309</v>
       </c>
       <c r="V16">
-        <v>100194.86769230771</v>
+        <v>99512.178848036303</v>
       </c>
       <c r="W16">
-        <v>100197.53769230771</v>
+        <v>99512.843848036311</v>
       </c>
       <c r="X16">
-        <v>100201.48769230771</v>
+        <v>99513.367598036304</v>
       </c>
       <c r="Y16">
-        <v>100199.49769230772</v>
+        <v>99513.750098036311</v>
       </c>
       <c r="Z16">
-        <v>100197.79769230772</v>
+        <v>99514.132598036318</v>
       </c>
       <c r="AA16">
-        <v>100199.46769230772</v>
+        <v>99514.515098036311</v>
       </c>
       <c r="AB16">
-        <v>100199.48769230771</v>
+        <v>99514.08759803632</v>
       </c>
       <c r="AC16">
-        <v>100200.13769230772</v>
+        <v>99512.850098036317</v>
       </c>
       <c r="AD16">
-        <v>100196.04769230772</v>
+        <v>99511.612598036314</v>
       </c>
       <c r="AE16">
-        <v>100200.08769230772</v>
+        <v>99510.375098036311</v>
       </c>
       <c r="AF16">
-        <v>100201.16769230772</v>
+        <v>99509.410098036315</v>
       </c>
       <c r="AG16">
-        <v>100191.05769230772</v>
+        <v>99508.71759803631</v>
       </c>
       <c r="AH16">
-        <v>100195.74769230772</v>
+        <v>99508.025098036305</v>
       </c>
       <c r="AI16">
-        <v>100199.33769230772</v>
+        <v>99507.332598036301</v>
       </c>
       <c r="AJ16">
-        <v>100197.46769230772</v>
+        <v>99506.892598036313</v>
       </c>
       <c r="AK16">
-        <v>100197.93769230772</v>
+        <v>99506.705098036313</v>
       </c>
       <c r="AL16">
-        <v>100200.48769230771</v>
+        <v>99506.517598036313</v>
       </c>
       <c r="AM16">
-        <v>100196.97769230772</v>
+        <v>99506.330098036313</v>
       </c>
       <c r="AN16">
-        <v>100196.24769230772</v>
+        <v>99506.090098036322</v>
       </c>
       <c r="AO16">
-        <v>100195.09769230771</v>
+        <v>99505.89509803633</v>
       </c>
       <c r="AP16">
-        <v>100196.28769230771</v>
+        <v>99509.450098036308</v>
       </c>
       <c r="AQ16">
-        <v>100197.24769230772</v>
+        <v>99514.255098036316</v>
       </c>
       <c r="AR16">
-        <v>100198.25769230771</v>
+        <v>99515.456348036314</v>
       </c>
       <c r="AS16">
-        <v>100201.16769230772</v>
+        <v>99515.456348036314</v>
       </c>
       <c r="AT16">
-        <v>100200.18769230772</v>
+        <v>99515.456348036314</v>
       </c>
       <c r="AU16">
-        <v>100199.86769230771</v>
+        <v>99515.456348036314</v>
       </c>
       <c r="AV16">
-        <v>100199.45769230771</v>
+        <v>99515.456348036314</v>
       </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.45">
@@ -2621,145 +2621,145 @@
         <v>6</v>
       </c>
       <c r="B17">
-        <v>100215.40769230772</v>
+        <v>99501.736348036313</v>
       </c>
       <c r="C17">
-        <v>100215.05769230772</v>
+        <v>99501.736348036313</v>
       </c>
       <c r="D17">
-        <v>100216.24769230772</v>
+        <v>99501.736348036313</v>
       </c>
       <c r="E17">
-        <v>100184.84769230771</v>
+        <v>99501.736348036313</v>
       </c>
       <c r="F17">
-        <v>100182.68769230772</v>
+        <v>99501.736348036313</v>
       </c>
       <c r="G17">
-        <v>100215.06769230771</v>
+        <v>99501.736348036313</v>
       </c>
       <c r="H17">
-        <v>100220.21769230772</v>
+        <v>99503.155098036324</v>
       </c>
       <c r="I17">
-        <v>100224.23769230771</v>
+        <v>99508.830098036313</v>
       </c>
       <c r="J17">
-        <v>100184.01769230772</v>
+        <v>99513.6288480363</v>
       </c>
       <c r="K17">
-        <v>100213.60769230772</v>
+        <v>99513.318848036302</v>
       </c>
       <c r="L17">
-        <v>100175.15769230772</v>
+        <v>99512.176348036301</v>
       </c>
       <c r="M17">
-        <v>100116.13769230772</v>
+        <v>99511.596348036299</v>
       </c>
       <c r="N17">
-        <v>100123.15769230772</v>
+        <v>99511.016348036297</v>
       </c>
       <c r="O17">
-        <v>100188.70769230771</v>
+        <v>99510.43634803631</v>
       </c>
       <c r="P17">
-        <v>100204.35769230772</v>
+        <v>99510.055098036304</v>
       </c>
       <c r="Q17">
-        <v>100219.72769230772</v>
+        <v>99509.872598036309</v>
       </c>
       <c r="R17">
-        <v>100190.16769230772</v>
+        <v>99509.690098036313</v>
       </c>
       <c r="S17">
-        <v>100188.09769230771</v>
+        <v>99509.507598036304</v>
       </c>
       <c r="T17">
-        <v>100187.47769230772</v>
+        <v>99509.736348036313</v>
       </c>
       <c r="U17">
-        <v>100187.18769230772</v>
+        <v>99510.376348036312</v>
       </c>
       <c r="V17">
-        <v>100187.09769230771</v>
+        <v>99511.016348036312</v>
       </c>
       <c r="W17">
-        <v>100189.68769230772</v>
+        <v>99511.656348036311</v>
       </c>
       <c r="X17">
-        <v>100193.54769230772</v>
+        <v>99512.210098036318</v>
       </c>
       <c r="Y17">
-        <v>100191.38769230772</v>
+        <v>99512.677598036316</v>
       </c>
       <c r="Z17">
-        <v>100189.63769230772</v>
+        <v>99513.145098036315</v>
       </c>
       <c r="AA17">
-        <v>100191.25769230771</v>
+        <v>99513.612598036329</v>
       </c>
       <c r="AB17">
-        <v>100191.43769230772</v>
+        <v>99513.183848036322</v>
       </c>
       <c r="AC17">
-        <v>100192.15769230772</v>
+        <v>99511.858848036325</v>
       </c>
       <c r="AD17">
-        <v>100187.88769230772</v>
+        <v>99510.533848036328</v>
       </c>
       <c r="AE17">
-        <v>100191.92769230771</v>
+        <v>99509.208848036331</v>
       </c>
       <c r="AF17">
-        <v>100193.42769230771</v>
+        <v>99508.138848036324</v>
       </c>
       <c r="AG17">
-        <v>100182.95769230771</v>
+        <v>99507.323848036322</v>
       </c>
       <c r="AH17">
-        <v>100187.93769230772</v>
+        <v>99506.508848036319</v>
       </c>
       <c r="AI17">
-        <v>100192.47769230772</v>
+        <v>99505.693848036317</v>
       </c>
       <c r="AJ17">
-        <v>100189.18769230772</v>
+        <v>99505.186348036324</v>
       </c>
       <c r="AK17">
-        <v>100189.53769230771</v>
+        <v>99504.986348036327</v>
       </c>
       <c r="AL17">
-        <v>100191.99769230772</v>
+        <v>99504.78634803633</v>
       </c>
       <c r="AM17">
-        <v>100188.17769230771</v>
+        <v>99504.586348036333</v>
       </c>
       <c r="AN17">
-        <v>100187.46769230772</v>
+        <v>99504.362598036314</v>
       </c>
       <c r="AO17">
-        <v>100186.75769230771</v>
+        <v>99504.19759803632</v>
       </c>
       <c r="AP17">
-        <v>100187.68769230772</v>
+        <v>99508.120098036321</v>
       </c>
       <c r="AQ17">
-        <v>100188.72769230772</v>
+        <v>99513.40509803631</v>
       </c>
       <c r="AR17">
-        <v>100189.90769230772</v>
+        <v>99514.726348036304</v>
       </c>
       <c r="AS17">
-        <v>100192.61769230771</v>
+        <v>99514.726348036304</v>
       </c>
       <c r="AT17">
-        <v>100191.56769230771</v>
+        <v>99514.726348036304</v>
       </c>
       <c r="AU17">
-        <v>100191.44769230772</v>
+        <v>99514.726348036304</v>
       </c>
       <c r="AV17">
-        <v>100190.61769230771</v>
+        <v>99514.726348036304</v>
       </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.45">
@@ -2767,145 +2767,145 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>100223.16769230772</v>
+        <v>99501.536348036316</v>
       </c>
       <c r="C18">
-        <v>100222.58769230772</v>
+        <v>99501.536348036316</v>
       </c>
       <c r="D18">
-        <v>100223.92769230771</v>
+        <v>99501.536348036316</v>
       </c>
       <c r="E18">
-        <v>100192.73769230771</v>
+        <v>99501.536348036316</v>
       </c>
       <c r="F18">
-        <v>100190.70769230771</v>
+        <v>99501.536348036316</v>
       </c>
       <c r="G18">
-        <v>100223.16769230772</v>
+        <v>99501.536348036316</v>
       </c>
       <c r="H18">
-        <v>100228.24769230772</v>
+        <v>99503.058848036322</v>
       </c>
       <c r="I18">
-        <v>100232.50769230771</v>
+        <v>99509.148848036319</v>
       </c>
       <c r="J18">
-        <v>100191.73769230771</v>
+        <v>99514.670098036295</v>
       </c>
       <c r="K18">
-        <v>100212.88769230772</v>
+        <v>99514.125098036311</v>
       </c>
       <c r="L18">
-        <v>100147.67769230771</v>
+        <v>99512.377598036313</v>
       </c>
       <c r="M18">
-        <v>100125.40769230772</v>
+        <v>99511.880098036316</v>
       </c>
       <c r="N18">
-        <v>100157.54769230772</v>
+        <v>99511.382598036318</v>
       </c>
       <c r="O18">
-        <v>100218.35769230772</v>
+        <v>99510.88509803632</v>
       </c>
       <c r="P18">
-        <v>100216.49769230772</v>
+        <v>99510.481348036308</v>
       </c>
       <c r="Q18">
-        <v>100228.17769230771</v>
+        <v>99510.171348036311</v>
       </c>
       <c r="R18">
-        <v>100198.06769230771</v>
+        <v>99509.861348036313</v>
       </c>
       <c r="S18">
-        <v>100195.85769230772</v>
+        <v>99509.551348036315</v>
       </c>
       <c r="T18">
-        <v>100195.37769230772</v>
+        <v>99509.671348036311</v>
       </c>
       <c r="U18">
-        <v>100194.75769230771</v>
+        <v>99510.221348036313</v>
       </c>
       <c r="V18">
-        <v>100194.71769230772</v>
+        <v>99510.771348036316</v>
       </c>
       <c r="W18">
-        <v>100197.39769230771</v>
+        <v>99511.321348036319</v>
       </c>
       <c r="X18">
-        <v>100201.27769230772</v>
+        <v>99511.808848036322</v>
       </c>
       <c r="Y18">
-        <v>100199.32769230772</v>
+        <v>99512.233848036325</v>
       </c>
       <c r="Z18">
-        <v>100197.77769230772</v>
+        <v>99512.658848036328</v>
       </c>
       <c r="AA18">
-        <v>100199.48769230771</v>
+        <v>99513.083848036331</v>
       </c>
       <c r="AB18">
-        <v>100199.24769230772</v>
+        <v>99512.615098036316</v>
       </c>
       <c r="AC18">
-        <v>100200.15769230772</v>
+        <v>99511.252598036313</v>
       </c>
       <c r="AD18">
-        <v>100195.92769230771</v>
+        <v>99509.890098036311</v>
       </c>
       <c r="AE18">
-        <v>100199.87769230772</v>
+        <v>99508.527598036308</v>
       </c>
       <c r="AF18">
-        <v>100200.92769230771</v>
+        <v>99507.520098036315</v>
       </c>
       <c r="AG18">
-        <v>100190.74769230772</v>
+        <v>99506.867598036319</v>
       </c>
       <c r="AH18">
-        <v>100195.21769230772</v>
+        <v>99506.215098036322</v>
       </c>
       <c r="AI18">
-        <v>100198.57769230772</v>
+        <v>99505.562598036311</v>
       </c>
       <c r="AJ18">
-        <v>100196.27769230772</v>
+        <v>99505.106348036323</v>
       </c>
       <c r="AK18">
-        <v>100196.66769230772</v>
+        <v>99504.846348036313</v>
       </c>
       <c r="AL18">
-        <v>100199.17769230771</v>
+        <v>99504.586348036304</v>
       </c>
       <c r="AM18">
-        <v>100195.68769230772</v>
+        <v>99504.326348036309</v>
       </c>
       <c r="AN18">
-        <v>100195.13769230772</v>
+        <v>99504.076348036309</v>
       </c>
       <c r="AO18">
-        <v>100193.72769230772</v>
+        <v>99503.91634803632</v>
       </c>
       <c r="AP18">
-        <v>100195.00769230771</v>
+        <v>99508.222598036315</v>
       </c>
       <c r="AQ18">
-        <v>100195.93769230772</v>
+        <v>99514.017598036313</v>
       </c>
       <c r="AR18">
-        <v>100197.05769230772</v>
+        <v>99515.466348036309</v>
       </c>
       <c r="AS18">
-        <v>100199.98769230771</v>
+        <v>99515.466348036309</v>
       </c>
       <c r="AT18">
-        <v>100198.91769230772</v>
+        <v>99515.466348036309</v>
       </c>
       <c r="AU18">
-        <v>100198.63769230772</v>
+        <v>99515.466348036309</v>
       </c>
       <c r="AV18">
-        <v>100198.04769230772</v>
+        <v>99515.466348036309</v>
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.45">
@@ -2913,145 +2913,145 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>100222.66769230772</v>
+        <v>99499.556348036305</v>
       </c>
       <c r="C19">
-        <v>100221.98769230771</v>
+        <v>99499.556348036305</v>
       </c>
       <c r="D19">
-        <v>100223.32769230772</v>
+        <v>99499.556348036305</v>
       </c>
       <c r="E19">
-        <v>100192.31769230771</v>
+        <v>99499.556348036305</v>
       </c>
       <c r="F19">
-        <v>100190.21769230772</v>
+        <v>99499.556348036305</v>
       </c>
       <c r="G19">
-        <v>100222.55769230772</v>
+        <v>99499.556348036305</v>
       </c>
       <c r="H19">
-        <v>100227.51769230772</v>
+        <v>99501.176348036315</v>
       </c>
       <c r="I19">
-        <v>100231.77769230772</v>
+        <v>99507.656348036326</v>
       </c>
       <c r="J19">
-        <v>100190.10769230772</v>
+        <v>99513.653848036309</v>
       </c>
       <c r="K19">
-        <v>100177.10769230772</v>
+        <v>99513.003848036315</v>
       </c>
       <c r="L19">
-        <v>100146.16769230772</v>
+        <v>99510.991348036318</v>
       </c>
       <c r="M19">
-        <v>100150.27769230772</v>
+        <v>99510.54134803632</v>
       </c>
       <c r="N19">
-        <v>100178.07769230772</v>
+        <v>99510.091348036323</v>
       </c>
       <c r="O19">
-        <v>100223.04769230772</v>
+        <v>99509.641348036326</v>
       </c>
       <c r="P19">
-        <v>100216.26769230772</v>
+        <v>99509.237598036314</v>
       </c>
       <c r="Q19">
-        <v>100227.58769230772</v>
+        <v>99508.880098036316</v>
       </c>
       <c r="R19">
-        <v>100197.42769230771</v>
+        <v>99508.522598036318</v>
       </c>
       <c r="S19">
-        <v>100195.33769230772</v>
+        <v>99508.165098036319</v>
       </c>
       <c r="T19">
-        <v>100194.81769230771</v>
+        <v>99508.2538480363</v>
       </c>
       <c r="U19">
-        <v>100194.32769230772</v>
+        <v>99508.788848036304</v>
       </c>
       <c r="V19">
-        <v>100194.05769230772</v>
+        <v>99509.323848036307</v>
       </c>
       <c r="W19">
-        <v>100196.86769230771</v>
+        <v>99509.858848036296</v>
       </c>
       <c r="X19">
-        <v>100200.80769230772</v>
+        <v>99510.365098036302</v>
       </c>
       <c r="Y19">
-        <v>100198.91769230772</v>
+        <v>99510.84259803631</v>
       </c>
       <c r="Z19">
-        <v>100197.15769230772</v>
+        <v>99511.320098036318</v>
       </c>
       <c r="AA19">
-        <v>100198.80769230772</v>
+        <v>99511.797598036312</v>
       </c>
       <c r="AB19">
-        <v>100198.83769230772</v>
+        <v>99511.327598036325</v>
       </c>
       <c r="AC19">
-        <v>100199.38769230772</v>
+        <v>99509.910098036329</v>
       </c>
       <c r="AD19">
-        <v>100195.20769230771</v>
+        <v>99508.492598036333</v>
       </c>
       <c r="AE19">
-        <v>100199.35769230772</v>
+        <v>99507.075098036323</v>
       </c>
       <c r="AF19">
-        <v>100200.45769230771</v>
+        <v>99506.002598036313</v>
       </c>
       <c r="AG19">
-        <v>100190.31769230771</v>
+        <v>99505.27509803632</v>
       </c>
       <c r="AH19">
-        <v>100195.45769230771</v>
+        <v>99504.547598036326</v>
       </c>
       <c r="AI19">
-        <v>100197.86769230771</v>
+        <v>99503.820098036318</v>
       </c>
       <c r="AJ19">
-        <v>100196.57769230772</v>
+        <v>99503.303848036303</v>
       </c>
       <c r="AK19">
-        <v>100196.96769230772</v>
+        <v>99502.99884803631</v>
       </c>
       <c r="AL19">
-        <v>100199.42769230771</v>
+        <v>99502.693848036317</v>
       </c>
       <c r="AM19">
-        <v>100195.90769230772</v>
+        <v>99502.388848036309</v>
       </c>
       <c r="AN19">
-        <v>100195.15769230772</v>
+        <v>99502.138848036309</v>
       </c>
       <c r="AO19">
-        <v>100193.87769230772</v>
+        <v>99502.008848036305</v>
       </c>
       <c r="AP19">
-        <v>100195.15769230772</v>
+        <v>99506.656348036311</v>
       </c>
       <c r="AQ19">
-        <v>100196.08769230772</v>
+        <v>99512.896348036316</v>
       </c>
       <c r="AR19">
-        <v>100197.21769230772</v>
+        <v>99514.456348036314</v>
       </c>
       <c r="AS19">
-        <v>100200.26769230772</v>
+        <v>99514.456348036314</v>
       </c>
       <c r="AT19">
-        <v>100199.16769230772</v>
+        <v>99514.456348036314</v>
       </c>
       <c r="AU19">
-        <v>100198.95769230771</v>
+        <v>99514.456348036314</v>
       </c>
       <c r="AV19">
-        <v>100198.52769230772</v>
+        <v>99514.456348036314</v>
       </c>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.45">
@@ -3059,145 +3059,145 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <v>100219.42769230771</v>
+        <v>99499.446348036305</v>
       </c>
       <c r="C20">
-        <v>100218.92769230771</v>
+        <v>99499.446348036305</v>
       </c>
       <c r="D20">
-        <v>100220.13769230772</v>
+        <v>99499.446348036305</v>
       </c>
       <c r="E20">
-        <v>100189.54769230772</v>
+        <v>99499.446348036305</v>
       </c>
       <c r="F20">
-        <v>100187.09769230771</v>
+        <v>99499.446348036305</v>
       </c>
       <c r="G20">
-        <v>100219.30769230772</v>
+        <v>99499.446348036305</v>
       </c>
       <c r="H20">
-        <v>100224.30769230772</v>
+        <v>99501.098848036316</v>
       </c>
       <c r="I20">
-        <v>100228.54769230772</v>
+        <v>99507.708848036302</v>
       </c>
       <c r="J20">
-        <v>100172.19769230772</v>
+        <v>99513.87384803631</v>
       </c>
       <c r="K20">
-        <v>100139.61769230771</v>
+        <v>99513.183848036308</v>
       </c>
       <c r="L20">
-        <v>100164.59769230771</v>
+        <v>99511.121348036322</v>
       </c>
       <c r="M20">
-        <v>100168.35769230772</v>
+        <v>99510.79134803632</v>
       </c>
       <c r="N20">
-        <v>100182.59769230771</v>
+        <v>99510.461348036319</v>
       </c>
       <c r="O20">
-        <v>100220.60769230772</v>
+        <v>99510.131348036317</v>
       </c>
       <c r="P20">
-        <v>100212.90769230772</v>
+        <v>99509.763848036309</v>
       </c>
       <c r="Q20">
-        <v>100224.18769230772</v>
+        <v>99509.358848036311</v>
       </c>
       <c r="R20">
-        <v>100194.21769230772</v>
+        <v>99508.953848036312</v>
       </c>
       <c r="S20">
-        <v>100192.08769230772</v>
+        <v>99508.548848036313</v>
       </c>
       <c r="T20">
-        <v>100191.65769230772</v>
+        <v>99508.593848036311</v>
       </c>
       <c r="U20">
-        <v>100191.35769230772</v>
+        <v>99509.088848036306</v>
       </c>
       <c r="V20">
-        <v>100191.02769230772</v>
+        <v>99509.583848036302</v>
       </c>
       <c r="W20">
-        <v>100193.70769230771</v>
+        <v>99510.078848036297</v>
       </c>
       <c r="X20">
-        <v>100197.46769230772</v>
+        <v>99510.590098036322</v>
       </c>
       <c r="Y20">
-        <v>100195.59769230771</v>
+        <v>99511.117598036319</v>
       </c>
       <c r="Z20">
-        <v>100193.95769230771</v>
+        <v>99511.645098036315</v>
       </c>
       <c r="AA20">
-        <v>100195.61769230771</v>
+        <v>99512.172598036326</v>
       </c>
       <c r="AB20">
-        <v>100195.35769230772</v>
+        <v>99511.687598036311</v>
       </c>
       <c r="AC20">
-        <v>100196.16769230772</v>
+        <v>99510.190098036313</v>
       </c>
       <c r="AD20">
-        <v>100192.04769230772</v>
+        <v>99508.692598036316</v>
       </c>
       <c r="AE20">
-        <v>100195.99769230772</v>
+        <v>99507.195098036318</v>
       </c>
       <c r="AF20">
-        <v>100197.35769230772</v>
+        <v>99506.065098036299</v>
       </c>
       <c r="AG20">
-        <v>100186.99769230772</v>
+        <v>99505.302598036302</v>
       </c>
       <c r="AH20">
-        <v>100192.61769230771</v>
+        <v>99504.540098036305</v>
       </c>
       <c r="AI20">
-        <v>100195.74769230772</v>
+        <v>99503.777598036308</v>
       </c>
       <c r="AJ20">
-        <v>100193.50769230771</v>
+        <v>99503.237598036329</v>
       </c>
       <c r="AK20">
-        <v>100193.76769230772</v>
+        <v>99502.920098036324</v>
       </c>
       <c r="AL20">
-        <v>100196.29769230772</v>
+        <v>99502.602598036319</v>
       </c>
       <c r="AM20">
-        <v>100192.64769230771</v>
+        <v>99502.285098036315</v>
       </c>
       <c r="AN20">
-        <v>100192.12769230772</v>
+        <v>99502.058848036322</v>
       </c>
       <c r="AO20">
-        <v>100190.82769230772</v>
+        <v>99501.968848036311</v>
       </c>
       <c r="AP20">
-        <v>100192.06769230771</v>
+        <v>99506.881348036302</v>
       </c>
       <c r="AQ20">
-        <v>100193.10769230772</v>
+        <v>99513.461348036304</v>
       </c>
       <c r="AR20">
-        <v>100194.18769230772</v>
+        <v>99515.106348036308</v>
       </c>
       <c r="AS20">
-        <v>100196.99769230772</v>
+        <v>99515.106348036308</v>
       </c>
       <c r="AT20">
-        <v>100196.08769230772</v>
+        <v>99515.106348036308</v>
       </c>
       <c r="AU20">
-        <v>100195.86769230771</v>
+        <v>99515.106348036308</v>
       </c>
       <c r="AV20">
-        <v>100195.37769230772</v>
+        <v>99515.106348036308</v>
       </c>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.45">
@@ -3205,145 +3205,145 @@
         <v>9.34</v>
       </c>
       <c r="B21">
-        <v>100224.07769230772</v>
+        <v>99499.276348036306</v>
       </c>
       <c r="C21">
-        <v>100223.33769230772</v>
+        <v>99499.276348036306</v>
       </c>
       <c r="D21">
-        <v>100224.80769230772</v>
+        <v>99499.276348036306</v>
       </c>
       <c r="E21">
-        <v>100194.05769230772</v>
+        <v>99499.276348036306</v>
       </c>
       <c r="F21">
-        <v>100191.48769230771</v>
+        <v>99499.276348036306</v>
       </c>
       <c r="G21">
-        <v>100223.83769230772</v>
+        <v>99499.276348036306</v>
       </c>
       <c r="H21">
-        <v>100228.79769230772</v>
+        <v>99500.920098036309</v>
       </c>
       <c r="I21">
-        <v>100232.58769230772</v>
+        <v>99507.495098036321</v>
       </c>
       <c r="J21">
-        <v>100167.37769230772</v>
+        <v>99513.616348036303</v>
       </c>
       <c r="K21">
-        <v>100137.47769230772</v>
+        <v>99512.93634803631</v>
       </c>
       <c r="L21">
-        <v>100172.82769230772</v>
+        <v>99510.923848036313</v>
       </c>
       <c r="M21">
-        <v>100175.47769230772</v>
+        <v>99510.638848036309</v>
       </c>
       <c r="N21">
-        <v>100187.61769230771</v>
+        <v>99510.353848036306</v>
       </c>
       <c r="O21">
-        <v>100225.19769230772</v>
+        <v>99510.068848036317</v>
       </c>
       <c r="P21">
-        <v>100217.55769230772</v>
+        <v>99509.711348036304</v>
       </c>
       <c r="Q21">
-        <v>100228.82769230772</v>
+        <v>99509.281348036311</v>
       </c>
       <c r="R21">
-        <v>100198.80769230772</v>
+        <v>99508.851348036318</v>
       </c>
       <c r="S21">
-        <v>100196.67769230771</v>
+        <v>99508.421348036311</v>
       </c>
       <c r="T21">
-        <v>100196.19769230772</v>
+        <v>99508.433848036308</v>
       </c>
       <c r="U21">
-        <v>100195.66769230772</v>
+        <v>99508.888848036309</v>
       </c>
       <c r="V21">
-        <v>100195.26769230772</v>
+        <v>99509.343848036311</v>
       </c>
       <c r="W21">
-        <v>100198.34769230771</v>
+        <v>99509.798848036298</v>
       </c>
       <c r="X21">
-        <v>100202.08769230772</v>
+        <v>99510.268848036314</v>
       </c>
       <c r="Y21">
-        <v>100200.07769230772</v>
+        <v>99510.753848036315</v>
       </c>
       <c r="Z21">
-        <v>100198.60769230772</v>
+        <v>99511.238848036315</v>
       </c>
       <c r="AA21">
-        <v>100199.99769230772</v>
+        <v>99511.723848036316</v>
       </c>
       <c r="AB21">
-        <v>100200.10769230772</v>
+        <v>99511.21759803631</v>
       </c>
       <c r="AC21">
-        <v>100200.53769230771</v>
+        <v>99509.720098036312</v>
       </c>
       <c r="AD21">
-        <v>100196.55769230772</v>
+        <v>99508.222598036315</v>
       </c>
       <c r="AE21">
-        <v>100200.57769230772</v>
+        <v>99506.725098036317</v>
       </c>
       <c r="AF21">
-        <v>100201.59769230771</v>
+        <v>99505.646348036316</v>
       </c>
       <c r="AG21">
-        <v>100191.62769230772</v>
+        <v>99504.986348036313</v>
       </c>
       <c r="AH21">
-        <v>100197.66769230772</v>
+        <v>99504.326348036309</v>
       </c>
       <c r="AI21">
-        <v>100198.71769230772</v>
+        <v>99503.66634803632</v>
       </c>
       <c r="AJ21">
-        <v>100198.89769230771</v>
+        <v>99503.160098036315</v>
       </c>
       <c r="AK21">
-        <v>100199.15769230772</v>
+        <v>99502.807598036321</v>
       </c>
       <c r="AL21">
-        <v>100201.63769230772</v>
+        <v>99502.455098036327</v>
       </c>
       <c r="AM21">
-        <v>100198.36769230771</v>
+        <v>99502.102598036319</v>
       </c>
       <c r="AN21">
-        <v>100197.62769230772</v>
+        <v>99501.858848036311</v>
       </c>
       <c r="AO21">
-        <v>100196.20769230771</v>
+        <v>99501.768848036299</v>
       </c>
       <c r="AP21">
-        <v>100197.76769230772</v>
+        <v>99506.838848036321</v>
       </c>
       <c r="AQ21">
-        <v>100198.34769230771</v>
+        <v>99513.628848036315</v>
       </c>
       <c r="AR21">
-        <v>100199.47769230772</v>
+        <v>99515.326348036309</v>
       </c>
       <c r="AS21">
-        <v>100202.68769230772</v>
+        <v>99515.326348036309</v>
       </c>
       <c r="AT21">
-        <v>100201.54769230772</v>
+        <v>99515.326348036309</v>
       </c>
       <c r="AU21">
-        <v>100201.20769230771</v>
+        <v>99515.326348036309</v>
       </c>
       <c r="AV21">
-        <v>100201.40769230772</v>
+        <v>99515.326348036309</v>
       </c>
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.45">
@@ -3351,145 +3351,145 @@
         <v>10</v>
       </c>
       <c r="B22">
-        <v>100220.60769230772</v>
+        <v>99498.18634803631</v>
       </c>
       <c r="C22">
-        <v>100220.02769230772</v>
+        <v>99498.18634803631</v>
       </c>
       <c r="D22">
-        <v>100221.41769230772</v>
+        <v>99498.18634803631</v>
       </c>
       <c r="E22">
-        <v>100190.58769230772</v>
+        <v>99498.18634803631</v>
       </c>
       <c r="F22">
-        <v>100188.11769230771</v>
+        <v>99498.18634803631</v>
       </c>
       <c r="G22">
-        <v>100220.44769230772</v>
+        <v>99498.18634803631</v>
       </c>
       <c r="H22">
-        <v>100225.45769230771</v>
+        <v>99499.758848036319</v>
       </c>
       <c r="I22">
-        <v>100225.77769230772</v>
+        <v>99506.048848036327</v>
       </c>
       <c r="J22">
-        <v>100140.96769230772</v>
+        <v>99512.017598036313</v>
       </c>
       <c r="K22">
-        <v>100127.36769230771</v>
+        <v>99511.302598036316</v>
       </c>
       <c r="L22">
-        <v>100176.07769230772</v>
+        <v>99509.297598036312</v>
       </c>
       <c r="M22">
-        <v>100174.38769230772</v>
+        <v>99509.220098036312</v>
       </c>
       <c r="N22">
-        <v>100184.19769230772</v>
+        <v>99509.142598036313</v>
       </c>
       <c r="O22">
-        <v>100221.83769230772</v>
+        <v>99509.065098036313</v>
       </c>
       <c r="P22">
-        <v>100214.11769230771</v>
+        <v>99508.831348036314</v>
       </c>
       <c r="Q22">
-        <v>100225.33769230772</v>
+        <v>99508.441348036315</v>
       </c>
       <c r="R22">
-        <v>100195.37769230772</v>
+        <v>99508.051348036315</v>
       </c>
       <c r="S22">
-        <v>100193.31769230771</v>
+        <v>99507.661348036316</v>
       </c>
       <c r="T22">
-        <v>100192.88769230772</v>
+        <v>99507.676348036301</v>
       </c>
       <c r="U22">
-        <v>100192.44769230772</v>
+        <v>99508.096348036299</v>
       </c>
       <c r="V22">
-        <v>100192.13769230772</v>
+        <v>99508.516348036297</v>
       </c>
       <c r="W22">
-        <v>100194.69769230772</v>
+        <v>99508.93634803631</v>
       </c>
       <c r="X22">
-        <v>100198.71769230772</v>
+        <v>99509.400098036305</v>
       </c>
       <c r="Y22">
-        <v>100196.71769230772</v>
+        <v>99509.907598036312</v>
       </c>
       <c r="Z22">
-        <v>100195.00769230771</v>
+        <v>99510.415098036319</v>
       </c>
       <c r="AA22">
-        <v>100196.74769230772</v>
+        <v>99510.922598036312</v>
       </c>
       <c r="AB22">
-        <v>100196.65769230772</v>
+        <v>99510.418848036308</v>
       </c>
       <c r="AC22">
-        <v>100197.32769230772</v>
+        <v>99508.903848036309</v>
       </c>
       <c r="AD22">
-        <v>100193.17769230771</v>
+        <v>99507.388848036309</v>
       </c>
       <c r="AE22">
-        <v>100197.25769230771</v>
+        <v>99505.87384803631</v>
       </c>
       <c r="AF22">
-        <v>100198.26769230772</v>
+        <v>99504.761348036322</v>
       </c>
       <c r="AG22">
-        <v>100188.23769230771</v>
+        <v>99504.051348036315</v>
       </c>
       <c r="AH22">
-        <v>100193.62769230772</v>
+        <v>99503.341348036309</v>
       </c>
       <c r="AI22">
-        <v>100196.58769230772</v>
+        <v>99502.631348036317</v>
       </c>
       <c r="AJ22">
-        <v>100195.03769230771</v>
+        <v>99502.098848036316</v>
       </c>
       <c r="AK22">
-        <v>100195.36769230771</v>
+        <v>99501.74384803632</v>
       </c>
       <c r="AL22">
-        <v>100197.63769230772</v>
+        <v>99501.388848036324</v>
       </c>
       <c r="AM22">
-        <v>100194.17769230771</v>
+        <v>99501.033848036313</v>
       </c>
       <c r="AN22">
-        <v>100193.68769230772</v>
+        <v>99500.785098036315</v>
       </c>
       <c r="AO22">
-        <v>100192.29769230772</v>
+        <v>99500.690098036313</v>
       </c>
       <c r="AP22">
-        <v>100193.68769230772</v>
+        <v>99505.867598036319</v>
       </c>
       <c r="AQ22">
-        <v>100194.61769230771</v>
+        <v>99512.802598036331</v>
       </c>
       <c r="AR22">
-        <v>100195.71769230772</v>
+        <v>99514.536348036316</v>
       </c>
       <c r="AS22">
-        <v>100198.64769230771</v>
+        <v>99514.536348036316</v>
       </c>
       <c r="AT22">
-        <v>100197.72769230772</v>
+        <v>99514.536348036316</v>
       </c>
       <c r="AU22">
-        <v>100197.13769230772</v>
+        <v>99514.536348036316</v>
       </c>
       <c r="AV22">
-        <v>100197.59769230771</v>
+        <v>99514.536348036316</v>
       </c>
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.45">
@@ -3497,145 +3497,145 @@
         <v>10.5</v>
       </c>
       <c r="B23">
-        <v>100225.52769230772</v>
+        <v>99497.696348036305</v>
       </c>
       <c r="C23">
-        <v>100224.76769230772</v>
+        <v>99497.696348036305</v>
       </c>
       <c r="D23">
-        <v>100226.40769230772</v>
+        <v>99497.696348036305</v>
       </c>
       <c r="E23">
-        <v>100195.41769230772</v>
+        <v>99497.696348036305</v>
       </c>
       <c r="F23">
-        <v>100192.93769230772</v>
+        <v>99497.696348036305</v>
       </c>
       <c r="G23">
-        <v>100225.38769230772</v>
+        <v>99497.696348036305</v>
       </c>
       <c r="H23">
-        <v>100230.25769230771</v>
+        <v>99499.21759803631</v>
       </c>
       <c r="I23">
-        <v>100224.98769230771</v>
+        <v>99505.302598036302</v>
       </c>
       <c r="J23">
-        <v>100133.52769230772</v>
+        <v>99510.907598036327</v>
       </c>
       <c r="K23">
-        <v>100125.33769230772</v>
+        <v>99510.312598036326</v>
       </c>
       <c r="L23">
-        <v>100172.58769230772</v>
+        <v>99508.68634803631</v>
       </c>
       <c r="M23">
-        <v>100172.13769230772</v>
+        <v>99508.706348036314</v>
       </c>
       <c r="N23">
-        <v>100186.05769230772</v>
+        <v>99508.726348036318</v>
       </c>
       <c r="O23">
-        <v>100225.90769230772</v>
+        <v>99508.746348036308</v>
       </c>
       <c r="P23">
-        <v>100218.99769230772</v>
+        <v>99508.566348036315</v>
       </c>
       <c r="Q23">
-        <v>100230.38769230772</v>
+        <v>99508.18634803631</v>
       </c>
       <c r="R23">
-        <v>100200.37769230772</v>
+        <v>99507.806348036305</v>
       </c>
       <c r="S23">
-        <v>100198.29769230772</v>
+        <v>99507.426348036301</v>
       </c>
       <c r="T23">
-        <v>100197.64769230771</v>
+        <v>99507.436348036324</v>
       </c>
       <c r="U23">
-        <v>100197.07769230772</v>
+        <v>99507.836348036319</v>
       </c>
       <c r="V23">
-        <v>100196.81769230771</v>
+        <v>99508.236348036313</v>
       </c>
       <c r="W23">
-        <v>100199.67769230771</v>
+        <v>99508.636348036322</v>
       </c>
       <c r="X23">
-        <v>100203.62769230772</v>
+        <v>99509.097598036315</v>
       </c>
       <c r="Y23">
-        <v>100201.77769230772</v>
+        <v>99509.620098036321</v>
       </c>
       <c r="Z23">
-        <v>100200.01769230772</v>
+        <v>99510.142598036327</v>
       </c>
       <c r="AA23">
-        <v>100201.46769230772</v>
+        <v>99510.665098036319</v>
       </c>
       <c r="AB23">
-        <v>100201.57769230772</v>
+        <v>99510.151348036321</v>
       </c>
       <c r="AC23">
-        <v>100202.07769230772</v>
+        <v>99508.601348036318</v>
       </c>
       <c r="AD23">
-        <v>100198.01769230772</v>
+        <v>99507.051348036315</v>
       </c>
       <c r="AE23">
-        <v>100202.16769230772</v>
+        <v>99505.501348036312</v>
       </c>
       <c r="AF23">
-        <v>100203.60769230772</v>
+        <v>99504.368848036305</v>
       </c>
       <c r="AG23">
-        <v>100193.16769230772</v>
+        <v>99503.653848036309</v>
       </c>
       <c r="AH23">
-        <v>100198.07769230772</v>
+        <v>99502.938848036312</v>
       </c>
       <c r="AI23">
-        <v>100201.32769230772</v>
+        <v>99502.223848036316</v>
       </c>
       <c r="AJ23">
-        <v>100199.69769230772</v>
+        <v>99501.67634803633</v>
       </c>
       <c r="AK23">
-        <v>100199.97769230772</v>
+        <v>99501.296348036325</v>
       </c>
       <c r="AL23">
-        <v>100202.33769230772</v>
+        <v>99500.91634803632</v>
       </c>
       <c r="AM23">
-        <v>100199.07769230772</v>
+        <v>99500.536348036316</v>
       </c>
       <c r="AN23">
-        <v>100198.19769230772</v>
+        <v>99500.263848036309</v>
       </c>
       <c r="AO23">
-        <v>100197.04769230772</v>
+        <v>99500.153848036309</v>
       </c>
       <c r="AP23">
-        <v>100198.42769230771</v>
+        <v>99505.488848036301</v>
       </c>
       <c r="AQ23">
-        <v>100199.18769230772</v>
+        <v>99512.638848036295</v>
       </c>
       <c r="AR23">
-        <v>100200.18769230772</v>
+        <v>99514.426348036315</v>
       </c>
       <c r="AS23">
-        <v>100203.47769230772</v>
+        <v>99514.426348036315</v>
       </c>
       <c r="AT23">
-        <v>100202.14769230771</v>
+        <v>99514.426348036315</v>
       </c>
       <c r="AU23">
-        <v>100202.00769230771</v>
+        <v>99514.426348036315</v>
       </c>
       <c r="AV23">
-        <v>100202.22769230772</v>
+        <v>99514.426348036315</v>
       </c>
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.45">
@@ -3643,145 +3643,145 @@
         <v>11</v>
       </c>
       <c r="B24">
-        <v>100220.69769230772</v>
+        <v>99497.776348036306</v>
       </c>
       <c r="C24">
-        <v>100220.13769230772</v>
+        <v>99497.776348036306</v>
       </c>
       <c r="D24">
-        <v>100221.62769230772</v>
+        <v>99497.776348036306</v>
       </c>
       <c r="E24">
-        <v>100190.91769230772</v>
+        <v>99497.776348036306</v>
       </c>
       <c r="F24">
-        <v>100188.39769230771</v>
+        <v>99497.776348036306</v>
       </c>
       <c r="G24">
-        <v>100220.69769230772</v>
+        <v>99497.776348036306</v>
       </c>
       <c r="H24">
-        <v>100225.36769230771</v>
+        <v>99499.228848036306</v>
       </c>
       <c r="I24">
-        <v>100212.38769230772</v>
+        <v>99505.038848036304</v>
       </c>
       <c r="J24">
-        <v>100116.31769230771</v>
+        <v>99510.288848036333</v>
       </c>
       <c r="K24">
-        <v>100118.94769230772</v>
+        <v>99509.778848036323</v>
       </c>
       <c r="L24">
-        <v>100169.53769230771</v>
+        <v>99508.453848036312</v>
       </c>
       <c r="M24">
-        <v>100168.62769230772</v>
+        <v>99508.608848036311</v>
       </c>
       <c r="N24">
-        <v>100181.62769230772</v>
+        <v>99508.763848036309</v>
       </c>
       <c r="O24">
-        <v>100221.47769230772</v>
+        <v>99508.918848036308</v>
       </c>
       <c r="P24">
-        <v>100214.25769230771</v>
+        <v>99508.835098036318</v>
       </c>
       <c r="Q24">
-        <v>100225.40769230772</v>
+        <v>99508.512598036323</v>
       </c>
       <c r="R24">
-        <v>100195.65769230772</v>
+        <v>99508.190098036328</v>
       </c>
       <c r="S24">
-        <v>100193.47769230772</v>
+        <v>99507.867598036333</v>
       </c>
       <c r="T24">
-        <v>100192.93769230772</v>
+        <v>99507.895098036301</v>
       </c>
       <c r="U24">
-        <v>100192.69769230772</v>
+        <v>99508.272598036303</v>
       </c>
       <c r="V24">
-        <v>100192.27769230772</v>
+        <v>99508.650098036305</v>
       </c>
       <c r="W24">
-        <v>100194.76769230772</v>
+        <v>99509.027598036308</v>
       </c>
       <c r="X24">
-        <v>100198.90769230772</v>
+        <v>99509.490098036316</v>
       </c>
       <c r="Y24">
-        <v>100196.90769230772</v>
+        <v>99510.037598036317</v>
       </c>
       <c r="Z24">
-        <v>100195.32769230772</v>
+        <v>99510.585098036318</v>
       </c>
       <c r="AA24">
-        <v>100196.99769230772</v>
+        <v>99511.132598036318</v>
       </c>
       <c r="AB24">
-        <v>100196.97769230772</v>
+        <v>99510.616348036303</v>
       </c>
       <c r="AC24">
-        <v>100197.56769230771</v>
+        <v>99509.036348036301</v>
       </c>
       <c r="AD24">
-        <v>100193.25769230771</v>
+        <v>99507.456348036299</v>
       </c>
       <c r="AE24">
-        <v>100197.35769230772</v>
+        <v>99505.876348036298</v>
       </c>
       <c r="AF24">
-        <v>100198.94769230772</v>
+        <v>99504.700098036294</v>
       </c>
       <c r="AG24">
-        <v>100188.32769230772</v>
+        <v>99503.927598036302</v>
       </c>
       <c r="AH24">
-        <v>100193.77769230772</v>
+        <v>99503.15509803631</v>
       </c>
       <c r="AI24">
-        <v>100196.72769230772</v>
+        <v>99502.382598036304</v>
       </c>
       <c r="AJ24">
-        <v>100195.05769230772</v>
+        <v>99501.808848036308</v>
       </c>
       <c r="AK24">
-        <v>100195.56769230771</v>
+        <v>99501.433848036308</v>
       </c>
       <c r="AL24">
-        <v>100197.73769230771</v>
+        <v>99501.058848036308</v>
       </c>
       <c r="AM24">
-        <v>100194.30769230772</v>
+        <v>99500.683848036308</v>
       </c>
       <c r="AN24">
-        <v>100193.78769230771</v>
+        <v>99500.425098036299</v>
       </c>
       <c r="AO24">
-        <v>100192.52769230772</v>
+        <v>99500.330098036298</v>
       </c>
       <c r="AP24">
-        <v>100194.33769230772</v>
+        <v>99505.6913480363</v>
       </c>
       <c r="AQ24">
-        <v>100194.77769230772</v>
+        <v>99512.871348036308</v>
       </c>
       <c r="AR24">
-        <v>100195.73769230771</v>
+        <v>99514.666348036306</v>
       </c>
       <c r="AS24">
-        <v>100198.82769230772</v>
+        <v>99514.666348036306</v>
       </c>
       <c r="AT24">
-        <v>100197.78769230771</v>
+        <v>99514.666348036306</v>
       </c>
       <c r="AU24">
-        <v>100197.43769230772</v>
+        <v>99514.666348036306</v>
       </c>
       <c r="AV24">
-        <v>100197.68769230772</v>
+        <v>99514.666348036306</v>
       </c>
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.45">
@@ -3789,145 +3789,145 @@
         <v>11.5</v>
       </c>
       <c r="B25">
-        <v>100225.15769230772</v>
+        <v>99497.646348036316</v>
       </c>
       <c r="C25">
-        <v>100224.47769230772</v>
+        <v>99497.646348036316</v>
       </c>
       <c r="D25">
-        <v>100226.02769230772</v>
+        <v>99497.646348036316</v>
       </c>
       <c r="E25">
-        <v>100195.18769230772</v>
+        <v>99497.646348036316</v>
       </c>
       <c r="F25">
-        <v>100192.52769230772</v>
+        <v>99497.646348036316</v>
       </c>
       <c r="G25">
-        <v>100225.15769230772</v>
+        <v>99497.646348036316</v>
       </c>
       <c r="H25">
-        <v>100228.80769230772</v>
+        <v>99499.020098036315</v>
       </c>
       <c r="I25">
-        <v>100206.80769230772</v>
+        <v>99504.515098036311</v>
       </c>
       <c r="J25">
-        <v>100108.39769230771</v>
+        <v>99509.371348036308</v>
       </c>
       <c r="K25">
-        <v>100122.23769230771</v>
+        <v>99508.951348036295</v>
       </c>
       <c r="L25">
-        <v>100175.38769230772</v>
+        <v>99507.945098036304</v>
       </c>
       <c r="M25">
-        <v>100172.47769230772</v>
+        <v>99508.242598036304</v>
       </c>
       <c r="N25">
-        <v>100184.67769230771</v>
+        <v>99508.540098036305</v>
       </c>
       <c r="O25">
-        <v>100225.21769230772</v>
+        <v>99508.837598036305</v>
       </c>
       <c r="P25">
-        <v>100218.46769230772</v>
+        <v>99508.851348036318</v>
       </c>
       <c r="Q25">
-        <v>100229.90769230772</v>
+        <v>99508.581348036314</v>
       </c>
       <c r="R25">
-        <v>100199.93769230772</v>
+        <v>99508.31134803631</v>
       </c>
       <c r="S25">
-        <v>100197.88769230772</v>
+        <v>99508.04134803632</v>
       </c>
       <c r="T25">
-        <v>100197.33769230772</v>
+        <v>99508.082598036301</v>
       </c>
       <c r="U25">
-        <v>100196.69769230772</v>
+        <v>99508.435098036309</v>
       </c>
       <c r="V25">
-        <v>100196.29769230772</v>
+        <v>99508.787598036317</v>
       </c>
       <c r="W25">
-        <v>100199.17769230771</v>
+        <v>99509.140098036311</v>
       </c>
       <c r="X25">
-        <v>100203.21769230772</v>
+        <v>99509.607598036324</v>
       </c>
       <c r="Y25">
-        <v>100201.24769230772</v>
+        <v>99510.190098036328</v>
       </c>
       <c r="Z25">
-        <v>100199.53769230771</v>
+        <v>99510.772598036332</v>
       </c>
       <c r="AA25">
-        <v>100201.06769230771</v>
+        <v>99511.355098036322</v>
       </c>
       <c r="AB25">
-        <v>100201.16769230772</v>
+        <v>99510.833848036316</v>
       </c>
       <c r="AC25">
-        <v>100201.60769230772</v>
+        <v>99509.208848036316</v>
       </c>
       <c r="AD25">
-        <v>100197.43769230772</v>
+        <v>99507.583848036316</v>
       </c>
       <c r="AE25">
-        <v>100201.90769230772</v>
+        <v>99505.958848036316</v>
       </c>
       <c r="AF25">
-        <v>100203.47769230772</v>
+        <v>99504.750098036311</v>
       </c>
       <c r="AG25">
-        <v>100192.85769230772</v>
+        <v>99503.957598036315</v>
       </c>
       <c r="AH25">
-        <v>100197.74769230772</v>
+        <v>99503.165098036319</v>
       </c>
       <c r="AI25">
-        <v>100200.22769230772</v>
+        <v>99502.372598036309</v>
       </c>
       <c r="AJ25">
-        <v>100199.20769230771</v>
+        <v>99501.78009803631</v>
       </c>
       <c r="AK25">
-        <v>100199.71769230772</v>
+        <v>99501.387598036308</v>
       </c>
       <c r="AL25">
-        <v>100202.06769230771</v>
+        <v>99500.995098036306</v>
       </c>
       <c r="AM25">
-        <v>100198.66769230772</v>
+        <v>99500.602598036319</v>
       </c>
       <c r="AN25">
-        <v>100197.88769230772</v>
+        <v>99500.323848036307</v>
       </c>
       <c r="AO25">
-        <v>100196.63769230772</v>
+        <v>99500.213848036306</v>
       </c>
       <c r="AP25">
-        <v>100198.46769230772</v>
+        <v>99505.650098036305</v>
       </c>
       <c r="AQ25">
-        <v>100198.75769230771</v>
+        <v>99512.935098036309</v>
       </c>
       <c r="AR25">
-        <v>100199.74769230772</v>
+        <v>99514.756348036317</v>
       </c>
       <c r="AS25">
-        <v>100203.18769230772</v>
+        <v>99514.756348036317</v>
       </c>
       <c r="AT25">
-        <v>100201.73769230771</v>
+        <v>99514.756348036317</v>
       </c>
       <c r="AU25">
-        <v>100201.63769230772</v>
+        <v>99514.756348036317</v>
       </c>
       <c r="AV25">
-        <v>100201.97769230772</v>
+        <v>99514.756348036317</v>
       </c>
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.45">
@@ -3935,145 +3935,145 @@
         <v>12</v>
       </c>
       <c r="B26">
-        <v>100222.02769230772</v>
+        <v>99497.576348036309</v>
       </c>
       <c r="C26">
-        <v>100221.26769230772</v>
+        <v>99497.576348036309</v>
       </c>
       <c r="D26">
-        <v>100222.82769230772</v>
+        <v>99497.576348036309</v>
       </c>
       <c r="E26">
-        <v>100192.06769230771</v>
+        <v>99497.576348036309</v>
       </c>
       <c r="F26">
-        <v>100189.46769230772</v>
+        <v>99497.576348036309</v>
       </c>
       <c r="G26">
-        <v>100221.68769230772</v>
+        <v>99497.576348036309</v>
       </c>
       <c r="H26">
-        <v>100222.10769230772</v>
+        <v>99498.797598036297</v>
       </c>
       <c r="I26">
-        <v>100190.67769230771</v>
+        <v>99503.682598036306</v>
       </c>
       <c r="J26">
-        <v>100094.30769230772</v>
+        <v>99507.810098036309</v>
       </c>
       <c r="K26">
-        <v>100119.82769230772</v>
+        <v>99507.545098036324</v>
       </c>
       <c r="L26">
-        <v>100173.53769230771</v>
+        <v>99507.057598036321</v>
       </c>
       <c r="M26">
-        <v>100168.53769230771</v>
+        <v>99507.540098036319</v>
       </c>
       <c r="N26">
-        <v>100180.21769230772</v>
+        <v>99508.022598036318</v>
       </c>
       <c r="O26">
-        <v>100221.11769230771</v>
+        <v>99508.505098036316</v>
       </c>
       <c r="P26">
-        <v>100215.02769230772</v>
+        <v>99508.656348036311</v>
       </c>
       <c r="Q26">
-        <v>100226.47769230772</v>
+        <v>99508.476348036304</v>
       </c>
       <c r="R26">
-        <v>100196.70769230771</v>
+        <v>99508.296348036296</v>
       </c>
       <c r="S26">
-        <v>100194.76769230772</v>
+        <v>99508.116348036303</v>
       </c>
       <c r="T26">
-        <v>100194.13769230772</v>
+        <v>99508.198848036307</v>
       </c>
       <c r="U26">
-        <v>100193.80769230772</v>
+        <v>99508.543848036308</v>
       </c>
       <c r="V26">
-        <v>100193.23769230771</v>
+        <v>99508.888848036309</v>
       </c>
       <c r="W26">
-        <v>100196.01769230772</v>
+        <v>99509.233848036311</v>
       </c>
       <c r="X26">
-        <v>100199.97769230772</v>
+        <v>99509.695098036304</v>
       </c>
       <c r="Y26">
-        <v>100197.92769230771</v>
+        <v>99510.272598036303</v>
       </c>
       <c r="Z26">
-        <v>100196.46769230772</v>
+        <v>99510.850098036302</v>
       </c>
       <c r="AA26">
-        <v>100197.82769230772</v>
+        <v>99511.427598036302</v>
       </c>
       <c r="AB26">
-        <v>100198.03769230771</v>
+        <v>99510.906348036311</v>
       </c>
       <c r="AC26">
-        <v>100198.59769230771</v>
+        <v>99509.286348036316</v>
       </c>
       <c r="AD26">
-        <v>100194.15769230772</v>
+        <v>99507.66634803632</v>
       </c>
       <c r="AE26">
-        <v>100198.48769230771</v>
+        <v>99506.046348036325</v>
       </c>
       <c r="AF26">
-        <v>100200.28769230771</v>
+        <v>99504.836348036319</v>
       </c>
       <c r="AG26">
-        <v>100189.51769230772</v>
+        <v>99504.036348036316</v>
       </c>
       <c r="AH26">
-        <v>100194.31769230771</v>
+        <v>99503.236348036313</v>
       </c>
       <c r="AI26">
-        <v>100197.37769230772</v>
+        <v>99502.43634803631</v>
       </c>
       <c r="AJ26">
-        <v>100195.66769230772</v>
+        <v>99501.833848036316</v>
       </c>
       <c r="AK26">
-        <v>100195.99769230772</v>
+        <v>99501.428848036318</v>
       </c>
       <c r="AL26">
-        <v>100198.42769230771</v>
+        <v>99501.023848036319</v>
       </c>
       <c r="AM26">
-        <v>100194.83769230772</v>
+        <v>99500.618848036305</v>
       </c>
       <c r="AN26">
-        <v>100194.48769230771</v>
+        <v>99500.288848036304</v>
       </c>
       <c r="AO26">
-        <v>100193.03769230771</v>
+        <v>99500.118848036305</v>
       </c>
       <c r="AP26">
-        <v>100195.17769230771</v>
+        <v>99505.442598036316</v>
       </c>
       <c r="AQ26">
-        <v>100195.34769230771</v>
+        <v>99512.597598036315</v>
       </c>
       <c r="AR26">
-        <v>100196.36769230771</v>
+        <v>99514.386348036307</v>
       </c>
       <c r="AS26">
-        <v>100199.41769230772</v>
+        <v>99514.386348036307</v>
       </c>
       <c r="AT26">
-        <v>100198.26769230772</v>
+        <v>99514.386348036307</v>
       </c>
       <c r="AU26">
-        <v>100197.89769230771</v>
+        <v>99514.386348036307</v>
       </c>
       <c r="AV26">
-        <v>100198.23769230771</v>
+        <v>99514.386348036307</v>
       </c>
     </row>
     <row r="27" spans="1:48" x14ac:dyDescent="0.45">
@@ -4081,145 +4081,145 @@
         <v>12.5</v>
       </c>
       <c r="B27">
-        <v>100224.32769230772</v>
+        <v>99498.036348036316</v>
       </c>
       <c r="C27">
-        <v>100223.63769230772</v>
+        <v>99498.036348036316</v>
       </c>
       <c r="D27">
-        <v>100225.18769230772</v>
+        <v>99498.036348036316</v>
       </c>
       <c r="E27">
-        <v>100194.40769230772</v>
+        <v>99498.036348036316</v>
       </c>
       <c r="F27">
-        <v>100191.75769230771</v>
+        <v>99498.036348036316</v>
       </c>
       <c r="G27">
-        <v>100223.83769230772</v>
+        <v>99498.036348036316</v>
       </c>
       <c r="H27">
-        <v>100219.99769230772</v>
+        <v>99499.135098036306</v>
       </c>
       <c r="I27">
-        <v>100179.01769230772</v>
+        <v>99503.530098036295</v>
       </c>
       <c r="J27">
-        <v>100087.44769230772</v>
+        <v>99506.581348036299</v>
       </c>
       <c r="K27">
-        <v>100127.84769230771</v>
+        <v>99506.721348036313</v>
       </c>
       <c r="L27">
-        <v>100182.94769230772</v>
+        <v>99507.413848036304</v>
       </c>
       <c r="M27">
-        <v>100174.75769230771</v>
+        <v>99508.028848036309</v>
       </c>
       <c r="N27">
-        <v>100184.00769230771</v>
+        <v>99508.643848036314</v>
       </c>
       <c r="O27">
-        <v>100223.95769230771</v>
+        <v>99509.258848036319</v>
       </c>
       <c r="P27">
-        <v>100217.57769230772</v>
+        <v>99509.460098036303</v>
       </c>
       <c r="Q27">
-        <v>100229.08769230772</v>
+        <v>99509.247598036309</v>
       </c>
       <c r="R27">
-        <v>100199.20769230771</v>
+        <v>99509.035098036315</v>
       </c>
       <c r="S27">
-        <v>100197.06769230771</v>
+        <v>99508.822598036306</v>
       </c>
       <c r="T27">
-        <v>100196.41769230772</v>
+        <v>99508.920098036309</v>
       </c>
       <c r="U27">
-        <v>100196.12769230772</v>
+        <v>99509.327598036311</v>
       </c>
       <c r="V27">
-        <v>100195.64769230771</v>
+        <v>99509.735098036312</v>
       </c>
       <c r="W27">
-        <v>100198.48769230771</v>
+        <v>99510.142598036313</v>
       </c>
       <c r="X27">
-        <v>100202.39769230771</v>
+        <v>99510.651348036321</v>
       </c>
       <c r="Y27">
-        <v>100200.42769230771</v>
+        <v>99511.261348036322</v>
       </c>
       <c r="Z27">
-        <v>100198.97769230772</v>
+        <v>99511.871348036322</v>
       </c>
       <c r="AA27">
-        <v>100200.29769230772</v>
+        <v>99512.481348036323</v>
       </c>
       <c r="AB27">
-        <v>100200.39769230771</v>
+        <v>99511.951348036324</v>
       </c>
       <c r="AC27">
-        <v>100200.87769230772</v>
+        <v>99510.281348036326</v>
       </c>
       <c r="AD27">
-        <v>100196.33769230772</v>
+        <v>99508.611348036327</v>
       </c>
       <c r="AE27">
-        <v>100201.04769230772</v>
+        <v>99506.941348036315</v>
       </c>
       <c r="AF27">
-        <v>100202.89769230771</v>
+        <v>99505.663848036304</v>
       </c>
       <c r="AG27">
-        <v>100192.06769230771</v>
+        <v>99504.778848036309</v>
       </c>
       <c r="AH27">
-        <v>100196.68769230772</v>
+        <v>99503.893848036314</v>
       </c>
       <c r="AI27">
-        <v>100200.15769230772</v>
+        <v>99503.008848036319</v>
       </c>
       <c r="AJ27">
-        <v>100198.29769230772</v>
+        <v>99502.380098036316</v>
       </c>
       <c r="AK27">
-        <v>100198.57769230772</v>
+        <v>99502.007598036318</v>
       </c>
       <c r="AL27">
-        <v>100200.99769230772</v>
+        <v>99501.63509803632</v>
       </c>
       <c r="AM27">
-        <v>100197.67769230771</v>
+        <v>99501.262598036323</v>
       </c>
       <c r="AN27">
-        <v>100196.91769230772</v>
+        <v>99500.960098036303</v>
       </c>
       <c r="AO27">
-        <v>100195.52769230772</v>
+        <v>99500.805098036304</v>
       </c>
       <c r="AP27">
-        <v>100197.71769230772</v>
+        <v>99505.791348036306</v>
       </c>
       <c r="AQ27">
-        <v>100197.80769230772</v>
+        <v>99512.491348036303</v>
       </c>
       <c r="AR27">
-        <v>100198.80769230772</v>
+        <v>99514.166348036306</v>
       </c>
       <c r="AS27">
-        <v>100202.09769230771</v>
+        <v>99514.166348036306</v>
       </c>
       <c r="AT27">
-        <v>100200.73769230771</v>
+        <v>99514.166348036306</v>
       </c>
       <c r="AU27">
-        <v>100200.53769230771</v>
+        <v>99514.166348036306</v>
       </c>
       <c r="AV27">
-        <v>100200.98769230771</v>
+        <v>99514.166348036306</v>
       </c>
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.45">
@@ -4227,145 +4227,145 @@
         <v>13</v>
       </c>
       <c r="B28">
-        <v>100224.14769230771</v>
+        <v>99498.306348036305</v>
       </c>
       <c r="C28">
-        <v>100223.48769230771</v>
+        <v>99498.306348036305</v>
       </c>
       <c r="D28">
-        <v>100225.13769230772</v>
+        <v>99498.306348036305</v>
       </c>
       <c r="E28">
-        <v>100194.18769230772</v>
+        <v>99498.306348036305</v>
       </c>
       <c r="F28">
-        <v>100191.62769230772</v>
+        <v>99498.306348036305</v>
       </c>
       <c r="G28">
-        <v>100222.61769230771</v>
+        <v>99498.306348036305</v>
       </c>
       <c r="H28">
-        <v>100211.75769230771</v>
+        <v>99499.231348036308</v>
       </c>
       <c r="I28">
-        <v>100163.81769230771</v>
+        <v>99502.93134803632</v>
       </c>
       <c r="J28">
-        <v>100084.30769230772</v>
+        <v>99505.015098036325</v>
       </c>
       <c r="K28">
-        <v>100136.95769230771</v>
+        <v>99505.410098036315</v>
       </c>
       <c r="L28">
-        <v>100189.58769230772</v>
+        <v>99506.817598036301</v>
       </c>
       <c r="M28">
-        <v>100177.86769230771</v>
+        <v>99507.460098036303</v>
       </c>
       <c r="N28">
-        <v>100185.24769230772</v>
+        <v>99508.102598036305</v>
       </c>
       <c r="O28">
-        <v>100224.46769230772</v>
+        <v>99508.745098036306</v>
       </c>
       <c r="P28">
-        <v>100217.60769230772</v>
+        <v>99508.996348036322</v>
       </c>
       <c r="Q28">
-        <v>100229.13769230772</v>
+        <v>99508.856348036323</v>
       </c>
       <c r="R28">
-        <v>100198.94769230772</v>
+        <v>99508.716348036323</v>
       </c>
       <c r="S28">
-        <v>100197.00769230771</v>
+        <v>99508.576348036324</v>
       </c>
       <c r="T28">
-        <v>100196.34769230771</v>
+        <v>99508.725098036317</v>
       </c>
       <c r="U28">
-        <v>100196.06769230771</v>
+        <v>99509.162598036317</v>
       </c>
       <c r="V28">
-        <v>100195.39769230771</v>
+        <v>99509.600098036317</v>
       </c>
       <c r="W28">
-        <v>100198.35769230772</v>
+        <v>99510.037598036317</v>
       </c>
       <c r="X28">
-        <v>100202.25769230771</v>
+        <v>99510.552598036316</v>
       </c>
       <c r="Y28">
-        <v>100200.42769230771</v>
+        <v>99511.145098036315</v>
       </c>
       <c r="Z28">
-        <v>100198.85769230772</v>
+        <v>99511.737598036314</v>
       </c>
       <c r="AA28">
-        <v>100200.11769230771</v>
+        <v>99512.330098036313</v>
       </c>
       <c r="AB28">
-        <v>100200.25769230771</v>
+        <v>99511.801348036301</v>
       </c>
       <c r="AC28">
-        <v>100200.71769230772</v>
+        <v>99510.151348036306</v>
       </c>
       <c r="AD28">
-        <v>100196.21769230772</v>
+        <v>99508.501348036312</v>
       </c>
       <c r="AE28">
-        <v>100200.90769230772</v>
+        <v>99506.851348036304</v>
       </c>
       <c r="AF28">
-        <v>100202.63769230772</v>
+        <v>99505.621348036308</v>
       </c>
       <c r="AG28">
-        <v>100191.93769230772</v>
+        <v>99504.81134803631</v>
       </c>
       <c r="AH28">
-        <v>100196.19769230772</v>
+        <v>99504.001348036312</v>
       </c>
       <c r="AI28">
-        <v>100200.35769230772</v>
+        <v>99503.191348036315</v>
       </c>
       <c r="AJ28">
-        <v>100197.82769230772</v>
+        <v>99502.596348036313</v>
       </c>
       <c r="AK28">
-        <v>100198.14769230771</v>
+        <v>99502.216348036309</v>
       </c>
       <c r="AL28">
-        <v>100200.57769230772</v>
+        <v>99501.836348036304</v>
       </c>
       <c r="AM28">
-        <v>100197.25769230771</v>
+        <v>99501.456348036299</v>
       </c>
       <c r="AN28">
-        <v>100196.43769230772</v>
+        <v>99501.135098036306</v>
       </c>
       <c r="AO28">
-        <v>100195.11769230771</v>
+        <v>99500.960098036303</v>
       </c>
       <c r="AP28">
-        <v>100197.35769230772</v>
+        <v>99505.543848036308</v>
       </c>
       <c r="AQ28">
-        <v>100197.48769230771</v>
+        <v>99511.713848036306</v>
       </c>
       <c r="AR28">
-        <v>100198.35769230772</v>
+        <v>99513.256348036317</v>
       </c>
       <c r="AS28">
-        <v>100201.61769230771</v>
+        <v>99513.256348036317</v>
       </c>
       <c r="AT28">
-        <v>100200.64769230771</v>
+        <v>99513.256348036317</v>
       </c>
       <c r="AU28">
-        <v>100200.14769230771</v>
+        <v>99513.256348036317</v>
       </c>
       <c r="AV28">
-        <v>100200.49769230772</v>
+        <v>99513.256348036317</v>
       </c>
     </row>
     <row r="29" spans="1:48" x14ac:dyDescent="0.45">
@@ -4373,145 +4373,145 @@
         <v>13.5</v>
       </c>
       <c r="B29">
-        <v>100223.14769230771</v>
+        <v>99502.816348036315</v>
       </c>
       <c r="C29">
-        <v>100222.41769230772</v>
+        <v>99502.816348036315</v>
       </c>
       <c r="D29">
-        <v>100224.03769230771</v>
+        <v>99502.816348036315</v>
       </c>
       <c r="E29">
-        <v>100193.30769230772</v>
+        <v>99502.816348036315</v>
       </c>
       <c r="F29">
-        <v>100190.55769230772</v>
+        <v>99502.816348036315</v>
       </c>
       <c r="G29">
-        <v>100223.11769230771</v>
+        <v>99502.816348036315</v>
       </c>
       <c r="H29">
-        <v>100228.67769230771</v>
+        <v>99504.700098036323</v>
       </c>
       <c r="I29">
-        <v>100232.17769230771</v>
+        <v>99512.235098036326</v>
       </c>
       <c r="J29">
-        <v>100191.63769230772</v>
+        <v>99517.676348036315</v>
       </c>
       <c r="K29">
-        <v>100221.66769230772</v>
+        <v>99517.796348036311</v>
       </c>
       <c r="L29">
-        <v>100221.08769230772</v>
+        <v>99517.758848036305</v>
       </c>
       <c r="M29">
-        <v>100191.20769230771</v>
+        <v>99517.023848036304</v>
       </c>
       <c r="N29">
-        <v>100188.99769230772</v>
+        <v>99516.288848036304</v>
       </c>
       <c r="O29">
-        <v>100224.51769230772</v>
+        <v>99515.553848036303</v>
       </c>
       <c r="P29">
-        <v>100216.53769230771</v>
+        <v>99514.565098036313</v>
       </c>
       <c r="Q29">
-        <v>100227.08769230772</v>
+        <v>99513.322598036306</v>
       </c>
       <c r="R29">
-        <v>100194.53769230771</v>
+        <v>99512.080098036298</v>
       </c>
       <c r="S29">
-        <v>100186.87769230772</v>
+        <v>99510.837598036305</v>
       </c>
       <c r="T29">
-        <v>100172.54769230772</v>
+        <v>99509.590098036308</v>
       </c>
       <c r="U29">
-        <v>100150.79769230772</v>
+        <v>99508.337598036305</v>
       </c>
       <c r="V29">
-        <v>100120.03769230771</v>
+        <v>99507.085098036303</v>
       </c>
       <c r="W29">
-        <v>100100.28769230771</v>
+        <v>99505.832598036301</v>
       </c>
       <c r="X29">
-        <v>100093.72769230772</v>
+        <v>99505.293848036308</v>
       </c>
       <c r="Y29">
-        <v>100096.90769230772</v>
+        <v>99505.468848036311</v>
       </c>
       <c r="Z29">
-        <v>100111.57769230772</v>
+        <v>99505.643848036314</v>
       </c>
       <c r="AA29">
-        <v>100140.06769230771</v>
+        <v>99505.818848036317</v>
       </c>
       <c r="AB29">
-        <v>100164.30769230772</v>
+        <v>99505.752598036313</v>
       </c>
       <c r="AC29">
-        <v>100182.63769230772</v>
+        <v>99505.445098036318</v>
       </c>
       <c r="AD29">
-        <v>100188.25769230771</v>
+        <v>99505.137598036323</v>
       </c>
       <c r="AE29">
-        <v>100197.92769230771</v>
+        <v>99504.830098036327</v>
       </c>
       <c r="AF29">
-        <v>100200.98769230771</v>
+        <v>99504.708848036302</v>
       </c>
       <c r="AG29">
-        <v>100190.51769230772</v>
+        <v>99504.773848036304</v>
       </c>
       <c r="AH29">
-        <v>100195.77769230772</v>
+        <v>99504.838848036306</v>
       </c>
       <c r="AI29">
-        <v>100198.74769230772</v>
+        <v>99504.903848036309</v>
       </c>
       <c r="AJ29">
-        <v>100197.51769230772</v>
+        <v>99504.825098036308</v>
       </c>
       <c r="AK29">
-        <v>100197.79769230772</v>
+        <v>99504.602598036305</v>
       </c>
       <c r="AL29">
-        <v>100200.16769230772</v>
+        <v>99504.380098036301</v>
       </c>
       <c r="AM29">
-        <v>100196.78769230771</v>
+        <v>99504.157598036312</v>
       </c>
       <c r="AN29">
-        <v>100196.15769230772</v>
+        <v>99504.391348036312</v>
       </c>
       <c r="AO29">
-        <v>100194.79769230772</v>
+        <v>99504.851348036318</v>
       </c>
       <c r="AP29">
-        <v>100196.96769230772</v>
+        <v>99510.400098036305</v>
       </c>
       <c r="AQ29">
-        <v>100196.78769230771</v>
+        <v>99517.645098036301</v>
       </c>
       <c r="AR29">
-        <v>100198.13769230772</v>
+        <v>99519.456348036314</v>
       </c>
       <c r="AS29">
-        <v>100201.28769230771</v>
+        <v>99519.456348036314</v>
       </c>
       <c r="AT29">
-        <v>100200.31769230771</v>
+        <v>99519.456348036314</v>
       </c>
       <c r="AU29">
-        <v>100199.74769230772</v>
+        <v>99519.456348036314</v>
       </c>
       <c r="AV29">
-        <v>100200.14769230771</v>
+        <v>99519.456348036314</v>
       </c>
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.45">
@@ -4519,145 +4519,145 @@
         <v>14</v>
       </c>
       <c r="B30">
-        <v>100225.15769230772</v>
+        <v>99500.296348036311</v>
       </c>
       <c r="C30">
-        <v>100224.47769230772</v>
+        <v>99500.296348036311</v>
       </c>
       <c r="D30">
-        <v>100226.19769230772</v>
+        <v>99500.296348036311</v>
       </c>
       <c r="E30">
-        <v>100195.26769230772</v>
+        <v>99500.296348036311</v>
       </c>
       <c r="F30">
-        <v>100192.45769230771</v>
+        <v>99500.296348036311</v>
       </c>
       <c r="G30">
-        <v>100225.31769230771</v>
+        <v>99500.296348036311</v>
       </c>
       <c r="H30">
-        <v>100230.78769230771</v>
+        <v>99502.522598036318</v>
       </c>
       <c r="I30">
-        <v>100234.24769230772</v>
+        <v>99511.427598036316</v>
       </c>
       <c r="J30">
-        <v>100193.69769230772</v>
+        <v>99517.703848036297</v>
       </c>
       <c r="K30">
-        <v>100223.87769230772</v>
+        <v>99517.933848036308</v>
       </c>
       <c r="L30">
-        <v>100223.23769230771</v>
+        <v>99518.143848036314</v>
       </c>
       <c r="M30">
-        <v>100193.20769230771</v>
+        <v>99517.298848036313</v>
       </c>
       <c r="N30">
-        <v>100191.15769230772</v>
+        <v>99516.453848036312</v>
       </c>
       <c r="O30">
-        <v>100226.33769230772</v>
+        <v>99515.608848036311</v>
       </c>
       <c r="P30">
-        <v>100218.36769230771</v>
+        <v>99514.308848036308</v>
       </c>
       <c r="Q30">
-        <v>100228.05769230772</v>
+        <v>99512.553848036303</v>
       </c>
       <c r="R30">
-        <v>100193.17769230771</v>
+        <v>99510.798848036298</v>
       </c>
       <c r="S30">
-        <v>100181.42769230771</v>
+        <v>99509.043848036294</v>
       </c>
       <c r="T30">
-        <v>100160.36769230771</v>
+        <v>99506.986348036313</v>
       </c>
       <c r="U30">
-        <v>100133.05769230772</v>
+        <v>99504.626348036312</v>
       </c>
       <c r="V30">
-        <v>100104.42769230771</v>
+        <v>99502.266348036312</v>
       </c>
       <c r="W30">
-        <v>100093.36769230771</v>
+        <v>99499.906348036311</v>
       </c>
       <c r="X30">
-        <v>100099.73769230771</v>
+        <v>99499.150098036305</v>
       </c>
       <c r="Y30">
-        <v>100115.10769230772</v>
+        <v>99499.997598036309</v>
       </c>
       <c r="Z30">
-        <v>100135.11769230771</v>
+        <v>99500.845098036312</v>
       </c>
       <c r="AA30">
-        <v>100164.15769230772</v>
+        <v>99501.692598036316</v>
       </c>
       <c r="AB30">
-        <v>100183.10769230772</v>
+        <v>99501.07259803632</v>
       </c>
       <c r="AC30">
-        <v>100194.33769230772</v>
+        <v>99498.985098036312</v>
       </c>
       <c r="AD30">
-        <v>100194.80769230772</v>
+        <v>99496.897598036303</v>
       </c>
       <c r="AE30">
-        <v>100201.12769230772</v>
+        <v>99494.810098036309</v>
       </c>
       <c r="AF30">
-        <v>100203.27769230772</v>
+        <v>99493.591348036309</v>
       </c>
       <c r="AG30">
-        <v>100192.67769230771</v>
+        <v>99493.241348036318</v>
       </c>
       <c r="AH30">
-        <v>100198.43769230772</v>
+        <v>99492.891348036326</v>
       </c>
       <c r="AI30">
-        <v>100200.68769230772</v>
+        <v>99492.54134803632</v>
       </c>
       <c r="AJ30">
-        <v>100200.17769230771</v>
+        <v>99492.431348036305</v>
       </c>
       <c r="AK30">
-        <v>100200.42769230771</v>
+        <v>99492.56134803631</v>
       </c>
       <c r="AL30">
-        <v>100202.63769230772</v>
+        <v>99492.691348036315</v>
       </c>
       <c r="AM30">
-        <v>100199.42769230771</v>
+        <v>99492.821348036305</v>
       </c>
       <c r="AN30">
-        <v>100198.82769230772</v>
+        <v>99495.15509803631</v>
       </c>
       <c r="AO30">
-        <v>100197.34769230771</v>
+        <v>99498.180098036304</v>
       </c>
       <c r="AP30">
-        <v>100199.64769230771</v>
+        <v>99506.665098036305</v>
       </c>
       <c r="AQ30">
-        <v>100199.20769230771</v>
+        <v>99516.970098036312</v>
       </c>
       <c r="AR30">
-        <v>100200.66769230772</v>
+        <v>99519.546348036311</v>
       </c>
       <c r="AS30">
-        <v>100204.00769230771</v>
+        <v>99519.546348036311</v>
       </c>
       <c r="AT30">
-        <v>100202.84769230771</v>
+        <v>99519.546348036311</v>
       </c>
       <c r="AU30">
-        <v>100202.44769230772</v>
+        <v>99519.546348036311</v>
       </c>
       <c r="AV30">
-        <v>100202.76769230772</v>
+        <v>99519.546348036311</v>
       </c>
     </row>
     <row r="31" spans="1:48" x14ac:dyDescent="0.45">
@@ -4665,145 +4665,145 @@
         <v>14.5</v>
       </c>
       <c r="B31">
-        <v>100223.71769230772</v>
+        <v>99496.366348036318</v>
       </c>
       <c r="C31">
-        <v>100222.88769230772</v>
+        <v>99496.366348036318</v>
       </c>
       <c r="D31">
-        <v>100224.56769230771</v>
+        <v>99496.366348036318</v>
       </c>
       <c r="E31">
-        <v>100193.74769230772</v>
+        <v>99496.366348036318</v>
       </c>
       <c r="F31">
-        <v>100190.83769230772</v>
+        <v>99496.366348036318</v>
       </c>
       <c r="G31">
-        <v>100223.56769230771</v>
+        <v>99496.366348036318</v>
       </c>
       <c r="H31">
-        <v>100228.94769230772</v>
+        <v>99499.226348036304</v>
       </c>
       <c r="I31">
-        <v>100232.74769230772</v>
+        <v>99510.666348036306</v>
       </c>
       <c r="J31">
-        <v>100192.22769230772</v>
+        <v>99518.6600980363</v>
       </c>
       <c r="K31">
-        <v>100222.16769230772</v>
+        <v>99518.995098036292</v>
       </c>
       <c r="L31">
-        <v>100221.69769230772</v>
+        <v>99519.477598036319</v>
       </c>
       <c r="M31">
-        <v>100191.60769230772</v>
+        <v>99518.600098036317</v>
       </c>
       <c r="N31">
-        <v>100189.48769230771</v>
+        <v>99517.722598036315</v>
       </c>
       <c r="O31">
-        <v>100224.93769230772</v>
+        <v>99516.845098036312</v>
       </c>
       <c r="P31">
-        <v>100216.20769230771</v>
+        <v>99515.54134803632</v>
       </c>
       <c r="Q31">
-        <v>100223.75769230771</v>
+        <v>99513.811348036324</v>
       </c>
       <c r="R31">
-        <v>100184.77769230772</v>
+        <v>99512.081348036329</v>
       </c>
       <c r="S31">
-        <v>100166.12769230772</v>
+        <v>99510.351348036318</v>
       </c>
       <c r="T31">
-        <v>100139.00769230771</v>
+        <v>99507.352598036305</v>
       </c>
       <c r="U31">
-        <v>100110.47769230772</v>
+        <v>99503.085098036303</v>
       </c>
       <c r="V31">
-        <v>100092.15769230772</v>
+        <v>99498.817598036301</v>
       </c>
       <c r="W31">
-        <v>100095.33769230772</v>
+        <v>99494.550098036299</v>
       </c>
       <c r="X31">
-        <v>100113.90769230772</v>
+        <v>99493.426348036301</v>
       </c>
       <c r="Y31">
-        <v>100136.67769230771</v>
+        <v>99495.446348036305</v>
       </c>
       <c r="Z31">
-        <v>100157.77769230772</v>
+        <v>99497.466348036309</v>
       </c>
       <c r="AA31">
-        <v>100180.87769230772</v>
+        <v>99499.486348036298</v>
       </c>
       <c r="AB31">
-        <v>100191.79769230772</v>
+        <v>99498.545098036309</v>
       </c>
       <c r="AC31">
-        <v>100197.34769230771</v>
+        <v>99494.642598036313</v>
       </c>
       <c r="AD31">
-        <v>100194.77769230772</v>
+        <v>99490.740098036316</v>
       </c>
       <c r="AE31">
-        <v>100199.98769230771</v>
+        <v>99486.837598036305</v>
       </c>
       <c r="AF31">
-        <v>100201.80769230772</v>
+        <v>99484.657598036312</v>
       </c>
       <c r="AG31">
-        <v>100191.15769230772</v>
+        <v>99484.200098036308</v>
       </c>
       <c r="AH31">
-        <v>100195.72769230772</v>
+        <v>99483.742598036304</v>
       </c>
       <c r="AI31">
-        <v>100198.50769230771</v>
+        <v>99483.285098036315</v>
       </c>
       <c r="AJ31">
-        <v>100197.58769230772</v>
+        <v>99483.005098036316</v>
       </c>
       <c r="AK31">
-        <v>100197.79769230772</v>
+        <v>99482.902598036322</v>
       </c>
       <c r="AL31">
-        <v>100199.93769230772</v>
+        <v>99482.800098036329</v>
       </c>
       <c r="AM31">
-        <v>100196.70769230771</v>
+        <v>99482.69759803632</v>
       </c>
       <c r="AN31">
-        <v>100196.17769230771</v>
+        <v>99485.301348036315</v>
       </c>
       <c r="AO31">
-        <v>100194.79769230772</v>
+        <v>99488.841348036309</v>
       </c>
       <c r="AP31">
-        <v>100197.00769230771</v>
+        <v>99501.242598036304</v>
       </c>
       <c r="AQ31">
-        <v>100196.81769230771</v>
+        <v>99516.597598036315</v>
       </c>
       <c r="AR31">
-        <v>100197.97769230772</v>
+        <v>99520.43634803631</v>
       </c>
       <c r="AS31">
-        <v>100201.32769230772</v>
+        <v>99520.43634803631</v>
       </c>
       <c r="AT31">
-        <v>100200.13769230772</v>
+        <v>99520.43634803631</v>
       </c>
       <c r="AU31">
-        <v>100199.70769230771</v>
+        <v>99520.43634803631</v>
       </c>
       <c r="AV31">
-        <v>100199.97769230772</v>
+        <v>99520.43634803631</v>
       </c>
     </row>
     <row r="32" spans="1:48" x14ac:dyDescent="0.45">
@@ -4811,145 +4811,145 @@
         <v>15</v>
       </c>
       <c r="B32">
-        <v>100224.72769230772</v>
+        <v>99483.256348036317</v>
       </c>
       <c r="C32">
-        <v>100224.10769230772</v>
+        <v>99483.256348036317</v>
       </c>
       <c r="D32">
-        <v>100225.67769230771</v>
+        <v>99483.256348036317</v>
       </c>
       <c r="E32">
-        <v>100194.84769230771</v>
+        <v>99483.256348036317</v>
       </c>
       <c r="F32">
-        <v>100191.71769230772</v>
+        <v>99483.256348036317</v>
       </c>
       <c r="G32">
-        <v>100222.63769230772</v>
+        <v>99483.256348036317</v>
       </c>
       <c r="H32">
-        <v>100222.70769230771</v>
+        <v>99485.47884803632</v>
       </c>
       <c r="I32">
-        <v>100212.06769230771</v>
+        <v>99494.368848036305</v>
       </c>
       <c r="J32">
-        <v>100149.56769230771</v>
+        <v>99512.892598036327</v>
       </c>
       <c r="K32">
-        <v>100151.58769230772</v>
+        <v>99506.117598036333</v>
       </c>
       <c r="L32">
-        <v>100117.74769230772</v>
+        <v>99485.667598036307</v>
       </c>
       <c r="M32">
-        <v>100072.73769230771</v>
+        <v>99482.03009803631</v>
       </c>
       <c r="N32">
-        <v>100057.85769230772</v>
+        <v>99478.392598036313</v>
       </c>
       <c r="O32">
-        <v>100081.19769230772</v>
+        <v>99474.755098036316</v>
       </c>
       <c r="P32">
-        <v>100064.40769230772</v>
+        <v>99472.502598036313</v>
       </c>
       <c r="Q32">
-        <v>100070.01769230772</v>
+        <v>99471.635098036306</v>
       </c>
       <c r="R32">
-        <v>100036.25769230771</v>
+        <v>99470.767598036298</v>
       </c>
       <c r="S32">
-        <v>100032.40769230772</v>
+        <v>99469.900098036305</v>
       </c>
       <c r="T32">
-        <v>100032.80769230772</v>
+        <v>99469.505098036301</v>
       </c>
       <c r="U32">
-        <v>100034.90769230772</v>
+        <v>99469.582598036301</v>
       </c>
       <c r="V32">
-        <v>100038.29769230772</v>
+        <v>99469.6600980363</v>
       </c>
       <c r="W32">
-        <v>100048.89769230771</v>
+        <v>99469.737598036299</v>
       </c>
       <c r="X32">
-        <v>100060.60769230772</v>
+        <v>99469.747598036309</v>
       </c>
       <c r="Y32">
-        <v>100066.43769230772</v>
+        <v>99469.690098036313</v>
       </c>
       <c r="Z32">
-        <v>100070.90769230772</v>
+        <v>99469.632598036318</v>
       </c>
       <c r="AA32">
-        <v>100081.80769230772</v>
+        <v>99469.575098036323</v>
       </c>
       <c r="AB32">
-        <v>100090.05769230772</v>
+        <v>99469.321348036305</v>
       </c>
       <c r="AC32">
-        <v>100099.81769230771</v>
+        <v>99468.871348036308</v>
       </c>
       <c r="AD32">
-        <v>100104.17769230771</v>
+        <v>99468.421348036311</v>
       </c>
       <c r="AE32">
-        <v>100117.77769230772</v>
+        <v>99467.971348036313</v>
       </c>
       <c r="AF32">
-        <v>100128.30769230772</v>
+        <v>99467.826348036309</v>
       </c>
       <c r="AG32">
-        <v>100124.94769230772</v>
+        <v>99467.986348036313</v>
       </c>
       <c r="AH32">
-        <v>100135.09769230771</v>
+        <v>99468.146348036316</v>
       </c>
       <c r="AI32">
-        <v>100146.98769230771</v>
+        <v>99468.306348036305</v>
       </c>
       <c r="AJ32">
-        <v>100153.07769230772</v>
+        <v>99468.813848036312</v>
       </c>
       <c r="AK32">
-        <v>100160.20769230771</v>
+        <v>99469.668848036308</v>
       </c>
       <c r="AL32">
-        <v>100169.62769230772</v>
+        <v>99470.523848036304</v>
       </c>
       <c r="AM32">
-        <v>100171.32769230772</v>
+        <v>99471.378848036315</v>
       </c>
       <c r="AN32">
-        <v>100179.00769230771</v>
+        <v>99474.397598036303</v>
       </c>
       <c r="AO32">
-        <v>100185.28769230771</v>
+        <v>99477.852598036305</v>
       </c>
       <c r="AP32">
-        <v>100192.36769230771</v>
+        <v>99490.592598036295</v>
       </c>
       <c r="AQ32">
-        <v>100195.69769230772</v>
+        <v>99506.427598036302</v>
       </c>
       <c r="AR32">
-        <v>100198.58769230772</v>
+        <v>99510.386348036307</v>
       </c>
       <c r="AS32">
-        <v>100202.26769230772</v>
+        <v>99510.386348036307</v>
       </c>
       <c r="AT32">
-        <v>100201.59769230771</v>
+        <v>99510.386348036307</v>
       </c>
       <c r="AU32">
-        <v>100201.51769230772</v>
+        <v>99510.386348036307</v>
       </c>
       <c r="AV32">
-        <v>100201.71769230772</v>
+        <v>99510.386348036307</v>
       </c>
     </row>
     <row r="33" spans="1:48" x14ac:dyDescent="0.45">
@@ -4957,145 +4957,145 @@
         <v>15.5</v>
       </c>
       <c r="B33">
-        <v>100228.93769230772</v>
+        <v>99481.546348036311</v>
       </c>
       <c r="C33">
-        <v>100228.02769230772</v>
+        <v>99481.546348036311</v>
       </c>
       <c r="D33">
-        <v>100229.82769230772</v>
+        <v>99481.546348036311</v>
       </c>
       <c r="E33">
-        <v>100198.69769230772</v>
+        <v>99481.546348036311</v>
       </c>
       <c r="F33">
-        <v>100195.00769230771</v>
+        <v>99481.546348036311</v>
       </c>
       <c r="G33">
-        <v>100224.55769230772</v>
+        <v>99481.546348036311</v>
       </c>
       <c r="H33">
-        <v>100222.69769230772</v>
+        <v>99483.697598036306</v>
       </c>
       <c r="I33">
-        <v>100208.86769230771</v>
+        <v>99492.302598036316</v>
       </c>
       <c r="J33">
-        <v>100143.56769230771</v>
+        <v>99511.461348036319</v>
       </c>
       <c r="K33">
-        <v>100143.60769230772</v>
+        <v>99504.201348036309</v>
       </c>
       <c r="L33">
-        <v>100110.53769230771</v>
+        <v>99482.132598036318</v>
       </c>
       <c r="M33">
-        <v>100064.13769230772</v>
+        <v>99477.925098036314</v>
       </c>
       <c r="N33">
-        <v>100049.90769230772</v>
+        <v>99473.71759803631</v>
       </c>
       <c r="O33">
-        <v>100074.00769230771</v>
+        <v>99469.51009803632</v>
       </c>
       <c r="P33">
-        <v>100058.15769230772</v>
+        <v>99466.812598036311</v>
       </c>
       <c r="Q33">
-        <v>100064.06769230771</v>
+        <v>99465.625098036311</v>
       </c>
       <c r="R33">
-        <v>100031.00769230771</v>
+        <v>99464.437598036311</v>
       </c>
       <c r="S33">
-        <v>100027.96769230772</v>
+        <v>99463.250098036311</v>
       </c>
       <c r="T33">
-        <v>100028.23769230771</v>
+        <v>99462.948848036322</v>
       </c>
       <c r="U33">
-        <v>100031.42769230771</v>
+        <v>99463.533848036313</v>
       </c>
       <c r="V33">
-        <v>100035.20769230771</v>
+        <v>99464.118848036305</v>
       </c>
       <c r="W33">
-        <v>100044.80769230772</v>
+        <v>99464.703848036312</v>
       </c>
       <c r="X33">
-        <v>100056.13769230772</v>
+        <v>99464.8163480363</v>
       </c>
       <c r="Y33">
-        <v>100061.06769230771</v>
+        <v>99464.456348036299</v>
       </c>
       <c r="Z33">
-        <v>100067.08769230772</v>
+        <v>99464.096348036299</v>
       </c>
       <c r="AA33">
-        <v>100078.16769230772</v>
+        <v>99463.736348036298</v>
       </c>
       <c r="AB33">
-        <v>100087.28769230771</v>
+        <v>99463.482598036295</v>
       </c>
       <c r="AC33">
-        <v>100097.44769230772</v>
+        <v>99463.335098036303</v>
       </c>
       <c r="AD33">
-        <v>100100.73769230771</v>
+        <v>99463.187598036311</v>
       </c>
       <c r="AE33">
-        <v>100114.57769230772</v>
+        <v>99463.040098036305</v>
       </c>
       <c r="AF33">
-        <v>100126.60769230772</v>
+        <v>99463.151348036306</v>
       </c>
       <c r="AG33">
-        <v>100124.56769230771</v>
+        <v>99463.521348036302</v>
       </c>
       <c r="AH33">
-        <v>100136.98769230771</v>
+        <v>99463.891348036297</v>
       </c>
       <c r="AI33">
-        <v>100149.82769230772</v>
+        <v>99464.261348036292</v>
       </c>
       <c r="AJ33">
-        <v>100154.32769230772</v>
+        <v>99464.965098036293</v>
       </c>
       <c r="AK33">
-        <v>100162.49769230772</v>
+        <v>99466.002598036299</v>
       </c>
       <c r="AL33">
-        <v>100172.67769230771</v>
+        <v>99467.040098036305</v>
       </c>
       <c r="AM33">
-        <v>100174.94769230772</v>
+        <v>99468.077598036296</v>
       </c>
       <c r="AN33">
-        <v>100183.11769230771</v>
+        <v>99471.318848036317</v>
       </c>
       <c r="AO33">
-        <v>100188.90769230772</v>
+        <v>99474.948848036322</v>
       </c>
       <c r="AP33">
-        <v>100196.23769230771</v>
+        <v>99488.550098036314</v>
       </c>
       <c r="AQ33">
-        <v>100199.61769230771</v>
+        <v>99505.475098036317</v>
       </c>
       <c r="AR33">
-        <v>100202.37769230772</v>
+        <v>99509.706348036314</v>
       </c>
       <c r="AS33">
-        <v>100206.44769230772</v>
+        <v>99509.706348036314</v>
       </c>
       <c r="AT33">
-        <v>100205.31769230771</v>
+        <v>99509.706348036314</v>
       </c>
       <c r="AU33">
-        <v>100205.53769230771</v>
+        <v>99509.706348036314</v>
       </c>
       <c r="AV33">
-        <v>100205.29769230772</v>
+        <v>99509.706348036314</v>
       </c>
     </row>
     <row r="34" spans="1:48" x14ac:dyDescent="0.45">
@@ -5103,3291 +5103,3291 @@
         <v>16</v>
       </c>
       <c r="B34">
-        <v>100226.33769230772</v>
+        <v>99479.106348036308</v>
       </c>
       <c r="C34">
-        <v>100225.48769230771</v>
+        <v>99479.106348036308</v>
       </c>
       <c r="D34">
-        <v>100227.24769230772</v>
+        <v>99479.106348036308</v>
       </c>
       <c r="E34">
-        <v>100196.05769230772</v>
+        <v>99479.106348036308</v>
       </c>
       <c r="F34">
-        <v>100191.95769230771</v>
+        <v>99479.106348036308</v>
       </c>
       <c r="G34">
-        <v>100220.29769230772</v>
+        <v>99479.106348036308</v>
       </c>
       <c r="H34">
-        <v>100216.24769230772</v>
+        <v>99481.427598036316</v>
       </c>
       <c r="I34">
-        <v>100200.51769230772</v>
+        <v>99490.71259803632</v>
       </c>
       <c r="J34">
-        <v>100132.52769230772</v>
+        <v>99510.792598036307</v>
       </c>
       <c r="K34">
-        <v>100129.88769230772</v>
+        <v>99503.297598036312</v>
       </c>
       <c r="L34">
-        <v>100091.59769230771</v>
+        <v>99480.486348036298</v>
       </c>
       <c r="M34">
-        <v>100044.49769230772</v>
+        <v>99476.086348036304</v>
       </c>
       <c r="N34">
-        <v>100029.75769230771</v>
+        <v>99471.68634803631</v>
       </c>
       <c r="O34">
-        <v>100055.51769230772</v>
+        <v>99467.286348036301</v>
       </c>
       <c r="P34">
-        <v>100040.90769230772</v>
+        <v>99464.406348036297</v>
       </c>
       <c r="Q34">
-        <v>100048.49769230772</v>
+        <v>99463.046348036296</v>
       </c>
       <c r="R34">
-        <v>100018.11769230771</v>
+        <v>99461.686348036295</v>
       </c>
       <c r="S34">
-        <v>100017.96769230772</v>
+        <v>99460.326348036295</v>
       </c>
       <c r="T34">
-        <v>100020.61769230771</v>
+        <v>99460.023848036304</v>
       </c>
       <c r="U34">
-        <v>100025.90769230772</v>
+        <v>99460.778848036309</v>
       </c>
       <c r="V34">
-        <v>100030.91769230772</v>
+        <v>99461.533848036313</v>
       </c>
       <c r="W34">
-        <v>100042.80769230772</v>
+        <v>99462.288848036304</v>
       </c>
       <c r="X34">
-        <v>100056.42769230771</v>
+        <v>99462.456348036314</v>
       </c>
       <c r="Y34">
-        <v>100065.23769230771</v>
+        <v>99462.036348036316</v>
       </c>
       <c r="Z34">
-        <v>100072.50769230771</v>
+        <v>99461.616348036318</v>
       </c>
       <c r="AA34">
-        <v>100086.39769230771</v>
+        <v>99461.196348036319</v>
       </c>
       <c r="AB34">
-        <v>100097.38769230772</v>
+        <v>99461.068848036317</v>
       </c>
       <c r="AC34">
-        <v>100109.32769230772</v>
+        <v>99461.233848036311</v>
       </c>
       <c r="AD34">
-        <v>100113.92769230771</v>
+        <v>99461.398848036304</v>
       </c>
       <c r="AE34">
-        <v>100128.98769230771</v>
+        <v>99461.563848036312</v>
       </c>
       <c r="AF34">
-        <v>100139.96769230772</v>
+        <v>99461.513848036309</v>
       </c>
       <c r="AG34">
-        <v>100137.25769230771</v>
+        <v>99461.24884803631</v>
       </c>
       <c r="AH34">
-        <v>100153.60769230772</v>
+        <v>99460.983848036311</v>
       </c>
       <c r="AI34">
-        <v>100163.40769230772</v>
+        <v>99460.718848036311</v>
       </c>
       <c r="AJ34">
-        <v>100170.32769230772</v>
+        <v>99460.945098036304</v>
       </c>
       <c r="AK34">
-        <v>100176.71769230772</v>
+        <v>99461.662598036302</v>
       </c>
       <c r="AL34">
-        <v>100184.52769230772</v>
+        <v>99462.380098036301</v>
       </c>
       <c r="AM34">
-        <v>100184.67769230771</v>
+        <v>99463.097598036315</v>
       </c>
       <c r="AN34">
-        <v>100189.45769230771</v>
+        <v>99466.57259803632</v>
       </c>
       <c r="AO34">
-        <v>100191.70769230771</v>
+        <v>99470.727598036319</v>
       </c>
       <c r="AP34">
-        <v>100196.24769230772</v>
+        <v>99485.656348036311</v>
       </c>
       <c r="AQ34">
-        <v>100197.70769230771</v>
+        <v>99504.176348036301</v>
       </c>
       <c r="AR34">
-        <v>100199.56769230771</v>
+        <v>99508.806348036305</v>
       </c>
       <c r="AS34">
-        <v>100203.81769230771</v>
+        <v>99508.806348036305</v>
       </c>
       <c r="AT34">
-        <v>100202.71769230772</v>
+        <v>99508.806348036305</v>
       </c>
       <c r="AU34">
-        <v>100202.51769230772</v>
+        <v>99508.806348036305</v>
       </c>
       <c r="AV34">
-        <v>100202.57769230772</v>
+        <v>99508.806348036305</v>
       </c>
     </row>
     <row r="35" spans="1:48" x14ac:dyDescent="0.45">
       <c r="B35">
-        <v>100224.68769230772</v>
+        <v>99481.656348036311</v>
       </c>
       <c r="C35">
-        <v>100223.89769230771</v>
+        <v>99481.656348036311</v>
       </c>
       <c r="D35">
-        <v>100225.50769230771</v>
+        <v>99481.656348036311</v>
       </c>
       <c r="E35">
-        <v>100194.47769230772</v>
+        <v>99481.656348036311</v>
       </c>
       <c r="F35">
-        <v>100191.13769230772</v>
+        <v>99481.656348036311</v>
       </c>
       <c r="G35">
-        <v>100220.72769230772</v>
+        <v>99481.656348036311</v>
       </c>
       <c r="H35">
-        <v>100219.10769230772</v>
+        <v>99483.745098036321</v>
       </c>
       <c r="I35">
-        <v>100206.82769230772</v>
+        <v>99492.100098036331</v>
       </c>
       <c r="J35">
-        <v>100142.53769230771</v>
+        <v>99510.08259803633</v>
       </c>
       <c r="K35">
-        <v>100139.43769230772</v>
+        <v>99503.387598036323</v>
       </c>
       <c r="L35">
-        <v>100103.94769230772</v>
+        <v>99482.881348036317</v>
       </c>
       <c r="M35">
-        <v>100059.09769230771</v>
+        <v>99478.691348036315</v>
       </c>
       <c r="N35">
-        <v>100044.13769230772</v>
+        <v>99474.501348036312</v>
       </c>
       <c r="O35">
-        <v>100067.79769230772</v>
+        <v>99470.31134803631</v>
       </c>
       <c r="P35">
-        <v>100050.69769230772</v>
+        <v>99467.703848036312</v>
       </c>
       <c r="Q35">
-        <v>100055.56769230771</v>
+        <v>99466.678848036318</v>
       </c>
       <c r="R35">
-        <v>100022.50769230771</v>
+        <v>99465.653848036323</v>
       </c>
       <c r="S35">
-        <v>100019.74769230772</v>
+        <v>99464.628848036315</v>
       </c>
       <c r="T35">
-        <v>100019.80769230772</v>
+        <v>99464.561348036324</v>
       </c>
       <c r="U35">
-        <v>100021.79769230772</v>
+        <v>99465.451348036324</v>
       </c>
       <c r="V35">
-        <v>100025.00769230771</v>
+        <v>99466.341348036323</v>
       </c>
       <c r="W35">
-        <v>100035.62769230772</v>
+        <v>99467.231348036323</v>
       </c>
       <c r="X35">
-        <v>100047.94769230772</v>
+        <v>99467.535098036315</v>
       </c>
       <c r="Y35">
-        <v>100054.86769230771</v>
+        <v>99467.252598036313</v>
       </c>
       <c r="Z35">
-        <v>100061.38769230772</v>
+        <v>99466.970098036312</v>
       </c>
       <c r="AA35">
-        <v>100073.52769230772</v>
+        <v>99466.687598036311</v>
       </c>
       <c r="AB35">
-        <v>100084.12769230772</v>
+        <v>99466.433848036308</v>
       </c>
       <c r="AC35">
-        <v>100094.58769230772</v>
+        <v>99466.208848036316</v>
       </c>
       <c r="AD35">
-        <v>100099.64769230771</v>
+        <v>99465.983848036325</v>
       </c>
       <c r="AE35">
-        <v>100114.69769230772</v>
+        <v>99465.758848036319</v>
       </c>
       <c r="AF35">
-        <v>100126.98769230771</v>
+        <v>99465.700098036308</v>
       </c>
       <c r="AG35">
-        <v>100125.61769230771</v>
+        <v>99465.807598036306</v>
       </c>
       <c r="AH35">
-        <v>100144.08769230772</v>
+        <v>99465.915098036305</v>
       </c>
       <c r="AI35">
-        <v>100152.20769230771</v>
+        <v>99466.022598036303</v>
       </c>
       <c r="AJ35">
-        <v>100159.82769230772</v>
+        <v>99466.31134803631</v>
       </c>
       <c r="AK35">
-        <v>100165.70769230771</v>
+        <v>99466.781348036311</v>
       </c>
       <c r="AL35">
-        <v>100173.94769230772</v>
+        <v>99467.251348036312</v>
       </c>
       <c r="AM35">
-        <v>100174.15769230772</v>
+        <v>99467.721348036313</v>
       </c>
       <c r="AN35">
-        <v>100181.29769230772</v>
+        <v>99470.832598036315</v>
       </c>
       <c r="AO35">
-        <v>100186.67769230771</v>
+        <v>99474.667598036322</v>
       </c>
       <c r="AP35">
-        <v>100191.93769230772</v>
+        <v>99488.027598036322</v>
       </c>
       <c r="AQ35">
-        <v>100194.18769230772</v>
+        <v>99504.562598036311</v>
       </c>
       <c r="AR35">
-        <v>100196.73769230771</v>
+        <v>99508.696348036305</v>
       </c>
       <c r="AS35">
-        <v>100200.84769230771</v>
+        <v>99508.696348036305</v>
       </c>
       <c r="AT35">
-        <v>100200.01769230772</v>
+        <v>99508.696348036305</v>
       </c>
       <c r="AU35">
-        <v>100199.69769230772</v>
+        <v>99508.696348036305</v>
       </c>
       <c r="AV35">
-        <v>100199.87769230772</v>
+        <v>99508.696348036305</v>
       </c>
     </row>
     <row r="36" spans="1:48" x14ac:dyDescent="0.45">
       <c r="B36">
-        <v>100225.04769230772</v>
+        <v>99481.93634803631</v>
       </c>
       <c r="C36">
-        <v>100224.21769230772</v>
+        <v>99481.93634803631</v>
       </c>
       <c r="D36">
-        <v>100225.85769230772</v>
+        <v>99481.93634803631</v>
       </c>
       <c r="E36">
-        <v>100195.03769230771</v>
+        <v>99481.93634803631</v>
       </c>
       <c r="F36">
-        <v>100191.81769230771</v>
+        <v>99481.93634803631</v>
       </c>
       <c r="G36">
-        <v>100222.60769230772</v>
+        <v>99481.93634803631</v>
       </c>
       <c r="H36">
-        <v>100222.05769230772</v>
+        <v>99484.203848036312</v>
       </c>
       <c r="I36">
-        <v>100210.81769230771</v>
+        <v>99493.273848036319</v>
       </c>
       <c r="J36">
-        <v>100148.62769230772</v>
+        <v>99511.355098036322</v>
       </c>
       <c r="K36">
-        <v>100148.19769230772</v>
+        <v>99504.910098036315</v>
       </c>
       <c r="L36">
-        <v>100116.83769230772</v>
+        <v>99485.4100980363</v>
       </c>
       <c r="M36">
-        <v>100071.83769230772</v>
+        <v>99481.857598036295</v>
       </c>
       <c r="N36">
-        <v>100058.36769230771</v>
+        <v>99478.30509803629</v>
       </c>
       <c r="O36">
-        <v>100082.85769230772</v>
+        <v>99474.752598036284</v>
       </c>
       <c r="P36">
-        <v>100067.62769230772</v>
+        <v>99472.450098036294</v>
       </c>
       <c r="Q36">
-        <v>100072.77769230772</v>
+        <v>99471.397598036303</v>
       </c>
       <c r="R36">
-        <v>100040.37769230772</v>
+        <v>99470.345098036312</v>
       </c>
       <c r="S36">
-        <v>100036.65769230772</v>
+        <v>99469.292598036307</v>
       </c>
       <c r="T36">
-        <v>100036.26769230772</v>
+        <v>99469.043848036323</v>
       </c>
       <c r="U36">
-        <v>100038.73769230771</v>
+        <v>99469.598848036316</v>
       </c>
       <c r="V36">
-        <v>100041.61769230771</v>
+        <v>99470.153848036309</v>
       </c>
       <c r="W36">
-        <v>100050.30769230772</v>
+        <v>99470.708848036316</v>
       </c>
       <c r="X36">
-        <v>100059.49769230772</v>
+        <v>99470.791348036306</v>
       </c>
       <c r="Y36">
-        <v>100065.30769230772</v>
+        <v>99470.401348036306</v>
       </c>
       <c r="Z36">
-        <v>100071.61769230771</v>
+        <v>99470.011348036307</v>
       </c>
       <c r="AA36">
-        <v>100082.53769230771</v>
+        <v>99469.621348036308</v>
       </c>
       <c r="AB36">
-        <v>100092.15769230772</v>
+        <v>99469.336348036304</v>
       </c>
       <c r="AC36">
-        <v>100102.19769230772</v>
+        <v>99469.156348036311</v>
       </c>
       <c r="AD36">
-        <v>100107.67769230771</v>
+        <v>99468.976348036318</v>
       </c>
       <c r="AE36">
-        <v>100121.82769230772</v>
+        <v>99468.796348036311</v>
       </c>
       <c r="AF36">
-        <v>100131.67769230771</v>
+        <v>99468.788848036318</v>
       </c>
       <c r="AG36">
-        <v>100128.23769230771</v>
+        <v>99468.953848036312</v>
       </c>
       <c r="AH36">
-        <v>100142.64769230771</v>
+        <v>99469.118848036305</v>
       </c>
       <c r="AI36">
-        <v>100151.44769230772</v>
+        <v>99469.283848036313</v>
       </c>
       <c r="AJ36">
-        <v>100158.29769230772</v>
+        <v>99469.545098036309</v>
       </c>
       <c r="AK36">
-        <v>100165.05769230772</v>
+        <v>99469.902598036308</v>
       </c>
       <c r="AL36">
-        <v>100174.07769230772</v>
+        <v>99470.260098036306</v>
       </c>
       <c r="AM36">
-        <v>100175.20769230771</v>
+        <v>99470.617598036304</v>
       </c>
       <c r="AN36">
-        <v>100182.69769230772</v>
+        <v>99473.15509803631</v>
       </c>
       <c r="AO36">
-        <v>100186.85769230772</v>
+        <v>99476.300098036299</v>
       </c>
       <c r="AP36">
-        <v>100192.39769230771</v>
+        <v>99489.540098036319</v>
       </c>
       <c r="AQ36">
-        <v>100195.39769230771</v>
+        <v>99506.14509803633</v>
       </c>
       <c r="AR36">
-        <v>100197.94769230772</v>
+        <v>99510.296348036311</v>
       </c>
       <c r="AS36">
-        <v>100202.53769230771</v>
+        <v>99510.296348036311</v>
       </c>
       <c r="AT36">
-        <v>100201.70769230771</v>
+        <v>99510.296348036311</v>
       </c>
       <c r="AU36">
-        <v>100201.57769230772</v>
+        <v>99510.296348036311</v>
       </c>
       <c r="AV36">
-        <v>100201.70769230771</v>
+        <v>99510.296348036311</v>
       </c>
     </row>
     <row r="37" spans="1:48" x14ac:dyDescent="0.45">
       <c r="B37">
-        <v>100226.13769230772</v>
+        <v>99488.926348036315</v>
       </c>
       <c r="C37">
-        <v>100225.33769230772</v>
+        <v>99488.926348036315</v>
       </c>
       <c r="D37">
-        <v>100226.91769230772</v>
+        <v>99488.926348036315</v>
       </c>
       <c r="E37">
-        <v>100196.14769230771</v>
+        <v>99488.926348036315</v>
       </c>
       <c r="F37">
-        <v>100193.20769230771</v>
+        <v>99488.926348036315</v>
       </c>
       <c r="G37">
-        <v>100224.88769230772</v>
+        <v>99488.926348036315</v>
       </c>
       <c r="H37">
-        <v>100227.17769230771</v>
+        <v>99490.848848036301</v>
       </c>
       <c r="I37">
-        <v>100220.33769230772</v>
+        <v>99498.538848036304</v>
       </c>
       <c r="J37">
-        <v>100160.39769230771</v>
+        <v>99514.456348036299</v>
       </c>
       <c r="K37">
-        <v>100160.12769230772</v>
+        <v>99508.656348036311</v>
       </c>
       <c r="L37">
-        <v>100125.68769230772</v>
+        <v>99490.970098036327</v>
       </c>
       <c r="M37">
-        <v>100084.38769230772</v>
+        <v>99487.497598036323</v>
       </c>
       <c r="N37">
-        <v>100074.33769230772</v>
+        <v>99484.02509803632</v>
       </c>
       <c r="O37">
-        <v>100102.50769230771</v>
+        <v>99480.552598036331</v>
       </c>
       <c r="P37">
-        <v>100089.92769230771</v>
+        <v>99478.486348036313</v>
       </c>
       <c r="Q37">
-        <v>100097.43769230772</v>
+        <v>99477.826348036309</v>
       </c>
       <c r="R37">
-        <v>100066.45769230771</v>
+        <v>99477.166348036306</v>
       </c>
       <c r="S37">
-        <v>100065.54769230772</v>
+        <v>99476.506348036317</v>
       </c>
       <c r="T37">
-        <v>100066.66769230772</v>
+        <v>99476.460098036303</v>
       </c>
       <c r="U37">
-        <v>100069.11769230771</v>
+        <v>99477.027598036308</v>
       </c>
       <c r="V37">
-        <v>100072.52769230772</v>
+        <v>99477.595098036312</v>
       </c>
       <c r="W37">
-        <v>100081.40769230772</v>
+        <v>99478.162598036302</v>
       </c>
       <c r="X37">
-        <v>100092.74769230772</v>
+        <v>99478.442598036316</v>
       </c>
       <c r="Y37">
-        <v>100098.12769230772</v>
+        <v>99478.435098036309</v>
       </c>
       <c r="Z37">
-        <v>100102.87769230772</v>
+        <v>99478.427598036302</v>
       </c>
       <c r="AA37">
-        <v>100111.55769230772</v>
+        <v>99478.420098036309</v>
       </c>
       <c r="AB37">
-        <v>100118.63769230772</v>
+        <v>99478.270098036301</v>
       </c>
       <c r="AC37">
-        <v>100126.52769230772</v>
+        <v>99477.977598036305</v>
       </c>
       <c r="AD37">
-        <v>100130.32769230772</v>
+        <v>99477.685098036309</v>
       </c>
       <c r="AE37">
-        <v>100141.94769230772</v>
+        <v>99477.392598036298</v>
       </c>
       <c r="AF37">
-        <v>100150.57769230772</v>
+        <v>99477.338848036306</v>
       </c>
       <c r="AG37">
-        <v>100146.16769230772</v>
+        <v>99477.523848036304</v>
       </c>
       <c r="AH37">
-        <v>100156.74769230772</v>
+        <v>99477.708848036302</v>
       </c>
       <c r="AI37">
-        <v>100168.91769230772</v>
+        <v>99477.893848036299</v>
       </c>
       <c r="AJ37">
-        <v>100169.88769230772</v>
+        <v>99478.326348036324</v>
       </c>
       <c r="AK37">
-        <v>100175.21769230772</v>
+        <v>99479.006348036317</v>
       </c>
       <c r="AL37">
-        <v>100182.22769230772</v>
+        <v>99479.68634803631</v>
       </c>
       <c r="AM37">
-        <v>100181.92769230771</v>
+        <v>99480.366348036318</v>
       </c>
       <c r="AN37">
-        <v>100186.48769230771</v>
+        <v>99482.611348036313</v>
       </c>
       <c r="AO37">
-        <v>100189.99769230772</v>
+        <v>99485.151348036306</v>
       </c>
       <c r="AP37">
-        <v>100195.12769230772</v>
+        <v>99495.772598036318</v>
       </c>
       <c r="AQ37">
-        <v>100196.98769230771</v>
+        <v>99509.087598036305</v>
       </c>
       <c r="AR37">
-        <v>100198.72769230772</v>
+        <v>99512.416348036306</v>
       </c>
       <c r="AS37">
-        <v>100202.85769230772</v>
+        <v>99512.416348036306</v>
       </c>
       <c r="AT37">
-        <v>100202.05769230772</v>
+        <v>99512.416348036306</v>
       </c>
       <c r="AU37">
-        <v>100201.94769230772</v>
+        <v>99512.416348036306</v>
       </c>
       <c r="AV37">
-        <v>100202.09769230771</v>
+        <v>99512.416348036306</v>
       </c>
     </row>
     <row r="38" spans="1:48" x14ac:dyDescent="0.45">
       <c r="B38">
-        <v>100223.06769230771</v>
+        <v>99499.656348036311</v>
       </c>
       <c r="C38">
-        <v>100222.48769230771</v>
+        <v>99499.656348036311</v>
       </c>
       <c r="D38">
-        <v>100224.08769230772</v>
+        <v>99499.656348036311</v>
       </c>
       <c r="E38">
-        <v>100193.25769230771</v>
+        <v>99499.656348036311</v>
       </c>
       <c r="F38">
-        <v>100190.25769230771</v>
+        <v>99499.656348036311</v>
       </c>
       <c r="G38">
-        <v>100222.94769230772</v>
+        <v>99499.656348036311</v>
       </c>
       <c r="H38">
-        <v>100228.48769230771</v>
+        <v>99501.251348036312</v>
       </c>
       <c r="I38">
-        <v>100231.08769230772</v>
+        <v>99507.631348036317</v>
       </c>
       <c r="J38">
-        <v>100177.82769230772</v>
+        <v>99520.851348036318</v>
       </c>
       <c r="K38">
-        <v>100165.92769230771</v>
+        <v>99516.031348036311</v>
       </c>
       <c r="L38">
-        <v>100118.37769230772</v>
+        <v>99501.87384803631</v>
       </c>
       <c r="M38">
-        <v>100086.09769230771</v>
+        <v>99500.068848036302</v>
       </c>
       <c r="N38">
-        <v>100097.72769230772</v>
+        <v>99498.263848036295</v>
       </c>
       <c r="O38">
-        <v>100155.40769230772</v>
+        <v>99496.458848036302</v>
       </c>
       <c r="P38">
-        <v>100173.55769230772</v>
+        <v>99495.400098036305</v>
       </c>
       <c r="Q38">
-        <v>100205.26769230772</v>
+        <v>99495.087598036305</v>
       </c>
       <c r="R38">
-        <v>100188.39769230771</v>
+        <v>99494.775098036305</v>
       </c>
       <c r="S38">
-        <v>100192.59769230771</v>
+        <v>99494.462598036305</v>
       </c>
       <c r="T38">
-        <v>100194.56769230771</v>
+        <v>99494.932598036306</v>
       </c>
       <c r="U38">
-        <v>100194.58769230772</v>
+        <v>99496.185098036309</v>
       </c>
       <c r="V38">
-        <v>100194.34769230771</v>
+        <v>99497.437598036311</v>
       </c>
       <c r="W38">
-        <v>100197.25769230771</v>
+        <v>99498.690098036313</v>
       </c>
       <c r="X38">
-        <v>100201.13769230772</v>
+        <v>99499.116348036303</v>
       </c>
       <c r="Y38">
-        <v>100199.22769230772</v>
+        <v>99498.716348036309</v>
       </c>
       <c r="Z38">
-        <v>100197.64769230771</v>
+        <v>99498.316348036315</v>
       </c>
       <c r="AA38">
-        <v>100198.79769230772</v>
+        <v>99497.916348036306</v>
       </c>
       <c r="AB38">
-        <v>100199.07769230772</v>
+        <v>99497.97884803632</v>
       </c>
       <c r="AC38">
-        <v>100199.44769230772</v>
+        <v>99498.503848036315</v>
       </c>
       <c r="AD38">
-        <v>100195.26769230772</v>
+        <v>99499.028848036309</v>
       </c>
       <c r="AE38">
-        <v>100199.91769230772</v>
+        <v>99499.553848036318</v>
       </c>
       <c r="AF38">
-        <v>100201.68769230772</v>
+        <v>99499.975098036317</v>
       </c>
       <c r="AG38">
-        <v>100190.85769230772</v>
+        <v>99500.292598036307</v>
       </c>
       <c r="AH38">
-        <v>100195.60769230772</v>
+        <v>99500.610098036297</v>
       </c>
       <c r="AI38">
-        <v>100198.97769230772</v>
+        <v>99500.927598036302</v>
       </c>
       <c r="AJ38">
-        <v>100197.17769230771</v>
+        <v>99501.107598036295</v>
       </c>
       <c r="AK38">
-        <v>100197.52769230772</v>
+        <v>99501.150098036305</v>
       </c>
       <c r="AL38">
-        <v>100199.85769230772</v>
+        <v>99501.192598036316</v>
       </c>
       <c r="AM38">
-        <v>100196.68769230772</v>
+        <v>99501.235098036312</v>
       </c>
       <c r="AN38">
-        <v>100195.93769230772</v>
+        <v>99501.473848036316</v>
       </c>
       <c r="AO38">
-        <v>100194.54769230772</v>
+        <v>99501.763848036309</v>
       </c>
       <c r="AP38">
-        <v>100196.62769230772</v>
+        <v>99508.106348036308</v>
       </c>
       <c r="AQ38">
-        <v>100196.87769230772</v>
+        <v>99516.466348036309</v>
       </c>
       <c r="AR38">
-        <v>100197.70769230771</v>
+        <v>99518.556348036305</v>
       </c>
       <c r="AS38">
-        <v>100201.21769230772</v>
+        <v>99518.556348036305</v>
       </c>
       <c r="AT38">
-        <v>100199.79769230772</v>
+        <v>99518.556348036305</v>
       </c>
       <c r="AU38">
-        <v>100199.55769230772</v>
+        <v>99518.556348036305</v>
       </c>
       <c r="AV38">
-        <v>100199.68769230772</v>
+        <v>99518.556348036305</v>
       </c>
     </row>
     <row r="39" spans="1:48" x14ac:dyDescent="0.45">
       <c r="B39">
-        <v>100223.34769230771</v>
+        <v>99503.136348036307</v>
       </c>
       <c r="C39">
-        <v>100222.80769230772</v>
+        <v>99503.136348036307</v>
       </c>
       <c r="D39">
-        <v>100224.31769230771</v>
+        <v>99503.136348036307</v>
       </c>
       <c r="E39">
-        <v>100193.43769230772</v>
+        <v>99503.136348036307</v>
       </c>
       <c r="F39">
-        <v>100190.62769230772</v>
+        <v>99503.136348036307</v>
       </c>
       <c r="G39">
-        <v>100223.29769230772</v>
+        <v>99503.136348036307</v>
       </c>
       <c r="H39">
-        <v>100228.84769230771</v>
+        <v>99505.011348036307</v>
       </c>
       <c r="I39">
-        <v>100232.65769230772</v>
+        <v>99512.511348036307</v>
       </c>
       <c r="J39">
-        <v>100191.93769230772</v>
+        <v>99517.917598036307</v>
       </c>
       <c r="K39">
-        <v>100222.05769230772</v>
+        <v>99518.042598036307</v>
       </c>
       <c r="L39">
-        <v>100221.49769230772</v>
+        <v>99518.031348036311</v>
       </c>
       <c r="M39">
-        <v>100191.27769230772</v>
+        <v>99517.321348036305</v>
       </c>
       <c r="N39">
-        <v>100189.24769230772</v>
+        <v>99516.611348036298</v>
       </c>
       <c r="O39">
-        <v>100224.78769230771</v>
+        <v>99515.901348036306</v>
       </c>
       <c r="P39">
-        <v>100216.92769230771</v>
+        <v>99514.978848036306</v>
       </c>
       <c r="Q39">
-        <v>100227.77769230772</v>
+        <v>99513.843848036311</v>
       </c>
       <c r="R39">
-        <v>100196.08769230772</v>
+        <v>99512.708848036316</v>
       </c>
       <c r="S39">
-        <v>100189.22769230772</v>
+        <v>99511.573848036322</v>
       </c>
       <c r="T39">
-        <v>100176.17769230771</v>
+        <v>99510.325098036308</v>
       </c>
       <c r="U39">
-        <v>100154.95769230771</v>
+        <v>99508.962598036305</v>
       </c>
       <c r="V39">
-        <v>100124.80769230772</v>
+        <v>99507.600098036302</v>
       </c>
       <c r="W39">
-        <v>100104.40769230772</v>
+        <v>99506.237598036299</v>
       </c>
       <c r="X39">
-        <v>100095.49769230772</v>
+        <v>99505.621348036308</v>
       </c>
       <c r="Y39">
-        <v>100096.88769230772</v>
+        <v>99505.751348036312</v>
       </c>
       <c r="Z39">
-        <v>100109.74769230772</v>
+        <v>99505.881348036317</v>
       </c>
       <c r="AA39">
-        <v>100138.89769230771</v>
+        <v>99506.011348036322</v>
       </c>
       <c r="AB39">
-        <v>100163.24769230772</v>
+        <v>99505.956348036299</v>
       </c>
       <c r="AC39">
-        <v>100182.61769230771</v>
+        <v>99505.716348036309</v>
       </c>
       <c r="AD39">
-        <v>100188.63769230772</v>
+        <v>99505.476348036318</v>
       </c>
       <c r="AE39">
-        <v>100197.82769230772</v>
+        <v>99505.236348036313</v>
       </c>
       <c r="AF39">
-        <v>100201.16769230772</v>
+        <v>99505.196348036305</v>
       </c>
       <c r="AG39">
-        <v>100190.74769230772</v>
+        <v>99505.356348036308</v>
       </c>
       <c r="AH39">
-        <v>100195.94769230772</v>
+        <v>99505.516348036312</v>
       </c>
       <c r="AI39">
-        <v>100197.08769230772</v>
+        <v>99505.676348036301</v>
       </c>
       <c r="AJ39">
-        <v>100197.73769230771</v>
+        <v>99505.623848036324</v>
       </c>
       <c r="AK39">
-        <v>100198.12769230772</v>
+        <v>99505.358848036325</v>
       </c>
       <c r="AL39">
-        <v>100200.23769230771</v>
+        <v>99505.093848036326</v>
       </c>
       <c r="AM39">
-        <v>100197.15769230772</v>
+        <v>99504.828848036326</v>
       </c>
       <c r="AN39">
-        <v>100196.46769230772</v>
+        <v>99504.932598036306</v>
       </c>
       <c r="AO39">
-        <v>100195.22769230772</v>
+        <v>99505.247598036309</v>
       </c>
       <c r="AP39">
-        <v>100197.32769230772</v>
+        <v>99510.733848036311</v>
       </c>
       <c r="AQ39">
-        <v>100197.36769230771</v>
+        <v>99517.943848036317</v>
       </c>
       <c r="AR39">
-        <v>100198.31769230771</v>
+        <v>99519.746348036308</v>
       </c>
       <c r="AS39">
-        <v>100201.73769230771</v>
+        <v>99519.746348036308</v>
       </c>
       <c r="AT39">
-        <v>100200.54769230772</v>
+        <v>99519.746348036308</v>
       </c>
       <c r="AU39">
-        <v>100200.17769230771</v>
+        <v>99519.746348036308</v>
       </c>
       <c r="AV39">
-        <v>100200.44769230772</v>
+        <v>99519.746348036308</v>
       </c>
     </row>
     <row r="40" spans="1:48" x14ac:dyDescent="0.45">
       <c r="B40">
-        <v>100221.14769230771</v>
+        <v>99503.256348036317</v>
       </c>
       <c r="C40">
-        <v>100220.52769230772</v>
+        <v>99503.256348036317</v>
       </c>
       <c r="D40">
-        <v>100222.09769230771</v>
+        <v>99503.256348036317</v>
       </c>
       <c r="E40">
-        <v>100191.25769230771</v>
+        <v>99503.256348036317</v>
       </c>
       <c r="F40">
-        <v>100188.33769230772</v>
+        <v>99503.256348036317</v>
       </c>
       <c r="G40">
-        <v>100220.97769230772</v>
+        <v>99503.256348036317</v>
       </c>
       <c r="H40">
-        <v>100226.74769230772</v>
+        <v>99505.031348036326</v>
       </c>
       <c r="I40">
-        <v>100230.39769230771</v>
+        <v>99512.131348036331</v>
       </c>
       <c r="J40">
-        <v>100189.84769230771</v>
+        <v>99517.298848036313</v>
       </c>
       <c r="K40">
-        <v>100219.50769230771</v>
+        <v>99517.388848036309</v>
       </c>
       <c r="L40">
-        <v>100219.42769230771</v>
+        <v>99517.303848036303</v>
       </c>
       <c r="M40">
-        <v>100189.18769230772</v>
+        <v>99516.638848036309</v>
       </c>
       <c r="N40">
-        <v>100187.08769230772</v>
+        <v>99515.973848036316</v>
       </c>
       <c r="O40">
-        <v>100222.51769230772</v>
+        <v>99515.308848036308</v>
       </c>
       <c r="P40">
-        <v>100214.57769230772</v>
+        <v>99514.595098036298</v>
       </c>
       <c r="Q40">
-        <v>100225.69769230772</v>
+        <v>99513.832598036301</v>
       </c>
       <c r="R40">
-        <v>100195.23769230771</v>
+        <v>99513.070098036304</v>
       </c>
       <c r="S40">
-        <v>100190.69769230772</v>
+        <v>99512.307598036306</v>
       </c>
       <c r="T40">
-        <v>100182.28769230771</v>
+        <v>99511.417598036307</v>
       </c>
       <c r="U40">
-        <v>100165.62769230772</v>
+        <v>99510.400098036305</v>
       </c>
       <c r="V40">
-        <v>100138.85769230772</v>
+        <v>99509.382598036304</v>
       </c>
       <c r="W40">
-        <v>100114.59769230771</v>
+        <v>99508.365098036302</v>
       </c>
       <c r="X40">
-        <v>100097.94769230772</v>
+        <v>99507.902598036308</v>
       </c>
       <c r="Y40">
-        <v>100090.34769230771</v>
+        <v>99507.995098036306</v>
       </c>
       <c r="Z40">
-        <v>100098.20769230771</v>
+        <v>99508.087598036305</v>
       </c>
       <c r="AA40">
-        <v>100123.51769230772</v>
+        <v>99508.180098036304</v>
       </c>
       <c r="AB40">
-        <v>100150.21769230772</v>
+        <v>99508.271348036316</v>
       </c>
       <c r="AC40">
-        <v>100173.72769230772</v>
+        <v>99508.361348036313</v>
       </c>
       <c r="AD40">
-        <v>100183.18769230772</v>
+        <v>99508.451348036309</v>
       </c>
       <c r="AE40">
-        <v>100194.74769230772</v>
+        <v>99508.54134803632</v>
       </c>
       <c r="AF40">
-        <v>100198.44769230772</v>
+        <v>99508.493848036305</v>
       </c>
       <c r="AG40">
-        <v>100188.41769230772</v>
+        <v>99508.308848036308</v>
       </c>
       <c r="AH40">
-        <v>100193.34769230771</v>
+        <v>99508.12384803631</v>
       </c>
       <c r="AI40">
-        <v>100196.66769230772</v>
+        <v>99507.938848036312</v>
       </c>
       <c r="AJ40">
-        <v>100194.84769230771</v>
+        <v>99507.647598036303</v>
       </c>
       <c r="AK40">
-        <v>100195.56769230771</v>
+        <v>99507.250098036311</v>
       </c>
       <c r="AL40">
-        <v>100197.65769230772</v>
+        <v>99506.852598036319</v>
       </c>
       <c r="AM40">
-        <v>100194.31769230771</v>
+        <v>99506.455098036313</v>
       </c>
       <c r="AN40">
-        <v>100193.67769230771</v>
+        <v>99506.151348036306</v>
       </c>
       <c r="AO40">
-        <v>100192.46769230772</v>
+        <v>99506.011348036292</v>
       </c>
       <c r="AP40">
-        <v>100194.46769230772</v>
+        <v>99510.930098036304</v>
       </c>
       <c r="AQ40">
-        <v>100194.67769230771</v>
+        <v>99517.535098036315</v>
       </c>
       <c r="AR40">
-        <v>100195.70769230771</v>
+        <v>99519.18634803631</v>
       </c>
       <c r="AS40">
-        <v>100198.76769230772</v>
+        <v>99519.18634803631</v>
       </c>
       <c r="AT40">
-        <v>100197.66769230772</v>
+        <v>99519.18634803631</v>
       </c>
       <c r="AU40">
-        <v>100197.30769230772</v>
+        <v>99519.18634803631</v>
       </c>
       <c r="AV40">
-        <v>100197.51769230772</v>
+        <v>99519.18634803631</v>
       </c>
     </row>
     <row r="41" spans="1:48" x14ac:dyDescent="0.45">
       <c r="B41">
-        <v>100222.92769230771</v>
+        <v>99503.536348036316</v>
       </c>
       <c r="C41">
-        <v>100222.27769230772</v>
+        <v>99503.536348036316</v>
       </c>
       <c r="D41">
-        <v>100223.76769230772</v>
+        <v>99503.536348036316</v>
       </c>
       <c r="E41">
-        <v>100193.00769230771</v>
+        <v>99503.536348036316</v>
       </c>
       <c r="F41">
-        <v>100190.22769230772</v>
+        <v>99503.536348036316</v>
       </c>
       <c r="G41">
-        <v>100222.87769230772</v>
+        <v>99503.536348036316</v>
       </c>
       <c r="H41">
-        <v>100228.46769230772</v>
+        <v>99505.285098036315</v>
       </c>
       <c r="I41">
-        <v>100232.12769230772</v>
+        <v>99512.28009803631</v>
       </c>
       <c r="J41">
-        <v>100191.54769230772</v>
+        <v>99517.465098036293</v>
       </c>
       <c r="K41">
-        <v>100221.35769230772</v>
+        <v>99517.500098036297</v>
       </c>
       <c r="L41">
-        <v>100221.15769230772</v>
+        <v>99517.270098036315</v>
       </c>
       <c r="M41">
-        <v>100190.92769230771</v>
+        <v>99516.617598036319</v>
       </c>
       <c r="N41">
-        <v>100188.67769230771</v>
+        <v>99515.965098036322</v>
       </c>
       <c r="O41">
-        <v>100224.27769230772</v>
+        <v>99515.312598036311</v>
       </c>
       <c r="P41">
-        <v>100216.40769230772</v>
+        <v>99514.698848036307</v>
       </c>
       <c r="Q41">
-        <v>100227.65769230772</v>
+        <v>99514.12384803631</v>
       </c>
       <c r="R41">
-        <v>100197.65769230772</v>
+        <v>99513.548848036313</v>
       </c>
       <c r="S41">
-        <v>100194.48769230771</v>
+        <v>99512.973848036316</v>
       </c>
       <c r="T41">
-        <v>100189.92769230771</v>
+        <v>99512.213848036306</v>
       </c>
       <c r="U41">
-        <v>100177.98769230771</v>
+        <v>99511.268848036314</v>
       </c>
       <c r="V41">
-        <v>100155.15769230772</v>
+        <v>99510.323848036322</v>
       </c>
       <c r="W41">
-        <v>100130.47769230772</v>
+        <v>99509.378848036315</v>
       </c>
       <c r="X41">
-        <v>100107.07769230772</v>
+        <v>99508.985098036312</v>
       </c>
       <c r="Y41">
-        <v>100091.36769230771</v>
+        <v>99509.142598036313</v>
       </c>
       <c r="Z41">
-        <v>100092.40769230772</v>
+        <v>99509.300098036314</v>
       </c>
       <c r="AA41">
-        <v>100115.19769230772</v>
+        <v>99509.457598036315</v>
       </c>
       <c r="AB41">
-        <v>100143.47769230772</v>
+        <v>99509.533848036313</v>
       </c>
       <c r="AC41">
-        <v>100169.63769230772</v>
+        <v>99509.528848036309</v>
       </c>
       <c r="AD41">
-        <v>100182.52769230772</v>
+        <v>99509.523848036304</v>
       </c>
       <c r="AE41">
-        <v>100195.77769230772</v>
+        <v>99509.518848036299</v>
       </c>
       <c r="AF41">
-        <v>100200.32769230772</v>
+        <v>99509.392598036298</v>
       </c>
       <c r="AG41">
-        <v>100190.26769230772</v>
+        <v>99509.145098036301</v>
       </c>
       <c r="AH41">
-        <v>100194.59769230771</v>
+        <v>99508.897598036303</v>
       </c>
       <c r="AI41">
-        <v>100198.06769230771</v>
+        <v>99508.650098036305</v>
       </c>
       <c r="AJ41">
-        <v>100196.14769230771</v>
+        <v>99508.325098036308</v>
       </c>
       <c r="AK41">
-        <v>100196.62769230772</v>
+        <v>99507.922598036312</v>
       </c>
       <c r="AL41">
-        <v>100198.85769230772</v>
+        <v>99507.520098036315</v>
       </c>
       <c r="AM41">
-        <v>100195.40769230772</v>
+        <v>99507.117598036304</v>
       </c>
       <c r="AN41">
-        <v>100194.85769230772</v>
+        <v>99506.728848036306</v>
       </c>
       <c r="AO41">
-        <v>100193.69769230772</v>
+        <v>99506.478848036306</v>
       </c>
       <c r="AP41">
-        <v>100195.69769230772</v>
+        <v>99511.205098036298</v>
       </c>
       <c r="AQ41">
-        <v>100195.87769230772</v>
+        <v>99517.590098036308</v>
       </c>
       <c r="AR41">
-        <v>100196.86769230771</v>
+        <v>99519.18634803631</v>
       </c>
       <c r="AS41">
-        <v>100200.06769230771</v>
+        <v>99519.18634803631</v>
       </c>
       <c r="AT41">
-        <v>100198.89769230771</v>
+        <v>99519.18634803631</v>
       </c>
       <c r="AU41">
-        <v>100198.50769230771</v>
+        <v>99519.18634803631</v>
       </c>
       <c r="AV41">
-        <v>100198.78769230771</v>
+        <v>99519.18634803631</v>
       </c>
     </row>
     <row r="42" spans="1:48" x14ac:dyDescent="0.45">
       <c r="B42">
-        <v>100221.27769230772</v>
+        <v>99504.316348036315</v>
       </c>
       <c r="C42">
-        <v>100220.65769230772</v>
+        <v>99504.316348036315</v>
       </c>
       <c r="D42">
-        <v>100222.07769230772</v>
+        <v>99504.316348036315</v>
       </c>
       <c r="E42">
-        <v>100191.45769230771</v>
+        <v>99504.316348036315</v>
       </c>
       <c r="F42">
-        <v>100188.45769230771</v>
+        <v>99504.316348036315</v>
       </c>
       <c r="G42">
-        <v>100221.07769230772</v>
+        <v>99504.316348036315</v>
       </c>
       <c r="H42">
-        <v>100226.83769230772</v>
+        <v>99506.045098036324</v>
       </c>
       <c r="I42">
-        <v>100230.28769230771</v>
+        <v>99512.960098036332</v>
       </c>
       <c r="J42">
-        <v>100190.06769230771</v>
+        <v>99518.163848036333</v>
       </c>
       <c r="K42">
-        <v>100219.55769230772</v>
+        <v>99518.153848036323</v>
       </c>
       <c r="L42">
-        <v>100219.57769230772</v>
+        <v>99517.80634803632</v>
       </c>
       <c r="M42">
-        <v>100189.33769230772</v>
+        <v>99517.16634803632</v>
       </c>
       <c r="N42">
-        <v>100187.21769230772</v>
+        <v>99516.526348036321</v>
       </c>
       <c r="O42">
-        <v>100222.76769230772</v>
+        <v>99515.886348036322</v>
       </c>
       <c r="P42">
-        <v>100214.74769230772</v>
+        <v>99515.337598036305</v>
       </c>
       <c r="Q42">
-        <v>100225.79769230772</v>
+        <v>99514.880098036301</v>
       </c>
       <c r="R42">
-        <v>100195.93769230772</v>
+        <v>99514.422598036297</v>
       </c>
       <c r="S42">
-        <v>100193.50769230771</v>
+        <v>99513.965098036308</v>
       </c>
       <c r="T42">
-        <v>100191.45769230771</v>
+        <v>99513.312598036326</v>
       </c>
       <c r="U42">
-        <v>100184.16769230772</v>
+        <v>99512.465098036322</v>
       </c>
       <c r="V42">
-        <v>100166.71769230772</v>
+        <v>99511.617598036319</v>
       </c>
       <c r="W42">
-        <v>100143.84769230771</v>
+        <v>99510.77009803633</v>
       </c>
       <c r="X42">
-        <v>100118.05769230772</v>
+        <v>99510.527598036322</v>
       </c>
       <c r="Y42">
-        <v>100095.42769230771</v>
+        <v>99510.890098036325</v>
       </c>
       <c r="Z42">
-        <v>100088.95769230771</v>
+        <v>99511.252598036328</v>
       </c>
       <c r="AA42">
-        <v>100106.68769230772</v>
+        <v>99511.615098036331</v>
       </c>
       <c r="AB42">
-        <v>100134.63769230772</v>
+        <v>99511.603848036306</v>
       </c>
       <c r="AC42">
-        <v>100163.26769230772</v>
+        <v>99511.218848036311</v>
       </c>
       <c r="AD42">
-        <v>100177.72769230772</v>
+        <v>99510.833848036316</v>
       </c>
       <c r="AE42">
-        <v>100193.22769230772</v>
+        <v>99510.448848036322</v>
       </c>
       <c r="AF42">
-        <v>100198.58769230772</v>
+        <v>99510.157598036312</v>
       </c>
       <c r="AG42">
-        <v>100188.47769230772</v>
+        <v>99509.960098036318</v>
       </c>
       <c r="AH42">
-        <v>100193.26769230772</v>
+        <v>99509.762598036323</v>
       </c>
       <c r="AI42">
-        <v>100196.76769230772</v>
+        <v>99509.565098036313</v>
       </c>
       <c r="AJ42">
-        <v>100194.92769230771</v>
+        <v>99509.252598036313</v>
       </c>
       <c r="AK42">
-        <v>100195.22769230772</v>
+        <v>99508.825098036308</v>
       </c>
       <c r="AL42">
-        <v>100197.51769230772</v>
+        <v>99508.397598036303</v>
       </c>
       <c r="AM42">
-        <v>100193.95769230771</v>
+        <v>99507.970098036312</v>
       </c>
       <c r="AN42">
-        <v>100193.43769230772</v>
+        <v>99507.546348036325</v>
       </c>
       <c r="AO42">
-        <v>100192.29769230772</v>
+        <v>99507.266348036326</v>
       </c>
       <c r="AP42">
-        <v>100194.40769230772</v>
+        <v>99511.932598036306</v>
       </c>
       <c r="AQ42">
-        <v>100194.58769230772</v>
+        <v>99518.247598036309</v>
       </c>
       <c r="AR42">
-        <v>100195.57769230772</v>
+        <v>99519.826348036309</v>
       </c>
       <c r="AS42">
-        <v>100198.70769230771</v>
+        <v>99519.826348036309</v>
       </c>
       <c r="AT42">
-        <v>100197.57769230772</v>
+        <v>99519.826348036309</v>
       </c>
       <c r="AU42">
-        <v>100197.21769230772</v>
+        <v>99519.826348036309</v>
       </c>
       <c r="AV42">
-        <v>100197.42769230771</v>
+        <v>99519.826348036309</v>
       </c>
     </row>
     <row r="43" spans="1:48" x14ac:dyDescent="0.45">
       <c r="B43">
-        <v>100221.97769230772</v>
+        <v>99503.986348036313</v>
       </c>
       <c r="C43">
-        <v>100221.39769230771</v>
+        <v>99503.986348036313</v>
       </c>
       <c r="D43">
-        <v>100222.81769230771</v>
+        <v>99503.986348036313</v>
       </c>
       <c r="E43">
-        <v>100192.04769230772</v>
+        <v>99503.986348036313</v>
       </c>
       <c r="F43">
-        <v>100189.27769230772</v>
+        <v>99503.986348036313</v>
       </c>
       <c r="G43">
-        <v>100221.90769230772</v>
+        <v>99503.986348036313</v>
       </c>
       <c r="H43">
-        <v>100227.50769230771</v>
+        <v>99505.721348036313</v>
       </c>
       <c r="I43">
-        <v>100231.08769230772</v>
+        <v>99512.661348036316</v>
       </c>
       <c r="J43">
-        <v>100190.66769230772</v>
+        <v>99517.910098036315</v>
       </c>
       <c r="K43">
-        <v>100220.33769230772</v>
+        <v>99517.88509803632</v>
       </c>
       <c r="L43">
-        <v>100220.11769230771</v>
+        <v>99517.487598036314</v>
       </c>
       <c r="M43">
-        <v>100189.95769230771</v>
+        <v>99516.830098036313</v>
       </c>
       <c r="N43">
-        <v>100187.94769230772</v>
+        <v>99516.172598036312</v>
       </c>
       <c r="O43">
-        <v>100223.40769230772</v>
+        <v>99515.515098036311</v>
       </c>
       <c r="P43">
-        <v>100215.55769230772</v>
+        <v>99514.991348036318</v>
       </c>
       <c r="Q43">
-        <v>100226.69769230772</v>
+        <v>99514.601348036318</v>
       </c>
       <c r="R43">
-        <v>100196.89769230771</v>
+        <v>99514.211348036319</v>
       </c>
       <c r="S43">
-        <v>100194.51769230772</v>
+        <v>99513.821348036319</v>
       </c>
       <c r="T43">
-        <v>100193.51769230772</v>
+        <v>99513.301348036301</v>
       </c>
       <c r="U43">
-        <v>100189.80769230772</v>
+        <v>99512.651348036306</v>
       </c>
       <c r="V43">
-        <v>100176.97769230772</v>
+        <v>99512.001348036312</v>
       </c>
       <c r="W43">
-        <v>100157.32769230772</v>
+        <v>99511.351348036304</v>
       </c>
       <c r="X43">
-        <v>100131.49769230772</v>
+        <v>99511.291348036306</v>
       </c>
       <c r="Y43">
-        <v>100103.63769230772</v>
+        <v>99511.821348036305</v>
       </c>
       <c r="Z43">
-        <v>100091.39769230771</v>
+        <v>99512.351348036304</v>
       </c>
       <c r="AA43">
-        <v>100105.69769230772</v>
+        <v>99512.881348036317</v>
       </c>
       <c r="AB43">
-        <v>100134.21769230772</v>
+        <v>99512.808848036322</v>
       </c>
       <c r="AC43">
-        <v>100163.22769230772</v>
+        <v>99512.133848036319</v>
       </c>
       <c r="AD43">
-        <v>100179.06769230771</v>
+        <v>99511.458848036316</v>
       </c>
       <c r="AE43">
-        <v>100194.43769230772</v>
+        <v>99510.783848036313</v>
       </c>
       <c r="AF43">
-        <v>100199.35769230772</v>
+        <v>99510.28009803631</v>
       </c>
       <c r="AG43">
-        <v>100189.29769230772</v>
+        <v>99509.947598036306</v>
       </c>
       <c r="AH43">
-        <v>100194.82769230772</v>
+        <v>99509.615098036302</v>
       </c>
       <c r="AI43">
-        <v>100197.51769230772</v>
+        <v>99509.282598036312</v>
       </c>
       <c r="AJ43">
-        <v>100196.50769230771</v>
+        <v>99508.903848036323</v>
       </c>
       <c r="AK43">
-        <v>100196.96769230772</v>
+        <v>99508.47884803632</v>
       </c>
       <c r="AL43">
-        <v>100199.19769230772</v>
+        <v>99508.053848036318</v>
       </c>
       <c r="AM43">
-        <v>100195.93769230772</v>
+        <v>99507.628848036315</v>
       </c>
       <c r="AN43">
-        <v>100195.28769230771</v>
+        <v>99507.202598036311</v>
       </c>
       <c r="AO43">
-        <v>100193.91769230772</v>
+        <v>99506.917598036322</v>
       </c>
       <c r="AP43">
-        <v>100196.10769230772</v>
+        <v>99511.5975980363</v>
       </c>
       <c r="AQ43">
-        <v>100196.13769230772</v>
+        <v>99517.932598036306</v>
       </c>
       <c r="AR43">
-        <v>100197.07769230772</v>
+        <v>99519.516348036312</v>
       </c>
       <c r="AS43">
-        <v>100200.41769230772</v>
+        <v>99519.516348036312</v>
       </c>
       <c r="AT43">
-        <v>100199.25769230771</v>
+        <v>99519.516348036312</v>
       </c>
       <c r="AU43">
-        <v>100198.92769230771</v>
+        <v>99519.516348036312</v>
       </c>
       <c r="AV43">
-        <v>100199.18769230772</v>
+        <v>99519.516348036312</v>
       </c>
     </row>
     <row r="44" spans="1:48" x14ac:dyDescent="0.45">
       <c r="B44">
-        <v>100223.71769230772</v>
+        <v>99504.346348036313</v>
       </c>
       <c r="C44">
-        <v>100223.12769230772</v>
+        <v>99504.346348036313</v>
       </c>
       <c r="D44">
-        <v>100224.52769230772</v>
+        <v>99504.346348036313</v>
       </c>
       <c r="E44">
-        <v>100193.80769230772</v>
+        <v>99504.346348036313</v>
       </c>
       <c r="F44">
-        <v>100190.96769230772</v>
+        <v>99504.346348036313</v>
       </c>
       <c r="G44">
-        <v>100223.71769230772</v>
+        <v>99504.346348036313</v>
       </c>
       <c r="H44">
-        <v>100229.29769230772</v>
+        <v>99506.062598036311</v>
       </c>
       <c r="I44">
-        <v>100232.93769230772</v>
+        <v>99512.927598036302</v>
       </c>
       <c r="J44">
-        <v>100192.31769230771</v>
+        <v>99518.163848036318</v>
       </c>
       <c r="K44">
-        <v>100222.16769230772</v>
+        <v>99518.113848036301</v>
       </c>
       <c r="L44">
-        <v>100221.83769230772</v>
+        <v>99517.643848036299</v>
       </c>
       <c r="M44">
-        <v>100191.74769230772</v>
+        <v>99516.978848036306</v>
       </c>
       <c r="N44">
-        <v>100189.67769230771</v>
+        <v>99516.313848036312</v>
       </c>
       <c r="O44">
-        <v>100225.12769230772</v>
+        <v>99515.648848036304</v>
       </c>
       <c r="P44">
-        <v>100217.23769230771</v>
+        <v>99515.127598036313</v>
       </c>
       <c r="Q44">
-        <v>100228.50769230771</v>
+        <v>99514.750098036311</v>
       </c>
       <c r="R44">
-        <v>100198.43769230772</v>
+        <v>99514.372598036309</v>
       </c>
       <c r="S44">
-        <v>100196.22769230772</v>
+        <v>99513.995098036306</v>
       </c>
       <c r="T44">
-        <v>100195.80769230772</v>
+        <v>99513.578848036297</v>
       </c>
       <c r="U44">
-        <v>100193.80769230772</v>
+        <v>99513.123848036295</v>
       </c>
       <c r="V44">
-        <v>100186.15769230772</v>
+        <v>99512.668848036294</v>
       </c>
       <c r="W44">
-        <v>100170.87769230772</v>
+        <v>99512.213848036306</v>
       </c>
       <c r="X44">
-        <v>100146.02769230772</v>
+        <v>99512.282598036312</v>
       </c>
       <c r="Y44">
-        <v>100114.15769230772</v>
+        <v>99512.875098036311</v>
       </c>
       <c r="Z44">
-        <v>100096.60769230772</v>
+        <v>99513.46759803631</v>
       </c>
       <c r="AA44">
-        <v>100105.78769230771</v>
+        <v>99514.060098036309</v>
       </c>
       <c r="AB44">
-        <v>100133.66769230772</v>
+        <v>99513.932598036321</v>
       </c>
       <c r="AC44">
-        <v>100163.74769230772</v>
+        <v>99513.085098036318</v>
       </c>
       <c r="AD44">
-        <v>100181.42769230771</v>
+        <v>99512.237598036314</v>
       </c>
       <c r="AE44">
-        <v>100197.01769230772</v>
+        <v>99511.390098036325</v>
       </c>
       <c r="AF44">
-        <v>100201.52769230772</v>
+        <v>99510.757598036318</v>
       </c>
       <c r="AG44">
-        <v>100191.33769230772</v>
+        <v>99510.340098036322</v>
       </c>
       <c r="AH44">
-        <v>100195.86769230771</v>
+        <v>99509.922598036326</v>
       </c>
       <c r="AI44">
-        <v>100199.87769230772</v>
+        <v>99509.505098036316</v>
       </c>
       <c r="AJ44">
-        <v>100197.43769230772</v>
+        <v>99509.082598036315</v>
       </c>
       <c r="AK44">
-        <v>100197.84769230771</v>
+        <v>99508.65509803631</v>
       </c>
       <c r="AL44">
-        <v>100200.00769230771</v>
+        <v>99508.227598036305</v>
       </c>
       <c r="AM44">
-        <v>100196.75769230771</v>
+        <v>99507.800098036299</v>
       </c>
       <c r="AN44">
-        <v>100195.99769230772</v>
+        <v>99507.395098036301</v>
       </c>
       <c r="AO44">
-        <v>100194.82769230772</v>
+        <v>99507.140098036296</v>
       </c>
       <c r="AP44">
-        <v>100196.84769230771</v>
+        <v>99511.831348036314</v>
       </c>
       <c r="AQ44">
-        <v>100196.90769230772</v>
+        <v>99518.171348036325</v>
       </c>
       <c r="AR44">
-        <v>100197.88769230772</v>
+        <v>99519.756348036317</v>
       </c>
       <c r="AS44">
-        <v>100201.20769230771</v>
+        <v>99519.756348036317</v>
       </c>
       <c r="AT44">
-        <v>100200.09769230771</v>
+        <v>99519.756348036317</v>
       </c>
       <c r="AU44">
-        <v>100199.69769230772</v>
+        <v>99519.756348036317</v>
       </c>
       <c r="AV44">
-        <v>100200.00769230771</v>
+        <v>99519.756348036317</v>
       </c>
     </row>
     <row r="45" spans="1:48" x14ac:dyDescent="0.45">
       <c r="B45">
-        <v>100222.91769230772</v>
+        <v>99503.506348036317</v>
       </c>
       <c r="C45">
-        <v>100222.30769230772</v>
+        <v>99503.506348036317</v>
       </c>
       <c r="D45">
-        <v>100223.77769230772</v>
+        <v>99503.506348036317</v>
       </c>
       <c r="E45">
-        <v>100192.95769230771</v>
+        <v>99503.506348036317</v>
       </c>
       <c r="F45">
-        <v>100190.11769230771</v>
+        <v>99503.506348036317</v>
       </c>
       <c r="G45">
-        <v>100223.01769230772</v>
+        <v>99503.506348036317</v>
       </c>
       <c r="H45">
-        <v>100228.36769230771</v>
+        <v>99505.190098036313</v>
       </c>
       <c r="I45">
-        <v>100231.92769230771</v>
+        <v>99511.925098036299</v>
       </c>
       <c r="J45">
-        <v>100191.48769230771</v>
+        <v>99517.081348036299</v>
       </c>
       <c r="K45">
-        <v>100221.44769230772</v>
+        <v>99517.021348036302</v>
       </c>
       <c r="L45">
-        <v>100221.12769230772</v>
+        <v>99516.525098036305</v>
       </c>
       <c r="M45">
-        <v>100191.01769230772</v>
+        <v>99515.862598036314</v>
       </c>
       <c r="N45">
-        <v>100188.93769230772</v>
+        <v>99515.200098036323</v>
       </c>
       <c r="O45">
-        <v>100224.27769230772</v>
+        <v>99514.537598036317</v>
       </c>
       <c r="P45">
-        <v>100216.39769230771</v>
+        <v>99514.026348036321</v>
       </c>
       <c r="Q45">
-        <v>100227.75769230771</v>
+        <v>99513.66634803632</v>
       </c>
       <c r="R45">
-        <v>100197.71769230772</v>
+        <v>99513.30634803632</v>
       </c>
       <c r="S45">
-        <v>100195.53769230771</v>
+        <v>99512.946348036319</v>
       </c>
       <c r="T45">
-        <v>100195.08769230772</v>
+        <v>99512.618848036305</v>
       </c>
       <c r="U45">
-        <v>100194.42769230771</v>
+        <v>99512.323848036307</v>
       </c>
       <c r="V45">
-        <v>100190.49769230772</v>
+        <v>99512.028848036309</v>
       </c>
       <c r="W45">
-        <v>100180.27769230772</v>
+        <v>99511.733848036296</v>
       </c>
       <c r="X45">
-        <v>100158.24769230772</v>
+        <v>99511.910098036315</v>
       </c>
       <c r="Y45">
-        <v>100125.54769230772</v>
+        <v>99512.557598036321</v>
       </c>
       <c r="Z45">
-        <v>100102.75769230771</v>
+        <v>99513.205098036327</v>
       </c>
       <c r="AA45">
-        <v>100104.28769230771</v>
+        <v>99513.852598036319</v>
       </c>
       <c r="AB45">
-        <v>100128.43769230772</v>
+        <v>99513.678848036303</v>
       </c>
       <c r="AC45">
-        <v>100160.25769230771</v>
+        <v>99512.683848036308</v>
       </c>
       <c r="AD45">
-        <v>100179.91769230772</v>
+        <v>99511.688848036312</v>
       </c>
       <c r="AE45">
-        <v>100196.09769230771</v>
+        <v>99510.693848036302</v>
       </c>
       <c r="AF45">
-        <v>100200.59769230771</v>
+        <v>99509.955098036313</v>
       </c>
       <c r="AG45">
-        <v>100190.43769230772</v>
+        <v>99509.472598036315</v>
       </c>
       <c r="AH45">
-        <v>100193.85769230772</v>
+        <v>99508.990098036316</v>
       </c>
       <c r="AI45">
-        <v>100198.33769230772</v>
+        <v>99508.507598036318</v>
       </c>
       <c r="AJ45">
-        <v>100195.43769230772</v>
+        <v>99508.066348036315</v>
       </c>
       <c r="AK45">
-        <v>100195.78769230771</v>
+        <v>99507.666348036306</v>
       </c>
       <c r="AL45">
-        <v>100198.08769230772</v>
+        <v>99507.266348036297</v>
       </c>
       <c r="AM45">
-        <v>100194.72769230772</v>
+        <v>99506.866348036303</v>
       </c>
       <c r="AN45">
-        <v>100194.16769230772</v>
+        <v>99506.486348036298</v>
       </c>
       <c r="AO45">
-        <v>100192.87769230772</v>
+        <v>99506.246348036308</v>
       </c>
       <c r="AP45">
-        <v>100194.92769230771</v>
+        <v>99510.862598036314</v>
       </c>
       <c r="AQ45">
-        <v>100194.97769230772</v>
+        <v>99517.097598036315</v>
       </c>
       <c r="AR45">
-        <v>100196.03769230771</v>
+        <v>99518.656348036311</v>
       </c>
       <c r="AS45">
-        <v>100199.29769230772</v>
+        <v>99518.656348036311</v>
       </c>
       <c r="AT45">
-        <v>100198.16769230772</v>
+        <v>99518.656348036311</v>
       </c>
       <c r="AU45">
-        <v>100197.69769230772</v>
+        <v>99518.656348036311</v>
       </c>
       <c r="AV45">
-        <v>100198.11769230771</v>
+        <v>99518.656348036311</v>
       </c>
     </row>
     <row r="46" spans="1:48" x14ac:dyDescent="0.45">
       <c r="B46">
-        <v>100224.45769230771</v>
+        <v>99504.156348036311</v>
       </c>
       <c r="C46">
-        <v>100223.84769230771</v>
+        <v>99504.156348036311</v>
       </c>
       <c r="D46">
-        <v>100225.35769230772</v>
+        <v>99504.156348036311</v>
       </c>
       <c r="E46">
-        <v>100194.56769230771</v>
+        <v>99504.156348036311</v>
       </c>
       <c r="F46">
-        <v>100191.77769230772</v>
+        <v>99504.156348036311</v>
       </c>
       <c r="G46">
-        <v>100224.59769230771</v>
+        <v>99504.156348036311</v>
       </c>
       <c r="H46">
-        <v>100229.93769230772</v>
+        <v>99505.827598036311</v>
       </c>
       <c r="I46">
-        <v>100233.54769230772</v>
+        <v>99512.512598036308</v>
       </c>
       <c r="J46">
-        <v>100192.97769230772</v>
+        <v>99517.587598036291</v>
       </c>
       <c r="K46">
-        <v>100223.08769230772</v>
+        <v>99517.552598036287</v>
       </c>
       <c r="L46">
-        <v>100222.70769230771</v>
+        <v>99517.126348036327</v>
       </c>
       <c r="M46">
-        <v>100192.51769230772</v>
+        <v>99516.466348036323</v>
       </c>
       <c r="N46">
-        <v>100190.29769230772</v>
+        <v>99515.80634803632</v>
       </c>
       <c r="O46">
-        <v>100225.84769230771</v>
+        <v>99515.146348036331</v>
       </c>
       <c r="P46">
-        <v>100217.99769230772</v>
+        <v>99514.637598036323</v>
       </c>
       <c r="Q46">
-        <v>100229.43769230772</v>
+        <v>99514.280098036324</v>
       </c>
       <c r="R46">
-        <v>100199.44769230772</v>
+        <v>99513.922598036326</v>
       </c>
       <c r="S46">
-        <v>100197.05769230772</v>
+        <v>99513.565098036313</v>
       </c>
       <c r="T46">
-        <v>100196.73769230771</v>
+        <v>99513.320098036318</v>
       </c>
       <c r="U46">
-        <v>100196.11769230771</v>
+        <v>99513.187598036311</v>
       </c>
       <c r="V46">
-        <v>100194.67769230771</v>
+        <v>99513.055098036304</v>
       </c>
       <c r="W46">
-        <v>100190.03769230771</v>
+        <v>99512.922598036312</v>
       </c>
       <c r="X46">
-        <v>100172.22769230772</v>
+        <v>99513.225098036302</v>
       </c>
       <c r="Y46">
-        <v>100137.33769230772</v>
+        <v>99513.962598036305</v>
       </c>
       <c r="Z46">
-        <v>100110.14769230771</v>
+        <v>99514.700098036308</v>
       </c>
       <c r="AA46">
-        <v>100112.07769230772</v>
+        <v>99515.437598036311</v>
       </c>
       <c r="AB46">
-        <v>100138.86769230771</v>
+        <v>99515.215098036308</v>
       </c>
       <c r="AC46">
-        <v>100170.84769230771</v>
+        <v>99514.032598036312</v>
       </c>
       <c r="AD46">
-        <v>100187.46769230772</v>
+        <v>99512.850098036317</v>
       </c>
       <c r="AE46">
-        <v>100199.72769230772</v>
+        <v>99511.667598036322</v>
       </c>
       <c r="AF46">
-        <v>100202.73769230771</v>
+        <v>99510.800098036299</v>
       </c>
       <c r="AG46">
-        <v>100192.12769230772</v>
+        <v>99510.247598036309</v>
       </c>
       <c r="AH46">
-        <v>100196.22769230772</v>
+        <v>99509.695098036318</v>
       </c>
       <c r="AI46">
-        <v>100200.02769230772</v>
+        <v>99509.142598036313</v>
       </c>
       <c r="AJ46">
-        <v>100197.79769230772</v>
+        <v>99508.677598036316</v>
       </c>
       <c r="AK46">
-        <v>100198.13769230772</v>
+        <v>99508.300098036314</v>
       </c>
       <c r="AL46">
-        <v>100200.31769230771</v>
+        <v>99507.922598036312</v>
       </c>
       <c r="AM46">
-        <v>100197.11769230771</v>
+        <v>99507.545098036309</v>
       </c>
       <c r="AN46">
-        <v>100196.48769230771</v>
+        <v>99507.176348036301</v>
       </c>
       <c r="AO46">
-        <v>100195.27769230772</v>
+        <v>99506.93634803631</v>
       </c>
       <c r="AP46">
-        <v>100197.31769230771</v>
+        <v>99511.481348036308</v>
       </c>
       <c r="AQ46">
-        <v>100197.35769230772</v>
+        <v>99517.621348036308</v>
       </c>
       <c r="AR46">
-        <v>100198.33769230772</v>
+        <v>99519.156348036311</v>
       </c>
       <c r="AS46">
-        <v>100201.79769230772</v>
+        <v>99519.156348036311</v>
       </c>
       <c r="AT46">
-        <v>100200.69769230772</v>
+        <v>99519.156348036311</v>
       </c>
       <c r="AU46">
-        <v>100200.11769230771</v>
+        <v>99519.156348036311</v>
       </c>
       <c r="AV46">
-        <v>100200.44769230772</v>
+        <v>99519.156348036311</v>
       </c>
     </row>
     <row r="47" spans="1:48" x14ac:dyDescent="0.45">
       <c r="B47">
-        <v>100218.43769230772</v>
+        <v>99503.846348036313</v>
       </c>
       <c r="C47">
-        <v>100217.63769230772</v>
+        <v>99503.846348036313</v>
       </c>
       <c r="D47">
-        <v>100219.16769230772</v>
+        <v>99503.846348036313</v>
       </c>
       <c r="E47">
-        <v>100188.48769230771</v>
+        <v>99503.846348036313</v>
       </c>
       <c r="F47">
-        <v>100185.45769230771</v>
+        <v>99503.846348036313</v>
       </c>
       <c r="G47">
-        <v>100218.20769230771</v>
+        <v>99503.846348036313</v>
       </c>
       <c r="H47">
-        <v>100223.92769230771</v>
+        <v>99505.488848036315</v>
       </c>
       <c r="I47">
-        <v>100227.18769230772</v>
+        <v>99512.058848036322</v>
       </c>
       <c r="J47">
-        <v>100186.92769230771</v>
+        <v>99517.065098036313</v>
       </c>
       <c r="K47">
-        <v>100216.57769230772</v>
+        <v>99517.020098036301</v>
       </c>
       <c r="L47">
-        <v>100216.56769230771</v>
+        <v>99516.575098036308</v>
       </c>
       <c r="M47">
-        <v>100186.29769230772</v>
+        <v>99515.932598036306</v>
       </c>
       <c r="N47">
-        <v>100184.22769230772</v>
+        <v>99515.290098036305</v>
       </c>
       <c r="O47">
-        <v>100219.67769230771</v>
+        <v>99514.647598036303</v>
       </c>
       <c r="P47">
-        <v>100211.68769230772</v>
+        <v>99514.157598036312</v>
       </c>
       <c r="Q47">
-        <v>100222.64769230771</v>
+        <v>99513.820098036304</v>
       </c>
       <c r="R47">
-        <v>100193.20769230771</v>
+        <v>99513.482598036295</v>
       </c>
       <c r="S47">
-        <v>100191.00769230771</v>
+        <v>99513.145098036301</v>
       </c>
       <c r="T47">
-        <v>100190.38769230772</v>
+        <v>99513.031348036297</v>
       </c>
       <c r="U47">
-        <v>100190.12769230772</v>
+        <v>99513.141348036297</v>
       </c>
       <c r="V47">
-        <v>100189.84769230771</v>
+        <v>99513.251348036298</v>
       </c>
       <c r="W47">
-        <v>100189.83769230772</v>
+        <v>99513.361348036298</v>
       </c>
       <c r="X47">
-        <v>100180.35769230772</v>
+        <v>99513.782598036312</v>
       </c>
       <c r="Y47">
-        <v>100147.27769230772</v>
+        <v>99514.515098036311</v>
       </c>
       <c r="Z47">
-        <v>100114.39769230771</v>
+        <v>99515.247598036309</v>
       </c>
       <c r="AA47">
-        <v>100106.71769230772</v>
+        <v>99515.980098036322</v>
       </c>
       <c r="AB47">
-        <v>100130.94769230772</v>
+        <v>99515.720098036312</v>
       </c>
       <c r="AC47">
-        <v>100165.63769230772</v>
+        <v>99514.46759803631</v>
       </c>
       <c r="AD47">
-        <v>100183.24769230772</v>
+        <v>99513.215098036308</v>
       </c>
       <c r="AE47">
-        <v>100194.34769230771</v>
+        <v>99511.962598036305</v>
       </c>
       <c r="AF47">
-        <v>100196.45769230771</v>
+        <v>99510.966348036309</v>
       </c>
       <c r="AG47">
-        <v>100185.76769230772</v>
+        <v>99510.226348036304</v>
       </c>
       <c r="AH47">
-        <v>100190.00769230771</v>
+        <v>99509.486348036298</v>
       </c>
       <c r="AI47">
-        <v>100193.49769230772</v>
+        <v>99508.746348036308</v>
       </c>
       <c r="AJ47">
-        <v>100190.93769230772</v>
+        <v>99508.205098036313</v>
       </c>
       <c r="AK47">
-        <v>100191.02769230772</v>
+        <v>99507.862598036314</v>
       </c>
       <c r="AL47">
-        <v>100193.72769230772</v>
+        <v>99507.520098036315</v>
       </c>
       <c r="AM47">
-        <v>100189.94769230772</v>
+        <v>99507.177598036316</v>
       </c>
       <c r="AN47">
-        <v>100189.49769230772</v>
+        <v>99506.852598036319</v>
       </c>
       <c r="AO47">
-        <v>100188.38769230772</v>
+        <v>99506.647598036318</v>
       </c>
       <c r="AP47">
-        <v>100190.35769230772</v>
+        <v>99511.118848036305</v>
       </c>
       <c r="AQ47">
-        <v>100190.71769230772</v>
+        <v>99517.148848036304</v>
       </c>
       <c r="AR47">
-        <v>100191.56769230771</v>
+        <v>99518.656348036311</v>
       </c>
       <c r="AS47">
-        <v>100194.58769230772</v>
+        <v>99518.656348036311</v>
       </c>
       <c r="AT47">
-        <v>100193.33769230772</v>
+        <v>99518.656348036311</v>
       </c>
       <c r="AU47">
-        <v>100193.30769230772</v>
+        <v>99518.656348036311</v>
       </c>
       <c r="AV47">
-        <v>100193.21769230772</v>
+        <v>99518.656348036311</v>
       </c>
     </row>
     <row r="48" spans="1:48" x14ac:dyDescent="0.45">
       <c r="B48">
-        <v>100222.55769230772</v>
+        <v>99503.876348036312</v>
       </c>
       <c r="C48">
-        <v>100221.92769230771</v>
+        <v>99503.876348036312</v>
       </c>
       <c r="D48">
-        <v>100223.40769230772</v>
+        <v>99503.876348036312</v>
       </c>
       <c r="E48">
-        <v>100192.44769230772</v>
+        <v>99503.876348036312</v>
       </c>
       <c r="F48">
-        <v>100189.92769230771</v>
+        <v>99503.876348036312</v>
       </c>
       <c r="G48">
-        <v>100222.41769230772</v>
+        <v>99503.876348036312</v>
       </c>
       <c r="H48">
-        <v>100228.04769230772</v>
+        <v>99505.496348036308</v>
       </c>
       <c r="I48">
-        <v>100231.53769230771</v>
+        <v>99511.976348036304</v>
       </c>
       <c r="J48">
-        <v>100191.07769230772</v>
+        <v>99516.888848036309</v>
       </c>
       <c r="K48">
-        <v>100221.06769230771</v>
+        <v>99516.858848036311</v>
       </c>
       <c r="L48">
-        <v>100220.62769230772</v>
+        <v>99516.455098036298</v>
       </c>
       <c r="M48">
-        <v>100190.60769230772</v>
+        <v>99515.812598036297</v>
       </c>
       <c r="N48">
-        <v>100188.40769230772</v>
+        <v>99515.170098036295</v>
       </c>
       <c r="O48">
-        <v>100223.89769230771</v>
+        <v>99514.527598036308</v>
       </c>
       <c r="P48">
-        <v>100215.91769230772</v>
+        <v>99514.041348036306</v>
       </c>
       <c r="Q48">
-        <v>100227.19769230772</v>
+        <v>99513.711348036304</v>
       </c>
       <c r="R48">
-        <v>100197.44769230772</v>
+        <v>99513.381348036302</v>
       </c>
       <c r="S48">
-        <v>100195.24769230772</v>
+        <v>99513.051348036301</v>
       </c>
       <c r="T48">
-        <v>100194.63769230772</v>
+        <v>99512.991348036303</v>
       </c>
       <c r="U48">
-        <v>100194.02769230772</v>
+        <v>99513.201348036309</v>
       </c>
       <c r="V48">
-        <v>100193.97769230772</v>
+        <v>99513.411348036316</v>
       </c>
       <c r="W48">
-        <v>100196.15769230772</v>
+        <v>99513.621348036308</v>
       </c>
       <c r="X48">
-        <v>100194.90769230772</v>
+        <v>99514.118848036305</v>
       </c>
       <c r="Y48">
-        <v>100170.11769230771</v>
+        <v>99514.903848036309</v>
       </c>
       <c r="Z48">
-        <v>100134.11769230771</v>
+        <v>99515.688848036312</v>
       </c>
       <c r="AA48">
-        <v>100110.46769230772</v>
+        <v>99516.473848036316</v>
       </c>
       <c r="AB48">
-        <v>100125.55769230772</v>
+        <v>99516.19759803632</v>
       </c>
       <c r="AC48">
-        <v>100160.81769230771</v>
+        <v>99514.860098036312</v>
       </c>
       <c r="AD48">
-        <v>100183.62769230772</v>
+        <v>99513.522598036303</v>
       </c>
       <c r="AE48">
-        <v>100197.94769230772</v>
+        <v>99512.185098036309</v>
       </c>
       <c r="AF48">
-        <v>100200.80769230772</v>
+        <v>99511.115098036316</v>
       </c>
       <c r="AG48">
-        <v>100190.09769230771</v>
+        <v>99510.312598036311</v>
       </c>
       <c r="AH48">
-        <v>100194.24769230772</v>
+        <v>99509.510098036306</v>
       </c>
       <c r="AI48">
-        <v>100198.66769230772</v>
+        <v>99508.707598036301</v>
       </c>
       <c r="AJ48">
-        <v>100195.65769230772</v>
+        <v>99508.137598036308</v>
       </c>
       <c r="AK48">
-        <v>100195.98769230771</v>
+        <v>99507.800098036314</v>
       </c>
       <c r="AL48">
-        <v>100198.25769230771</v>
+        <v>99507.46259803632</v>
       </c>
       <c r="AM48">
-        <v>100194.89769230771</v>
+        <v>99507.125098036311</v>
       </c>
       <c r="AN48">
-        <v>100194.29769230772</v>
+        <v>99506.828848036312</v>
       </c>
       <c r="AO48">
-        <v>100193.05769230772</v>
+        <v>99506.658848036313</v>
       </c>
       <c r="AP48">
-        <v>100195.12769230772</v>
+        <v>99511.063848036312</v>
       </c>
       <c r="AQ48">
-        <v>100195.21769230772</v>
+        <v>99516.993848036305</v>
       </c>
       <c r="AR48">
-        <v>100196.17769230771</v>
+        <v>99518.476348036304</v>
       </c>
       <c r="AS48">
-        <v>100199.51769230772</v>
+        <v>99518.476348036304</v>
       </c>
       <c r="AT48">
-        <v>100198.38769230772</v>
+        <v>99518.476348036304</v>
       </c>
       <c r="AU48">
-        <v>100197.88769230772</v>
+        <v>99518.476348036304</v>
       </c>
       <c r="AV48">
-        <v>100198.33769230772</v>
+        <v>99518.476348036304</v>
       </c>
     </row>
     <row r="49" spans="2:48" x14ac:dyDescent="0.45">
       <c r="B49">
-        <v>100222.61769230771</v>
+        <v>99504.806348036305</v>
       </c>
       <c r="C49">
-        <v>100222.01769230772</v>
+        <v>99504.806348036305</v>
       </c>
       <c r="D49">
-        <v>100223.37769230772</v>
+        <v>99504.806348036305</v>
       </c>
       <c r="E49">
-        <v>100192.56769230771</v>
+        <v>99504.806348036305</v>
       </c>
       <c r="F49">
-        <v>100190.03769230771</v>
+        <v>99504.806348036305</v>
       </c>
       <c r="G49">
-        <v>100222.50769230771</v>
+        <v>99504.806348036305</v>
       </c>
       <c r="H49">
-        <v>100228.26769230772</v>
+        <v>99506.317598036316</v>
       </c>
       <c r="I49">
-        <v>100231.65769230772</v>
+        <v>99512.362598036329</v>
       </c>
       <c r="J49">
-        <v>100191.13769230772</v>
+        <v>99516.922598036326</v>
       </c>
       <c r="K49">
-        <v>100221.07769230772</v>
+        <v>99516.907598036312</v>
       </c>
       <c r="L49">
-        <v>100220.69769230772</v>
+        <v>99516.55134803633</v>
       </c>
       <c r="M49">
-        <v>100190.65769230772</v>
+        <v>99515.921348036325</v>
       </c>
       <c r="N49">
-        <v>100188.39769230771</v>
+        <v>99515.29134803632</v>
       </c>
       <c r="O49">
-        <v>100224.05769230772</v>
+        <v>99514.661348036316</v>
       </c>
       <c r="P49">
-        <v>100216.01769230772</v>
+        <v>99514.188848036312</v>
       </c>
       <c r="Q49">
-        <v>100227.29769230772</v>
+        <v>99513.87384803631</v>
       </c>
       <c r="R49">
-        <v>100197.57769230772</v>
+        <v>99513.558848036308</v>
       </c>
       <c r="S49">
-        <v>100195.39769230771</v>
+        <v>99513.243848036305</v>
       </c>
       <c r="T49">
-        <v>100194.86769230771</v>
+        <v>99513.248848036295</v>
       </c>
       <c r="U49">
-        <v>100194.37769230772</v>
+        <v>99513.573848036292</v>
       </c>
       <c r="V49">
-        <v>100193.92769230771</v>
+        <v>99513.89884803629</v>
       </c>
       <c r="W49">
-        <v>100196.61769230771</v>
+        <v>99514.223848036287</v>
       </c>
       <c r="X49">
-        <v>100200.34769230771</v>
+        <v>99514.737598036314</v>
       </c>
       <c r="Y49">
-        <v>100194.46769230772</v>
+        <v>99515.440098036313</v>
       </c>
       <c r="Z49">
-        <v>100172.93769230772</v>
+        <v>99516.142598036313</v>
       </c>
       <c r="AA49">
-        <v>100133.05769230772</v>
+        <v>99516.845098036312</v>
       </c>
       <c r="AB49">
-        <v>100116.34769230771</v>
+        <v>99516.5038480363</v>
       </c>
       <c r="AC49">
-        <v>100137.11769230771</v>
+        <v>99515.118848036305</v>
       </c>
       <c r="AD49">
-        <v>100167.43769230772</v>
+        <v>99513.733848036311</v>
       </c>
       <c r="AE49">
-        <v>100194.51769230772</v>
+        <v>99512.348848036316</v>
       </c>
       <c r="AF49">
-        <v>100200.64769230771</v>
+        <v>99511.332598036301</v>
       </c>
       <c r="AG49">
-        <v>100190.14769230771</v>
+        <v>99510.685098036309</v>
       </c>
       <c r="AH49">
-        <v>100194.89769230771</v>
+        <v>99510.037598036317</v>
       </c>
       <c r="AI49">
-        <v>100197.71769230772</v>
+        <v>99509.390098036311</v>
       </c>
       <c r="AJ49">
-        <v>100196.38769230772</v>
+        <v>99508.912598036317</v>
       </c>
       <c r="AK49">
-        <v>100196.74769230772</v>
+        <v>99508.605098036307</v>
       </c>
       <c r="AL49">
-        <v>100198.90769230772</v>
+        <v>99508.297598036297</v>
       </c>
       <c r="AM49">
-        <v>100195.67769230771</v>
+        <v>99507.990098036302</v>
       </c>
       <c r="AN49">
-        <v>100195.28769230771</v>
+        <v>99507.675098036299</v>
       </c>
       <c r="AO49">
-        <v>100193.89769230771</v>
+        <v>99507.460098036303</v>
       </c>
       <c r="AP49">
-        <v>100195.96769230772</v>
+        <v>99511.527598036308</v>
       </c>
       <c r="AQ49">
-        <v>100195.79769230772</v>
+        <v>99517.022598036303</v>
       </c>
       <c r="AR49">
-        <v>100197.03769230771</v>
+        <v>99518.396348036316</v>
       </c>
       <c r="AS49">
-        <v>100200.30769230772</v>
+        <v>99518.396348036316</v>
       </c>
       <c r="AT49">
-        <v>100199.19769230772</v>
+        <v>99518.396348036316</v>
       </c>
       <c r="AU49">
-        <v>100198.62769230772</v>
+        <v>99518.396348036316</v>
       </c>
       <c r="AV49">
-        <v>100199.04769230772</v>
+        <v>99518.396348036316</v>
       </c>
     </row>
     <row r="50" spans="2:48" x14ac:dyDescent="0.45">
       <c r="B50">
-        <v>100221.25769230771</v>
+        <v>99506.516348036312</v>
       </c>
       <c r="C50">
-        <v>100220.64769230771</v>
+        <v>99506.516348036312</v>
       </c>
       <c r="D50">
-        <v>100222.01769230772</v>
+        <v>99506.516348036312</v>
       </c>
       <c r="E50">
-        <v>100191.19769230772</v>
+        <v>99506.516348036312</v>
       </c>
       <c r="F50">
-        <v>100188.53769230771</v>
+        <v>99506.516348036312</v>
       </c>
       <c r="G50">
-        <v>100221.16769230772</v>
+        <v>99506.516348036312</v>
       </c>
       <c r="H50">
-        <v>100226.81769230771</v>
+        <v>99507.782598036312</v>
       </c>
       <c r="I50">
-        <v>100230.21769230772</v>
+        <v>99512.847598036315</v>
       </c>
       <c r="J50">
-        <v>100189.85769230772</v>
+        <v>99516.576348036324</v>
       </c>
       <c r="K50">
-        <v>100219.75769230771</v>
+        <v>99516.616348036332</v>
       </c>
       <c r="L50">
-        <v>100219.44769230772</v>
+        <v>99516.437598036297</v>
       </c>
       <c r="M50">
-        <v>100189.21769230772</v>
+        <v>99515.860098036297</v>
       </c>
       <c r="N50">
-        <v>100187.10769230772</v>
+        <v>99515.282598036298</v>
       </c>
       <c r="O50">
-        <v>100222.68769230772</v>
+        <v>99514.705098036298</v>
       </c>
       <c r="P50">
-        <v>100214.67769230771</v>
+        <v>99514.288848036318</v>
       </c>
       <c r="Q50">
-        <v>100225.95769230771</v>
+        <v>99514.033848036313</v>
       </c>
       <c r="R50">
-        <v>100195.92769230771</v>
+        <v>99513.778848036309</v>
       </c>
       <c r="S50">
-        <v>100193.89769230771</v>
+        <v>99513.523848036319</v>
       </c>
       <c r="T50">
-        <v>100193.49769230772</v>
+        <v>99513.703848036326</v>
       </c>
       <c r="U50">
-        <v>100192.89769230771</v>
+        <v>99514.318848036317</v>
       </c>
       <c r="V50">
-        <v>100192.59769230771</v>
+        <v>99514.933848036308</v>
       </c>
       <c r="W50">
-        <v>100195.24769230772</v>
+        <v>99515.548848036313</v>
       </c>
       <c r="X50">
-        <v>100199.25769230771</v>
+        <v>99516.047598036297</v>
       </c>
       <c r="Y50">
-        <v>100197.25769230771</v>
+        <v>99516.430098036304</v>
       </c>
       <c r="Z50">
-        <v>100195.69769230772</v>
+        <v>99516.812598036311</v>
       </c>
       <c r="AA50">
-        <v>100195.40769230772</v>
+        <v>99517.195098036304</v>
       </c>
       <c r="AB50">
-        <v>100177.46769230772</v>
+        <v>99516.7225980363</v>
       </c>
       <c r="AC50">
-        <v>100142.76769230772</v>
+        <v>99515.395098036301</v>
       </c>
       <c r="AD50">
-        <v>100124.34769230771</v>
+        <v>99514.067598036301</v>
       </c>
       <c r="AE50">
-        <v>100153.29769230772</v>
+        <v>99512.740098036302</v>
       </c>
       <c r="AF50">
-        <v>100185.15769230772</v>
+        <v>99511.847598036315</v>
       </c>
       <c r="AG50">
-        <v>100187.26769230772</v>
+        <v>99511.390098036311</v>
       </c>
       <c r="AH50">
-        <v>100193.74769230772</v>
+        <v>99510.932598036306</v>
       </c>
       <c r="AI50">
-        <v>100196.13769230772</v>
+        <v>99510.475098036317</v>
       </c>
       <c r="AJ50">
-        <v>100195.17769230771</v>
+        <v>99510.132598036318</v>
       </c>
       <c r="AK50">
-        <v>100195.42769230771</v>
+        <v>99509.90509803631</v>
       </c>
       <c r="AL50">
-        <v>100197.86769230771</v>
+        <v>99509.677598036302</v>
       </c>
       <c r="AM50">
-        <v>100194.39769230771</v>
+        <v>99509.450098036308</v>
       </c>
       <c r="AN50">
-        <v>100193.87769230772</v>
+        <v>99509.171348036296</v>
       </c>
       <c r="AO50">
-        <v>100192.67769230771</v>
+        <v>99508.951348036295</v>
       </c>
       <c r="AP50">
-        <v>100194.61769230771</v>
+        <v>99512.24884803631</v>
       </c>
       <c r="AQ50">
-        <v>100194.69769230772</v>
+        <v>99516.718848036311</v>
       </c>
       <c r="AR50">
-        <v>100195.76769230772</v>
+        <v>99517.836348036304</v>
       </c>
       <c r="AS50">
-        <v>100198.98769230771</v>
+        <v>99517.836348036304</v>
       </c>
       <c r="AT50">
-        <v>100197.94769230772</v>
+        <v>99517.836348036304</v>
       </c>
       <c r="AU50">
-        <v>100197.46769230772</v>
+        <v>99517.836348036304</v>
       </c>
       <c r="AV50">
-        <v>100197.51769230772</v>
+        <v>99517.836348036304</v>
       </c>
     </row>
     <row r="51" spans="2:48" x14ac:dyDescent="0.45">
       <c r="B51">
-        <v>100221.56769230771</v>
+        <v>99507.156348036311</v>
       </c>
       <c r="C51">
-        <v>100220.89769230771</v>
+        <v>99507.156348036311</v>
       </c>
       <c r="D51">
-        <v>100222.32769230772</v>
+        <v>99507.156348036311</v>
       </c>
       <c r="E51">
-        <v>100191.65769230772</v>
+        <v>99507.156348036311</v>
       </c>
       <c r="F51">
-        <v>100188.83769230772</v>
+        <v>99507.156348036311</v>
       </c>
       <c r="G51">
-        <v>100221.33769230772</v>
+        <v>99507.156348036311</v>
       </c>
       <c r="H51">
-        <v>100227.21769230772</v>
+        <v>99508.171348036311</v>
       </c>
       <c r="I51">
-        <v>100230.51769230772</v>
+        <v>99512.231348036308</v>
       </c>
       <c r="J51">
-        <v>100190.11769230771</v>
+        <v>99515.145098036301</v>
       </c>
       <c r="K51">
-        <v>100220.06769230771</v>
+        <v>99515.220098036312</v>
       </c>
       <c r="L51">
-        <v>100219.68769230772</v>
+        <v>99515.175098036314</v>
       </c>
       <c r="M51">
-        <v>100189.62769230772</v>
+        <v>99514.672598036312</v>
       </c>
       <c r="N51">
-        <v>100187.44769230772</v>
+        <v>99514.170098036309</v>
       </c>
       <c r="O51">
-        <v>100222.99769230772</v>
+        <v>99513.667598036307</v>
       </c>
       <c r="P51">
-        <v>100215.06769230771</v>
+        <v>99513.332598036301</v>
       </c>
       <c r="Q51">
-        <v>100226.27769230772</v>
+        <v>99513.165098036305</v>
       </c>
       <c r="R51">
-        <v>100196.41769230772</v>
+        <v>99512.997598036309</v>
       </c>
       <c r="S51">
-        <v>100194.28769230771</v>
+        <v>99512.830098036298</v>
       </c>
       <c r="T51">
-        <v>100193.81769230771</v>
+        <v>99513.137598036308</v>
       </c>
       <c r="U51">
-        <v>100193.12769230772</v>
+        <v>99513.920098036309</v>
       </c>
       <c r="V51">
-        <v>100192.86769230771</v>
+        <v>99514.702598036311</v>
       </c>
       <c r="W51">
-        <v>100195.67769230771</v>
+        <v>99515.485098036312</v>
       </c>
       <c r="X51">
-        <v>100199.48769230771</v>
+        <v>99516.01009803632</v>
       </c>
       <c r="Y51">
-        <v>100197.67769230771</v>
+        <v>99516.277598036322</v>
       </c>
       <c r="Z51">
-        <v>100196.03769230771</v>
+        <v>99516.545098036324</v>
       </c>
       <c r="AA51">
-        <v>100197.18769230772</v>
+        <v>99516.812598036311</v>
       </c>
       <c r="AB51">
-        <v>100197.60769230772</v>
+        <v>99516.328848036312</v>
       </c>
       <c r="AC51">
-        <v>100197.05769230772</v>
+        <v>99515.093848036311</v>
       </c>
       <c r="AD51">
-        <v>100179.13769230772</v>
+        <v>99513.858848036311</v>
       </c>
       <c r="AE51">
-        <v>100151.79769230772</v>
+        <v>99512.62384803631</v>
       </c>
       <c r="AF51">
-        <v>100140.52769230772</v>
+        <v>99511.780098036324</v>
       </c>
       <c r="AG51">
-        <v>100143.79769230772</v>
+        <v>99511.327598036325</v>
       </c>
       <c r="AH51">
-        <v>100175.17769230771</v>
+        <v>99510.875098036326</v>
       </c>
       <c r="AI51">
-        <v>100193.43769230772</v>
+        <v>99510.422598036326</v>
       </c>
       <c r="AJ51">
-        <v>100195.31769230771</v>
+        <v>99510.152598036293</v>
       </c>
       <c r="AK51">
-        <v>100195.92769230771</v>
+        <v>99510.065098036299</v>
       </c>
       <c r="AL51">
-        <v>100198.11769230771</v>
+        <v>99509.977598036305</v>
       </c>
       <c r="AM51">
-        <v>100194.76769230772</v>
+        <v>99509.890098036296</v>
       </c>
       <c r="AN51">
-        <v>100194.27769230772</v>
+        <v>99509.673848036298</v>
       </c>
       <c r="AO51">
-        <v>100193.06769230771</v>
+        <v>99509.443848036288</v>
       </c>
       <c r="AP51">
-        <v>100195.10769230772</v>
+        <v>99511.93634803631</v>
       </c>
       <c r="AQ51">
-        <v>100195.20769230771</v>
+        <v>99515.336348036304</v>
       </c>
       <c r="AR51">
-        <v>100196.25769230771</v>
+        <v>99516.18634803631</v>
       </c>
       <c r="AS51">
-        <v>100199.42769230771</v>
+        <v>99516.18634803631</v>
       </c>
       <c r="AT51">
-        <v>100198.37769230772</v>
+        <v>99516.18634803631</v>
       </c>
       <c r="AU51">
-        <v>100197.78769230771</v>
+        <v>99516.18634803631</v>
       </c>
       <c r="AV51">
-        <v>100198.17769230771</v>
+        <v>99516.18634803631</v>
       </c>
     </row>
     <row r="52" spans="2:48" x14ac:dyDescent="0.45">
       <c r="B52">
-        <v>100223.79769230772</v>
+        <v>99506.736348036313</v>
       </c>
       <c r="C52">
-        <v>100223.19769230772</v>
+        <v>99506.736348036313</v>
       </c>
       <c r="D52">
-        <v>100224.63769230772</v>
+        <v>99506.736348036313</v>
       </c>
       <c r="E52">
-        <v>100193.88769230772</v>
+        <v>99506.736348036313</v>
       </c>
       <c r="F52">
-        <v>100191.14769230771</v>
+        <v>99506.736348036313</v>
       </c>
       <c r="G52">
-        <v>100223.72769230772</v>
+        <v>99506.736348036313</v>
       </c>
       <c r="H52">
-        <v>100229.40769230772</v>
+        <v>99507.58759803632</v>
       </c>
       <c r="I52">
-        <v>100232.75769230771</v>
+        <v>99510.992598036319</v>
       </c>
       <c r="J52">
-        <v>100192.45769230771</v>
+        <v>99513.380098036301</v>
       </c>
       <c r="K52">
-        <v>100222.41769230772</v>
+        <v>99513.475098036302</v>
       </c>
       <c r="L52">
-        <v>100221.81769230771</v>
+        <v>99513.502598036313</v>
       </c>
       <c r="M52">
-        <v>100191.87769230772</v>
+        <v>99513.035098036315</v>
       </c>
       <c r="N52">
-        <v>100189.91769230772</v>
+        <v>99512.567598036316</v>
       </c>
       <c r="O52">
-        <v>100225.18769230772</v>
+        <v>99512.100098036317</v>
       </c>
       <c r="P52">
-        <v>100217.31769230771</v>
+        <v>99511.812598036311</v>
       </c>
       <c r="Q52">
-        <v>100228.69769230772</v>
+        <v>99511.705098036313</v>
       </c>
       <c r="R52">
-        <v>100198.79769230772</v>
+        <v>99511.597598036315</v>
       </c>
       <c r="S52">
-        <v>100196.47769230772</v>
+        <v>99511.490098036302</v>
       </c>
       <c r="T52">
-        <v>100195.88769230772</v>
+        <v>99511.756348036302</v>
       </c>
       <c r="U52">
-        <v>100195.35769230772</v>
+        <v>99512.396348036302</v>
       </c>
       <c r="V52">
-        <v>100195.19769230772</v>
+        <v>99513.036348036301</v>
       </c>
       <c r="W52">
-        <v>100197.85769230772</v>
+        <v>99513.676348036301</v>
       </c>
       <c r="X52">
-        <v>100201.65769230772</v>
+        <v>99514.188848036312</v>
       </c>
       <c r="Y52">
-        <v>100195.80769230772</v>
+        <v>99514.573848036307</v>
       </c>
       <c r="Z52">
-        <v>100175.31769230771</v>
+        <v>99514.958848036302</v>
       </c>
       <c r="AA52">
-        <v>100147.96769230772</v>
+        <v>99515.343848036311</v>
       </c>
       <c r="AB52">
-        <v>100146.65769230772</v>
+        <v>99515.035098036315</v>
       </c>
       <c r="AC52">
-        <v>100166.73769230771</v>
+        <v>99514.032598036312</v>
       </c>
       <c r="AD52">
-        <v>100182.87769230772</v>
+        <v>99513.03009803631</v>
       </c>
       <c r="AE52">
-        <v>100198.21769230772</v>
+        <v>99512.027598036308</v>
       </c>
       <c r="AF52">
-        <v>100201.82769230772</v>
+        <v>99511.286348036316</v>
       </c>
       <c r="AG52">
-        <v>100191.35769230772</v>
+        <v>99510.80634803632</v>
       </c>
       <c r="AH52">
-        <v>100196.16769230772</v>
+        <v>99510.326348036324</v>
       </c>
       <c r="AI52">
-        <v>100199.44769230772</v>
+        <v>99509.846348036313</v>
       </c>
       <c r="AJ52">
-        <v>100197.76769230772</v>
+        <v>99509.562598036297</v>
       </c>
       <c r="AK52">
-        <v>100198.20769230771</v>
+        <v>99509.475098036302</v>
       </c>
       <c r="AL52">
-        <v>100200.36769230771</v>
+        <v>99509.387598036308</v>
       </c>
       <c r="AM52">
-        <v>100197.18769230772</v>
+        <v>99509.300098036299</v>
       </c>
       <c r="AN52">
-        <v>100196.38769230772</v>
+        <v>99509.076348036309</v>
       </c>
       <c r="AO52">
-        <v>100195.28769230771</v>
+        <v>99508.836348036304</v>
       </c>
       <c r="AP52">
-        <v>100197.26769230772</v>
+        <v>99510.805098036304</v>
       </c>
       <c r="AQ52">
-        <v>100197.33769230772</v>
+        <v>99513.510098036306</v>
       </c>
       <c r="AR52">
-        <v>100198.40769230772</v>
+        <v>99514.18634803631</v>
       </c>
       <c r="AS52">
-        <v>100201.72769230772</v>
+        <v>99514.18634803631</v>
       </c>
       <c r="AT52">
-        <v>100200.50769230771</v>
+        <v>99514.18634803631</v>
       </c>
       <c r="AU52">
-        <v>100200.08769230772</v>
+        <v>99514.18634803631</v>
       </c>
       <c r="AV52">
-        <v>100200.46769230772</v>
+        <v>99514.18634803631</v>
       </c>
     </row>
     <row r="53" spans="2:48" x14ac:dyDescent="0.45">
       <c r="B53">
-        <v>100216.95769230771</v>
+        <v>99508.666348036306</v>
       </c>
       <c r="C53">
-        <v>100216.30769230772</v>
+        <v>99508.666348036306</v>
       </c>
       <c r="D53">
-        <v>100217.61769230771</v>
+        <v>99508.666348036306</v>
       </c>
       <c r="E53">
-        <v>100186.79769230772</v>
+        <v>99508.666348036306</v>
       </c>
       <c r="F53">
-        <v>100183.91769230772</v>
+        <v>99508.666348036306</v>
       </c>
       <c r="G53">
-        <v>100216.34769230771</v>
+        <v>99508.666348036306</v>
       </c>
       <c r="H53">
-        <v>100222.02769230772</v>
+        <v>99509.173848036313</v>
       </c>
       <c r="I53">
-        <v>100225.57769230772</v>
+        <v>99511.203848036312</v>
       </c>
       <c r="J53">
-        <v>100185.38769230772</v>
+        <v>99512.463848036306</v>
       </c>
       <c r="K53">
-        <v>100215.15769230772</v>
+        <v>99512.613848036301</v>
       </c>
       <c r="L53">
-        <v>100215.03769230771</v>
+        <v>99512.8475980363</v>
       </c>
       <c r="M53">
-        <v>100184.81769230771</v>
+        <v>99512.490098036302</v>
       </c>
       <c r="N53">
-        <v>100182.97769230772</v>
+        <v>99512.132598036304</v>
       </c>
       <c r="O53">
-        <v>100218.06769230771</v>
+        <v>99511.775098036305</v>
       </c>
       <c r="P53">
-        <v>100210.21769230772</v>
+        <v>99511.598848036316</v>
       </c>
       <c r="Q53">
-        <v>100221.36769230771</v>
+        <v>99511.60384803632</v>
       </c>
       <c r="R53">
-        <v>100191.61769230771</v>
+        <v>99511.608848036325</v>
       </c>
       <c r="S53">
-        <v>100189.47769230772</v>
+        <v>99511.61384803633</v>
       </c>
       <c r="T53">
-        <v>100188.87769230772</v>
+        <v>99511.48884803633</v>
       </c>
       <c r="U53">
-        <v>100188.82769230772</v>
+        <v>99511.233848036325</v>
       </c>
       <c r="V53">
-        <v>100188.41769230772</v>
+        <v>99510.97884803632</v>
       </c>
       <c r="W53">
-        <v>100190.89769230771</v>
+        <v>99510.723848036316</v>
       </c>
       <c r="X53">
-        <v>100194.78769230771</v>
+        <v>99511.226348036304</v>
       </c>
       <c r="Y53">
-        <v>100192.35769230772</v>
+        <v>99512.486348036298</v>
       </c>
       <c r="Z53">
-        <v>100187.68769230772</v>
+        <v>99513.746348036293</v>
       </c>
       <c r="AA53">
-        <v>100180.52769230772</v>
+        <v>99515.006348036288</v>
       </c>
       <c r="AB53">
-        <v>100165.07769230772</v>
+        <v>99515.093848036311</v>
       </c>
       <c r="AC53">
-        <v>100154.87769230772</v>
+        <v>99514.008848036305</v>
       </c>
       <c r="AD53">
-        <v>100152.03769230771</v>
+        <v>99512.923848036298</v>
       </c>
       <c r="AE53">
-        <v>100167.18769230772</v>
+        <v>99511.838848036306</v>
       </c>
       <c r="AF53">
-        <v>100180.94769230772</v>
+        <v>99511.242598036319</v>
       </c>
       <c r="AG53">
-        <v>100178.17769230771</v>
+        <v>99511.13509803632</v>
       </c>
       <c r="AH53">
-        <v>100187.60769230772</v>
+        <v>99511.027598036322</v>
       </c>
       <c r="AI53">
-        <v>100192.04769230772</v>
+        <v>99510.920098036324</v>
       </c>
       <c r="AJ53">
-        <v>100189.75769230771</v>
+        <v>99510.875098036311</v>
       </c>
       <c r="AK53">
-        <v>100189.94769230772</v>
+        <v>99510.892598036313</v>
       </c>
       <c r="AL53">
-        <v>100192.54769230772</v>
+        <v>99510.910098036315</v>
       </c>
       <c r="AM53">
-        <v>100188.67769230771</v>
+        <v>99510.927598036302</v>
       </c>
       <c r="AN53">
-        <v>100188.02769230772</v>
+        <v>99510.756348036317</v>
       </c>
       <c r="AO53">
-        <v>100187.25769230771</v>
+        <v>99510.516348036326</v>
       </c>
       <c r="AP53">
-        <v>100188.91769230772</v>
+        <v>99511.40509803631</v>
       </c>
       <c r="AQ53">
-        <v>100189.50769230771</v>
+        <v>99512.670098036309</v>
       </c>
       <c r="AR53">
-        <v>100190.56769230771</v>
+        <v>99512.986348036313</v>
       </c>
       <c r="AS53">
-        <v>100193.46769230772</v>
+        <v>99512.986348036313</v>
       </c>
       <c r="AT53">
-        <v>100192.21769230772</v>
+        <v>99512.986348036313</v>
       </c>
       <c r="AU53">
-        <v>100192.13769230772</v>
+        <v>99512.986348036313</v>
       </c>
       <c r="AV53">
-        <v>100192.02769230772</v>
+        <v>99512.986348036313</v>
       </c>
     </row>
     <row r="54" spans="2:48" x14ac:dyDescent="0.45">
       <c r="B54">
-        <v>100224.87769230772</v>
+        <v>99508.926348036315</v>
       </c>
       <c r="C54">
-        <v>100224.18769230772</v>
+        <v>99508.926348036315</v>
       </c>
       <c r="D54">
-        <v>100225.67769230771</v>
+        <v>99508.926348036315</v>
       </c>
       <c r="E54">
-        <v>100194.80769230772</v>
+        <v>99508.926348036315</v>
       </c>
       <c r="F54">
-        <v>100192.32769230772</v>
+        <v>99508.926348036315</v>
       </c>
       <c r="G54">
-        <v>100224.95769230771</v>
+        <v>99508.926348036315</v>
       </c>
       <c r="H54">
-        <v>100230.29769230772</v>
+        <v>99509.225098036302</v>
       </c>
       <c r="I54">
-        <v>100234.01769230772</v>
+        <v>99510.420098036309</v>
       </c>
       <c r="J54">
-        <v>100193.45769230771</v>
+        <v>99511.001348036312</v>
       </c>
       <c r="K54">
-        <v>100223.63769230772</v>
+        <v>99511.181348036305</v>
       </c>
       <c r="L54">
-        <v>100223.03769230771</v>
+        <v>99511.528848036309</v>
       </c>
       <c r="M54">
-        <v>100193.00769230771</v>
+        <v>99511.233848036311</v>
       </c>
       <c r="N54">
-        <v>100190.84769230771</v>
+        <v>99510.938848036312</v>
       </c>
       <c r="O54">
-        <v>100226.23769230771</v>
+        <v>99510.643848036299</v>
       </c>
       <c r="P54">
-        <v>100218.32769230772</v>
+        <v>99510.53009803631</v>
       </c>
       <c r="Q54">
-        <v>100229.83769230772</v>
+        <v>99510.597598036315</v>
       </c>
       <c r="R54">
-        <v>100199.65769230772</v>
+        <v>99510.665098036319</v>
       </c>
       <c r="S54">
-        <v>100197.43769230772</v>
+        <v>99510.732598036324</v>
       </c>
       <c r="T54">
-        <v>100196.92769230771</v>
+        <v>99511.241348036318</v>
       </c>
       <c r="U54">
-        <v>100196.42769230771</v>
+        <v>99512.191348036315</v>
       </c>
       <c r="V54">
-        <v>100196.15769230772</v>
+        <v>99513.141348036312</v>
       </c>
       <c r="W54">
-        <v>100198.91769230772</v>
+        <v>99514.091348036309</v>
       </c>
       <c r="X54">
-        <v>100202.81769230771</v>
+        <v>99514.613848036315</v>
       </c>
       <c r="Y54">
-        <v>100200.98769230771</v>
+        <v>99514.708848036316</v>
       </c>
       <c r="Z54">
-        <v>100199.32769230772</v>
+        <v>99514.803848036318</v>
       </c>
       <c r="AA54">
-        <v>100200.54769230772</v>
+        <v>99514.898848036304</v>
       </c>
       <c r="AB54">
-        <v>100199.98769230771</v>
+        <v>99514.445098036318</v>
       </c>
       <c r="AC54">
-        <v>100197.11769230771</v>
+        <v>99513.442598036316</v>
       </c>
       <c r="AD54">
-        <v>100180.42769230771</v>
+        <v>99512.440098036313</v>
       </c>
       <c r="AE54">
-        <v>100164.28769230771</v>
+        <v>99511.437598036311</v>
       </c>
       <c r="AF54">
-        <v>100155.99769230772</v>
+        <v>99510.855098036322</v>
       </c>
       <c r="AG54">
-        <v>100152.74769230772</v>
+        <v>99510.692598036316</v>
       </c>
       <c r="AH54">
-        <v>100175.95769230771</v>
+        <v>99510.53009803631</v>
       </c>
       <c r="AI54">
-        <v>100192.39769230771</v>
+        <v>99510.367598036319</v>
       </c>
       <c r="AJ54">
-        <v>100197.05769230772</v>
+        <v>99510.372598036323</v>
       </c>
       <c r="AK54">
-        <v>100199.03769230771</v>
+        <v>99510.545098036324</v>
       </c>
       <c r="AL54">
-        <v>100201.55769230772</v>
+        <v>99510.717598036324</v>
       </c>
       <c r="AM54">
-        <v>100198.33769230772</v>
+        <v>99510.890098036325</v>
       </c>
       <c r="AN54">
-        <v>100197.50769230771</v>
+        <v>99510.815098036313</v>
       </c>
       <c r="AO54">
-        <v>100196.36769230771</v>
+        <v>99510.600098036317</v>
       </c>
       <c r="AP54">
-        <v>100197.84769230771</v>
+        <v>99510.812598036311</v>
       </c>
       <c r="AQ54">
-        <v>100198.48769230771</v>
+        <v>99511.167598036322</v>
       </c>
       <c r="AR54">
-        <v>100199.45769230771</v>
+        <v>99511.256348036317</v>
       </c>
       <c r="AS54">
-        <v>100202.79769230772</v>
+        <v>99511.256348036317</v>
       </c>
       <c r="AT54">
-        <v>100201.60769230772</v>
+        <v>99511.256348036317</v>
       </c>
       <c r="AU54">
-        <v>100201.19769230772</v>
+        <v>99511.256348036317</v>
       </c>
       <c r="AV54">
-        <v>100201.49769230772</v>
+        <v>99511.256348036317</v>
       </c>
     </row>
     <row r="55" spans="2:48" x14ac:dyDescent="0.45">
       <c r="B55">
-        <v>100223.51769230772</v>
+        <v>99510.346348036313</v>
       </c>
       <c r="C55">
-        <v>100222.78769230771</v>
+        <v>99510.346348036313</v>
       </c>
       <c r="D55">
-        <v>100224.19769230772</v>
+        <v>99510.346348036313</v>
       </c>
       <c r="E55">
-        <v>100193.58769230772</v>
+        <v>99510.346348036313</v>
       </c>
       <c r="F55">
-        <v>100190.76769230772</v>
+        <v>99510.346348036313</v>
       </c>
       <c r="G55">
-        <v>100223.30769230772</v>
+        <v>99510.346348036313</v>
       </c>
       <c r="H55">
-        <v>100228.31769230771</v>
+        <v>99510.468848036311</v>
       </c>
       <c r="I55">
-        <v>100232.56769230771</v>
+        <v>99510.958848036302</v>
       </c>
       <c r="J55">
-        <v>100191.90769230772</v>
+        <v>99510.976348036318</v>
       </c>
       <c r="K55">
-        <v>100222.24769230772</v>
+        <v>99511.176348036301</v>
       </c>
       <c r="L55">
-        <v>100221.62769230772</v>
+        <v>99511.601348036304</v>
       </c>
       <c r="M55">
-        <v>100191.47769230772</v>
+        <v>99511.351348036304</v>
       </c>
       <c r="N55">
-        <v>100189.53769230771</v>
+        <v>99511.101348036304</v>
       </c>
       <c r="O55">
-        <v>100224.86769230771</v>
+        <v>99510.851348036304</v>
       </c>
       <c r="P55">
-        <v>100216.86769230771</v>
+        <v>99510.781348036297</v>
       </c>
       <c r="Q55">
-        <v>100228.30769230772</v>
+        <v>99510.891348036297</v>
       </c>
       <c r="R55">
-        <v>100198.32769230772</v>
+        <v>99511.001348036298</v>
       </c>
       <c r="S55">
-        <v>100196.08769230772</v>
+        <v>99511.111348036298</v>
       </c>
       <c r="T55">
-        <v>100195.57769230772</v>
+        <v>99511.668848036294</v>
       </c>
       <c r="U55">
-        <v>100195.05769230772</v>
+        <v>99512.673848036298</v>
       </c>
       <c r="V55">
-        <v>100194.79769230772</v>
+        <v>99513.678848036303</v>
       </c>
       <c r="W55">
-        <v>100197.42769230771</v>
+        <v>99514.683848036308</v>
       </c>
       <c r="X55">
-        <v>100201.44769230772</v>
+        <v>99515.193848036302</v>
       </c>
       <c r="Y55">
-        <v>100199.56769230771</v>
+        <v>99515.208848036302</v>
       </c>
       <c r="Z55">
-        <v>100197.85769230772</v>
+        <v>99515.223848036301</v>
       </c>
       <c r="AA55">
-        <v>100199.36769230771</v>
+        <v>99515.238848036301</v>
       </c>
       <c r="AB55">
-        <v>100199.45769230771</v>
+        <v>99514.853848036306</v>
       </c>
       <c r="AC55">
-        <v>100199.89769230771</v>
+        <v>99514.068848036302</v>
       </c>
       <c r="AD55">
-        <v>100194.61769230771</v>
+        <v>99513.283848036299</v>
       </c>
       <c r="AE55">
-        <v>100188.63769230772</v>
+        <v>99512.49884803631</v>
       </c>
       <c r="AF55">
-        <v>100166.33769230772</v>
+        <v>99511.776348036321</v>
       </c>
       <c r="AG55">
-        <v>100128.94769230772</v>
+        <v>99511.116348036318</v>
       </c>
       <c r="AH55">
-        <v>100131.65769230772</v>
+        <v>99510.456348036314</v>
       </c>
       <c r="AI55">
-        <v>100155.06769230771</v>
+        <v>99509.796348036325</v>
       </c>
       <c r="AJ55">
-        <v>100179.61769230771</v>
+        <v>99509.802598036316</v>
       </c>
       <c r="AK55">
-        <v>100192.58769230772</v>
+        <v>99510.475098036317</v>
       </c>
       <c r="AL55">
-        <v>100198.78769230771</v>
+        <v>99511.147598036318</v>
       </c>
       <c r="AM55">
-        <v>100195.81769230771</v>
+        <v>99511.820098036318</v>
       </c>
       <c r="AN55">
-        <v>100195.08769230772</v>
+        <v>99512.017598036313</v>
       </c>
       <c r="AO55">
-        <v>100194.00769230771</v>
+        <v>99511.832598036315</v>
       </c>
       <c r="AP55">
-        <v>100195.20769230771</v>
+        <v>99511.512598036308</v>
       </c>
       <c r="AQ55">
-        <v>100196.20769230771</v>
+        <v>99511.147598036303</v>
       </c>
       <c r="AR55">
-        <v>100197.28769230771</v>
+        <v>99511.056348036305</v>
       </c>
       <c r="AS55">
-        <v>100200.30769230772</v>
+        <v>99511.056348036305</v>
       </c>
       <c r="AT55">
-        <v>100199.26769230772</v>
+        <v>99511.056348036305</v>
       </c>
       <c r="AU55">
-        <v>100198.87769230772</v>
+        <v>99511.056348036305</v>
       </c>
       <c r="AV55">
-        <v>100199.01769230772</v>
+        <v>99511.056348036305</v>
       </c>
     </row>
     <row r="56" spans="2:48" x14ac:dyDescent="0.45">
       <c r="B56">
-        <v>100225.03769230771</v>
+        <v>99510.416348036306</v>
       </c>
       <c r="C56">
-        <v>100224.39769230771</v>
+        <v>99510.416348036306</v>
       </c>
       <c r="D56">
-        <v>100225.79769230772</v>
+        <v>99510.416348036306</v>
       </c>
       <c r="E56">
-        <v>100195.15769230772</v>
+        <v>99510.416348036306</v>
       </c>
       <c r="F56">
-        <v>100192.38769230772</v>
+        <v>99510.416348036306</v>
       </c>
       <c r="G56">
-        <v>100224.99769230772</v>
+        <v>99510.416348036306</v>
       </c>
       <c r="H56">
-        <v>100229.89769230771</v>
+        <v>99510.251348036312</v>
       </c>
       <c r="I56">
-        <v>100234.09769230771</v>
+        <v>99509.591348036309</v>
       </c>
       <c r="J56">
-        <v>100193.55769230772</v>
+        <v>99508.693848036317</v>
       </c>
       <c r="K56">
-        <v>100223.94769230772</v>
+        <v>99508.923848036327</v>
       </c>
       <c r="L56">
-        <v>100223.06769230771</v>
+        <v>99509.468848036297</v>
       </c>
       <c r="M56">
-        <v>100193.05769230772</v>
+        <v>99509.293848036294</v>
       </c>
       <c r="N56">
-        <v>100190.85769230772</v>
+        <v>99509.118848036291</v>
       </c>
       <c r="O56">
-        <v>100226.35769230772</v>
+        <v>99508.943848036288</v>
       </c>
       <c r="P56">
-        <v>100218.54769230772</v>
+        <v>99508.955098036298</v>
       </c>
       <c r="Q56">
-        <v>100230.01769230772</v>
+        <v>99509.152598036308</v>
       </c>
       <c r="R56">
-        <v>100199.84769230771</v>
+        <v>99509.350098036317</v>
       </c>
       <c r="S56">
-        <v>100197.67769230771</v>
+        <v>99509.547598036312</v>
       </c>
       <c r="T56">
-        <v>100197.14769230771</v>
+        <v>99510.193848036302</v>
       </c>
       <c r="U56">
-        <v>100196.63769230772</v>
+        <v>99511.288848036304</v>
       </c>
       <c r="V56">
-        <v>100196.37769230772</v>
+        <v>99512.383848036305</v>
       </c>
       <c r="W56">
-        <v>100199.05769230772</v>
+        <v>99513.478848036291</v>
       </c>
       <c r="X56">
-        <v>100202.93769230772</v>
+        <v>99513.993848036305</v>
       </c>
       <c r="Y56">
-        <v>100201.14769230771</v>
+        <v>99513.928848036303</v>
       </c>
       <c r="Z56">
-        <v>100199.51769230772</v>
+        <v>99513.863848036301</v>
       </c>
       <c r="AA56">
-        <v>100200.84769230771</v>
+        <v>99513.798848036298</v>
       </c>
       <c r="AB56">
-        <v>100201.14769230771</v>
+        <v>99513.476348036304</v>
       </c>
       <c r="AC56">
-        <v>100201.31769230771</v>
+        <v>99512.896348036302</v>
       </c>
       <c r="AD56">
-        <v>100196.97769230772</v>
+        <v>99512.3163480363</v>
       </c>
       <c r="AE56">
-        <v>100198.79769230772</v>
+        <v>99511.736348036298</v>
       </c>
       <c r="AF56">
-        <v>100189.45769230771</v>
+        <v>99511.212598036305</v>
       </c>
       <c r="AG56">
-        <v>100152.44769230772</v>
+        <v>99510.745098036306</v>
       </c>
       <c r="AH56">
-        <v>100123.67769230771</v>
+        <v>99510.277598036308</v>
       </c>
       <c r="AI56">
-        <v>100112.95769230771</v>
+        <v>99509.810098036309</v>
       </c>
       <c r="AJ56">
-        <v>100108.53769230771</v>
+        <v>99509.768848036299</v>
       </c>
       <c r="AK56">
-        <v>100137.33769230772</v>
+        <v>99510.153848036309</v>
       </c>
       <c r="AL56">
-        <v>100173.85769230772</v>
+        <v>99510.538848036318</v>
       </c>
       <c r="AM56">
-        <v>100189.86769230771</v>
+        <v>99510.923848036313</v>
       </c>
       <c r="AN56">
-        <v>100198.38769230772</v>
+        <v>99511.326348036324</v>
       </c>
       <c r="AO56">
-        <v>100197.10769230772</v>
+        <v>99511.606348036323</v>
       </c>
       <c r="AP56">
-        <v>100198.50769230771</v>
+        <v>99510.483848036311</v>
       </c>
       <c r="AQ56">
-        <v>100199.34769230771</v>
+        <v>99508.893848036299</v>
       </c>
       <c r="AR56">
-        <v>100200.26769230772</v>
+        <v>99508.496348036308</v>
       </c>
       <c r="AS56">
-        <v>100203.66769230772</v>
+        <v>99508.496348036308</v>
       </c>
       <c r="AT56">
-        <v>100202.41769230772</v>
+        <v>99508.496348036308</v>
       </c>
       <c r="AU56">
-        <v>100202.10769230772</v>
+        <v>99508.496348036308</v>
       </c>
       <c r="AV56">
-        <v>100202.46769230772</v>
+        <v>99508.496348036308</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_ANALYSIS/wake_pressures.xlsx
+++ b/DATA_ANALYSIS/wake_pressures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexv\OneDrive - Delft University of Technology\GitHub\2D-Wind-Tunnel\DATA_ANALYSIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B037A8-B340-4D52-B46E-B95FD075C02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DD93E4-04F2-46F6-AA7B-695359F8F5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{B485861A-4B67-4951-B48D-34AC954A0B78}"/>
   </bookViews>
@@ -557,20 +557,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AEDE53-4700-45CD-B9EE-20042D324D4F}">
-  <dimension ref="A1:AV56"/>
+  <dimension ref="A1:AX34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:AV56"/>
+    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -712,159 +712,209 @@
       <c r="AV2" t="s">
         <v>46</v>
       </c>
+      <c r="AX2">
+        <v>99495.546348036311</v>
+      </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>48</v>
       </c>
       <c r="B3">
+        <f>0*0.001</f>
         <v>0</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <f>12*0.001</f>
+        <v>1.2E-2</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <f>21*0.001</f>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <f>27*0.001</f>
+        <v>2.7E-2</v>
       </c>
       <c r="F3">
-        <v>33</v>
+        <f>33*0.001</f>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="G3">
-        <v>39</v>
+        <f>0.001*39</f>
+        <v>3.9E-2</v>
       </c>
       <c r="H3">
-        <v>45</v>
+        <f>45*0.001</f>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="I3">
-        <v>51</v>
+        <f>51*0.001</f>
+        <v>5.1000000000000004E-2</v>
       </c>
       <c r="J3">
-        <v>57</v>
+        <f>57*0.001</f>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="K3">
-        <v>63</v>
+        <f>63*0.001</f>
+        <v>6.3E-2</v>
       </c>
       <c r="L3">
-        <v>69</v>
+        <f>69*0.001</f>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="M3">
-        <v>72</v>
+        <f>72*0.001</f>
+        <v>7.2000000000000008E-2</v>
       </c>
       <c r="N3">
-        <v>75</v>
+        <f>75*0.001</f>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="O3">
-        <v>78</v>
+        <f>78*0.001</f>
+        <v>7.8E-2</v>
       </c>
       <c r="P3">
-        <v>81</v>
+        <f>81*0.001</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="Q3">
-        <v>84</v>
+        <f>84*0.001</f>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="R3">
-        <v>87</v>
+        <f>87*0.001</f>
+        <v>8.7000000000000008E-2</v>
       </c>
       <c r="S3">
-        <v>90</v>
+        <f>90*0.001</f>
+        <v>0.09</v>
       </c>
       <c r="T3">
-        <v>93</v>
+        <f>0.001*93</f>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="U3">
-        <v>96</v>
+        <f>96*0.001</f>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="V3">
-        <v>99</v>
+        <f>99*0.001</f>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="W3">
-        <v>102</v>
+        <f>102*0.001</f>
+        <v>0.10200000000000001</v>
       </c>
       <c r="X3">
-        <v>105</v>
+        <f>0.001*105</f>
+        <v>0.105</v>
       </c>
       <c r="Y3">
-        <v>108</v>
+        <f>108*0.001</f>
+        <v>0.108</v>
       </c>
       <c r="Z3">
-        <v>111</v>
+        <f>0.001*111</f>
+        <v>0.111</v>
       </c>
       <c r="AA3">
-        <v>114</v>
+        <f>0.001*114</f>
+        <v>0.114</v>
       </c>
       <c r="AB3">
-        <v>117</v>
+        <f>0.001*117</f>
+        <v>0.11700000000000001</v>
       </c>
       <c r="AC3">
-        <v>120</v>
+        <f>0.001*120</f>
+        <v>0.12</v>
       </c>
       <c r="AD3">
-        <v>123</v>
+        <f>0.001*123</f>
+        <v>0.123</v>
       </c>
       <c r="AE3">
-        <v>126</v>
+        <f>0.001*126</f>
+        <v>0.126</v>
       </c>
       <c r="AF3">
-        <v>129</v>
+        <f>0.001*129</f>
+        <v>0.129</v>
       </c>
       <c r="AG3">
-        <v>132</v>
+        <f>0.001*132</f>
+        <v>0.13200000000000001</v>
       </c>
       <c r="AH3">
-        <v>135</v>
+        <f>0.001*135</f>
+        <v>0.13500000000000001</v>
       </c>
       <c r="AI3">
-        <v>138</v>
+        <f>0.001*138</f>
+        <v>0.13800000000000001</v>
       </c>
       <c r="AJ3">
-        <v>141</v>
+        <f>0.001*141</f>
+        <v>0.14100000000000001</v>
       </c>
       <c r="AK3">
-        <v>144</v>
+        <f>0.001*144</f>
+        <v>0.14400000000000002</v>
       </c>
       <c r="AL3">
-        <v>147</v>
+        <f>0.001*147</f>
+        <v>0.14699999999999999</v>
       </c>
       <c r="AM3">
-        <v>150</v>
+        <f>0.001*150</f>
+        <v>0.15</v>
       </c>
       <c r="AN3">
-        <v>156</v>
+        <f>0.001*156</f>
+        <v>0.156</v>
       </c>
       <c r="AO3">
-        <v>162</v>
+        <f>0.001*162</f>
+        <v>0.16200000000000001</v>
       </c>
       <c r="AP3">
-        <v>168</v>
+        <f>0.001*168</f>
+        <v>0.16800000000000001</v>
       </c>
       <c r="AQ3">
-        <v>174</v>
+        <f>0.001*174</f>
+        <v>0.17400000000000002</v>
       </c>
       <c r="AR3">
-        <v>180</v>
+        <f>0.001*180</f>
+        <v>0.18</v>
       </c>
       <c r="AS3">
-        <v>186</v>
+        <f>0.001*186</f>
+        <v>0.186</v>
       </c>
       <c r="AT3">
-        <v>195</v>
+        <f>0.001*195</f>
+        <v>0.19500000000000001</v>
       </c>
       <c r="AU3">
-        <v>207</v>
+        <f>0.001*207</f>
+        <v>0.20700000000000002</v>
       </c>
       <c r="AV3">
-        <v>219</v>
+        <f>0.001*219</f>
+        <v>0.219</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>-6</v>
       </c>
@@ -893,28 +943,28 @@
         <v>99510.917598036307</v>
       </c>
       <c r="J5">
-        <v>99510.417598036322</v>
+        <v>99510.417598036307</v>
       </c>
       <c r="K5">
         <v>99510.662598036317</v>
       </c>
       <c r="L5">
-        <v>99511.248848036295</v>
+        <v>99511.24884803631</v>
       </c>
       <c r="M5">
-        <v>99511.073848036292</v>
+        <v>99511.073848036307</v>
       </c>
       <c r="N5">
-        <v>99510.89884803629</v>
+        <v>99510.898848036304</v>
       </c>
       <c r="O5">
-        <v>99510.723848036287</v>
+        <v>99510.723848036316</v>
       </c>
       <c r="P5">
-        <v>99510.732598036295</v>
+        <v>99510.732598036309</v>
       </c>
       <c r="Q5">
-        <v>99510.925098036299</v>
+        <v>99510.925098036314</v>
       </c>
       <c r="R5">
         <v>99511.117598036304</v>
@@ -923,19 +973,19 @@
         <v>99511.310098036309</v>
       </c>
       <c r="T5">
-        <v>99511.693848036302</v>
+        <v>99511.693848036317</v>
       </c>
       <c r="U5">
-        <v>99512.268848036299</v>
+        <v>99512.268848036314</v>
       </c>
       <c r="V5">
-        <v>99512.843848036297</v>
+        <v>99512.843848036311</v>
       </c>
       <c r="W5">
-        <v>99513.418848036294</v>
+        <v>99513.418848036308</v>
       </c>
       <c r="X5">
-        <v>99513.772598036303</v>
+        <v>99513.772598036318</v>
       </c>
       <c r="Y5">
         <v>99513.90509803631</v>
@@ -947,7 +997,7 @@
         <v>99514.170098036309</v>
       </c>
       <c r="AB5">
-        <v>99514.115098036302</v>
+        <v>99514.115098036316</v>
       </c>
       <c r="AC5">
         <v>99513.872598036309</v>
@@ -959,7 +1009,7 @@
         <v>99513.387598036308</v>
       </c>
       <c r="AF5">
-        <v>99513.137598036323</v>
+        <v>99513.137598036308</v>
       </c>
       <c r="AG5">
         <v>99512.880098036316</v>
@@ -971,16 +1021,16 @@
         <v>99512.365098036316</v>
       </c>
       <c r="AJ5">
-        <v>99512.312598036326</v>
+        <v>99512.312598036311</v>
       </c>
       <c r="AK5">
-        <v>99512.465098036322</v>
+        <v>99512.465098036308</v>
       </c>
       <c r="AL5">
-        <v>99512.617598036319</v>
+        <v>99512.617598036304</v>
       </c>
       <c r="AM5">
-        <v>99512.77009803633</v>
+        <v>99512.770098036315</v>
       </c>
       <c r="AN5">
         <v>99512.715098036308</v>
@@ -989,10 +1039,10 @@
         <v>99512.540098036305</v>
       </c>
       <c r="AP5">
-        <v>99511.675098036299</v>
+        <v>99511.675098036314</v>
       </c>
       <c r="AQ5">
-        <v>99510.580098036298</v>
+        <v>99510.580098036313</v>
       </c>
       <c r="AR5">
         <v>99510.306348036305</v>
@@ -1010,7 +1060,7 @@
         <v>99510.306348036305</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>-5</v>
       </c>
@@ -1033,40 +1083,40 @@
         <v>99510.526348036306</v>
       </c>
       <c r="H6">
-        <v>99510.672598036297</v>
+        <v>99510.672598036312</v>
       </c>
       <c r="I6">
-        <v>99511.257598036289</v>
+        <v>99511.257598036304</v>
       </c>
       <c r="J6">
-        <v>99511.355098036292</v>
+        <v>99511.355098036307</v>
       </c>
       <c r="K6">
-        <v>99511.550098036299</v>
+        <v>99511.550098036314</v>
       </c>
       <c r="L6">
-        <v>99511.968848036297</v>
+        <v>99511.968848036311</v>
       </c>
       <c r="M6">
-        <v>99511.733848036296</v>
+        <v>99511.733848036311</v>
       </c>
       <c r="N6">
-        <v>99511.498848036295</v>
+        <v>99511.49884803631</v>
       </c>
       <c r="O6">
-        <v>99511.263848036295</v>
+        <v>99511.263848036309</v>
       </c>
       <c r="P6">
-        <v>99511.205098036327</v>
+        <v>99511.205098036313</v>
       </c>
       <c r="Q6">
-        <v>99511.32259803632</v>
+        <v>99511.322598036306</v>
       </c>
       <c r="R6">
         <v>99511.440098036313</v>
       </c>
       <c r="S6">
-        <v>99511.557598036321</v>
+        <v>99511.557598036306</v>
       </c>
       <c r="T6">
         <v>99511.995098036306</v>
@@ -1075,28 +1125,28 @@
         <v>99512.752598036313</v>
       </c>
       <c r="V6">
-        <v>99513.51009803632</v>
+        <v>99513.510098036306</v>
       </c>
       <c r="W6">
         <v>99514.267598036313</v>
       </c>
       <c r="X6">
-        <v>99514.535098036329</v>
+        <v>99514.535098036315</v>
       </c>
       <c r="Y6">
-        <v>99514.312598036326</v>
+        <v>99514.312598036311</v>
       </c>
       <c r="Z6">
-        <v>99514.090098036322</v>
+        <v>99514.090098036308</v>
       </c>
       <c r="AA6">
-        <v>99513.867598036333</v>
+        <v>99513.867598036304</v>
       </c>
       <c r="AB6">
-        <v>99513.673848036327</v>
+        <v>99513.673848036313</v>
       </c>
       <c r="AC6">
-        <v>99513.508848036319</v>
+        <v>99513.508848036305</v>
       </c>
       <c r="AD6">
         <v>99513.343848036311</v>
@@ -1111,22 +1161,22 @@
         <v>99512.710098036318</v>
       </c>
       <c r="AH6">
-        <v>99512.452598036325</v>
+        <v>99512.452598036311</v>
       </c>
       <c r="AI6">
-        <v>99512.195098036318</v>
+        <v>99512.195098036304</v>
       </c>
       <c r="AJ6">
         <v>99512.117598036304</v>
       </c>
       <c r="AK6">
-        <v>99512.220098036298</v>
+        <v>99512.220098036312</v>
       </c>
       <c r="AL6">
-        <v>99512.322598036291</v>
+        <v>99512.322598036306</v>
       </c>
       <c r="AM6">
-        <v>99512.425098036299</v>
+        <v>99512.425098036314</v>
       </c>
       <c r="AN6">
         <v>99512.322598036306</v>
@@ -1138,7 +1188,7 @@
         <v>99511.777598036308</v>
       </c>
       <c r="AQ6">
-        <v>99511.392598036298</v>
+        <v>99511.392598036313</v>
       </c>
       <c r="AR6">
         <v>99511.296348036311</v>
@@ -1156,7 +1206,7 @@
         <v>99511.296348036311</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>-4</v>
       </c>
@@ -1191,7 +1241,7 @@
         <v>99512.077598036311</v>
       </c>
       <c r="L7">
-        <v>99512.451348036295</v>
+        <v>99512.451348036309</v>
       </c>
       <c r="M7">
         <v>99512.181348036305</v>
@@ -1218,13 +1268,13 @@
         <v>99512.320098036304</v>
       </c>
       <c r="U7">
-        <v>99513.207598036301</v>
+        <v>99513.207598036315</v>
       </c>
       <c r="V7">
-        <v>99514.095098036298</v>
+        <v>99514.095098036312</v>
       </c>
       <c r="W7">
-        <v>99514.982598036295</v>
+        <v>99514.982598036309</v>
       </c>
       <c r="X7">
         <v>99515.242598036304</v>
@@ -1233,7 +1283,7 @@
         <v>99514.875098036311</v>
       </c>
       <c r="Z7">
-        <v>99514.507598036318</v>
+        <v>99514.507598036304</v>
       </c>
       <c r="AA7">
         <v>99514.140098036311</v>
@@ -1245,7 +1295,7 @@
         <v>99513.637598036308</v>
       </c>
       <c r="AD7">
-        <v>99513.425098036299</v>
+        <v>99513.425098036314</v>
       </c>
       <c r="AE7">
         <v>99513.212598036305</v>
@@ -1263,28 +1313,28 @@
         <v>99512.056348036305</v>
       </c>
       <c r="AJ7">
-        <v>99511.946348036319</v>
+        <v>99511.946348036305</v>
       </c>
       <c r="AK7">
-        <v>99512.026348036321</v>
+        <v>99512.026348036306</v>
       </c>
       <c r="AL7">
-        <v>99512.106348036323</v>
+        <v>99512.106348036308</v>
       </c>
       <c r="AM7">
         <v>99512.18634803631</v>
       </c>
       <c r="AN7">
-        <v>99512.050098036299</v>
+        <v>99512.050098036314</v>
       </c>
       <c r="AO7">
         <v>99511.815098036313</v>
       </c>
       <c r="AP7">
-        <v>99511.85384803632</v>
+        <v>99511.853848036306</v>
       </c>
       <c r="AQ7">
-        <v>99511.983848036325</v>
+        <v>99511.983848036311</v>
       </c>
       <c r="AR7">
         <v>99512.016348036312</v>
@@ -1302,7 +1352,7 @@
         <v>99512.016348036312</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>-3</v>
       </c>
@@ -1331,7 +1381,7 @@
         <v>99511.553848036318</v>
       </c>
       <c r="J8">
-        <v>99512.358848036325</v>
+        <v>99512.358848036311</v>
       </c>
       <c r="K8">
         <v>99512.528848036309</v>
@@ -1340,10 +1390,10 @@
         <v>99512.853848036306</v>
       </c>
       <c r="M8">
-        <v>99512.568848036302</v>
+        <v>99512.568848036317</v>
       </c>
       <c r="N8">
-        <v>99512.283848036299</v>
+        <v>99512.283848036313</v>
       </c>
       <c r="O8">
         <v>99511.99884803631</v>
@@ -1367,7 +1417,7 @@
         <v>99513.533848036313</v>
       </c>
       <c r="V8">
-        <v>99514.47884803632</v>
+        <v>99514.478848036306</v>
       </c>
       <c r="W8">
         <v>99515.423848036313</v>
@@ -1379,16 +1429,16 @@
         <v>99515.645098036315</v>
       </c>
       <c r="Z8">
-        <v>99515.477598036319</v>
+        <v>99515.477598036305</v>
       </c>
       <c r="AA8">
         <v>99515.310098036309</v>
       </c>
       <c r="AB8">
-        <v>99514.980098036292</v>
+        <v>99514.980098036307</v>
       </c>
       <c r="AC8">
-        <v>99514.487598036299</v>
+        <v>99514.487598036314</v>
       </c>
       <c r="AD8">
         <v>99513.995098036306</v>
@@ -1400,10 +1450,10 @@
         <v>99513.053848036318</v>
       </c>
       <c r="AG8">
-        <v>99512.648848036319</v>
+        <v>99512.648848036304</v>
       </c>
       <c r="AH8">
-        <v>99512.24384803632</v>
+        <v>99512.243848036305</v>
       </c>
       <c r="AI8">
         <v>99511.838848036306</v>
@@ -1424,7 +1474,7 @@
         <v>99511.756348036317</v>
       </c>
       <c r="AO8">
-        <v>99511.516348036326</v>
+        <v>99511.516348036312</v>
       </c>
       <c r="AP8">
         <v>99511.891348036312</v>
@@ -1448,7 +1498,7 @@
         <v>99512.616348036318</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>-2</v>
       </c>
@@ -1471,31 +1521,31 @@
         <v>99509.126348036312</v>
       </c>
       <c r="H9">
-        <v>99509.553848036303</v>
+        <v>99509.553848036318</v>
       </c>
       <c r="I9">
-        <v>99511.263848036295</v>
+        <v>99511.263848036309</v>
       </c>
       <c r="J9">
-        <v>99512.292598036322</v>
+        <v>99512.292598036307</v>
       </c>
       <c r="K9">
         <v>99512.437598036311</v>
       </c>
       <c r="L9">
-        <v>99512.671348036296</v>
+        <v>99512.671348036311</v>
       </c>
       <c r="M9">
-        <v>99512.341348036294</v>
+        <v>99512.341348036309</v>
       </c>
       <c r="N9">
-        <v>99512.011348036292</v>
+        <v>99512.011348036307</v>
       </c>
       <c r="O9">
         <v>99511.681348036305</v>
       </c>
       <c r="P9">
-        <v>99511.450098036323</v>
+        <v>99511.450098036308</v>
       </c>
       <c r="Q9">
         <v>99511.317598036316</v>
@@ -1531,7 +1581,7 @@
         <v>99514.74884803631</v>
       </c>
       <c r="AB9">
-        <v>99514.393848036299</v>
+        <v>99514.393848036314</v>
       </c>
       <c r="AC9">
         <v>99513.808848036308</v>
@@ -1570,7 +1620,7 @@
         <v>99511.091348036309</v>
       </c>
       <c r="AO9">
-        <v>99510.831348036299</v>
+        <v>99510.831348036314</v>
       </c>
       <c r="AP9">
         <v>99511.452598036311</v>
@@ -1594,7 +1644,7 @@
         <v>99512.596348036313</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>-1</v>
       </c>
@@ -1620,16 +1670,16 @@
         <v>99509.408848036313</v>
       </c>
       <c r="I10">
-        <v>99511.538848036318</v>
+        <v>99511.538848036304</v>
       </c>
       <c r="J10">
-        <v>99512.908848036299</v>
+        <v>99512.908848036313</v>
       </c>
       <c r="K10">
         <v>99513.038848036304</v>
       </c>
       <c r="L10">
-        <v>99513.210098036303</v>
+        <v>99513.210098036318</v>
       </c>
       <c r="M10">
         <v>99512.837598036305</v>
@@ -1647,7 +1697,7 @@
         <v>99510.488848036315</v>
       </c>
       <c r="R10">
-        <v>99509.543848036323</v>
+        <v>99509.543848036308</v>
       </c>
       <c r="S10">
         <v>99508.598848036316</v>
@@ -1671,10 +1721,10 @@
         <v>99515.286348036316</v>
       </c>
       <c r="Z10">
-        <v>99515.226348036318</v>
+        <v>99515.226348036304</v>
       </c>
       <c r="AA10">
-        <v>99515.16634803632</v>
+        <v>99515.166348036306</v>
       </c>
       <c r="AB10">
         <v>99514.798848036313</v>
@@ -1692,13 +1742,13 @@
         <v>99512.272598036318</v>
       </c>
       <c r="AG10">
-        <v>99511.945098036318</v>
+        <v>99511.945098036304</v>
       </c>
       <c r="AH10">
-        <v>99511.617598036319</v>
+        <v>99511.617598036304</v>
       </c>
       <c r="AI10">
-        <v>99511.290098036319</v>
+        <v>99511.290098036305</v>
       </c>
       <c r="AJ10">
         <v>99511.127598036313</v>
@@ -1707,10 +1757,10 @@
         <v>99511.130098036316</v>
       </c>
       <c r="AL10">
-        <v>99511.132598036318</v>
+        <v>99511.132598036304</v>
       </c>
       <c r="AM10">
-        <v>99511.13509803632</v>
+        <v>99511.135098036306</v>
       </c>
       <c r="AN10">
         <v>99510.948848036307</v>
@@ -1740,7 +1790,7 @@
         <v>99513.356348036308</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1763,7 +1813,7 @@
         <v>99508.396348036316</v>
       </c>
       <c r="H11">
-        <v>99509.033848036328</v>
+        <v>99509.033848036313</v>
       </c>
       <c r="I11">
         <v>99511.583848036316</v>
@@ -1772,7 +1822,7 @@
         <v>99513.295098036309</v>
       </c>
       <c r="K11">
-        <v>99513.4100980363</v>
+        <v>99513.410098036315</v>
       </c>
       <c r="L11">
         <v>99513.382598036304</v>
@@ -1793,16 +1843,16 @@
         <v>99510.196348036305</v>
       </c>
       <c r="R11">
-        <v>99509.676348036301</v>
+        <v>99509.676348036315</v>
       </c>
       <c r="S11">
         <v>99509.156348036311</v>
       </c>
       <c r="T11">
-        <v>99509.715098036322</v>
+        <v>99509.715098036308</v>
       </c>
       <c r="U11">
-        <v>99511.352598036319</v>
+        <v>99511.352598036305</v>
       </c>
       <c r="V11">
         <v>99512.990098036316</v>
@@ -1823,7 +1873,7 @@
         <v>99515.647598036318</v>
       </c>
       <c r="AB11">
-        <v>99515.27509803632</v>
+        <v>99515.275098036305</v>
       </c>
       <c r="AC11">
         <v>99514.472598036315</v>
@@ -1835,28 +1885,28 @@
         <v>99512.867598036304</v>
       </c>
       <c r="AF11">
-        <v>99512.2538480363</v>
+        <v>99512.253848036315</v>
       </c>
       <c r="AG11">
-        <v>99511.828848036297</v>
+        <v>99511.828848036312</v>
       </c>
       <c r="AH11">
-        <v>99511.403848036294</v>
+        <v>99511.403848036309</v>
       </c>
       <c r="AI11">
-        <v>99510.978848036291</v>
+        <v>99510.978848036306</v>
       </c>
       <c r="AJ11">
         <v>99510.757598036304</v>
       </c>
       <c r="AK11">
-        <v>99510.740098036302</v>
+        <v>99510.740098036316</v>
       </c>
       <c r="AL11">
-        <v>99510.7225980363</v>
+        <v>99510.722598036315</v>
       </c>
       <c r="AM11">
-        <v>99510.705098036298</v>
+        <v>99510.705098036313</v>
       </c>
       <c r="AN11">
         <v>99510.512598036308</v>
@@ -1886,7 +1936,7 @@
         <v>99513.896348036316</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1909,22 +1959,22 @@
         <v>99506.43634803631</v>
       </c>
       <c r="H12">
-        <v>99507.271348036302</v>
+        <v>99507.271348036316</v>
       </c>
       <c r="I12">
-        <v>99510.611348036298</v>
+        <v>99510.611348036313</v>
       </c>
       <c r="J12">
         <v>99512.941348036315</v>
       </c>
       <c r="K12">
-        <v>99513.04134803632</v>
+        <v>99513.041348036306</v>
       </c>
       <c r="L12">
-        <v>99513.026348036321</v>
+        <v>99513.026348036306</v>
       </c>
       <c r="M12">
-        <v>99512.446348036319</v>
+        <v>99512.446348036305</v>
       </c>
       <c r="N12">
         <v>99511.866348036318</v>
@@ -1939,34 +1989,34 @@
         <v>99510.632598036304</v>
       </c>
       <c r="R12">
-        <v>99510.390098036296</v>
+        <v>99510.390098036311</v>
       </c>
       <c r="S12">
-        <v>99510.147598036303</v>
+        <v>99510.147598036318</v>
       </c>
       <c r="T12">
         <v>99510.567598036316</v>
       </c>
       <c r="U12">
-        <v>99511.65009803632</v>
+        <v>99511.650098036305</v>
       </c>
       <c r="V12">
-        <v>99512.732598036324</v>
+        <v>99512.732598036309</v>
       </c>
       <c r="W12">
         <v>99513.815098036313</v>
       </c>
       <c r="X12">
-        <v>99514.473848036301</v>
+        <v>99514.473848036316</v>
       </c>
       <c r="Y12">
-        <v>99514.708848036302</v>
+        <v>99514.708848036316</v>
       </c>
       <c r="Z12">
-        <v>99514.943848036302</v>
+        <v>99514.943848036317</v>
       </c>
       <c r="AA12">
-        <v>99515.178848036303</v>
+        <v>99515.178848036318</v>
       </c>
       <c r="AB12">
         <v>99514.791348036306</v>
@@ -1978,43 +2028,43 @@
         <v>99512.771348036316</v>
       </c>
       <c r="AE12">
-        <v>99511.761348036322</v>
+        <v>99511.761348036307</v>
       </c>
       <c r="AF12">
         <v>99510.991348036318</v>
       </c>
       <c r="AG12">
-        <v>99510.461348036319</v>
+        <v>99510.461348036304</v>
       </c>
       <c r="AH12">
-        <v>99509.93134803632</v>
+        <v>99509.931348036305</v>
       </c>
       <c r="AI12">
         <v>99509.401348036306</v>
       </c>
       <c r="AJ12">
-        <v>99509.108848036296</v>
+        <v>99509.108848036311</v>
       </c>
       <c r="AK12">
-        <v>99509.053848036303</v>
+        <v>99509.053848036318</v>
       </c>
       <c r="AL12">
         <v>99508.99884803631</v>
       </c>
       <c r="AM12">
-        <v>99508.943848036302</v>
+        <v>99508.943848036317</v>
       </c>
       <c r="AN12">
-        <v>99508.740098036302</v>
+        <v>99508.740098036316</v>
       </c>
       <c r="AO12">
-        <v>99508.505098036301</v>
+        <v>99508.505098036316</v>
       </c>
       <c r="AP12">
-        <v>99510.467598036295</v>
+        <v>99510.46759803631</v>
       </c>
       <c r="AQ12">
-        <v>99513.162598036288</v>
+        <v>99513.162598036317</v>
       </c>
       <c r="AR12">
         <v>99513.836348036304</v>
@@ -2032,7 +2082,7 @@
         <v>99513.836348036304</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2058,10 +2108,10 @@
         <v>99506.740098036316</v>
       </c>
       <c r="I13">
-        <v>99510.555098036319</v>
+        <v>99510.555098036304</v>
       </c>
       <c r="J13">
-        <v>99513.320098036318</v>
+        <v>99513.320098036304</v>
       </c>
       <c r="K13">
         <v>99513.375098036311</v>
@@ -2070,19 +2120,19 @@
         <v>99513.227598036305</v>
       </c>
       <c r="M13">
-        <v>99512.630098036301</v>
+        <v>99512.630098036316</v>
       </c>
       <c r="N13">
-        <v>99512.032598036298</v>
+        <v>99512.032598036312</v>
       </c>
       <c r="O13">
         <v>99511.435098036309</v>
       </c>
       <c r="P13">
-        <v>99511.045098036295</v>
+        <v>99511.045098036309</v>
       </c>
       <c r="Q13">
-        <v>99510.862598036299</v>
+        <v>99510.862598036314</v>
       </c>
       <c r="R13">
         <v>99510.680098036304</v>
@@ -2097,22 +2147,22 @@
         <v>99511.711348036304</v>
       </c>
       <c r="V13">
-        <v>99512.581348036299</v>
+        <v>99512.581348036314</v>
       </c>
       <c r="W13">
-        <v>99513.451348036295</v>
+        <v>99513.451348036309</v>
       </c>
       <c r="X13">
-        <v>99514.0038480363</v>
+        <v>99514.003848036315</v>
       </c>
       <c r="Y13">
-        <v>99514.238848036301</v>
+        <v>99514.238848036315</v>
       </c>
       <c r="Z13">
-        <v>99514.473848036301</v>
+        <v>99514.473848036316</v>
       </c>
       <c r="AA13">
-        <v>99514.708848036302</v>
+        <v>99514.708848036316</v>
       </c>
       <c r="AB13">
         <v>99514.295098036309</v>
@@ -2130,16 +2180,16 @@
         <v>99510.335098036318</v>
       </c>
       <c r="AG13">
-        <v>99509.852598036319</v>
+        <v>99509.852598036305</v>
       </c>
       <c r="AH13">
-        <v>99509.370098036321</v>
+        <v>99509.370098036306</v>
       </c>
       <c r="AI13">
-        <v>99508.887598036323</v>
+        <v>99508.887598036308</v>
       </c>
       <c r="AJ13">
-        <v>99508.600098036302</v>
+        <v>99508.600098036317</v>
       </c>
       <c r="AK13">
         <v>99508.507598036304</v>
@@ -2148,7 +2198,7 @@
         <v>99508.415098036305</v>
       </c>
       <c r="AM13">
-        <v>99508.322598036291</v>
+        <v>99508.322598036306</v>
       </c>
       <c r="AN13">
         <v>99508.09259803631</v>
@@ -2178,7 +2228,7 @@
         <v>99514.286348036316</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2201,19 +2251,19 @@
         <v>99505.036348036316</v>
       </c>
       <c r="H14">
-        <v>99506.101348036318</v>
+        <v>99506.101348036304</v>
       </c>
       <c r="I14">
-        <v>99510.361348036298</v>
+        <v>99510.361348036313</v>
       </c>
       <c r="J14">
         <v>99513.53009803631</v>
       </c>
       <c r="K14">
-        <v>99513.545098036295</v>
+        <v>99513.545098036309</v>
       </c>
       <c r="L14">
-        <v>99513.263848036295</v>
+        <v>99513.263848036309</v>
       </c>
       <c r="M14">
         <v>99512.618848036305</v>
@@ -2231,10 +2281,10 @@
         <v>99510.807598036306</v>
       </c>
       <c r="R14">
-        <v>99510.675098036299</v>
+        <v>99510.675098036314</v>
       </c>
       <c r="S14">
-        <v>99510.542598036292</v>
+        <v>99510.542598036307</v>
       </c>
       <c r="T14">
         <v>99510.868848036305</v>
@@ -2261,7 +2311,7 @@
         <v>99514.596348036313</v>
       </c>
       <c r="AB14">
-        <v>99514.176348036301</v>
+        <v>99514.176348036315</v>
       </c>
       <c r="AC14">
         <v>99513.056348036305</v>
@@ -2273,37 +2323,37 @@
         <v>99510.816348036315</v>
       </c>
       <c r="AF14">
-        <v>99509.983848036325</v>
+        <v>99509.983848036311</v>
       </c>
       <c r="AG14">
-        <v>99509.438848036327</v>
+        <v>99509.438848036312</v>
       </c>
       <c r="AH14">
-        <v>99508.893848036329</v>
+        <v>99508.893848036314</v>
       </c>
       <c r="AI14">
         <v>99508.348848036316</v>
       </c>
       <c r="AJ14">
-        <v>99508.015098036296</v>
+        <v>99508.015098036311</v>
       </c>
       <c r="AK14">
-        <v>99507.892598036298</v>
+        <v>99507.892598036313</v>
       </c>
       <c r="AL14">
-        <v>99507.770098036301</v>
+        <v>99507.770098036315</v>
       </c>
       <c r="AM14">
-        <v>99507.647598036303</v>
+        <v>99507.647598036318</v>
       </c>
       <c r="AN14">
         <v>99507.406348036311</v>
       </c>
       <c r="AO14">
-        <v>99507.16634803632</v>
+        <v>99507.166348036306</v>
       </c>
       <c r="AP14">
-        <v>99509.926348036301</v>
+        <v>99509.926348036315</v>
       </c>
       <c r="AQ14">
         <v>99513.68634803631</v>
@@ -2324,7 +2374,7 @@
         <v>99514.626348036312</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>4</v>
       </c>
@@ -2347,19 +2397,19 @@
         <v>99504.316348036315</v>
       </c>
       <c r="H15">
-        <v>99505.522598036303</v>
+        <v>99505.522598036318</v>
       </c>
       <c r="I15">
         <v>99510.347598036315</v>
       </c>
       <c r="J15">
-        <v>99513.975098036302</v>
+        <v>99513.975098036317</v>
       </c>
       <c r="K15">
-        <v>99513.970098036298</v>
+        <v>99513.970098036312</v>
       </c>
       <c r="L15">
-        <v>99513.616348036303</v>
+        <v>99513.616348036318</v>
       </c>
       <c r="M15">
         <v>99512.93634803631</v>
@@ -2389,34 +2439,34 @@
         <v>99511.718848036311</v>
       </c>
       <c r="V15">
-        <v>99512.413848036318</v>
+        <v>99512.413848036304</v>
       </c>
       <c r="W15">
         <v>99513.108848036311</v>
       </c>
       <c r="X15">
-        <v>99513.626348036327</v>
+        <v>99513.626348036312</v>
       </c>
       <c r="Y15">
-        <v>99513.966348036323</v>
+        <v>99513.966348036309</v>
       </c>
       <c r="Z15">
-        <v>99514.30634803632</v>
+        <v>99514.306348036305</v>
       </c>
       <c r="AA15">
-        <v>99514.646348036331</v>
+        <v>99514.646348036316</v>
       </c>
       <c r="AB15">
-        <v>99514.216348036323</v>
+        <v>99514.216348036309</v>
       </c>
       <c r="AC15">
-        <v>99513.016348036326</v>
+        <v>99513.016348036312</v>
       </c>
       <c r="AD15">
-        <v>99511.816348036329</v>
+        <v>99511.816348036315</v>
       </c>
       <c r="AE15">
-        <v>99510.616348036332</v>
+        <v>99510.616348036318</v>
       </c>
       <c r="AF15">
         <v>99509.710098036318</v>
@@ -2431,28 +2481,28 @@
         <v>99507.872598036309</v>
       </c>
       <c r="AJ15">
-        <v>99507.497598036323</v>
+        <v>99507.497598036309</v>
       </c>
       <c r="AK15">
-        <v>99507.360098036326</v>
+        <v>99507.360098036312</v>
       </c>
       <c r="AL15">
-        <v>99507.222598036329</v>
+        <v>99507.222598036315</v>
       </c>
       <c r="AM15">
-        <v>99507.085098036332</v>
+        <v>99507.085098036318</v>
       </c>
       <c r="AN15">
         <v>99506.855098036307</v>
       </c>
       <c r="AO15">
-        <v>99506.640098036296</v>
+        <v>99506.640098036311</v>
       </c>
       <c r="AP15">
-        <v>99509.807598036321</v>
+        <v>99509.807598036306</v>
       </c>
       <c r="AQ15">
-        <v>99514.102598036319</v>
+        <v>99514.102598036305</v>
       </c>
       <c r="AR15">
         <v>99515.176348036315</v>
@@ -2470,7 +2520,7 @@
         <v>99515.176348036315</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>5</v>
       </c>
@@ -2496,16 +2546,16 @@
         <v>99504.863848036315</v>
       </c>
       <c r="I16">
-        <v>99510.093848036326</v>
+        <v>99510.093848036311</v>
       </c>
       <c r="J16">
-        <v>99514.182598036321</v>
+        <v>99514.182598036306</v>
       </c>
       <c r="K16">
-        <v>99514.08759803632</v>
+        <v>99514.087598036305</v>
       </c>
       <c r="L16">
-        <v>99513.47884803632</v>
+        <v>99513.478848036306</v>
       </c>
       <c r="M16">
         <v>99512.783848036313</v>
@@ -2517,7 +2567,7 @@
         <v>99511.393848036314</v>
       </c>
       <c r="P16">
-        <v>99510.980098036322</v>
+        <v>99510.980098036307</v>
       </c>
       <c r="Q16">
         <v>99510.847598036315</v>
@@ -2535,7 +2585,7 @@
         <v>99511.513848036309</v>
       </c>
       <c r="V16">
-        <v>99512.178848036303</v>
+        <v>99512.178848036318</v>
       </c>
       <c r="W16">
         <v>99512.843848036311</v>
@@ -2547,13 +2597,13 @@
         <v>99513.750098036311</v>
       </c>
       <c r="Z16">
-        <v>99514.132598036318</v>
+        <v>99514.132598036304</v>
       </c>
       <c r="AA16">
         <v>99514.515098036311</v>
       </c>
       <c r="AB16">
-        <v>99514.08759803632</v>
+        <v>99514.087598036305</v>
       </c>
       <c r="AC16">
         <v>99512.850098036317</v>
@@ -2574,7 +2624,7 @@
         <v>99508.025098036305</v>
       </c>
       <c r="AI16">
-        <v>99507.332598036301</v>
+        <v>99507.332598036315</v>
       </c>
       <c r="AJ16">
         <v>99506.892598036313</v>
@@ -2589,10 +2639,10 @@
         <v>99506.330098036313</v>
       </c>
       <c r="AN16">
-        <v>99506.090098036322</v>
+        <v>99506.090098036308</v>
       </c>
       <c r="AO16">
-        <v>99505.89509803633</v>
+        <v>99505.895098036315</v>
       </c>
       <c r="AP16">
         <v>99509.450098036308</v>
@@ -2639,25 +2689,25 @@
         <v>99501.736348036313</v>
       </c>
       <c r="H17">
-        <v>99503.155098036324</v>
+        <v>99503.15509803631</v>
       </c>
       <c r="I17">
         <v>99508.830098036313</v>
       </c>
       <c r="J17">
-        <v>99513.6288480363</v>
+        <v>99513.628848036315</v>
       </c>
       <c r="K17">
-        <v>99513.318848036302</v>
+        <v>99513.318848036317</v>
       </c>
       <c r="L17">
-        <v>99512.176348036301</v>
+        <v>99512.176348036315</v>
       </c>
       <c r="M17">
-        <v>99511.596348036299</v>
+        <v>99511.596348036313</v>
       </c>
       <c r="N17">
-        <v>99511.016348036297</v>
+        <v>99511.016348036312</v>
       </c>
       <c r="O17">
         <v>99510.43634803631</v>
@@ -2696,52 +2746,52 @@
         <v>99513.145098036315</v>
       </c>
       <c r="AA17">
-        <v>99513.612598036329</v>
+        <v>99513.612598036314</v>
       </c>
       <c r="AB17">
-        <v>99513.183848036322</v>
+        <v>99513.183848036308</v>
       </c>
       <c r="AC17">
-        <v>99511.858848036325</v>
+        <v>99511.858848036311</v>
       </c>
       <c r="AD17">
-        <v>99510.533848036328</v>
+        <v>99510.533848036313</v>
       </c>
       <c r="AE17">
-        <v>99509.208848036331</v>
+        <v>99509.208848036316</v>
       </c>
       <c r="AF17">
-        <v>99508.138848036324</v>
+        <v>99508.138848036309</v>
       </c>
       <c r="AG17">
-        <v>99507.323848036322</v>
+        <v>99507.323848036307</v>
       </c>
       <c r="AH17">
-        <v>99506.508848036319</v>
+        <v>99506.508848036305</v>
       </c>
       <c r="AI17">
         <v>99505.693848036317</v>
       </c>
       <c r="AJ17">
-        <v>99505.186348036324</v>
+        <v>99505.18634803631</v>
       </c>
       <c r="AK17">
-        <v>99504.986348036327</v>
+        <v>99504.986348036313</v>
       </c>
       <c r="AL17">
-        <v>99504.78634803633</v>
+        <v>99504.786348036316</v>
       </c>
       <c r="AM17">
-        <v>99504.586348036333</v>
+        <v>99504.586348036304</v>
       </c>
       <c r="AN17">
         <v>99504.362598036314</v>
       </c>
       <c r="AO17">
-        <v>99504.19759803632</v>
+        <v>99504.197598036306</v>
       </c>
       <c r="AP17">
-        <v>99508.120098036321</v>
+        <v>99508.120098036306</v>
       </c>
       <c r="AQ17">
         <v>99513.40509803631</v>
@@ -2785,13 +2835,13 @@
         <v>99501.536348036316</v>
       </c>
       <c r="H18">
-        <v>99503.058848036322</v>
+        <v>99503.058848036308</v>
       </c>
       <c r="I18">
-        <v>99509.148848036319</v>
+        <v>99509.148848036304</v>
       </c>
       <c r="J18">
-        <v>99514.670098036295</v>
+        <v>99514.670098036309</v>
       </c>
       <c r="K18">
         <v>99514.125098036311</v>
@@ -2803,10 +2853,10 @@
         <v>99511.880098036316</v>
       </c>
       <c r="N18">
-        <v>99511.382598036318</v>
+        <v>99511.382598036304</v>
       </c>
       <c r="O18">
-        <v>99510.88509803632</v>
+        <v>99510.885098036306</v>
       </c>
       <c r="P18">
         <v>99510.481348036308</v>
@@ -2830,19 +2880,19 @@
         <v>99510.771348036316</v>
       </c>
       <c r="W18">
-        <v>99511.321348036319</v>
+        <v>99511.321348036305</v>
       </c>
       <c r="X18">
-        <v>99511.808848036322</v>
+        <v>99511.808848036308</v>
       </c>
       <c r="Y18">
-        <v>99512.233848036325</v>
+        <v>99512.233848036311</v>
       </c>
       <c r="Z18">
-        <v>99512.658848036328</v>
+        <v>99512.658848036313</v>
       </c>
       <c r="AA18">
-        <v>99513.083848036331</v>
+        <v>99513.083848036316</v>
       </c>
       <c r="AB18">
         <v>99512.615098036316</v>
@@ -2860,16 +2910,16 @@
         <v>99507.520098036315</v>
       </c>
       <c r="AG18">
-        <v>99506.867598036319</v>
+        <v>99506.867598036304</v>
       </c>
       <c r="AH18">
-        <v>99506.215098036322</v>
+        <v>99506.215098036308</v>
       </c>
       <c r="AI18">
         <v>99505.562598036311</v>
       </c>
       <c r="AJ18">
-        <v>99505.106348036323</v>
+        <v>99505.106348036308</v>
       </c>
       <c r="AK18">
         <v>99504.846348036313</v>
@@ -2884,7 +2934,7 @@
         <v>99504.076348036309</v>
       </c>
       <c r="AO18">
-        <v>99503.91634803632</v>
+        <v>99503.916348036306</v>
       </c>
       <c r="AP18">
         <v>99508.222598036315</v>
@@ -2934,7 +2984,7 @@
         <v>99501.176348036315</v>
       </c>
       <c r="I19">
-        <v>99507.656348036326</v>
+        <v>99507.656348036311</v>
       </c>
       <c r="J19">
         <v>99513.653848036309</v>
@@ -2946,13 +2996,13 @@
         <v>99510.991348036318</v>
       </c>
       <c r="M19">
-        <v>99510.54134803632</v>
+        <v>99510.541348036306</v>
       </c>
       <c r="N19">
-        <v>99510.091348036323</v>
+        <v>99510.091348036309</v>
       </c>
       <c r="O19">
-        <v>99509.641348036326</v>
+        <v>99509.641348036312</v>
       </c>
       <c r="P19">
         <v>99509.237598036314</v>
@@ -2964,10 +3014,10 @@
         <v>99508.522598036318</v>
       </c>
       <c r="S19">
-        <v>99508.165098036319</v>
+        <v>99508.165098036305</v>
       </c>
       <c r="T19">
-        <v>99508.2538480363</v>
+        <v>99508.253848036315</v>
       </c>
       <c r="U19">
         <v>99508.788848036304</v>
@@ -2976,46 +3026,46 @@
         <v>99509.323848036307</v>
       </c>
       <c r="W19">
-        <v>99509.858848036296</v>
+        <v>99509.858848036311</v>
       </c>
       <c r="X19">
-        <v>99510.365098036302</v>
+        <v>99510.365098036316</v>
       </c>
       <c r="Y19">
         <v>99510.84259803631</v>
       </c>
       <c r="Z19">
-        <v>99511.320098036318</v>
+        <v>99511.320098036304</v>
       </c>
       <c r="AA19">
         <v>99511.797598036312</v>
       </c>
       <c r="AB19">
-        <v>99511.327598036325</v>
+        <v>99511.327598036311</v>
       </c>
       <c r="AC19">
-        <v>99509.910098036329</v>
+        <v>99509.910098036315</v>
       </c>
       <c r="AD19">
-        <v>99508.492598036333</v>
+        <v>99508.492598036304</v>
       </c>
       <c r="AE19">
-        <v>99507.075098036323</v>
+        <v>99507.075098036308</v>
       </c>
       <c r="AF19">
         <v>99506.002598036313</v>
       </c>
       <c r="AG19">
-        <v>99505.27509803632</v>
+        <v>99505.275098036305</v>
       </c>
       <c r="AH19">
-        <v>99504.547598036326</v>
+        <v>99504.547598036312</v>
       </c>
       <c r="AI19">
-        <v>99503.820098036318</v>
+        <v>99503.820098036304</v>
       </c>
       <c r="AJ19">
-        <v>99503.303848036303</v>
+        <v>99503.303848036318</v>
       </c>
       <c r="AK19">
         <v>99502.99884803631</v>
@@ -3080,7 +3130,7 @@
         <v>99501.098848036316</v>
       </c>
       <c r="I20">
-        <v>99507.708848036302</v>
+        <v>99507.708848036316</v>
       </c>
       <c r="J20">
         <v>99513.87384803631</v>
@@ -3089,13 +3139,13 @@
         <v>99513.183848036308</v>
       </c>
       <c r="L20">
-        <v>99511.121348036322</v>
+        <v>99511.121348036308</v>
       </c>
       <c r="M20">
-        <v>99510.79134803632</v>
+        <v>99510.791348036306</v>
       </c>
       <c r="N20">
-        <v>99510.461348036319</v>
+        <v>99510.461348036304</v>
       </c>
       <c r="O20">
         <v>99510.131348036317</v>
@@ -3119,22 +3169,22 @@
         <v>99509.088848036306</v>
       </c>
       <c r="V20">
-        <v>99509.583848036302</v>
+        <v>99509.583848036316</v>
       </c>
       <c r="W20">
-        <v>99510.078848036297</v>
+        <v>99510.078848036312</v>
       </c>
       <c r="X20">
-        <v>99510.590098036322</v>
+        <v>99510.590098036308</v>
       </c>
       <c r="Y20">
-        <v>99511.117598036319</v>
+        <v>99511.117598036304</v>
       </c>
       <c r="Z20">
         <v>99511.645098036315</v>
       </c>
       <c r="AA20">
-        <v>99512.172598036326</v>
+        <v>99512.172598036312</v>
       </c>
       <c r="AB20">
         <v>99511.687598036311</v>
@@ -3146,13 +3196,13 @@
         <v>99508.692598036316</v>
       </c>
       <c r="AE20">
-        <v>99507.195098036318</v>
+        <v>99507.195098036304</v>
       </c>
       <c r="AF20">
-        <v>99506.065098036299</v>
+        <v>99506.065098036313</v>
       </c>
       <c r="AG20">
-        <v>99505.302598036302</v>
+        <v>99505.302598036316</v>
       </c>
       <c r="AH20">
         <v>99504.540098036305</v>
@@ -3161,25 +3211,25 @@
         <v>99503.777598036308</v>
       </c>
       <c r="AJ20">
-        <v>99503.237598036329</v>
+        <v>99503.237598036314</v>
       </c>
       <c r="AK20">
-        <v>99502.920098036324</v>
+        <v>99502.920098036309</v>
       </c>
       <c r="AL20">
-        <v>99502.602598036319</v>
+        <v>99502.602598036305</v>
       </c>
       <c r="AM20">
         <v>99502.285098036315</v>
       </c>
       <c r="AN20">
-        <v>99502.058848036322</v>
+        <v>99502.058848036308</v>
       </c>
       <c r="AO20">
         <v>99501.968848036311</v>
       </c>
       <c r="AP20">
-        <v>99506.881348036302</v>
+        <v>99506.881348036317</v>
       </c>
       <c r="AQ20">
         <v>99513.461348036304</v>
@@ -3226,10 +3276,10 @@
         <v>99500.920098036309</v>
       </c>
       <c r="I21">
-        <v>99507.495098036321</v>
+        <v>99507.495098036306</v>
       </c>
       <c r="J21">
-        <v>99513.616348036303</v>
+        <v>99513.616348036318</v>
       </c>
       <c r="K21">
         <v>99512.93634803631</v>
@@ -3253,7 +3303,7 @@
         <v>99509.281348036311</v>
       </c>
       <c r="R21">
-        <v>99508.851348036318</v>
+        <v>99508.851348036304</v>
       </c>
       <c r="S21">
         <v>99508.421348036311</v>
@@ -3268,7 +3318,7 @@
         <v>99509.343848036311</v>
       </c>
       <c r="W21">
-        <v>99509.798848036298</v>
+        <v>99509.798848036313</v>
       </c>
       <c r="X21">
         <v>99510.268848036314</v>
@@ -3304,28 +3354,28 @@
         <v>99504.326348036309</v>
       </c>
       <c r="AI21">
-        <v>99503.66634803632</v>
+        <v>99503.666348036306</v>
       </c>
       <c r="AJ21">
         <v>99503.160098036315</v>
       </c>
       <c r="AK21">
-        <v>99502.807598036321</v>
+        <v>99502.807598036306</v>
       </c>
       <c r="AL21">
-        <v>99502.455098036327</v>
+        <v>99502.455098036313</v>
       </c>
       <c r="AM21">
-        <v>99502.102598036319</v>
+        <v>99502.102598036305</v>
       </c>
       <c r="AN21">
         <v>99501.858848036311</v>
       </c>
       <c r="AO21">
-        <v>99501.768848036299</v>
+        <v>99501.768848036314</v>
       </c>
       <c r="AP21">
-        <v>99506.838848036321</v>
+        <v>99506.838848036306</v>
       </c>
       <c r="AQ21">
         <v>99513.628848036315</v>
@@ -3369,10 +3419,10 @@
         <v>99498.18634803631</v>
       </c>
       <c r="H22">
-        <v>99499.758848036319</v>
+        <v>99499.758848036305</v>
       </c>
       <c r="I22">
-        <v>99506.048848036327</v>
+        <v>99506.048848036313</v>
       </c>
       <c r="J22">
         <v>99512.017598036313</v>
@@ -3405,13 +3455,13 @@
         <v>99507.661348036316</v>
       </c>
       <c r="T22">
-        <v>99507.676348036301</v>
+        <v>99507.676348036315</v>
       </c>
       <c r="U22">
-        <v>99508.096348036299</v>
+        <v>99508.096348036313</v>
       </c>
       <c r="V22">
-        <v>99508.516348036297</v>
+        <v>99508.516348036312</v>
       </c>
       <c r="W22">
         <v>99508.93634803631</v>
@@ -3423,7 +3473,7 @@
         <v>99509.907598036312</v>
       </c>
       <c r="Z22">
-        <v>99510.415098036319</v>
+        <v>99510.415098036305</v>
       </c>
       <c r="AA22">
         <v>99510.922598036312</v>
@@ -3441,7 +3491,7 @@
         <v>99505.87384803631</v>
       </c>
       <c r="AF22">
-        <v>99504.761348036322</v>
+        <v>99504.761348036307</v>
       </c>
       <c r="AG22">
         <v>99504.051348036315</v>
@@ -3456,10 +3506,10 @@
         <v>99502.098848036316</v>
       </c>
       <c r="AK22">
-        <v>99501.74384803632</v>
+        <v>99501.743848036305</v>
       </c>
       <c r="AL22">
-        <v>99501.388848036324</v>
+        <v>99501.388848036309</v>
       </c>
       <c r="AM22">
         <v>99501.033848036313</v>
@@ -3471,10 +3521,10 @@
         <v>99500.690098036313</v>
       </c>
       <c r="AP22">
-        <v>99505.867598036319</v>
+        <v>99505.867598036304</v>
       </c>
       <c r="AQ22">
-        <v>99512.802598036331</v>
+        <v>99512.802598036316</v>
       </c>
       <c r="AR22">
         <v>99514.536348036316</v>
@@ -3518,13 +3568,13 @@
         <v>99499.21759803631</v>
       </c>
       <c r="I23">
-        <v>99505.302598036302</v>
+        <v>99505.302598036316</v>
       </c>
       <c r="J23">
-        <v>99510.907598036327</v>
+        <v>99510.907598036312</v>
       </c>
       <c r="K23">
-        <v>99510.312598036326</v>
+        <v>99510.312598036311</v>
       </c>
       <c r="L23">
         <v>99508.68634803631</v>
@@ -3533,7 +3583,7 @@
         <v>99508.706348036314</v>
       </c>
       <c r="N23">
-        <v>99508.726348036318</v>
+        <v>99508.726348036304</v>
       </c>
       <c r="O23">
         <v>99508.746348036308</v>
@@ -3548,37 +3598,37 @@
         <v>99507.806348036305</v>
       </c>
       <c r="S23">
-        <v>99507.426348036301</v>
+        <v>99507.426348036315</v>
       </c>
       <c r="T23">
-        <v>99507.436348036324</v>
+        <v>99507.43634803631</v>
       </c>
       <c r="U23">
-        <v>99507.836348036319</v>
+        <v>99507.836348036304</v>
       </c>
       <c r="V23">
         <v>99508.236348036313</v>
       </c>
       <c r="W23">
-        <v>99508.636348036322</v>
+        <v>99508.636348036307</v>
       </c>
       <c r="X23">
         <v>99509.097598036315</v>
       </c>
       <c r="Y23">
-        <v>99509.620098036321</v>
+        <v>99509.620098036306</v>
       </c>
       <c r="Z23">
-        <v>99510.142598036327</v>
+        <v>99510.142598036313</v>
       </c>
       <c r="AA23">
-        <v>99510.665098036319</v>
+        <v>99510.665098036305</v>
       </c>
       <c r="AB23">
-        <v>99510.151348036321</v>
+        <v>99510.151348036306</v>
       </c>
       <c r="AC23">
-        <v>99508.601348036318</v>
+        <v>99508.601348036304</v>
       </c>
       <c r="AD23">
         <v>99507.051348036315</v>
@@ -3599,13 +3649,13 @@
         <v>99502.223848036316</v>
       </c>
       <c r="AJ23">
-        <v>99501.67634803633</v>
+        <v>99501.676348036315</v>
       </c>
       <c r="AK23">
-        <v>99501.296348036325</v>
+        <v>99501.296348036311</v>
       </c>
       <c r="AL23">
-        <v>99500.91634803632</v>
+        <v>99500.916348036306</v>
       </c>
       <c r="AM23">
         <v>99500.536348036316</v>
@@ -3617,10 +3667,10 @@
         <v>99500.153848036309</v>
       </c>
       <c r="AP23">
-        <v>99505.488848036301</v>
+        <v>99505.488848036315</v>
       </c>
       <c r="AQ23">
-        <v>99512.638848036295</v>
+        <v>99512.638848036309</v>
       </c>
       <c r="AR23">
         <v>99514.426348036315</v>
@@ -3667,10 +3717,10 @@
         <v>99505.038848036304</v>
       </c>
       <c r="J24">
-        <v>99510.288848036333</v>
+        <v>99510.288848036304</v>
       </c>
       <c r="K24">
-        <v>99509.778848036323</v>
+        <v>99509.778848036309</v>
       </c>
       <c r="L24">
         <v>99508.453848036312</v>
@@ -3688,19 +3738,19 @@
         <v>99508.835098036318</v>
       </c>
       <c r="Q24">
-        <v>99508.512598036323</v>
+        <v>99508.512598036308</v>
       </c>
       <c r="R24">
-        <v>99508.190098036328</v>
+        <v>99508.190098036313</v>
       </c>
       <c r="S24">
-        <v>99507.867598036333</v>
+        <v>99507.867598036304</v>
       </c>
       <c r="T24">
-        <v>99507.895098036301</v>
+        <v>99507.895098036315</v>
       </c>
       <c r="U24">
-        <v>99508.272598036303</v>
+        <v>99508.272598036318</v>
       </c>
       <c r="V24">
         <v>99508.650098036305</v>
@@ -3718,25 +3768,25 @@
         <v>99510.585098036318</v>
       </c>
       <c r="AA24">
-        <v>99511.132598036318</v>
+        <v>99511.132598036304</v>
       </c>
       <c r="AB24">
-        <v>99510.616348036303</v>
+        <v>99510.616348036318</v>
       </c>
       <c r="AC24">
-        <v>99509.036348036301</v>
+        <v>99509.036348036316</v>
       </c>
       <c r="AD24">
-        <v>99507.456348036299</v>
+        <v>99507.456348036314</v>
       </c>
       <c r="AE24">
-        <v>99505.876348036298</v>
+        <v>99505.876348036312</v>
       </c>
       <c r="AF24">
-        <v>99504.700098036294</v>
+        <v>99504.700098036308</v>
       </c>
       <c r="AG24">
-        <v>99503.927598036302</v>
+        <v>99503.927598036316</v>
       </c>
       <c r="AH24">
         <v>99503.15509803631</v>
@@ -3757,13 +3807,13 @@
         <v>99500.683848036308</v>
       </c>
       <c r="AN24">
-        <v>99500.425098036299</v>
+        <v>99500.425098036314</v>
       </c>
       <c r="AO24">
-        <v>99500.330098036298</v>
+        <v>99500.330098036313</v>
       </c>
       <c r="AP24">
-        <v>99505.6913480363</v>
+        <v>99505.691348036315</v>
       </c>
       <c r="AQ24">
         <v>99512.871348036308</v>
@@ -3816,7 +3866,7 @@
         <v>99509.371348036308</v>
       </c>
       <c r="K25">
-        <v>99508.951348036295</v>
+        <v>99508.951348036309</v>
       </c>
       <c r="L25">
         <v>99507.945098036304</v>
@@ -3831,7 +3881,7 @@
         <v>99508.837598036305</v>
       </c>
       <c r="P25">
-        <v>99508.851348036318</v>
+        <v>99508.851348036304</v>
       </c>
       <c r="Q25">
         <v>99508.581348036314</v>
@@ -3840,10 +3890,10 @@
         <v>99508.31134803631</v>
       </c>
       <c r="S25">
-        <v>99508.04134803632</v>
+        <v>99508.041348036306</v>
       </c>
       <c r="T25">
-        <v>99508.082598036301</v>
+        <v>99508.082598036315</v>
       </c>
       <c r="U25">
         <v>99508.435098036309</v>
@@ -3855,16 +3905,16 @@
         <v>99509.140098036311</v>
       </c>
       <c r="X25">
-        <v>99509.607598036324</v>
+        <v>99509.607598036309</v>
       </c>
       <c r="Y25">
-        <v>99510.190098036328</v>
+        <v>99510.190098036313</v>
       </c>
       <c r="Z25">
-        <v>99510.772598036332</v>
+        <v>99510.772598036318</v>
       </c>
       <c r="AA25">
-        <v>99511.355098036322</v>
+        <v>99511.355098036307</v>
       </c>
       <c r="AB25">
         <v>99510.833848036316</v>
@@ -3885,7 +3935,7 @@
         <v>99503.957598036315</v>
       </c>
       <c r="AH25">
-        <v>99503.165098036319</v>
+        <v>99503.165098036305</v>
       </c>
       <c r="AI25">
         <v>99502.372598036309</v>
@@ -3900,7 +3950,7 @@
         <v>99500.995098036306</v>
       </c>
       <c r="AM25">
-        <v>99500.602598036319</v>
+        <v>99500.602598036305</v>
       </c>
       <c r="AN25">
         <v>99500.323848036307</v>
@@ -3953,7 +4003,7 @@
         <v>99497.576348036309</v>
       </c>
       <c r="H26">
-        <v>99498.797598036297</v>
+        <v>99498.797598036312</v>
       </c>
       <c r="I26">
         <v>99503.682598036306</v>
@@ -3962,13 +4012,13 @@
         <v>99507.810098036309</v>
       </c>
       <c r="K26">
-        <v>99507.545098036324</v>
+        <v>99507.545098036309</v>
       </c>
       <c r="L26">
-        <v>99507.057598036321</v>
+        <v>99507.057598036306</v>
       </c>
       <c r="M26">
-        <v>99507.540098036319</v>
+        <v>99507.540098036305</v>
       </c>
       <c r="N26">
         <v>99508.022598036318</v>
@@ -3983,10 +4033,10 @@
         <v>99508.476348036304</v>
       </c>
       <c r="R26">
-        <v>99508.296348036296</v>
+        <v>99508.296348036311</v>
       </c>
       <c r="S26">
-        <v>99508.116348036303</v>
+        <v>99508.116348036318</v>
       </c>
       <c r="T26">
         <v>99508.198848036307</v>
@@ -4004,13 +4054,13 @@
         <v>99509.695098036304</v>
       </c>
       <c r="Y26">
-        <v>99510.272598036303</v>
+        <v>99510.272598036318</v>
       </c>
       <c r="Z26">
-        <v>99510.850098036302</v>
+        <v>99510.850098036317</v>
       </c>
       <c r="AA26">
-        <v>99511.427598036302</v>
+        <v>99511.427598036316</v>
       </c>
       <c r="AB26">
         <v>99510.906348036311</v>
@@ -4019,13 +4069,13 @@
         <v>99509.286348036316</v>
       </c>
       <c r="AD26">
-        <v>99507.66634803632</v>
+        <v>99507.666348036306</v>
       </c>
       <c r="AE26">
-        <v>99506.046348036325</v>
+        <v>99506.046348036311</v>
       </c>
       <c r="AF26">
-        <v>99504.836348036319</v>
+        <v>99504.836348036304</v>
       </c>
       <c r="AG26">
         <v>99504.036348036316</v>
@@ -4043,7 +4093,7 @@
         <v>99501.428848036318</v>
       </c>
       <c r="AL26">
-        <v>99501.023848036319</v>
+        <v>99501.023848036304</v>
       </c>
       <c r="AM26">
         <v>99500.618848036305</v>
@@ -4102,10 +4152,10 @@
         <v>99499.135098036306</v>
       </c>
       <c r="I27">
-        <v>99503.530098036295</v>
+        <v>99503.53009803631</v>
       </c>
       <c r="J27">
-        <v>99506.581348036299</v>
+        <v>99506.581348036314</v>
       </c>
       <c r="K27">
         <v>99506.721348036313</v>
@@ -4120,10 +4170,10 @@
         <v>99508.643848036314</v>
       </c>
       <c r="O27">
-        <v>99509.258848036319</v>
+        <v>99509.258848036305</v>
       </c>
       <c r="P27">
-        <v>99509.460098036303</v>
+        <v>99509.460098036318</v>
       </c>
       <c r="Q27">
         <v>99509.247598036309</v>
@@ -4147,25 +4197,25 @@
         <v>99510.142598036313</v>
       </c>
       <c r="X27">
-        <v>99510.651348036321</v>
+        <v>99510.651348036306</v>
       </c>
       <c r="Y27">
-        <v>99511.261348036322</v>
+        <v>99511.261348036307</v>
       </c>
       <c r="Z27">
-        <v>99511.871348036322</v>
+        <v>99511.871348036308</v>
       </c>
       <c r="AA27">
-        <v>99512.481348036323</v>
+        <v>99512.481348036308</v>
       </c>
       <c r="AB27">
-        <v>99511.951348036324</v>
+        <v>99511.951348036309</v>
       </c>
       <c r="AC27">
-        <v>99510.281348036326</v>
+        <v>99510.281348036311</v>
       </c>
       <c r="AD27">
-        <v>99508.611348036327</v>
+        <v>99508.611348036313</v>
       </c>
       <c r="AE27">
         <v>99506.941348036315</v>
@@ -4180,22 +4230,22 @@
         <v>99503.893848036314</v>
       </c>
       <c r="AI27">
-        <v>99503.008848036319</v>
+        <v>99503.008848036305</v>
       </c>
       <c r="AJ27">
         <v>99502.380098036316</v>
       </c>
       <c r="AK27">
-        <v>99502.007598036318</v>
+        <v>99502.007598036304</v>
       </c>
       <c r="AL27">
-        <v>99501.63509803632</v>
+        <v>99501.635098036306</v>
       </c>
       <c r="AM27">
-        <v>99501.262598036323</v>
+        <v>99501.262598036308</v>
       </c>
       <c r="AN27">
-        <v>99500.960098036303</v>
+        <v>99500.960098036318</v>
       </c>
       <c r="AO27">
         <v>99500.805098036304</v>
@@ -4204,7 +4254,7 @@
         <v>99505.791348036306</v>
       </c>
       <c r="AQ27">
-        <v>99512.491348036303</v>
+        <v>99512.491348036318</v>
       </c>
       <c r="AR27">
         <v>99514.166348036306</v>
@@ -4248,19 +4298,19 @@
         <v>99499.231348036308</v>
       </c>
       <c r="I28">
-        <v>99502.93134803632</v>
+        <v>99502.931348036305</v>
       </c>
       <c r="J28">
-        <v>99505.015098036325</v>
+        <v>99505.015098036311</v>
       </c>
       <c r="K28">
         <v>99505.410098036315</v>
       </c>
       <c r="L28">
-        <v>99506.817598036301</v>
+        <v>99506.817598036316</v>
       </c>
       <c r="M28">
-        <v>99507.460098036303</v>
+        <v>99507.460098036318</v>
       </c>
       <c r="N28">
         <v>99508.102598036305</v>
@@ -4269,16 +4319,16 @@
         <v>99508.745098036306</v>
       </c>
       <c r="P28">
-        <v>99508.996348036322</v>
+        <v>99508.996348036308</v>
       </c>
       <c r="Q28">
-        <v>99508.856348036323</v>
+        <v>99508.856348036308</v>
       </c>
       <c r="R28">
-        <v>99508.716348036323</v>
+        <v>99508.716348036309</v>
       </c>
       <c r="S28">
-        <v>99508.576348036324</v>
+        <v>99508.576348036309</v>
       </c>
       <c r="T28">
         <v>99508.725098036317</v>
@@ -4305,7 +4355,7 @@
         <v>99512.330098036313</v>
       </c>
       <c r="AB28">
-        <v>99511.801348036301</v>
+        <v>99511.801348036315</v>
       </c>
       <c r="AC28">
         <v>99510.151348036306</v>
@@ -4338,13 +4388,13 @@
         <v>99501.836348036304</v>
       </c>
       <c r="AM28">
-        <v>99501.456348036299</v>
+        <v>99501.456348036314</v>
       </c>
       <c r="AN28">
         <v>99501.135098036306</v>
       </c>
       <c r="AO28">
-        <v>99500.960098036303</v>
+        <v>99500.960098036318</v>
       </c>
       <c r="AP28">
         <v>99505.543848036308</v>
@@ -4391,10 +4441,10 @@
         <v>99502.816348036315</v>
       </c>
       <c r="H29">
-        <v>99504.700098036323</v>
+        <v>99504.700098036308</v>
       </c>
       <c r="I29">
-        <v>99512.235098036326</v>
+        <v>99512.235098036312</v>
       </c>
       <c r="J29">
         <v>99517.676348036315</v>
@@ -4412,7 +4462,7 @@
         <v>99516.288848036304</v>
       </c>
       <c r="O29">
-        <v>99515.553848036303</v>
+        <v>99515.553848036318</v>
       </c>
       <c r="P29">
         <v>99514.565098036313</v>
@@ -4421,7 +4471,7 @@
         <v>99513.322598036306</v>
       </c>
       <c r="R29">
-        <v>99512.080098036298</v>
+        <v>99512.080098036313</v>
       </c>
       <c r="S29">
         <v>99510.837598036305</v>
@@ -4433,10 +4483,10 @@
         <v>99508.337598036305</v>
       </c>
       <c r="V29">
-        <v>99507.085098036303</v>
+        <v>99507.085098036318</v>
       </c>
       <c r="W29">
-        <v>99505.832598036301</v>
+        <v>99505.832598036315</v>
       </c>
       <c r="X29">
         <v>99505.293848036308</v>
@@ -4454,16 +4504,16 @@
         <v>99505.752598036313</v>
       </c>
       <c r="AC29">
-        <v>99505.445098036318</v>
+        <v>99505.445098036304</v>
       </c>
       <c r="AD29">
-        <v>99505.137598036323</v>
+        <v>99505.137598036308</v>
       </c>
       <c r="AE29">
-        <v>99504.830098036327</v>
+        <v>99504.830098036313</v>
       </c>
       <c r="AF29">
-        <v>99504.708848036302</v>
+        <v>99504.708848036316</v>
       </c>
       <c r="AG29">
         <v>99504.773848036304</v>
@@ -4481,7 +4531,7 @@
         <v>99504.602598036305</v>
       </c>
       <c r="AL29">
-        <v>99504.380098036301</v>
+        <v>99504.380098036316</v>
       </c>
       <c r="AM29">
         <v>99504.157598036312</v>
@@ -4490,13 +4540,13 @@
         <v>99504.391348036312</v>
       </c>
       <c r="AO29">
-        <v>99504.851348036318</v>
+        <v>99504.851348036304</v>
       </c>
       <c r="AP29">
         <v>99510.400098036305</v>
       </c>
       <c r="AQ29">
-        <v>99517.645098036301</v>
+        <v>99517.645098036315</v>
       </c>
       <c r="AR29">
         <v>99519.456348036314</v>
@@ -4543,7 +4593,7 @@
         <v>99511.427598036316</v>
       </c>
       <c r="J30">
-        <v>99517.703848036297</v>
+        <v>99517.703848036312</v>
       </c>
       <c r="K30">
         <v>99517.933848036308</v>
@@ -4564,13 +4614,13 @@
         <v>99514.308848036308</v>
       </c>
       <c r="Q30">
-        <v>99512.553848036303</v>
+        <v>99512.553848036318</v>
       </c>
       <c r="R30">
-        <v>99510.798848036298</v>
+        <v>99510.798848036313</v>
       </c>
       <c r="S30">
-        <v>99509.043848036294</v>
+        <v>99509.043848036308</v>
       </c>
       <c r="T30">
         <v>99506.986348036313</v>
@@ -4597,13 +4647,13 @@
         <v>99501.692598036316</v>
       </c>
       <c r="AB30">
-        <v>99501.07259803632</v>
+        <v>99501.072598036306</v>
       </c>
       <c r="AC30">
         <v>99498.985098036312</v>
       </c>
       <c r="AD30">
-        <v>99496.897598036303</v>
+        <v>99496.897598036318</v>
       </c>
       <c r="AE30">
         <v>99494.810098036309</v>
@@ -4615,10 +4665,10 @@
         <v>99493.241348036318</v>
       </c>
       <c r="AH30">
-        <v>99492.891348036326</v>
+        <v>99492.891348036312</v>
       </c>
       <c r="AI30">
-        <v>99492.54134803632</v>
+        <v>99492.541348036306</v>
       </c>
       <c r="AJ30">
         <v>99492.431348036305</v>
@@ -4689,13 +4739,13 @@
         <v>99510.666348036306</v>
       </c>
       <c r="J31">
-        <v>99518.6600980363</v>
+        <v>99518.660098036315</v>
       </c>
       <c r="K31">
-        <v>99518.995098036292</v>
+        <v>99518.995098036306</v>
       </c>
       <c r="L31">
-        <v>99519.477598036319</v>
+        <v>99519.477598036305</v>
       </c>
       <c r="M31">
         <v>99518.600098036317</v>
@@ -4707,31 +4757,31 @@
         <v>99516.845098036312</v>
       </c>
       <c r="P31">
-        <v>99515.54134803632</v>
+        <v>99515.541348036306</v>
       </c>
       <c r="Q31">
-        <v>99513.811348036324</v>
+        <v>99513.81134803631</v>
       </c>
       <c r="R31">
-        <v>99512.081348036329</v>
+        <v>99512.081348036314</v>
       </c>
       <c r="S31">
-        <v>99510.351348036318</v>
+        <v>99510.351348036304</v>
       </c>
       <c r="T31">
         <v>99507.352598036305</v>
       </c>
       <c r="U31">
-        <v>99503.085098036303</v>
+        <v>99503.085098036318</v>
       </c>
       <c r="V31">
-        <v>99498.817598036301</v>
+        <v>99498.817598036316</v>
       </c>
       <c r="W31">
-        <v>99494.550098036299</v>
+        <v>99494.550098036314</v>
       </c>
       <c r="X31">
-        <v>99493.426348036301</v>
+        <v>99493.426348036315</v>
       </c>
       <c r="Y31">
         <v>99495.446348036305</v>
@@ -4740,7 +4790,7 @@
         <v>99497.466348036309</v>
       </c>
       <c r="AA31">
-        <v>99499.486348036298</v>
+        <v>99499.486348036313</v>
       </c>
       <c r="AB31">
         <v>99498.545098036309</v>
@@ -4770,13 +4820,13 @@
         <v>99483.005098036316</v>
       </c>
       <c r="AK31">
-        <v>99482.902598036322</v>
+        <v>99482.902598036308</v>
       </c>
       <c r="AL31">
-        <v>99482.800098036329</v>
+        <v>99482.800098036314</v>
       </c>
       <c r="AM31">
-        <v>99482.69759803632</v>
+        <v>99482.697598036306</v>
       </c>
       <c r="AN31">
         <v>99485.301348036315</v>
@@ -4829,16 +4879,16 @@
         <v>99483.256348036317</v>
       </c>
       <c r="H32">
-        <v>99485.47884803632</v>
+        <v>99485.478848036306</v>
       </c>
       <c r="I32">
         <v>99494.368848036305</v>
       </c>
       <c r="J32">
-        <v>99512.892598036327</v>
+        <v>99512.892598036313</v>
       </c>
       <c r="K32">
-        <v>99506.117598036333</v>
+        <v>99506.117598036304</v>
       </c>
       <c r="L32">
         <v>99485.667598036307</v>
@@ -4859,22 +4909,22 @@
         <v>99471.635098036306</v>
       </c>
       <c r="R32">
-        <v>99470.767598036298</v>
+        <v>99470.767598036313</v>
       </c>
       <c r="S32">
         <v>99469.900098036305</v>
       </c>
       <c r="T32">
-        <v>99469.505098036301</v>
+        <v>99469.505098036316</v>
       </c>
       <c r="U32">
-        <v>99469.582598036301</v>
+        <v>99469.582598036315</v>
       </c>
       <c r="V32">
-        <v>99469.6600980363</v>
+        <v>99469.660098036315</v>
       </c>
       <c r="W32">
-        <v>99469.737598036299</v>
+        <v>99469.737598036314</v>
       </c>
       <c r="X32">
         <v>99469.747598036309</v>
@@ -4883,10 +4933,10 @@
         <v>99469.690098036313</v>
       </c>
       <c r="Z32">
-        <v>99469.632598036318</v>
+        <v>99469.632598036304</v>
       </c>
       <c r="AA32">
-        <v>99469.575098036323</v>
+        <v>99469.575098036308</v>
       </c>
       <c r="AB32">
         <v>99469.321348036305</v>
@@ -4925,16 +4975,16 @@
         <v>99471.378848036315</v>
       </c>
       <c r="AN32">
-        <v>99474.397598036303</v>
+        <v>99474.397598036318</v>
       </c>
       <c r="AO32">
         <v>99477.852598036305</v>
       </c>
       <c r="AP32">
-        <v>99490.592598036295</v>
+        <v>99490.59259803631</v>
       </c>
       <c r="AQ32">
-        <v>99506.427598036302</v>
+        <v>99506.427598036316</v>
       </c>
       <c r="AR32">
         <v>99510.386348036307</v>
@@ -4981,13 +5031,13 @@
         <v>99492.302598036316</v>
       </c>
       <c r="J33">
-        <v>99511.461348036319</v>
+        <v>99511.461348036304</v>
       </c>
       <c r="K33">
         <v>99504.201348036309</v>
       </c>
       <c r="L33">
-        <v>99482.132598036318</v>
+        <v>99482.132598036304</v>
       </c>
       <c r="M33">
         <v>99477.925098036314</v>
@@ -4996,7 +5046,7 @@
         <v>99473.71759803631</v>
       </c>
       <c r="O33">
-        <v>99469.51009803632</v>
+        <v>99469.510098036306</v>
       </c>
       <c r="P33">
         <v>99466.812598036311</v>
@@ -5011,7 +5061,7 @@
         <v>99463.250098036311</v>
       </c>
       <c r="T33">
-        <v>99462.948848036322</v>
+        <v>99462.948848036307</v>
       </c>
       <c r="U33">
         <v>99463.533848036313</v>
@@ -5023,22 +5073,22 @@
         <v>99464.703848036312</v>
       </c>
       <c r="X33">
-        <v>99464.8163480363</v>
+        <v>99464.816348036315</v>
       </c>
       <c r="Y33">
-        <v>99464.456348036299</v>
+        <v>99464.456348036314</v>
       </c>
       <c r="Z33">
-        <v>99464.096348036299</v>
+        <v>99464.096348036313</v>
       </c>
       <c r="AA33">
-        <v>99463.736348036298</v>
+        <v>99463.736348036313</v>
       </c>
       <c r="AB33">
-        <v>99463.482598036295</v>
+        <v>99463.482598036309</v>
       </c>
       <c r="AC33">
-        <v>99463.335098036303</v>
+        <v>99463.335098036318</v>
       </c>
       <c r="AD33">
         <v>99463.187598036311</v>
@@ -5050,31 +5100,31 @@
         <v>99463.151348036306</v>
       </c>
       <c r="AG33">
-        <v>99463.521348036302</v>
+        <v>99463.521348036316</v>
       </c>
       <c r="AH33">
-        <v>99463.891348036297</v>
+        <v>99463.891348036312</v>
       </c>
       <c r="AI33">
-        <v>99464.261348036292</v>
+        <v>99464.261348036307</v>
       </c>
       <c r="AJ33">
-        <v>99464.965098036293</v>
+        <v>99464.965098036308</v>
       </c>
       <c r="AK33">
-        <v>99466.002598036299</v>
+        <v>99466.002598036313</v>
       </c>
       <c r="AL33">
         <v>99467.040098036305</v>
       </c>
       <c r="AM33">
-        <v>99468.077598036296</v>
+        <v>99468.077598036311</v>
       </c>
       <c r="AN33">
         <v>99471.318848036317</v>
       </c>
       <c r="AO33">
-        <v>99474.948848036322</v>
+        <v>99474.948848036307</v>
       </c>
       <c r="AP33">
         <v>99488.550098036314</v>
@@ -5124,7 +5174,7 @@
         <v>99481.427598036316</v>
       </c>
       <c r="I34">
-        <v>99490.71259803632</v>
+        <v>99490.712598036305</v>
       </c>
       <c r="J34">
         <v>99510.792598036307</v>
@@ -5133,7 +5183,7 @@
         <v>99503.297598036312</v>
       </c>
       <c r="L34">
-        <v>99480.486348036298</v>
+        <v>99480.486348036313</v>
       </c>
       <c r="M34">
         <v>99476.086348036304</v>
@@ -5142,19 +5192,19 @@
         <v>99471.68634803631</v>
       </c>
       <c r="O34">
-        <v>99467.286348036301</v>
+        <v>99467.286348036316</v>
       </c>
       <c r="P34">
-        <v>99464.406348036297</v>
+        <v>99464.406348036311</v>
       </c>
       <c r="Q34">
-        <v>99463.046348036296</v>
+        <v>99463.046348036311</v>
       </c>
       <c r="R34">
-        <v>99461.686348036295</v>
+        <v>99461.68634803631</v>
       </c>
       <c r="S34">
-        <v>99460.326348036295</v>
+        <v>99460.326348036309</v>
       </c>
       <c r="T34">
         <v>99460.023848036304</v>
@@ -5178,7 +5228,7 @@
         <v>99461.616348036318</v>
       </c>
       <c r="AA34">
-        <v>99461.196348036319</v>
+        <v>99461.196348036305</v>
       </c>
       <c r="AB34">
         <v>99461.068848036317</v>
@@ -5208,25 +5258,25 @@
         <v>99460.945098036304</v>
       </c>
       <c r="AK34">
-        <v>99461.662598036302</v>
+        <v>99461.662598036317</v>
       </c>
       <c r="AL34">
-        <v>99462.380098036301</v>
+        <v>99462.380098036316</v>
       </c>
       <c r="AM34">
         <v>99463.097598036315</v>
       </c>
       <c r="AN34">
-        <v>99466.57259803632</v>
+        <v>99466.572598036306</v>
       </c>
       <c r="AO34">
-        <v>99470.727598036319</v>
+        <v>99470.727598036305</v>
       </c>
       <c r="AP34">
         <v>99485.656348036311</v>
       </c>
       <c r="AQ34">
-        <v>99504.176348036301</v>
+        <v>99504.176348036315</v>
       </c>
       <c r="AR34">
         <v>99508.806348036305</v>
@@ -5242,3152 +5292,6 @@
       </c>
       <c r="AV34">
         <v>99508.806348036305</v>
-      </c>
-    </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="B35">
-        <v>99481.656348036311</v>
-      </c>
-      <c r="C35">
-        <v>99481.656348036311</v>
-      </c>
-      <c r="D35">
-        <v>99481.656348036311</v>
-      </c>
-      <c r="E35">
-        <v>99481.656348036311</v>
-      </c>
-      <c r="F35">
-        <v>99481.656348036311</v>
-      </c>
-      <c r="G35">
-        <v>99481.656348036311</v>
-      </c>
-      <c r="H35">
-        <v>99483.745098036321</v>
-      </c>
-      <c r="I35">
-        <v>99492.100098036331</v>
-      </c>
-      <c r="J35">
-        <v>99510.08259803633</v>
-      </c>
-      <c r="K35">
-        <v>99503.387598036323</v>
-      </c>
-      <c r="L35">
-        <v>99482.881348036317</v>
-      </c>
-      <c r="M35">
-        <v>99478.691348036315</v>
-      </c>
-      <c r="N35">
-        <v>99474.501348036312</v>
-      </c>
-      <c r="O35">
-        <v>99470.31134803631</v>
-      </c>
-      <c r="P35">
-        <v>99467.703848036312</v>
-      </c>
-      <c r="Q35">
-        <v>99466.678848036318</v>
-      </c>
-      <c r="R35">
-        <v>99465.653848036323</v>
-      </c>
-      <c r="S35">
-        <v>99464.628848036315</v>
-      </c>
-      <c r="T35">
-        <v>99464.561348036324</v>
-      </c>
-      <c r="U35">
-        <v>99465.451348036324</v>
-      </c>
-      <c r="V35">
-        <v>99466.341348036323</v>
-      </c>
-      <c r="W35">
-        <v>99467.231348036323</v>
-      </c>
-      <c r="X35">
-        <v>99467.535098036315</v>
-      </c>
-      <c r="Y35">
-        <v>99467.252598036313</v>
-      </c>
-      <c r="Z35">
-        <v>99466.970098036312</v>
-      </c>
-      <c r="AA35">
-        <v>99466.687598036311</v>
-      </c>
-      <c r="AB35">
-        <v>99466.433848036308</v>
-      </c>
-      <c r="AC35">
-        <v>99466.208848036316</v>
-      </c>
-      <c r="AD35">
-        <v>99465.983848036325</v>
-      </c>
-      <c r="AE35">
-        <v>99465.758848036319</v>
-      </c>
-      <c r="AF35">
-        <v>99465.700098036308</v>
-      </c>
-      <c r="AG35">
-        <v>99465.807598036306</v>
-      </c>
-      <c r="AH35">
-        <v>99465.915098036305</v>
-      </c>
-      <c r="AI35">
-        <v>99466.022598036303</v>
-      </c>
-      <c r="AJ35">
-        <v>99466.31134803631</v>
-      </c>
-      <c r="AK35">
-        <v>99466.781348036311</v>
-      </c>
-      <c r="AL35">
-        <v>99467.251348036312</v>
-      </c>
-      <c r="AM35">
-        <v>99467.721348036313</v>
-      </c>
-      <c r="AN35">
-        <v>99470.832598036315</v>
-      </c>
-      <c r="AO35">
-        <v>99474.667598036322</v>
-      </c>
-      <c r="AP35">
-        <v>99488.027598036322</v>
-      </c>
-      <c r="AQ35">
-        <v>99504.562598036311</v>
-      </c>
-      <c r="AR35">
-        <v>99508.696348036305</v>
-      </c>
-      <c r="AS35">
-        <v>99508.696348036305</v>
-      </c>
-      <c r="AT35">
-        <v>99508.696348036305</v>
-      </c>
-      <c r="AU35">
-        <v>99508.696348036305</v>
-      </c>
-      <c r="AV35">
-        <v>99508.696348036305</v>
-      </c>
-    </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="B36">
-        <v>99481.93634803631</v>
-      </c>
-      <c r="C36">
-        <v>99481.93634803631</v>
-      </c>
-      <c r="D36">
-        <v>99481.93634803631</v>
-      </c>
-      <c r="E36">
-        <v>99481.93634803631</v>
-      </c>
-      <c r="F36">
-        <v>99481.93634803631</v>
-      </c>
-      <c r="G36">
-        <v>99481.93634803631</v>
-      </c>
-      <c r="H36">
-        <v>99484.203848036312</v>
-      </c>
-      <c r="I36">
-        <v>99493.273848036319</v>
-      </c>
-      <c r="J36">
-        <v>99511.355098036322</v>
-      </c>
-      <c r="K36">
-        <v>99504.910098036315</v>
-      </c>
-      <c r="L36">
-        <v>99485.4100980363</v>
-      </c>
-      <c r="M36">
-        <v>99481.857598036295</v>
-      </c>
-      <c r="N36">
-        <v>99478.30509803629</v>
-      </c>
-      <c r="O36">
-        <v>99474.752598036284</v>
-      </c>
-      <c r="P36">
-        <v>99472.450098036294</v>
-      </c>
-      <c r="Q36">
-        <v>99471.397598036303</v>
-      </c>
-      <c r="R36">
-        <v>99470.345098036312</v>
-      </c>
-      <c r="S36">
-        <v>99469.292598036307</v>
-      </c>
-      <c r="T36">
-        <v>99469.043848036323</v>
-      </c>
-      <c r="U36">
-        <v>99469.598848036316</v>
-      </c>
-      <c r="V36">
-        <v>99470.153848036309</v>
-      </c>
-      <c r="W36">
-        <v>99470.708848036316</v>
-      </c>
-      <c r="X36">
-        <v>99470.791348036306</v>
-      </c>
-      <c r="Y36">
-        <v>99470.401348036306</v>
-      </c>
-      <c r="Z36">
-        <v>99470.011348036307</v>
-      </c>
-      <c r="AA36">
-        <v>99469.621348036308</v>
-      </c>
-      <c r="AB36">
-        <v>99469.336348036304</v>
-      </c>
-      <c r="AC36">
-        <v>99469.156348036311</v>
-      </c>
-      <c r="AD36">
-        <v>99468.976348036318</v>
-      </c>
-      <c r="AE36">
-        <v>99468.796348036311</v>
-      </c>
-      <c r="AF36">
-        <v>99468.788848036318</v>
-      </c>
-      <c r="AG36">
-        <v>99468.953848036312</v>
-      </c>
-      <c r="AH36">
-        <v>99469.118848036305</v>
-      </c>
-      <c r="AI36">
-        <v>99469.283848036313</v>
-      </c>
-      <c r="AJ36">
-        <v>99469.545098036309</v>
-      </c>
-      <c r="AK36">
-        <v>99469.902598036308</v>
-      </c>
-      <c r="AL36">
-        <v>99470.260098036306</v>
-      </c>
-      <c r="AM36">
-        <v>99470.617598036304</v>
-      </c>
-      <c r="AN36">
-        <v>99473.15509803631</v>
-      </c>
-      <c r="AO36">
-        <v>99476.300098036299</v>
-      </c>
-      <c r="AP36">
-        <v>99489.540098036319</v>
-      </c>
-      <c r="AQ36">
-        <v>99506.14509803633</v>
-      </c>
-      <c r="AR36">
-        <v>99510.296348036311</v>
-      </c>
-      <c r="AS36">
-        <v>99510.296348036311</v>
-      </c>
-      <c r="AT36">
-        <v>99510.296348036311</v>
-      </c>
-      <c r="AU36">
-        <v>99510.296348036311</v>
-      </c>
-      <c r="AV36">
-        <v>99510.296348036311</v>
-      </c>
-    </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="B37">
-        <v>99488.926348036315</v>
-      </c>
-      <c r="C37">
-        <v>99488.926348036315</v>
-      </c>
-      <c r="D37">
-        <v>99488.926348036315</v>
-      </c>
-      <c r="E37">
-        <v>99488.926348036315</v>
-      </c>
-      <c r="F37">
-        <v>99488.926348036315</v>
-      </c>
-      <c r="G37">
-        <v>99488.926348036315</v>
-      </c>
-      <c r="H37">
-        <v>99490.848848036301</v>
-      </c>
-      <c r="I37">
-        <v>99498.538848036304</v>
-      </c>
-      <c r="J37">
-        <v>99514.456348036299</v>
-      </c>
-      <c r="K37">
-        <v>99508.656348036311</v>
-      </c>
-      <c r="L37">
-        <v>99490.970098036327</v>
-      </c>
-      <c r="M37">
-        <v>99487.497598036323</v>
-      </c>
-      <c r="N37">
-        <v>99484.02509803632</v>
-      </c>
-      <c r="O37">
-        <v>99480.552598036331</v>
-      </c>
-      <c r="P37">
-        <v>99478.486348036313</v>
-      </c>
-      <c r="Q37">
-        <v>99477.826348036309</v>
-      </c>
-      <c r="R37">
-        <v>99477.166348036306</v>
-      </c>
-      <c r="S37">
-        <v>99476.506348036317</v>
-      </c>
-      <c r="T37">
-        <v>99476.460098036303</v>
-      </c>
-      <c r="U37">
-        <v>99477.027598036308</v>
-      </c>
-      <c r="V37">
-        <v>99477.595098036312</v>
-      </c>
-      <c r="W37">
-        <v>99478.162598036302</v>
-      </c>
-      <c r="X37">
-        <v>99478.442598036316</v>
-      </c>
-      <c r="Y37">
-        <v>99478.435098036309</v>
-      </c>
-      <c r="Z37">
-        <v>99478.427598036302</v>
-      </c>
-      <c r="AA37">
-        <v>99478.420098036309</v>
-      </c>
-      <c r="AB37">
-        <v>99478.270098036301</v>
-      </c>
-      <c r="AC37">
-        <v>99477.977598036305</v>
-      </c>
-      <c r="AD37">
-        <v>99477.685098036309</v>
-      </c>
-      <c r="AE37">
-        <v>99477.392598036298</v>
-      </c>
-      <c r="AF37">
-        <v>99477.338848036306</v>
-      </c>
-      <c r="AG37">
-        <v>99477.523848036304</v>
-      </c>
-      <c r="AH37">
-        <v>99477.708848036302</v>
-      </c>
-      <c r="AI37">
-        <v>99477.893848036299</v>
-      </c>
-      <c r="AJ37">
-        <v>99478.326348036324</v>
-      </c>
-      <c r="AK37">
-        <v>99479.006348036317</v>
-      </c>
-      <c r="AL37">
-        <v>99479.68634803631</v>
-      </c>
-      <c r="AM37">
-        <v>99480.366348036318</v>
-      </c>
-      <c r="AN37">
-        <v>99482.611348036313</v>
-      </c>
-      <c r="AO37">
-        <v>99485.151348036306</v>
-      </c>
-      <c r="AP37">
-        <v>99495.772598036318</v>
-      </c>
-      <c r="AQ37">
-        <v>99509.087598036305</v>
-      </c>
-      <c r="AR37">
-        <v>99512.416348036306</v>
-      </c>
-      <c r="AS37">
-        <v>99512.416348036306</v>
-      </c>
-      <c r="AT37">
-        <v>99512.416348036306</v>
-      </c>
-      <c r="AU37">
-        <v>99512.416348036306</v>
-      </c>
-      <c r="AV37">
-        <v>99512.416348036306</v>
-      </c>
-    </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="B38">
-        <v>99499.656348036311</v>
-      </c>
-      <c r="C38">
-        <v>99499.656348036311</v>
-      </c>
-      <c r="D38">
-        <v>99499.656348036311</v>
-      </c>
-      <c r="E38">
-        <v>99499.656348036311</v>
-      </c>
-      <c r="F38">
-        <v>99499.656348036311</v>
-      </c>
-      <c r="G38">
-        <v>99499.656348036311</v>
-      </c>
-      <c r="H38">
-        <v>99501.251348036312</v>
-      </c>
-      <c r="I38">
-        <v>99507.631348036317</v>
-      </c>
-      <c r="J38">
-        <v>99520.851348036318</v>
-      </c>
-      <c r="K38">
-        <v>99516.031348036311</v>
-      </c>
-      <c r="L38">
-        <v>99501.87384803631</v>
-      </c>
-      <c r="M38">
-        <v>99500.068848036302</v>
-      </c>
-      <c r="N38">
-        <v>99498.263848036295</v>
-      </c>
-      <c r="O38">
-        <v>99496.458848036302</v>
-      </c>
-      <c r="P38">
-        <v>99495.400098036305</v>
-      </c>
-      <c r="Q38">
-        <v>99495.087598036305</v>
-      </c>
-      <c r="R38">
-        <v>99494.775098036305</v>
-      </c>
-      <c r="S38">
-        <v>99494.462598036305</v>
-      </c>
-      <c r="T38">
-        <v>99494.932598036306</v>
-      </c>
-      <c r="U38">
-        <v>99496.185098036309</v>
-      </c>
-      <c r="V38">
-        <v>99497.437598036311</v>
-      </c>
-      <c r="W38">
-        <v>99498.690098036313</v>
-      </c>
-      <c r="X38">
-        <v>99499.116348036303</v>
-      </c>
-      <c r="Y38">
-        <v>99498.716348036309</v>
-      </c>
-      <c r="Z38">
-        <v>99498.316348036315</v>
-      </c>
-      <c r="AA38">
-        <v>99497.916348036306</v>
-      </c>
-      <c r="AB38">
-        <v>99497.97884803632</v>
-      </c>
-      <c r="AC38">
-        <v>99498.503848036315</v>
-      </c>
-      <c r="AD38">
-        <v>99499.028848036309</v>
-      </c>
-      <c r="AE38">
-        <v>99499.553848036318</v>
-      </c>
-      <c r="AF38">
-        <v>99499.975098036317</v>
-      </c>
-      <c r="AG38">
-        <v>99500.292598036307</v>
-      </c>
-      <c r="AH38">
-        <v>99500.610098036297</v>
-      </c>
-      <c r="AI38">
-        <v>99500.927598036302</v>
-      </c>
-      <c r="AJ38">
-        <v>99501.107598036295</v>
-      </c>
-      <c r="AK38">
-        <v>99501.150098036305</v>
-      </c>
-      <c r="AL38">
-        <v>99501.192598036316</v>
-      </c>
-      <c r="AM38">
-        <v>99501.235098036312</v>
-      </c>
-      <c r="AN38">
-        <v>99501.473848036316</v>
-      </c>
-      <c r="AO38">
-        <v>99501.763848036309</v>
-      </c>
-      <c r="AP38">
-        <v>99508.106348036308</v>
-      </c>
-      <c r="AQ38">
-        <v>99516.466348036309</v>
-      </c>
-      <c r="AR38">
-        <v>99518.556348036305</v>
-      </c>
-      <c r="AS38">
-        <v>99518.556348036305</v>
-      </c>
-      <c r="AT38">
-        <v>99518.556348036305</v>
-      </c>
-      <c r="AU38">
-        <v>99518.556348036305</v>
-      </c>
-      <c r="AV38">
-        <v>99518.556348036305</v>
-      </c>
-    </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="B39">
-        <v>99503.136348036307</v>
-      </c>
-      <c r="C39">
-        <v>99503.136348036307</v>
-      </c>
-      <c r="D39">
-        <v>99503.136348036307</v>
-      </c>
-      <c r="E39">
-        <v>99503.136348036307</v>
-      </c>
-      <c r="F39">
-        <v>99503.136348036307</v>
-      </c>
-      <c r="G39">
-        <v>99503.136348036307</v>
-      </c>
-      <c r="H39">
-        <v>99505.011348036307</v>
-      </c>
-      <c r="I39">
-        <v>99512.511348036307</v>
-      </c>
-      <c r="J39">
-        <v>99517.917598036307</v>
-      </c>
-      <c r="K39">
-        <v>99518.042598036307</v>
-      </c>
-      <c r="L39">
-        <v>99518.031348036311</v>
-      </c>
-      <c r="M39">
-        <v>99517.321348036305</v>
-      </c>
-      <c r="N39">
-        <v>99516.611348036298</v>
-      </c>
-      <c r="O39">
-        <v>99515.901348036306</v>
-      </c>
-      <c r="P39">
-        <v>99514.978848036306</v>
-      </c>
-      <c r="Q39">
-        <v>99513.843848036311</v>
-      </c>
-      <c r="R39">
-        <v>99512.708848036316</v>
-      </c>
-      <c r="S39">
-        <v>99511.573848036322</v>
-      </c>
-      <c r="T39">
-        <v>99510.325098036308</v>
-      </c>
-      <c r="U39">
-        <v>99508.962598036305</v>
-      </c>
-      <c r="V39">
-        <v>99507.600098036302</v>
-      </c>
-      <c r="W39">
-        <v>99506.237598036299</v>
-      </c>
-      <c r="X39">
-        <v>99505.621348036308</v>
-      </c>
-      <c r="Y39">
-        <v>99505.751348036312</v>
-      </c>
-      <c r="Z39">
-        <v>99505.881348036317</v>
-      </c>
-      <c r="AA39">
-        <v>99506.011348036322</v>
-      </c>
-      <c r="AB39">
-        <v>99505.956348036299</v>
-      </c>
-      <c r="AC39">
-        <v>99505.716348036309</v>
-      </c>
-      <c r="AD39">
-        <v>99505.476348036318</v>
-      </c>
-      <c r="AE39">
-        <v>99505.236348036313</v>
-      </c>
-      <c r="AF39">
-        <v>99505.196348036305</v>
-      </c>
-      <c r="AG39">
-        <v>99505.356348036308</v>
-      </c>
-      <c r="AH39">
-        <v>99505.516348036312</v>
-      </c>
-      <c r="AI39">
-        <v>99505.676348036301</v>
-      </c>
-      <c r="AJ39">
-        <v>99505.623848036324</v>
-      </c>
-      <c r="AK39">
-        <v>99505.358848036325</v>
-      </c>
-      <c r="AL39">
-        <v>99505.093848036326</v>
-      </c>
-      <c r="AM39">
-        <v>99504.828848036326</v>
-      </c>
-      <c r="AN39">
-        <v>99504.932598036306</v>
-      </c>
-      <c r="AO39">
-        <v>99505.247598036309</v>
-      </c>
-      <c r="AP39">
-        <v>99510.733848036311</v>
-      </c>
-      <c r="AQ39">
-        <v>99517.943848036317</v>
-      </c>
-      <c r="AR39">
-        <v>99519.746348036308</v>
-      </c>
-      <c r="AS39">
-        <v>99519.746348036308</v>
-      </c>
-      <c r="AT39">
-        <v>99519.746348036308</v>
-      </c>
-      <c r="AU39">
-        <v>99519.746348036308</v>
-      </c>
-      <c r="AV39">
-        <v>99519.746348036308</v>
-      </c>
-    </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="B40">
-        <v>99503.256348036317</v>
-      </c>
-      <c r="C40">
-        <v>99503.256348036317</v>
-      </c>
-      <c r="D40">
-        <v>99503.256348036317</v>
-      </c>
-      <c r="E40">
-        <v>99503.256348036317</v>
-      </c>
-      <c r="F40">
-        <v>99503.256348036317</v>
-      </c>
-      <c r="G40">
-        <v>99503.256348036317</v>
-      </c>
-      <c r="H40">
-        <v>99505.031348036326</v>
-      </c>
-      <c r="I40">
-        <v>99512.131348036331</v>
-      </c>
-      <c r="J40">
-        <v>99517.298848036313</v>
-      </c>
-      <c r="K40">
-        <v>99517.388848036309</v>
-      </c>
-      <c r="L40">
-        <v>99517.303848036303</v>
-      </c>
-      <c r="M40">
-        <v>99516.638848036309</v>
-      </c>
-      <c r="N40">
-        <v>99515.973848036316</v>
-      </c>
-      <c r="O40">
-        <v>99515.308848036308</v>
-      </c>
-      <c r="P40">
-        <v>99514.595098036298</v>
-      </c>
-      <c r="Q40">
-        <v>99513.832598036301</v>
-      </c>
-      <c r="R40">
-        <v>99513.070098036304</v>
-      </c>
-      <c r="S40">
-        <v>99512.307598036306</v>
-      </c>
-      <c r="T40">
-        <v>99511.417598036307</v>
-      </c>
-      <c r="U40">
-        <v>99510.400098036305</v>
-      </c>
-      <c r="V40">
-        <v>99509.382598036304</v>
-      </c>
-      <c r="W40">
-        <v>99508.365098036302</v>
-      </c>
-      <c r="X40">
-        <v>99507.902598036308</v>
-      </c>
-      <c r="Y40">
-        <v>99507.995098036306</v>
-      </c>
-      <c r="Z40">
-        <v>99508.087598036305</v>
-      </c>
-      <c r="AA40">
-        <v>99508.180098036304</v>
-      </c>
-      <c r="AB40">
-        <v>99508.271348036316</v>
-      </c>
-      <c r="AC40">
-        <v>99508.361348036313</v>
-      </c>
-      <c r="AD40">
-        <v>99508.451348036309</v>
-      </c>
-      <c r="AE40">
-        <v>99508.54134803632</v>
-      </c>
-      <c r="AF40">
-        <v>99508.493848036305</v>
-      </c>
-      <c r="AG40">
-        <v>99508.308848036308</v>
-      </c>
-      <c r="AH40">
-        <v>99508.12384803631</v>
-      </c>
-      <c r="AI40">
-        <v>99507.938848036312</v>
-      </c>
-      <c r="AJ40">
-        <v>99507.647598036303</v>
-      </c>
-      <c r="AK40">
-        <v>99507.250098036311</v>
-      </c>
-      <c r="AL40">
-        <v>99506.852598036319</v>
-      </c>
-      <c r="AM40">
-        <v>99506.455098036313</v>
-      </c>
-      <c r="AN40">
-        <v>99506.151348036306</v>
-      </c>
-      <c r="AO40">
-        <v>99506.011348036292</v>
-      </c>
-      <c r="AP40">
-        <v>99510.930098036304</v>
-      </c>
-      <c r="AQ40">
-        <v>99517.535098036315</v>
-      </c>
-      <c r="AR40">
-        <v>99519.18634803631</v>
-      </c>
-      <c r="AS40">
-        <v>99519.18634803631</v>
-      </c>
-      <c r="AT40">
-        <v>99519.18634803631</v>
-      </c>
-      <c r="AU40">
-        <v>99519.18634803631</v>
-      </c>
-      <c r="AV40">
-        <v>99519.18634803631</v>
-      </c>
-    </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="B41">
-        <v>99503.536348036316</v>
-      </c>
-      <c r="C41">
-        <v>99503.536348036316</v>
-      </c>
-      <c r="D41">
-        <v>99503.536348036316</v>
-      </c>
-      <c r="E41">
-        <v>99503.536348036316</v>
-      </c>
-      <c r="F41">
-        <v>99503.536348036316</v>
-      </c>
-      <c r="G41">
-        <v>99503.536348036316</v>
-      </c>
-      <c r="H41">
-        <v>99505.285098036315</v>
-      </c>
-      <c r="I41">
-        <v>99512.28009803631</v>
-      </c>
-      <c r="J41">
-        <v>99517.465098036293</v>
-      </c>
-      <c r="K41">
-        <v>99517.500098036297</v>
-      </c>
-      <c r="L41">
-        <v>99517.270098036315</v>
-      </c>
-      <c r="M41">
-        <v>99516.617598036319</v>
-      </c>
-      <c r="N41">
-        <v>99515.965098036322</v>
-      </c>
-      <c r="O41">
-        <v>99515.312598036311</v>
-      </c>
-      <c r="P41">
-        <v>99514.698848036307</v>
-      </c>
-      <c r="Q41">
-        <v>99514.12384803631</v>
-      </c>
-      <c r="R41">
-        <v>99513.548848036313</v>
-      </c>
-      <c r="S41">
-        <v>99512.973848036316</v>
-      </c>
-      <c r="T41">
-        <v>99512.213848036306</v>
-      </c>
-      <c r="U41">
-        <v>99511.268848036314</v>
-      </c>
-      <c r="V41">
-        <v>99510.323848036322</v>
-      </c>
-      <c r="W41">
-        <v>99509.378848036315</v>
-      </c>
-      <c r="X41">
-        <v>99508.985098036312</v>
-      </c>
-      <c r="Y41">
-        <v>99509.142598036313</v>
-      </c>
-      <c r="Z41">
-        <v>99509.300098036314</v>
-      </c>
-      <c r="AA41">
-        <v>99509.457598036315</v>
-      </c>
-      <c r="AB41">
-        <v>99509.533848036313</v>
-      </c>
-      <c r="AC41">
-        <v>99509.528848036309</v>
-      </c>
-      <c r="AD41">
-        <v>99509.523848036304</v>
-      </c>
-      <c r="AE41">
-        <v>99509.518848036299</v>
-      </c>
-      <c r="AF41">
-        <v>99509.392598036298</v>
-      </c>
-      <c r="AG41">
-        <v>99509.145098036301</v>
-      </c>
-      <c r="AH41">
-        <v>99508.897598036303</v>
-      </c>
-      <c r="AI41">
-        <v>99508.650098036305</v>
-      </c>
-      <c r="AJ41">
-        <v>99508.325098036308</v>
-      </c>
-      <c r="AK41">
-        <v>99507.922598036312</v>
-      </c>
-      <c r="AL41">
-        <v>99507.520098036315</v>
-      </c>
-      <c r="AM41">
-        <v>99507.117598036304</v>
-      </c>
-      <c r="AN41">
-        <v>99506.728848036306</v>
-      </c>
-      <c r="AO41">
-        <v>99506.478848036306</v>
-      </c>
-      <c r="AP41">
-        <v>99511.205098036298</v>
-      </c>
-      <c r="AQ41">
-        <v>99517.590098036308</v>
-      </c>
-      <c r="AR41">
-        <v>99519.18634803631</v>
-      </c>
-      <c r="AS41">
-        <v>99519.18634803631</v>
-      </c>
-      <c r="AT41">
-        <v>99519.18634803631</v>
-      </c>
-      <c r="AU41">
-        <v>99519.18634803631</v>
-      </c>
-      <c r="AV41">
-        <v>99519.18634803631</v>
-      </c>
-    </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="B42">
-        <v>99504.316348036315</v>
-      </c>
-      <c r="C42">
-        <v>99504.316348036315</v>
-      </c>
-      <c r="D42">
-        <v>99504.316348036315</v>
-      </c>
-      <c r="E42">
-        <v>99504.316348036315</v>
-      </c>
-      <c r="F42">
-        <v>99504.316348036315</v>
-      </c>
-      <c r="G42">
-        <v>99504.316348036315</v>
-      </c>
-      <c r="H42">
-        <v>99506.045098036324</v>
-      </c>
-      <c r="I42">
-        <v>99512.960098036332</v>
-      </c>
-      <c r="J42">
-        <v>99518.163848036333</v>
-      </c>
-      <c r="K42">
-        <v>99518.153848036323</v>
-      </c>
-      <c r="L42">
-        <v>99517.80634803632</v>
-      </c>
-      <c r="M42">
-        <v>99517.16634803632</v>
-      </c>
-      <c r="N42">
-        <v>99516.526348036321</v>
-      </c>
-      <c r="O42">
-        <v>99515.886348036322</v>
-      </c>
-      <c r="P42">
-        <v>99515.337598036305</v>
-      </c>
-      <c r="Q42">
-        <v>99514.880098036301</v>
-      </c>
-      <c r="R42">
-        <v>99514.422598036297</v>
-      </c>
-      <c r="S42">
-        <v>99513.965098036308</v>
-      </c>
-      <c r="T42">
-        <v>99513.312598036326</v>
-      </c>
-      <c r="U42">
-        <v>99512.465098036322</v>
-      </c>
-      <c r="V42">
-        <v>99511.617598036319</v>
-      </c>
-      <c r="W42">
-        <v>99510.77009803633</v>
-      </c>
-      <c r="X42">
-        <v>99510.527598036322</v>
-      </c>
-      <c r="Y42">
-        <v>99510.890098036325</v>
-      </c>
-      <c r="Z42">
-        <v>99511.252598036328</v>
-      </c>
-      <c r="AA42">
-        <v>99511.615098036331</v>
-      </c>
-      <c r="AB42">
-        <v>99511.603848036306</v>
-      </c>
-      <c r="AC42">
-        <v>99511.218848036311</v>
-      </c>
-      <c r="AD42">
-        <v>99510.833848036316</v>
-      </c>
-      <c r="AE42">
-        <v>99510.448848036322</v>
-      </c>
-      <c r="AF42">
-        <v>99510.157598036312</v>
-      </c>
-      <c r="AG42">
-        <v>99509.960098036318</v>
-      </c>
-      <c r="AH42">
-        <v>99509.762598036323</v>
-      </c>
-      <c r="AI42">
-        <v>99509.565098036313</v>
-      </c>
-      <c r="AJ42">
-        <v>99509.252598036313</v>
-      </c>
-      <c r="AK42">
-        <v>99508.825098036308</v>
-      </c>
-      <c r="AL42">
-        <v>99508.397598036303</v>
-      </c>
-      <c r="AM42">
-        <v>99507.970098036312</v>
-      </c>
-      <c r="AN42">
-        <v>99507.546348036325</v>
-      </c>
-      <c r="AO42">
-        <v>99507.266348036326</v>
-      </c>
-      <c r="AP42">
-        <v>99511.932598036306</v>
-      </c>
-      <c r="AQ42">
-        <v>99518.247598036309</v>
-      </c>
-      <c r="AR42">
-        <v>99519.826348036309</v>
-      </c>
-      <c r="AS42">
-        <v>99519.826348036309</v>
-      </c>
-      <c r="AT42">
-        <v>99519.826348036309</v>
-      </c>
-      <c r="AU42">
-        <v>99519.826348036309</v>
-      </c>
-      <c r="AV42">
-        <v>99519.826348036309</v>
-      </c>
-    </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="B43">
-        <v>99503.986348036313</v>
-      </c>
-      <c r="C43">
-        <v>99503.986348036313</v>
-      </c>
-      <c r="D43">
-        <v>99503.986348036313</v>
-      </c>
-      <c r="E43">
-        <v>99503.986348036313</v>
-      </c>
-      <c r="F43">
-        <v>99503.986348036313</v>
-      </c>
-      <c r="G43">
-        <v>99503.986348036313</v>
-      </c>
-      <c r="H43">
-        <v>99505.721348036313</v>
-      </c>
-      <c r="I43">
-        <v>99512.661348036316</v>
-      </c>
-      <c r="J43">
-        <v>99517.910098036315</v>
-      </c>
-      <c r="K43">
-        <v>99517.88509803632</v>
-      </c>
-      <c r="L43">
-        <v>99517.487598036314</v>
-      </c>
-      <c r="M43">
-        <v>99516.830098036313</v>
-      </c>
-      <c r="N43">
-        <v>99516.172598036312</v>
-      </c>
-      <c r="O43">
-        <v>99515.515098036311</v>
-      </c>
-      <c r="P43">
-        <v>99514.991348036318</v>
-      </c>
-      <c r="Q43">
-        <v>99514.601348036318</v>
-      </c>
-      <c r="R43">
-        <v>99514.211348036319</v>
-      </c>
-      <c r="S43">
-        <v>99513.821348036319</v>
-      </c>
-      <c r="T43">
-        <v>99513.301348036301</v>
-      </c>
-      <c r="U43">
-        <v>99512.651348036306</v>
-      </c>
-      <c r="V43">
-        <v>99512.001348036312</v>
-      </c>
-      <c r="W43">
-        <v>99511.351348036304</v>
-      </c>
-      <c r="X43">
-        <v>99511.291348036306</v>
-      </c>
-      <c r="Y43">
-        <v>99511.821348036305</v>
-      </c>
-      <c r="Z43">
-        <v>99512.351348036304</v>
-      </c>
-      <c r="AA43">
-        <v>99512.881348036317</v>
-      </c>
-      <c r="AB43">
-        <v>99512.808848036322</v>
-      </c>
-      <c r="AC43">
-        <v>99512.133848036319</v>
-      </c>
-      <c r="AD43">
-        <v>99511.458848036316</v>
-      </c>
-      <c r="AE43">
-        <v>99510.783848036313</v>
-      </c>
-      <c r="AF43">
-        <v>99510.28009803631</v>
-      </c>
-      <c r="AG43">
-        <v>99509.947598036306</v>
-      </c>
-      <c r="AH43">
-        <v>99509.615098036302</v>
-      </c>
-      <c r="AI43">
-        <v>99509.282598036312</v>
-      </c>
-      <c r="AJ43">
-        <v>99508.903848036323</v>
-      </c>
-      <c r="AK43">
-        <v>99508.47884803632</v>
-      </c>
-      <c r="AL43">
-        <v>99508.053848036318</v>
-      </c>
-      <c r="AM43">
-        <v>99507.628848036315</v>
-      </c>
-      <c r="AN43">
-        <v>99507.202598036311</v>
-      </c>
-      <c r="AO43">
-        <v>99506.917598036322</v>
-      </c>
-      <c r="AP43">
-        <v>99511.5975980363</v>
-      </c>
-      <c r="AQ43">
-        <v>99517.932598036306</v>
-      </c>
-      <c r="AR43">
-        <v>99519.516348036312</v>
-      </c>
-      <c r="AS43">
-        <v>99519.516348036312</v>
-      </c>
-      <c r="AT43">
-        <v>99519.516348036312</v>
-      </c>
-      <c r="AU43">
-        <v>99519.516348036312</v>
-      </c>
-      <c r="AV43">
-        <v>99519.516348036312</v>
-      </c>
-    </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="B44">
-        <v>99504.346348036313</v>
-      </c>
-      <c r="C44">
-        <v>99504.346348036313</v>
-      </c>
-      <c r="D44">
-        <v>99504.346348036313</v>
-      </c>
-      <c r="E44">
-        <v>99504.346348036313</v>
-      </c>
-      <c r="F44">
-        <v>99504.346348036313</v>
-      </c>
-      <c r="G44">
-        <v>99504.346348036313</v>
-      </c>
-      <c r="H44">
-        <v>99506.062598036311</v>
-      </c>
-      <c r="I44">
-        <v>99512.927598036302</v>
-      </c>
-      <c r="J44">
-        <v>99518.163848036318</v>
-      </c>
-      <c r="K44">
-        <v>99518.113848036301</v>
-      </c>
-      <c r="L44">
-        <v>99517.643848036299</v>
-      </c>
-      <c r="M44">
-        <v>99516.978848036306</v>
-      </c>
-      <c r="N44">
-        <v>99516.313848036312</v>
-      </c>
-      <c r="O44">
-        <v>99515.648848036304</v>
-      </c>
-      <c r="P44">
-        <v>99515.127598036313</v>
-      </c>
-      <c r="Q44">
-        <v>99514.750098036311</v>
-      </c>
-      <c r="R44">
-        <v>99514.372598036309</v>
-      </c>
-      <c r="S44">
-        <v>99513.995098036306</v>
-      </c>
-      <c r="T44">
-        <v>99513.578848036297</v>
-      </c>
-      <c r="U44">
-        <v>99513.123848036295</v>
-      </c>
-      <c r="V44">
-        <v>99512.668848036294</v>
-      </c>
-      <c r="W44">
-        <v>99512.213848036306</v>
-      </c>
-      <c r="X44">
-        <v>99512.282598036312</v>
-      </c>
-      <c r="Y44">
-        <v>99512.875098036311</v>
-      </c>
-      <c r="Z44">
-        <v>99513.46759803631</v>
-      </c>
-      <c r="AA44">
-        <v>99514.060098036309</v>
-      </c>
-      <c r="AB44">
-        <v>99513.932598036321</v>
-      </c>
-      <c r="AC44">
-        <v>99513.085098036318</v>
-      </c>
-      <c r="AD44">
-        <v>99512.237598036314</v>
-      </c>
-      <c r="AE44">
-        <v>99511.390098036325</v>
-      </c>
-      <c r="AF44">
-        <v>99510.757598036318</v>
-      </c>
-      <c r="AG44">
-        <v>99510.340098036322</v>
-      </c>
-      <c r="AH44">
-        <v>99509.922598036326</v>
-      </c>
-      <c r="AI44">
-        <v>99509.505098036316</v>
-      </c>
-      <c r="AJ44">
-        <v>99509.082598036315</v>
-      </c>
-      <c r="AK44">
-        <v>99508.65509803631</v>
-      </c>
-      <c r="AL44">
-        <v>99508.227598036305</v>
-      </c>
-      <c r="AM44">
-        <v>99507.800098036299</v>
-      </c>
-      <c r="AN44">
-        <v>99507.395098036301</v>
-      </c>
-      <c r="AO44">
-        <v>99507.140098036296</v>
-      </c>
-      <c r="AP44">
-        <v>99511.831348036314</v>
-      </c>
-      <c r="AQ44">
-        <v>99518.171348036325</v>
-      </c>
-      <c r="AR44">
-        <v>99519.756348036317</v>
-      </c>
-      <c r="AS44">
-        <v>99519.756348036317</v>
-      </c>
-      <c r="AT44">
-        <v>99519.756348036317</v>
-      </c>
-      <c r="AU44">
-        <v>99519.756348036317</v>
-      </c>
-      <c r="AV44">
-        <v>99519.756348036317</v>
-      </c>
-    </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="B45">
-        <v>99503.506348036317</v>
-      </c>
-      <c r="C45">
-        <v>99503.506348036317</v>
-      </c>
-      <c r="D45">
-        <v>99503.506348036317</v>
-      </c>
-      <c r="E45">
-        <v>99503.506348036317</v>
-      </c>
-      <c r="F45">
-        <v>99503.506348036317</v>
-      </c>
-      <c r="G45">
-        <v>99503.506348036317</v>
-      </c>
-      <c r="H45">
-        <v>99505.190098036313</v>
-      </c>
-      <c r="I45">
-        <v>99511.925098036299</v>
-      </c>
-      <c r="J45">
-        <v>99517.081348036299</v>
-      </c>
-      <c r="K45">
-        <v>99517.021348036302</v>
-      </c>
-      <c r="L45">
-        <v>99516.525098036305</v>
-      </c>
-      <c r="M45">
-        <v>99515.862598036314</v>
-      </c>
-      <c r="N45">
-        <v>99515.200098036323</v>
-      </c>
-      <c r="O45">
-        <v>99514.537598036317</v>
-      </c>
-      <c r="P45">
-        <v>99514.026348036321</v>
-      </c>
-      <c r="Q45">
-        <v>99513.66634803632</v>
-      </c>
-      <c r="R45">
-        <v>99513.30634803632</v>
-      </c>
-      <c r="S45">
-        <v>99512.946348036319</v>
-      </c>
-      <c r="T45">
-        <v>99512.618848036305</v>
-      </c>
-      <c r="U45">
-        <v>99512.323848036307</v>
-      </c>
-      <c r="V45">
-        <v>99512.028848036309</v>
-      </c>
-      <c r="W45">
-        <v>99511.733848036296</v>
-      </c>
-      <c r="X45">
-        <v>99511.910098036315</v>
-      </c>
-      <c r="Y45">
-        <v>99512.557598036321</v>
-      </c>
-      <c r="Z45">
-        <v>99513.205098036327</v>
-      </c>
-      <c r="AA45">
-        <v>99513.852598036319</v>
-      </c>
-      <c r="AB45">
-        <v>99513.678848036303</v>
-      </c>
-      <c r="AC45">
-        <v>99512.683848036308</v>
-      </c>
-      <c r="AD45">
-        <v>99511.688848036312</v>
-      </c>
-      <c r="AE45">
-        <v>99510.693848036302</v>
-      </c>
-      <c r="AF45">
-        <v>99509.955098036313</v>
-      </c>
-      <c r="AG45">
-        <v>99509.472598036315</v>
-      </c>
-      <c r="AH45">
-        <v>99508.990098036316</v>
-      </c>
-      <c r="AI45">
-        <v>99508.507598036318</v>
-      </c>
-      <c r="AJ45">
-        <v>99508.066348036315</v>
-      </c>
-      <c r="AK45">
-        <v>99507.666348036306</v>
-      </c>
-      <c r="AL45">
-        <v>99507.266348036297</v>
-      </c>
-      <c r="AM45">
-        <v>99506.866348036303</v>
-      </c>
-      <c r="AN45">
-        <v>99506.486348036298</v>
-      </c>
-      <c r="AO45">
-        <v>99506.246348036308</v>
-      </c>
-      <c r="AP45">
-        <v>99510.862598036314</v>
-      </c>
-      <c r="AQ45">
-        <v>99517.097598036315</v>
-      </c>
-      <c r="AR45">
-        <v>99518.656348036311</v>
-      </c>
-      <c r="AS45">
-        <v>99518.656348036311</v>
-      </c>
-      <c r="AT45">
-        <v>99518.656348036311</v>
-      </c>
-      <c r="AU45">
-        <v>99518.656348036311</v>
-      </c>
-      <c r="AV45">
-        <v>99518.656348036311</v>
-      </c>
-    </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="B46">
-        <v>99504.156348036311</v>
-      </c>
-      <c r="C46">
-        <v>99504.156348036311</v>
-      </c>
-      <c r="D46">
-        <v>99504.156348036311</v>
-      </c>
-      <c r="E46">
-        <v>99504.156348036311</v>
-      </c>
-      <c r="F46">
-        <v>99504.156348036311</v>
-      </c>
-      <c r="G46">
-        <v>99504.156348036311</v>
-      </c>
-      <c r="H46">
-        <v>99505.827598036311</v>
-      </c>
-      <c r="I46">
-        <v>99512.512598036308</v>
-      </c>
-      <c r="J46">
-        <v>99517.587598036291</v>
-      </c>
-      <c r="K46">
-        <v>99517.552598036287</v>
-      </c>
-      <c r="L46">
-        <v>99517.126348036327</v>
-      </c>
-      <c r="M46">
-        <v>99516.466348036323</v>
-      </c>
-      <c r="N46">
-        <v>99515.80634803632</v>
-      </c>
-      <c r="O46">
-        <v>99515.146348036331</v>
-      </c>
-      <c r="P46">
-        <v>99514.637598036323</v>
-      </c>
-      <c r="Q46">
-        <v>99514.280098036324</v>
-      </c>
-      <c r="R46">
-        <v>99513.922598036326</v>
-      </c>
-      <c r="S46">
-        <v>99513.565098036313</v>
-      </c>
-      <c r="T46">
-        <v>99513.320098036318</v>
-      </c>
-      <c r="U46">
-        <v>99513.187598036311</v>
-      </c>
-      <c r="V46">
-        <v>99513.055098036304</v>
-      </c>
-      <c r="W46">
-        <v>99512.922598036312</v>
-      </c>
-      <c r="X46">
-        <v>99513.225098036302</v>
-      </c>
-      <c r="Y46">
-        <v>99513.962598036305</v>
-      </c>
-      <c r="Z46">
-        <v>99514.700098036308</v>
-      </c>
-      <c r="AA46">
-        <v>99515.437598036311</v>
-      </c>
-      <c r="AB46">
-        <v>99515.215098036308</v>
-      </c>
-      <c r="AC46">
-        <v>99514.032598036312</v>
-      </c>
-      <c r="AD46">
-        <v>99512.850098036317</v>
-      </c>
-      <c r="AE46">
-        <v>99511.667598036322</v>
-      </c>
-      <c r="AF46">
-        <v>99510.800098036299</v>
-      </c>
-      <c r="AG46">
-        <v>99510.247598036309</v>
-      </c>
-      <c r="AH46">
-        <v>99509.695098036318</v>
-      </c>
-      <c r="AI46">
-        <v>99509.142598036313</v>
-      </c>
-      <c r="AJ46">
-        <v>99508.677598036316</v>
-      </c>
-      <c r="AK46">
-        <v>99508.300098036314</v>
-      </c>
-      <c r="AL46">
-        <v>99507.922598036312</v>
-      </c>
-      <c r="AM46">
-        <v>99507.545098036309</v>
-      </c>
-      <c r="AN46">
-        <v>99507.176348036301</v>
-      </c>
-      <c r="AO46">
-        <v>99506.93634803631</v>
-      </c>
-      <c r="AP46">
-        <v>99511.481348036308</v>
-      </c>
-      <c r="AQ46">
-        <v>99517.621348036308</v>
-      </c>
-      <c r="AR46">
-        <v>99519.156348036311</v>
-      </c>
-      <c r="AS46">
-        <v>99519.156348036311</v>
-      </c>
-      <c r="AT46">
-        <v>99519.156348036311</v>
-      </c>
-      <c r="AU46">
-        <v>99519.156348036311</v>
-      </c>
-      <c r="AV46">
-        <v>99519.156348036311</v>
-      </c>
-    </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="B47">
-        <v>99503.846348036313</v>
-      </c>
-      <c r="C47">
-        <v>99503.846348036313</v>
-      </c>
-      <c r="D47">
-        <v>99503.846348036313</v>
-      </c>
-      <c r="E47">
-        <v>99503.846348036313</v>
-      </c>
-      <c r="F47">
-        <v>99503.846348036313</v>
-      </c>
-      <c r="G47">
-        <v>99503.846348036313</v>
-      </c>
-      <c r="H47">
-        <v>99505.488848036315</v>
-      </c>
-      <c r="I47">
-        <v>99512.058848036322</v>
-      </c>
-      <c r="J47">
-        <v>99517.065098036313</v>
-      </c>
-      <c r="K47">
-        <v>99517.020098036301</v>
-      </c>
-      <c r="L47">
-        <v>99516.575098036308</v>
-      </c>
-      <c r="M47">
-        <v>99515.932598036306</v>
-      </c>
-      <c r="N47">
-        <v>99515.290098036305</v>
-      </c>
-      <c r="O47">
-        <v>99514.647598036303</v>
-      </c>
-      <c r="P47">
-        <v>99514.157598036312</v>
-      </c>
-      <c r="Q47">
-        <v>99513.820098036304</v>
-      </c>
-      <c r="R47">
-        <v>99513.482598036295</v>
-      </c>
-      <c r="S47">
-        <v>99513.145098036301</v>
-      </c>
-      <c r="T47">
-        <v>99513.031348036297</v>
-      </c>
-      <c r="U47">
-        <v>99513.141348036297</v>
-      </c>
-      <c r="V47">
-        <v>99513.251348036298</v>
-      </c>
-      <c r="W47">
-        <v>99513.361348036298</v>
-      </c>
-      <c r="X47">
-        <v>99513.782598036312</v>
-      </c>
-      <c r="Y47">
-        <v>99514.515098036311</v>
-      </c>
-      <c r="Z47">
-        <v>99515.247598036309</v>
-      </c>
-      <c r="AA47">
-        <v>99515.980098036322</v>
-      </c>
-      <c r="AB47">
-        <v>99515.720098036312</v>
-      </c>
-      <c r="AC47">
-        <v>99514.46759803631</v>
-      </c>
-      <c r="AD47">
-        <v>99513.215098036308</v>
-      </c>
-      <c r="AE47">
-        <v>99511.962598036305</v>
-      </c>
-      <c r="AF47">
-        <v>99510.966348036309</v>
-      </c>
-      <c r="AG47">
-        <v>99510.226348036304</v>
-      </c>
-      <c r="AH47">
-        <v>99509.486348036298</v>
-      </c>
-      <c r="AI47">
-        <v>99508.746348036308</v>
-      </c>
-      <c r="AJ47">
-        <v>99508.205098036313</v>
-      </c>
-      <c r="AK47">
-        <v>99507.862598036314</v>
-      </c>
-      <c r="AL47">
-        <v>99507.520098036315</v>
-      </c>
-      <c r="AM47">
-        <v>99507.177598036316</v>
-      </c>
-      <c r="AN47">
-        <v>99506.852598036319</v>
-      </c>
-      <c r="AO47">
-        <v>99506.647598036318</v>
-      </c>
-      <c r="AP47">
-        <v>99511.118848036305</v>
-      </c>
-      <c r="AQ47">
-        <v>99517.148848036304</v>
-      </c>
-      <c r="AR47">
-        <v>99518.656348036311</v>
-      </c>
-      <c r="AS47">
-        <v>99518.656348036311</v>
-      </c>
-      <c r="AT47">
-        <v>99518.656348036311</v>
-      </c>
-      <c r="AU47">
-        <v>99518.656348036311</v>
-      </c>
-      <c r="AV47">
-        <v>99518.656348036311</v>
-      </c>
-    </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="B48">
-        <v>99503.876348036312</v>
-      </c>
-      <c r="C48">
-        <v>99503.876348036312</v>
-      </c>
-      <c r="D48">
-        <v>99503.876348036312</v>
-      </c>
-      <c r="E48">
-        <v>99503.876348036312</v>
-      </c>
-      <c r="F48">
-        <v>99503.876348036312</v>
-      </c>
-      <c r="G48">
-        <v>99503.876348036312</v>
-      </c>
-      <c r="H48">
-        <v>99505.496348036308</v>
-      </c>
-      <c r="I48">
-        <v>99511.976348036304</v>
-      </c>
-      <c r="J48">
-        <v>99516.888848036309</v>
-      </c>
-      <c r="K48">
-        <v>99516.858848036311</v>
-      </c>
-      <c r="L48">
-        <v>99516.455098036298</v>
-      </c>
-      <c r="M48">
-        <v>99515.812598036297</v>
-      </c>
-      <c r="N48">
-        <v>99515.170098036295</v>
-      </c>
-      <c r="O48">
-        <v>99514.527598036308</v>
-      </c>
-      <c r="P48">
-        <v>99514.041348036306</v>
-      </c>
-      <c r="Q48">
-        <v>99513.711348036304</v>
-      </c>
-      <c r="R48">
-        <v>99513.381348036302</v>
-      </c>
-      <c r="S48">
-        <v>99513.051348036301</v>
-      </c>
-      <c r="T48">
-        <v>99512.991348036303</v>
-      </c>
-      <c r="U48">
-        <v>99513.201348036309</v>
-      </c>
-      <c r="V48">
-        <v>99513.411348036316</v>
-      </c>
-      <c r="W48">
-        <v>99513.621348036308</v>
-      </c>
-      <c r="X48">
-        <v>99514.118848036305</v>
-      </c>
-      <c r="Y48">
-        <v>99514.903848036309</v>
-      </c>
-      <c r="Z48">
-        <v>99515.688848036312</v>
-      </c>
-      <c r="AA48">
-        <v>99516.473848036316</v>
-      </c>
-      <c r="AB48">
-        <v>99516.19759803632</v>
-      </c>
-      <c r="AC48">
-        <v>99514.860098036312</v>
-      </c>
-      <c r="AD48">
-        <v>99513.522598036303</v>
-      </c>
-      <c r="AE48">
-        <v>99512.185098036309</v>
-      </c>
-      <c r="AF48">
-        <v>99511.115098036316</v>
-      </c>
-      <c r="AG48">
-        <v>99510.312598036311</v>
-      </c>
-      <c r="AH48">
-        <v>99509.510098036306</v>
-      </c>
-      <c r="AI48">
-        <v>99508.707598036301</v>
-      </c>
-      <c r="AJ48">
-        <v>99508.137598036308</v>
-      </c>
-      <c r="AK48">
-        <v>99507.800098036314</v>
-      </c>
-      <c r="AL48">
-        <v>99507.46259803632</v>
-      </c>
-      <c r="AM48">
-        <v>99507.125098036311</v>
-      </c>
-      <c r="AN48">
-        <v>99506.828848036312</v>
-      </c>
-      <c r="AO48">
-        <v>99506.658848036313</v>
-      </c>
-      <c r="AP48">
-        <v>99511.063848036312</v>
-      </c>
-      <c r="AQ48">
-        <v>99516.993848036305</v>
-      </c>
-      <c r="AR48">
-        <v>99518.476348036304</v>
-      </c>
-      <c r="AS48">
-        <v>99518.476348036304</v>
-      </c>
-      <c r="AT48">
-        <v>99518.476348036304</v>
-      </c>
-      <c r="AU48">
-        <v>99518.476348036304</v>
-      </c>
-      <c r="AV48">
-        <v>99518.476348036304</v>
-      </c>
-    </row>
-    <row r="49" spans="2:48" x14ac:dyDescent="0.45">
-      <c r="B49">
-        <v>99504.806348036305</v>
-      </c>
-      <c r="C49">
-        <v>99504.806348036305</v>
-      </c>
-      <c r="D49">
-        <v>99504.806348036305</v>
-      </c>
-      <c r="E49">
-        <v>99504.806348036305</v>
-      </c>
-      <c r="F49">
-        <v>99504.806348036305</v>
-      </c>
-      <c r="G49">
-        <v>99504.806348036305</v>
-      </c>
-      <c r="H49">
-        <v>99506.317598036316</v>
-      </c>
-      <c r="I49">
-        <v>99512.362598036329</v>
-      </c>
-      <c r="J49">
-        <v>99516.922598036326</v>
-      </c>
-      <c r="K49">
-        <v>99516.907598036312</v>
-      </c>
-      <c r="L49">
-        <v>99516.55134803633</v>
-      </c>
-      <c r="M49">
-        <v>99515.921348036325</v>
-      </c>
-      <c r="N49">
-        <v>99515.29134803632</v>
-      </c>
-      <c r="O49">
-        <v>99514.661348036316</v>
-      </c>
-      <c r="P49">
-        <v>99514.188848036312</v>
-      </c>
-      <c r="Q49">
-        <v>99513.87384803631</v>
-      </c>
-      <c r="R49">
-        <v>99513.558848036308</v>
-      </c>
-      <c r="S49">
-        <v>99513.243848036305</v>
-      </c>
-      <c r="T49">
-        <v>99513.248848036295</v>
-      </c>
-      <c r="U49">
-        <v>99513.573848036292</v>
-      </c>
-      <c r="V49">
-        <v>99513.89884803629</v>
-      </c>
-      <c r="W49">
-        <v>99514.223848036287</v>
-      </c>
-      <c r="X49">
-        <v>99514.737598036314</v>
-      </c>
-      <c r="Y49">
-        <v>99515.440098036313</v>
-      </c>
-      <c r="Z49">
-        <v>99516.142598036313</v>
-      </c>
-      <c r="AA49">
-        <v>99516.845098036312</v>
-      </c>
-      <c r="AB49">
-        <v>99516.5038480363</v>
-      </c>
-      <c r="AC49">
-        <v>99515.118848036305</v>
-      </c>
-      <c r="AD49">
-        <v>99513.733848036311</v>
-      </c>
-      <c r="AE49">
-        <v>99512.348848036316</v>
-      </c>
-      <c r="AF49">
-        <v>99511.332598036301</v>
-      </c>
-      <c r="AG49">
-        <v>99510.685098036309</v>
-      </c>
-      <c r="AH49">
-        <v>99510.037598036317</v>
-      </c>
-      <c r="AI49">
-        <v>99509.390098036311</v>
-      </c>
-      <c r="AJ49">
-        <v>99508.912598036317</v>
-      </c>
-      <c r="AK49">
-        <v>99508.605098036307</v>
-      </c>
-      <c r="AL49">
-        <v>99508.297598036297</v>
-      </c>
-      <c r="AM49">
-        <v>99507.990098036302</v>
-      </c>
-      <c r="AN49">
-        <v>99507.675098036299</v>
-      </c>
-      <c r="AO49">
-        <v>99507.460098036303</v>
-      </c>
-      <c r="AP49">
-        <v>99511.527598036308</v>
-      </c>
-      <c r="AQ49">
-        <v>99517.022598036303</v>
-      </c>
-      <c r="AR49">
-        <v>99518.396348036316</v>
-      </c>
-      <c r="AS49">
-        <v>99518.396348036316</v>
-      </c>
-      <c r="AT49">
-        <v>99518.396348036316</v>
-      </c>
-      <c r="AU49">
-        <v>99518.396348036316</v>
-      </c>
-      <c r="AV49">
-        <v>99518.396348036316</v>
-      </c>
-    </row>
-    <row r="50" spans="2:48" x14ac:dyDescent="0.45">
-      <c r="B50">
-        <v>99506.516348036312</v>
-      </c>
-      <c r="C50">
-        <v>99506.516348036312</v>
-      </c>
-      <c r="D50">
-        <v>99506.516348036312</v>
-      </c>
-      <c r="E50">
-        <v>99506.516348036312</v>
-      </c>
-      <c r="F50">
-        <v>99506.516348036312</v>
-      </c>
-      <c r="G50">
-        <v>99506.516348036312</v>
-      </c>
-      <c r="H50">
-        <v>99507.782598036312</v>
-      </c>
-      <c r="I50">
-        <v>99512.847598036315</v>
-      </c>
-      <c r="J50">
-        <v>99516.576348036324</v>
-      </c>
-      <c r="K50">
-        <v>99516.616348036332</v>
-      </c>
-      <c r="L50">
-        <v>99516.437598036297</v>
-      </c>
-      <c r="M50">
-        <v>99515.860098036297</v>
-      </c>
-      <c r="N50">
-        <v>99515.282598036298</v>
-      </c>
-      <c r="O50">
-        <v>99514.705098036298</v>
-      </c>
-      <c r="P50">
-        <v>99514.288848036318</v>
-      </c>
-      <c r="Q50">
-        <v>99514.033848036313</v>
-      </c>
-      <c r="R50">
-        <v>99513.778848036309</v>
-      </c>
-      <c r="S50">
-        <v>99513.523848036319</v>
-      </c>
-      <c r="T50">
-        <v>99513.703848036326</v>
-      </c>
-      <c r="U50">
-        <v>99514.318848036317</v>
-      </c>
-      <c r="V50">
-        <v>99514.933848036308</v>
-      </c>
-      <c r="W50">
-        <v>99515.548848036313</v>
-      </c>
-      <c r="X50">
-        <v>99516.047598036297</v>
-      </c>
-      <c r="Y50">
-        <v>99516.430098036304</v>
-      </c>
-      <c r="Z50">
-        <v>99516.812598036311</v>
-      </c>
-      <c r="AA50">
-        <v>99517.195098036304</v>
-      </c>
-      <c r="AB50">
-        <v>99516.7225980363</v>
-      </c>
-      <c r="AC50">
-        <v>99515.395098036301</v>
-      </c>
-      <c r="AD50">
-        <v>99514.067598036301</v>
-      </c>
-      <c r="AE50">
-        <v>99512.740098036302</v>
-      </c>
-      <c r="AF50">
-        <v>99511.847598036315</v>
-      </c>
-      <c r="AG50">
-        <v>99511.390098036311</v>
-      </c>
-      <c r="AH50">
-        <v>99510.932598036306</v>
-      </c>
-      <c r="AI50">
-        <v>99510.475098036317</v>
-      </c>
-      <c r="AJ50">
-        <v>99510.132598036318</v>
-      </c>
-      <c r="AK50">
-        <v>99509.90509803631</v>
-      </c>
-      <c r="AL50">
-        <v>99509.677598036302</v>
-      </c>
-      <c r="AM50">
-        <v>99509.450098036308</v>
-      </c>
-      <c r="AN50">
-        <v>99509.171348036296</v>
-      </c>
-      <c r="AO50">
-        <v>99508.951348036295</v>
-      </c>
-      <c r="AP50">
-        <v>99512.24884803631</v>
-      </c>
-      <c r="AQ50">
-        <v>99516.718848036311</v>
-      </c>
-      <c r="AR50">
-        <v>99517.836348036304</v>
-      </c>
-      <c r="AS50">
-        <v>99517.836348036304</v>
-      </c>
-      <c r="AT50">
-        <v>99517.836348036304</v>
-      </c>
-      <c r="AU50">
-        <v>99517.836348036304</v>
-      </c>
-      <c r="AV50">
-        <v>99517.836348036304</v>
-      </c>
-    </row>
-    <row r="51" spans="2:48" x14ac:dyDescent="0.45">
-      <c r="B51">
-        <v>99507.156348036311</v>
-      </c>
-      <c r="C51">
-        <v>99507.156348036311</v>
-      </c>
-      <c r="D51">
-        <v>99507.156348036311</v>
-      </c>
-      <c r="E51">
-        <v>99507.156348036311</v>
-      </c>
-      <c r="F51">
-        <v>99507.156348036311</v>
-      </c>
-      <c r="G51">
-        <v>99507.156348036311</v>
-      </c>
-      <c r="H51">
-        <v>99508.171348036311</v>
-      </c>
-      <c r="I51">
-        <v>99512.231348036308</v>
-      </c>
-      <c r="J51">
-        <v>99515.145098036301</v>
-      </c>
-      <c r="K51">
-        <v>99515.220098036312</v>
-      </c>
-      <c r="L51">
-        <v>99515.175098036314</v>
-      </c>
-      <c r="M51">
-        <v>99514.672598036312</v>
-      </c>
-      <c r="N51">
-        <v>99514.170098036309</v>
-      </c>
-      <c r="O51">
-        <v>99513.667598036307</v>
-      </c>
-      <c r="P51">
-        <v>99513.332598036301</v>
-      </c>
-      <c r="Q51">
-        <v>99513.165098036305</v>
-      </c>
-      <c r="R51">
-        <v>99512.997598036309</v>
-      </c>
-      <c r="S51">
-        <v>99512.830098036298</v>
-      </c>
-      <c r="T51">
-        <v>99513.137598036308</v>
-      </c>
-      <c r="U51">
-        <v>99513.920098036309</v>
-      </c>
-      <c r="V51">
-        <v>99514.702598036311</v>
-      </c>
-      <c r="W51">
-        <v>99515.485098036312</v>
-      </c>
-      <c r="X51">
-        <v>99516.01009803632</v>
-      </c>
-      <c r="Y51">
-        <v>99516.277598036322</v>
-      </c>
-      <c r="Z51">
-        <v>99516.545098036324</v>
-      </c>
-      <c r="AA51">
-        <v>99516.812598036311</v>
-      </c>
-      <c r="AB51">
-        <v>99516.328848036312</v>
-      </c>
-      <c r="AC51">
-        <v>99515.093848036311</v>
-      </c>
-      <c r="AD51">
-        <v>99513.858848036311</v>
-      </c>
-      <c r="AE51">
-        <v>99512.62384803631</v>
-      </c>
-      <c r="AF51">
-        <v>99511.780098036324</v>
-      </c>
-      <c r="AG51">
-        <v>99511.327598036325</v>
-      </c>
-      <c r="AH51">
-        <v>99510.875098036326</v>
-      </c>
-      <c r="AI51">
-        <v>99510.422598036326</v>
-      </c>
-      <c r="AJ51">
-        <v>99510.152598036293</v>
-      </c>
-      <c r="AK51">
-        <v>99510.065098036299</v>
-      </c>
-      <c r="AL51">
-        <v>99509.977598036305</v>
-      </c>
-      <c r="AM51">
-        <v>99509.890098036296</v>
-      </c>
-      <c r="AN51">
-        <v>99509.673848036298</v>
-      </c>
-      <c r="AO51">
-        <v>99509.443848036288</v>
-      </c>
-      <c r="AP51">
-        <v>99511.93634803631</v>
-      </c>
-      <c r="AQ51">
-        <v>99515.336348036304</v>
-      </c>
-      <c r="AR51">
-        <v>99516.18634803631</v>
-      </c>
-      <c r="AS51">
-        <v>99516.18634803631</v>
-      </c>
-      <c r="AT51">
-        <v>99516.18634803631</v>
-      </c>
-      <c r="AU51">
-        <v>99516.18634803631</v>
-      </c>
-      <c r="AV51">
-        <v>99516.18634803631</v>
-      </c>
-    </row>
-    <row r="52" spans="2:48" x14ac:dyDescent="0.45">
-      <c r="B52">
-        <v>99506.736348036313</v>
-      </c>
-      <c r="C52">
-        <v>99506.736348036313</v>
-      </c>
-      <c r="D52">
-        <v>99506.736348036313</v>
-      </c>
-      <c r="E52">
-        <v>99506.736348036313</v>
-      </c>
-      <c r="F52">
-        <v>99506.736348036313</v>
-      </c>
-      <c r="G52">
-        <v>99506.736348036313</v>
-      </c>
-      <c r="H52">
-        <v>99507.58759803632</v>
-      </c>
-      <c r="I52">
-        <v>99510.992598036319</v>
-      </c>
-      <c r="J52">
-        <v>99513.380098036301</v>
-      </c>
-      <c r="K52">
-        <v>99513.475098036302</v>
-      </c>
-      <c r="L52">
-        <v>99513.502598036313</v>
-      </c>
-      <c r="M52">
-        <v>99513.035098036315</v>
-      </c>
-      <c r="N52">
-        <v>99512.567598036316</v>
-      </c>
-      <c r="O52">
-        <v>99512.100098036317</v>
-      </c>
-      <c r="P52">
-        <v>99511.812598036311</v>
-      </c>
-      <c r="Q52">
-        <v>99511.705098036313</v>
-      </c>
-      <c r="R52">
-        <v>99511.597598036315</v>
-      </c>
-      <c r="S52">
-        <v>99511.490098036302</v>
-      </c>
-      <c r="T52">
-        <v>99511.756348036302</v>
-      </c>
-      <c r="U52">
-        <v>99512.396348036302</v>
-      </c>
-      <c r="V52">
-        <v>99513.036348036301</v>
-      </c>
-      <c r="W52">
-        <v>99513.676348036301</v>
-      </c>
-      <c r="X52">
-        <v>99514.188848036312</v>
-      </c>
-      <c r="Y52">
-        <v>99514.573848036307</v>
-      </c>
-      <c r="Z52">
-        <v>99514.958848036302</v>
-      </c>
-      <c r="AA52">
-        <v>99515.343848036311</v>
-      </c>
-      <c r="AB52">
-        <v>99515.035098036315</v>
-      </c>
-      <c r="AC52">
-        <v>99514.032598036312</v>
-      </c>
-      <c r="AD52">
-        <v>99513.03009803631</v>
-      </c>
-      <c r="AE52">
-        <v>99512.027598036308</v>
-      </c>
-      <c r="AF52">
-        <v>99511.286348036316</v>
-      </c>
-      <c r="AG52">
-        <v>99510.80634803632</v>
-      </c>
-      <c r="AH52">
-        <v>99510.326348036324</v>
-      </c>
-      <c r="AI52">
-        <v>99509.846348036313</v>
-      </c>
-      <c r="AJ52">
-        <v>99509.562598036297</v>
-      </c>
-      <c r="AK52">
-        <v>99509.475098036302</v>
-      </c>
-      <c r="AL52">
-        <v>99509.387598036308</v>
-      </c>
-      <c r="AM52">
-        <v>99509.300098036299</v>
-      </c>
-      <c r="AN52">
-        <v>99509.076348036309</v>
-      </c>
-      <c r="AO52">
-        <v>99508.836348036304</v>
-      </c>
-      <c r="AP52">
-        <v>99510.805098036304</v>
-      </c>
-      <c r="AQ52">
-        <v>99513.510098036306</v>
-      </c>
-      <c r="AR52">
-        <v>99514.18634803631</v>
-      </c>
-      <c r="AS52">
-        <v>99514.18634803631</v>
-      </c>
-      <c r="AT52">
-        <v>99514.18634803631</v>
-      </c>
-      <c r="AU52">
-        <v>99514.18634803631</v>
-      </c>
-      <c r="AV52">
-        <v>99514.18634803631</v>
-      </c>
-    </row>
-    <row r="53" spans="2:48" x14ac:dyDescent="0.45">
-      <c r="B53">
-        <v>99508.666348036306</v>
-      </c>
-      <c r="C53">
-        <v>99508.666348036306</v>
-      </c>
-      <c r="D53">
-        <v>99508.666348036306</v>
-      </c>
-      <c r="E53">
-        <v>99508.666348036306</v>
-      </c>
-      <c r="F53">
-        <v>99508.666348036306</v>
-      </c>
-      <c r="G53">
-        <v>99508.666348036306</v>
-      </c>
-      <c r="H53">
-        <v>99509.173848036313</v>
-      </c>
-      <c r="I53">
-        <v>99511.203848036312</v>
-      </c>
-      <c r="J53">
-        <v>99512.463848036306</v>
-      </c>
-      <c r="K53">
-        <v>99512.613848036301</v>
-      </c>
-      <c r="L53">
-        <v>99512.8475980363</v>
-      </c>
-      <c r="M53">
-        <v>99512.490098036302</v>
-      </c>
-      <c r="N53">
-        <v>99512.132598036304</v>
-      </c>
-      <c r="O53">
-        <v>99511.775098036305</v>
-      </c>
-      <c r="P53">
-        <v>99511.598848036316</v>
-      </c>
-      <c r="Q53">
-        <v>99511.60384803632</v>
-      </c>
-      <c r="R53">
-        <v>99511.608848036325</v>
-      </c>
-      <c r="S53">
-        <v>99511.61384803633</v>
-      </c>
-      <c r="T53">
-        <v>99511.48884803633</v>
-      </c>
-      <c r="U53">
-        <v>99511.233848036325</v>
-      </c>
-      <c r="V53">
-        <v>99510.97884803632</v>
-      </c>
-      <c r="W53">
-        <v>99510.723848036316</v>
-      </c>
-      <c r="X53">
-        <v>99511.226348036304</v>
-      </c>
-      <c r="Y53">
-        <v>99512.486348036298</v>
-      </c>
-      <c r="Z53">
-        <v>99513.746348036293</v>
-      </c>
-      <c r="AA53">
-        <v>99515.006348036288</v>
-      </c>
-      <c r="AB53">
-        <v>99515.093848036311</v>
-      </c>
-      <c r="AC53">
-        <v>99514.008848036305</v>
-      </c>
-      <c r="AD53">
-        <v>99512.923848036298</v>
-      </c>
-      <c r="AE53">
-        <v>99511.838848036306</v>
-      </c>
-      <c r="AF53">
-        <v>99511.242598036319</v>
-      </c>
-      <c r="AG53">
-        <v>99511.13509803632</v>
-      </c>
-      <c r="AH53">
-        <v>99511.027598036322</v>
-      </c>
-      <c r="AI53">
-        <v>99510.920098036324</v>
-      </c>
-      <c r="AJ53">
-        <v>99510.875098036311</v>
-      </c>
-      <c r="AK53">
-        <v>99510.892598036313</v>
-      </c>
-      <c r="AL53">
-        <v>99510.910098036315</v>
-      </c>
-      <c r="AM53">
-        <v>99510.927598036302</v>
-      </c>
-      <c r="AN53">
-        <v>99510.756348036317</v>
-      </c>
-      <c r="AO53">
-        <v>99510.516348036326</v>
-      </c>
-      <c r="AP53">
-        <v>99511.40509803631</v>
-      </c>
-      <c r="AQ53">
-        <v>99512.670098036309</v>
-      </c>
-      <c r="AR53">
-        <v>99512.986348036313</v>
-      </c>
-      <c r="AS53">
-        <v>99512.986348036313</v>
-      </c>
-      <c r="AT53">
-        <v>99512.986348036313</v>
-      </c>
-      <c r="AU53">
-        <v>99512.986348036313</v>
-      </c>
-      <c r="AV53">
-        <v>99512.986348036313</v>
-      </c>
-    </row>
-    <row r="54" spans="2:48" x14ac:dyDescent="0.45">
-      <c r="B54">
-        <v>99508.926348036315</v>
-      </c>
-      <c r="C54">
-        <v>99508.926348036315</v>
-      </c>
-      <c r="D54">
-        <v>99508.926348036315</v>
-      </c>
-      <c r="E54">
-        <v>99508.926348036315</v>
-      </c>
-      <c r="F54">
-        <v>99508.926348036315</v>
-      </c>
-      <c r="G54">
-        <v>99508.926348036315</v>
-      </c>
-      <c r="H54">
-        <v>99509.225098036302</v>
-      </c>
-      <c r="I54">
-        <v>99510.420098036309</v>
-      </c>
-      <c r="J54">
-        <v>99511.001348036312</v>
-      </c>
-      <c r="K54">
-        <v>99511.181348036305</v>
-      </c>
-      <c r="L54">
-        <v>99511.528848036309</v>
-      </c>
-      <c r="M54">
-        <v>99511.233848036311</v>
-      </c>
-      <c r="N54">
-        <v>99510.938848036312</v>
-      </c>
-      <c r="O54">
-        <v>99510.643848036299</v>
-      </c>
-      <c r="P54">
-        <v>99510.53009803631</v>
-      </c>
-      <c r="Q54">
-        <v>99510.597598036315</v>
-      </c>
-      <c r="R54">
-        <v>99510.665098036319</v>
-      </c>
-      <c r="S54">
-        <v>99510.732598036324</v>
-      </c>
-      <c r="T54">
-        <v>99511.241348036318</v>
-      </c>
-      <c r="U54">
-        <v>99512.191348036315</v>
-      </c>
-      <c r="V54">
-        <v>99513.141348036312</v>
-      </c>
-      <c r="W54">
-        <v>99514.091348036309</v>
-      </c>
-      <c r="X54">
-        <v>99514.613848036315</v>
-      </c>
-      <c r="Y54">
-        <v>99514.708848036316</v>
-      </c>
-      <c r="Z54">
-        <v>99514.803848036318</v>
-      </c>
-      <c r="AA54">
-        <v>99514.898848036304</v>
-      </c>
-      <c r="AB54">
-        <v>99514.445098036318</v>
-      </c>
-      <c r="AC54">
-        <v>99513.442598036316</v>
-      </c>
-      <c r="AD54">
-        <v>99512.440098036313</v>
-      </c>
-      <c r="AE54">
-        <v>99511.437598036311</v>
-      </c>
-      <c r="AF54">
-        <v>99510.855098036322</v>
-      </c>
-      <c r="AG54">
-        <v>99510.692598036316</v>
-      </c>
-      <c r="AH54">
-        <v>99510.53009803631</v>
-      </c>
-      <c r="AI54">
-        <v>99510.367598036319</v>
-      </c>
-      <c r="AJ54">
-        <v>99510.372598036323</v>
-      </c>
-      <c r="AK54">
-        <v>99510.545098036324</v>
-      </c>
-      <c r="AL54">
-        <v>99510.717598036324</v>
-      </c>
-      <c r="AM54">
-        <v>99510.890098036325</v>
-      </c>
-      <c r="AN54">
-        <v>99510.815098036313</v>
-      </c>
-      <c r="AO54">
-        <v>99510.600098036317</v>
-      </c>
-      <c r="AP54">
-        <v>99510.812598036311</v>
-      </c>
-      <c r="AQ54">
-        <v>99511.167598036322</v>
-      </c>
-      <c r="AR54">
-        <v>99511.256348036317</v>
-      </c>
-      <c r="AS54">
-        <v>99511.256348036317</v>
-      </c>
-      <c r="AT54">
-        <v>99511.256348036317</v>
-      </c>
-      <c r="AU54">
-        <v>99511.256348036317</v>
-      </c>
-      <c r="AV54">
-        <v>99511.256348036317</v>
-      </c>
-    </row>
-    <row r="55" spans="2:48" x14ac:dyDescent="0.45">
-      <c r="B55">
-        <v>99510.346348036313</v>
-      </c>
-      <c r="C55">
-        <v>99510.346348036313</v>
-      </c>
-      <c r="D55">
-        <v>99510.346348036313</v>
-      </c>
-      <c r="E55">
-        <v>99510.346348036313</v>
-      </c>
-      <c r="F55">
-        <v>99510.346348036313</v>
-      </c>
-      <c r="G55">
-        <v>99510.346348036313</v>
-      </c>
-      <c r="H55">
-        <v>99510.468848036311</v>
-      </c>
-      <c r="I55">
-        <v>99510.958848036302</v>
-      </c>
-      <c r="J55">
-        <v>99510.976348036318</v>
-      </c>
-      <c r="K55">
-        <v>99511.176348036301</v>
-      </c>
-      <c r="L55">
-        <v>99511.601348036304</v>
-      </c>
-      <c r="M55">
-        <v>99511.351348036304</v>
-      </c>
-      <c r="N55">
-        <v>99511.101348036304</v>
-      </c>
-      <c r="O55">
-        <v>99510.851348036304</v>
-      </c>
-      <c r="P55">
-        <v>99510.781348036297</v>
-      </c>
-      <c r="Q55">
-        <v>99510.891348036297</v>
-      </c>
-      <c r="R55">
-        <v>99511.001348036298</v>
-      </c>
-      <c r="S55">
-        <v>99511.111348036298</v>
-      </c>
-      <c r="T55">
-        <v>99511.668848036294</v>
-      </c>
-      <c r="U55">
-        <v>99512.673848036298</v>
-      </c>
-      <c r="V55">
-        <v>99513.678848036303</v>
-      </c>
-      <c r="W55">
-        <v>99514.683848036308</v>
-      </c>
-      <c r="X55">
-        <v>99515.193848036302</v>
-      </c>
-      <c r="Y55">
-        <v>99515.208848036302</v>
-      </c>
-      <c r="Z55">
-        <v>99515.223848036301</v>
-      </c>
-      <c r="AA55">
-        <v>99515.238848036301</v>
-      </c>
-      <c r="AB55">
-        <v>99514.853848036306</v>
-      </c>
-      <c r="AC55">
-        <v>99514.068848036302</v>
-      </c>
-      <c r="AD55">
-        <v>99513.283848036299</v>
-      </c>
-      <c r="AE55">
-        <v>99512.49884803631</v>
-      </c>
-      <c r="AF55">
-        <v>99511.776348036321</v>
-      </c>
-      <c r="AG55">
-        <v>99511.116348036318</v>
-      </c>
-      <c r="AH55">
-        <v>99510.456348036314</v>
-      </c>
-      <c r="AI55">
-        <v>99509.796348036325</v>
-      </c>
-      <c r="AJ55">
-        <v>99509.802598036316</v>
-      </c>
-      <c r="AK55">
-        <v>99510.475098036317</v>
-      </c>
-      <c r="AL55">
-        <v>99511.147598036318</v>
-      </c>
-      <c r="AM55">
-        <v>99511.820098036318</v>
-      </c>
-      <c r="AN55">
-        <v>99512.017598036313</v>
-      </c>
-      <c r="AO55">
-        <v>99511.832598036315</v>
-      </c>
-      <c r="AP55">
-        <v>99511.512598036308</v>
-      </c>
-      <c r="AQ55">
-        <v>99511.147598036303</v>
-      </c>
-      <c r="AR55">
-        <v>99511.056348036305</v>
-      </c>
-      <c r="AS55">
-        <v>99511.056348036305</v>
-      </c>
-      <c r="AT55">
-        <v>99511.056348036305</v>
-      </c>
-      <c r="AU55">
-        <v>99511.056348036305</v>
-      </c>
-      <c r="AV55">
-        <v>99511.056348036305</v>
-      </c>
-    </row>
-    <row r="56" spans="2:48" x14ac:dyDescent="0.45">
-      <c r="B56">
-        <v>99510.416348036306</v>
-      </c>
-      <c r="C56">
-        <v>99510.416348036306</v>
-      </c>
-      <c r="D56">
-        <v>99510.416348036306</v>
-      </c>
-      <c r="E56">
-        <v>99510.416348036306</v>
-      </c>
-      <c r="F56">
-        <v>99510.416348036306</v>
-      </c>
-      <c r="G56">
-        <v>99510.416348036306</v>
-      </c>
-      <c r="H56">
-        <v>99510.251348036312</v>
-      </c>
-      <c r="I56">
-        <v>99509.591348036309</v>
-      </c>
-      <c r="J56">
-        <v>99508.693848036317</v>
-      </c>
-      <c r="K56">
-        <v>99508.923848036327</v>
-      </c>
-      <c r="L56">
-        <v>99509.468848036297</v>
-      </c>
-      <c r="M56">
-        <v>99509.293848036294</v>
-      </c>
-      <c r="N56">
-        <v>99509.118848036291</v>
-      </c>
-      <c r="O56">
-        <v>99508.943848036288</v>
-      </c>
-      <c r="P56">
-        <v>99508.955098036298</v>
-      </c>
-      <c r="Q56">
-        <v>99509.152598036308</v>
-      </c>
-      <c r="R56">
-        <v>99509.350098036317</v>
-      </c>
-      <c r="S56">
-        <v>99509.547598036312</v>
-      </c>
-      <c r="T56">
-        <v>99510.193848036302</v>
-      </c>
-      <c r="U56">
-        <v>99511.288848036304</v>
-      </c>
-      <c r="V56">
-        <v>99512.383848036305</v>
-      </c>
-      <c r="W56">
-        <v>99513.478848036291</v>
-      </c>
-      <c r="X56">
-        <v>99513.993848036305</v>
-      </c>
-      <c r="Y56">
-        <v>99513.928848036303</v>
-      </c>
-      <c r="Z56">
-        <v>99513.863848036301</v>
-      </c>
-      <c r="AA56">
-        <v>99513.798848036298</v>
-      </c>
-      <c r="AB56">
-        <v>99513.476348036304</v>
-      </c>
-      <c r="AC56">
-        <v>99512.896348036302</v>
-      </c>
-      <c r="AD56">
-        <v>99512.3163480363</v>
-      </c>
-      <c r="AE56">
-        <v>99511.736348036298</v>
-      </c>
-      <c r="AF56">
-        <v>99511.212598036305</v>
-      </c>
-      <c r="AG56">
-        <v>99510.745098036306</v>
-      </c>
-      <c r="AH56">
-        <v>99510.277598036308</v>
-      </c>
-      <c r="AI56">
-        <v>99509.810098036309</v>
-      </c>
-      <c r="AJ56">
-        <v>99509.768848036299</v>
-      </c>
-      <c r="AK56">
-        <v>99510.153848036309</v>
-      </c>
-      <c r="AL56">
-        <v>99510.538848036318</v>
-      </c>
-      <c r="AM56">
-        <v>99510.923848036313</v>
-      </c>
-      <c r="AN56">
-        <v>99511.326348036324</v>
-      </c>
-      <c r="AO56">
-        <v>99511.606348036323</v>
-      </c>
-      <c r="AP56">
-        <v>99510.483848036311</v>
-      </c>
-      <c r="AQ56">
-        <v>99508.893848036299</v>
-      </c>
-      <c r="AR56">
-        <v>99508.496348036308</v>
-      </c>
-      <c r="AS56">
-        <v>99508.496348036308</v>
-      </c>
-      <c r="AT56">
-        <v>99508.496348036308</v>
-      </c>
-      <c r="AU56">
-        <v>99508.496348036308</v>
-      </c>
-      <c r="AV56">
-        <v>99508.496348036308</v>
       </c>
     </row>
   </sheetData>
